--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="316">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>Hamilton, 2021</t>
-  </si>
-  <si>
-    <t>Zhang, 2021</t>
-  </si>
-  <si>
-    <t>Zhang, 2023</t>
   </si>
   <si>
     <t>Zhao, 2019</t>
@@ -462,32 +456,11 @@
   </si>
   <si>
     <t>Deaths,
-Respiratory hospital admission,
-Acute bronchitis,
-Chronic bronchitis,
-Cardiovascular hospital admission,
-Asthma attack</t>
-  </si>
-  <si>
-    <t>Deaths,
-Life expectancy,
-YLL,
-Economic</t>
-  </si>
-  <si>
-    <t>Deaths,
 Life expectancy</t>
   </si>
   <si>
     <t>Deaths,
 Economic</t>
-  </si>
-  <si>
-    <t>Deaths,
-Cardiovascular disease, 
-Cerebrovascular disease,
-Respiratory disease,
-Economic,</t>
   </si>
   <si>
     <t>acute myocardial infarction</t>
@@ -518,10 +491,6 @@
 Economic</t>
   </si>
   <si>
-    <t>Life expectancy,
-Economic</t>
-  </si>
-  <si>
     <t>Economic</t>
   </si>
   <si>
@@ -671,9 +640,6 @@
   </si>
   <si>
     <t>Energy, industry, transport, household</t>
-  </si>
-  <si>
-    <t>Deaths, Economic</t>
   </si>
   <si>
     <t>Co-benefits of post-2012 global climate mitigation policies</t>
@@ -686,9 +652,6 @@
 , China, India</t>
   </si>
   <si>
-    <t>Life expectancy, Deaths</t>
-  </si>
-  <si>
     <t>Rafaj, 2012</t>
   </si>
   <si>
@@ -763,15 +726,6 @@
   </si>
   <si>
     <t>CRA (AF)</t>
-  </si>
-  <si>
-    <t>GCAM_DPEC_MEIC</t>
-  </si>
-  <si>
-    <t>Include ageing population in HIA</t>
-  </si>
-  <si>
-    <t>Comment</t>
   </si>
   <si>
     <t>18+</t>
@@ -980,10 +934,6 @@
 Coste of illness</t>
   </si>
   <si>
-    <t>CRA (CREM-HE)
-COI</t>
-  </si>
-  <si>
     <t>CRA (IMED|HEL)</t>
   </si>
   <si>
@@ -994,6 +944,89 @@
   </si>
   <si>
     <t>GATOR-GCMOM</t>
+  </si>
+  <si>
+    <t>Deaths, 
+Life expectancy,
+YLL,
+Economic</t>
+  </si>
+  <si>
+    <t>model_monetary</t>
+  </si>
+  <si>
+    <t>VSL</t>
+  </si>
+  <si>
+    <t>VSLY</t>
+  </si>
+  <si>
+    <t>Cost of conserved energy (Hasanbeigi, 2013: 10.1016/j.scitotenv.2013.04.031)</t>
+  </si>
+  <si>
+    <t>Deaths,
+Respiratory hospital admission,
+Acute bronchitis,
+Chronic bronchitis,
+Cardiovascular hospital admission,
+Asthma attack,
+Economic</t>
+  </si>
+  <si>
+    <t>VSL + Adjustment factor that accounts for morbidity and non-health effects (https://web.stanford.edu/group/efmh/jacobson/Articles/I/USStatesWWS.pdf)</t>
+  </si>
+  <si>
+    <t>Deaths,
+Cardiovascular disease, 
+Cerebrovascular disease,
+Respiratory disease,
+Economic</t>
+  </si>
+  <si>
+    <t>VSL + social cost of
+carbon</t>
+  </si>
+  <si>
+    <t>GCAM_DPEC_MEIC (Include ageing population in HIA)</t>
+  </si>
+  <si>
+    <t>VSL adjusted on GDP of countries</t>
+  </si>
+  <si>
+    <t>CRA (CREM-HE)</t>
+  </si>
+  <si>
+    <t>Combination of VSL / COI</t>
+  </si>
+  <si>
+    <t>Life expectancy, 
+Deaths</t>
+  </si>
+  <si>
+    <t>VLY</t>
+  </si>
+  <si>
+    <t>Unit value of health outcomes (USD/case)</t>
+  </si>
+  <si>
+    <t>VSL + COI</t>
+  </si>
+  <si>
+    <t>Deaths,
+Life expectancy,
+Economic</t>
+  </si>
+  <si>
+    <t>Zhang, 2021a</t>
+  </si>
+  <si>
+    <t>Zhang, 2021b</t>
+  </si>
+  <si>
+    <t>External costs (based on literature and GDP)</t>
+  </si>
+  <si>
+    <t>External costs: Unit impact-specific costs (literature)</t>
   </si>
 </sst>
 </file>
@@ -1725,8 +1758,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AC49" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="A1:AC49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AC48" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="A1:AC48"/>
   <sortState ref="A2:AB49">
     <sortCondition ref="A1:A49"/>
   </sortState>
@@ -1759,7 +1792,7 @@
     <tableColumn id="22" name="age_range" dataDxfId="3"/>
     <tableColumn id="2" name="model_exposure" dataDxfId="2"/>
     <tableColumn id="23" name="model_health" dataDxfId="1"/>
-    <tableColumn id="15" name="Comment" dataDxfId="0"/>
+    <tableColumn id="15" name="model_monetary" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2030,9 +2063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2058,7 +2091,7 @@
     <col min="26" max="26" width="22.6640625" customWidth="1"/>
     <col min="27" max="27" width="24.44140625" customWidth="1"/>
     <col min="28" max="28" width="17.21875" customWidth="1"/>
-    <col min="29" max="29" width="21.33203125" customWidth="1"/>
+    <col min="29" max="29" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
@@ -2069,25 +2102,25 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -2111,48 +2144,48 @@
         <v>38</v>
       </c>
       <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" t="s">
         <v>102</v>
       </c>
-      <c r="R1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S1" t="s">
-        <v>104</v>
-      </c>
       <c r="T1" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Y1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AA1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AB1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AC1" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>5</v>
@@ -2197,7 +2230,7 @@
       <c r="R2" s="37"/>
       <c r="S2" s="48"/>
       <c r="T2" s="48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U2" s="46" t="s">
         <v>42</v>
@@ -2206,31 +2239,33 @@
         <v>42</v>
       </c>
       <c r="W2" s="42" t="s">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="X2" s="37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y2" s="37" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Z2" s="39" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA2" s="39" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AB2" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC2" s="27"/>
+        <v>210</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="3" spans="1:29" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>29</v>
@@ -2272,7 +2307,7 @@
       <c r="R3" s="27"/>
       <c r="S3" s="29"/>
       <c r="T3" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U3" s="29" t="s">
         <v>41</v>
@@ -2281,31 +2316,33 @@
         <v>41</v>
       </c>
       <c r="W3" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X3" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y3" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC3" s="37"/>
-    </row>
-    <row r="4" spans="1:29" s="30" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+      <c r="AC3" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="30" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>29</v>
@@ -2347,7 +2384,7 @@
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
       <c r="T4" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U4" s="29" t="s">
         <v>41</v>
@@ -2356,37 +2393,39 @@
         <v>41</v>
       </c>
       <c r="W4" s="27" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="X4" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y4" s="29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC4" s="27"/>
+        <v>270</v>
+      </c>
+      <c r="AC4" s="27" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="5" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E5" s="26">
         <v>1410</v>
@@ -2422,7 +2461,7 @@
       <c r="R5" s="27"/>
       <c r="S5" s="25"/>
       <c r="T5" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="U5" s="25" t="s">
         <v>41</v>
@@ -2431,37 +2470,37 @@
         <v>41</v>
       </c>
       <c r="W5" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA5" s="25" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AC5" s="37"/>
     </row>
     <row r="6" spans="1:29" s="30" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E6" s="39">
         <v>3</v>
@@ -2493,7 +2532,7 @@
       <c r="R6" s="48"/>
       <c r="S6" s="48"/>
       <c r="T6" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U6" s="49" t="s">
         <v>42</v>
@@ -2502,28 +2541,28 @@
         <v>42</v>
       </c>
       <c r="W6" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X6" s="37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y6" s="37" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Z6" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA6" s="55" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AB6" s="39" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AC6" s="27"/>
     </row>
     <row r="7" spans="1:29" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>19</v>
@@ -2532,7 +2571,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E7" s="35">
         <v>1241</v>
@@ -2568,37 +2607,37 @@
       <c r="R7" s="27"/>
       <c r="S7" s="29"/>
       <c r="T7" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U7" s="31" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="X7" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y7" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AC7" s="37"/>
     </row>
     <row r="8" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>16</v>
@@ -2607,7 +2646,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E8" s="40">
         <v>1241</v>
@@ -2643,31 +2682,31 @@
       <c r="R8" s="37"/>
       <c r="S8" s="43"/>
       <c r="T8" s="49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U8" s="39" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="V8" s="39" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="W8" s="42" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="X8" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y8" s="37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z8" s="39" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AA8" s="39" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AB8" s="39" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AC8" s="18"/>
     </row>
@@ -2679,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E9" s="22">
         <v>3870</v>
@@ -2718,46 +2757,46 @@
       <c r="R9" s="27"/>
       <c r="S9" s="25"/>
       <c r="T9" s="18" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X9" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y9" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AC9" s="37"/>
     </row>
     <row r="10" spans="1:29" s="30" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="20">
         <v>6000</v>
@@ -2793,40 +2832,42 @@
       <c r="R10" s="27"/>
       <c r="S10" s="29"/>
       <c r="T10" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U10" s="31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X10" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y10" s="27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA10" s="80" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="AB10" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC10" s="27"/>
+        <v>211</v>
+      </c>
+      <c r="AC10" s="27" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="11" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>29</v>
@@ -2870,7 +2911,7 @@
       <c r="R11" s="48"/>
       <c r="S11" s="48"/>
       <c r="T11" s="48" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="U11" s="43" t="s">
         <v>41</v>
@@ -2878,35 +2919,35 @@
       <c r="V11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="W11" s="66" t="s">
-        <v>206</v>
+      <c r="W11" s="43" t="s">
+        <v>141</v>
       </c>
       <c r="X11" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y11" s="37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z11" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA11" s="39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AB11" s="39" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AC11" s="37"/>
     </row>
     <row r="12" spans="1:29" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="77" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>29</v>
@@ -2945,7 +2986,7 @@
       <c r="R12" s="27"/>
       <c r="S12" s="31"/>
       <c r="T12" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U12" s="17" t="s">
         <v>41</v>
@@ -2954,28 +2995,30 @@
         <v>41</v>
       </c>
       <c r="W12" s="28" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="X12" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y12" s="27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC12" s="27"/>
+        <v>289</v>
+      </c>
+      <c r="AC12" s="27" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="13" spans="1:29" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>6</v>
@@ -3018,7 +3061,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="49"/>
       <c r="T13" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U13" s="39" t="s">
         <v>41</v>
@@ -3027,34 +3070,34 @@
         <v>41</v>
       </c>
       <c r="W13" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X13" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y13" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z13" s="39" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA13" s="39" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AB13" s="39" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AC13" s="37"/>
     </row>
     <row r="14" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>29</v>
@@ -3093,7 +3136,7 @@
       <c r="R14" s="48"/>
       <c r="S14" s="48"/>
       <c r="T14" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U14" s="48" t="s">
         <v>41</v>
@@ -3102,34 +3145,36 @@
         <v>41</v>
       </c>
       <c r="W14" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X14" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y14" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA14" s="39" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AB14" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC14" s="27"/>
+        <v>218</v>
+      </c>
+      <c r="AC14" s="27" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="15" spans="1:29" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>29</v>
@@ -3166,7 +3211,7 @@
       <c r="R15" s="27"/>
       <c r="S15" s="18"/>
       <c r="T15" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U15" s="17" t="s">
         <v>41</v>
@@ -3175,39 +3220,37 @@
         <v>41</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y15" s="27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z15" s="17" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AA15" s="17" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="AB15" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC15" s="18" t="s">
-        <v>236</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AC15" s="37"/>
     </row>
     <row r="16" spans="1:29" s="30" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E16" s="26">
         <v>7821</v>
@@ -3243,7 +3286,7 @@
       <c r="R16" s="27"/>
       <c r="S16" s="31"/>
       <c r="T16" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U16" s="18" t="s">
         <v>41</v>
@@ -3252,37 +3295,39 @@
         <v>41</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X16" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y16" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z16" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA16" s="17" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC16" s="27"/>
+        <v>249</v>
+      </c>
+      <c r="AC16" s="18" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="17" spans="1:29" s="44" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="43" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E17" s="51">
         <v>6970</v>
@@ -3316,7 +3361,7 @@
       <c r="R17" s="48"/>
       <c r="S17" s="48"/>
       <c r="T17" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U17" s="48" t="s">
         <v>41</v>
@@ -3325,22 +3370,22 @@
         <v>41</v>
       </c>
       <c r="W17" s="37" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="X17" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y17" s="37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z17" s="39" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AA17" s="43" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AB17" s="43" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AC17" s="37"/>
     </row>
@@ -3352,10 +3397,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E18" s="18">
         <v>70</v>
@@ -3389,46 +3434,46 @@
       <c r="R18" s="27"/>
       <c r="S18" s="29"/>
       <c r="T18" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U18" s="31" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="V18" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W18" s="28" t="s">
         <v>35</v>
       </c>
       <c r="X18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="Y18" s="27" t="s">
-        <v>201</v>
-      </c>
       <c r="Z18" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="AA18" s="17" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="AB18" s="46" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="AC18" s="27"/>
     </row>
     <row r="19" spans="1:29" s="44" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="49" t="s">
-        <v>109</v>
-      </c>
       <c r="D19" s="49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="41">
         <v>4680</v>
@@ -3462,7 +3507,7 @@
       <c r="R19" s="48"/>
       <c r="S19" s="39"/>
       <c r="T19" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U19" s="49" t="s">
         <v>41</v>
@@ -3471,28 +3516,28 @@
         <v>41</v>
       </c>
       <c r="W19" s="37" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="X19" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y19" s="48" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z19" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA19" s="39" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="AB19" s="39" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AC19" s="37"/>
     </row>
     <row r="20" spans="1:29" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>12</v>
@@ -3537,7 +3582,7 @@
       <c r="R20" s="27"/>
       <c r="S20" s="28"/>
       <c r="T20" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U20" s="18" t="s">
         <v>41</v>
@@ -3549,34 +3594,34 @@
         <v>35</v>
       </c>
       <c r="X20" s="27" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y20" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z20" s="17" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AA20" s="17" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AC20" s="27"/>
     </row>
     <row r="21" spans="1:29" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="40">
         <v>7662</v>
@@ -3612,7 +3657,7 @@
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
       <c r="T21" s="49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="U21" s="49" t="s">
         <v>41</v>
@@ -3621,28 +3666,28 @@
         <v>41</v>
       </c>
       <c r="W21" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X21" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y21" s="37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z21" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA21" s="39" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AB21" s="39" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AC21" s="37"/>
     </row>
     <row r="22" spans="1:29" s="30" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
@@ -3685,7 +3730,7 @@
       <c r="R22" s="27"/>
       <c r="S22" s="29"/>
       <c r="T22" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U22" s="17" t="s">
         <v>41</v>
@@ -3694,37 +3739,39 @@
         <v>41</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X22" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y22" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z22" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA22" s="17" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="AB22" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC22" s="27"/>
+        <v>305</v>
+      </c>
+      <c r="AC22" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="23" spans="1:29" s="44" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E23" s="17">
         <v>503</v>
@@ -3760,7 +3807,7 @@
       <c r="R23" s="29"/>
       <c r="S23" s="25"/>
       <c r="T23" s="29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="U23" s="18" t="s">
         <v>41</v>
@@ -3769,37 +3816,37 @@
         <v>41</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="X23" s="29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y23" s="29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z23" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA23" s="17" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AC23" s="37"/>
     </row>
     <row r="24" spans="1:29" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E24" s="20">
         <v>7662</v>
@@ -3831,46 +3878,46 @@
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
       <c r="T24" s="25" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W24" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X24" s="29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y24" s="29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z24" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA24" s="17" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AC24" s="27"/>
     </row>
     <row r="25" spans="1:29" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="45" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E25" s="47">
         <v>3820</v>
@@ -3906,7 +3953,7 @@
       <c r="R25" s="37"/>
       <c r="S25" s="48"/>
       <c r="T25" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U25" s="39" t="s">
         <v>41</v>
@@ -3915,37 +3962,37 @@
         <v>41</v>
       </c>
       <c r="W25" s="43" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X25" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y25" s="37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z25" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA25" s="39" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="AB25" s="39" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AC25" s="37"/>
     </row>
     <row r="26" spans="1:29" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E26" s="40">
         <v>7405</v>
@@ -3981,7 +4028,7 @@
       <c r="R26" s="48"/>
       <c r="S26" s="42"/>
       <c r="T26" s="49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U26" s="49" t="s">
         <v>41</v>
@@ -3990,28 +4037,30 @@
         <v>41</v>
       </c>
       <c r="W26" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="X26" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y26" s="48" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z26" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA26" s="39" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="AB26" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC26" s="27"/>
+        <v>226</v>
+      </c>
+      <c r="AC26" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="27" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>20</v>
@@ -4020,7 +4069,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E27" s="20">
         <v>7405</v>
@@ -4054,7 +4103,7 @@
       <c r="R27" s="27"/>
       <c r="S27" s="29"/>
       <c r="T27" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U27" s="18" t="s">
         <v>41</v>
@@ -4063,28 +4112,28 @@
         <v>41</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X27" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y27" s="27" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Z27" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA27" s="17" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AC27" s="37"/>
     </row>
     <row r="28" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>21</v>
@@ -4093,7 +4142,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E28" s="40">
         <v>7821</v>
@@ -4129,7 +4178,7 @@
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
       <c r="T28" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U28" s="43" t="s">
         <v>41</v>
@@ -4138,28 +4187,30 @@
         <v>41</v>
       </c>
       <c r="W28" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X28" s="37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y28" s="37" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Z28" s="39" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AA28" s="39" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AB28" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC28" s="27"/>
+        <v>247</v>
+      </c>
+      <c r="AC28" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="29" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>18</v>
@@ -4168,7 +4219,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E29" s="20">
         <v>7821</v>
@@ -4204,7 +4255,7 @@
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
       <c r="T29" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U29" s="17" t="s">
         <v>41</v>
@@ -4213,37 +4264,37 @@
         <v>41</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X29" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y29" s="27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z29" s="17" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AA29" s="17" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AC29" s="37"/>
     </row>
     <row r="30" spans="1:29" s="30" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E30" s="39">
         <v>528</v>
@@ -4279,7 +4330,7 @@
       <c r="R30" s="48"/>
       <c r="S30" s="48"/>
       <c r="T30" s="49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U30" s="49" t="s">
         <v>41</v>
@@ -4288,31 +4339,33 @@
         <v>41</v>
       </c>
       <c r="W30" s="43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="X30" s="37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y30" s="48" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z30" s="39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA30" s="39" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="AB30" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC30" s="27"/>
+        <v>252</v>
+      </c>
+      <c r="AC30" s="27" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="31" spans="1:29" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>29</v>
@@ -4354,7 +4407,7 @@
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
       <c r="T31" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U31" s="29" t="s">
         <v>41</v>
@@ -4363,37 +4416,39 @@
         <v>41</v>
       </c>
       <c r="W31" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X31" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y31" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z31" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA31" s="21" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AB31" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC31" s="37"/>
+        <v>226</v>
+      </c>
+      <c r="AC31" s="37" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="32" spans="1:29" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="59" t="s">
-        <v>99</v>
-      </c>
       <c r="D32" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E32" s="59">
         <v>330</v>
@@ -4429,7 +4484,7 @@
       <c r="R32" s="37"/>
       <c r="S32" s="48"/>
       <c r="T32" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U32" s="58" t="s">
         <v>41</v>
@@ -4438,37 +4493,39 @@
         <v>41</v>
       </c>
       <c r="W32" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X32" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y32" s="37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z32" s="55" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AA32" s="55" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AB32" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC32" s="27"/>
+        <v>226</v>
+      </c>
+      <c r="AC32" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="33" spans="1:29" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E33" s="18">
         <v>9</v>
@@ -4504,37 +4561,37 @@
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
       <c r="T33" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="U33" s="60" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="V33" s="60" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="W33" s="18" t="s">
         <v>35</v>
       </c>
       <c r="X33" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y33" s="27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z33" s="21" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AA33" s="21" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AB33" s="21" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AC33" s="37"/>
     </row>
     <row r="34" spans="1:29" s="30" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>13</v>
@@ -4579,7 +4636,7 @@
       <c r="R34" s="37"/>
       <c r="S34" s="48"/>
       <c r="T34" s="43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U34" s="55" t="s">
         <v>41</v>
@@ -4588,28 +4645,30 @@
         <v>41</v>
       </c>
       <c r="W34" s="43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X34" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y34" s="37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z34" s="55" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA34" s="55" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AB34" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC34" s="27"/>
+        <v>218</v>
+      </c>
+      <c r="AC34" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="35" spans="1:29" s="44" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>8</v>
@@ -4618,7 +4677,7 @@
         <v>27</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E35" s="52">
         <v>7821</v>
@@ -4654,7 +4713,7 @@
       <c r="R35" s="37"/>
       <c r="S35" s="48"/>
       <c r="T35" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U35" s="55" t="s">
         <v>41</v>
@@ -4663,37 +4722,37 @@
         <v>41</v>
       </c>
       <c r="W35" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X35" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y35" s="37" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z35" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA35" s="55" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="AB35" s="55" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AC35" s="37"/>
     </row>
     <row r="36" spans="1:29" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" s="43">
         <v>37.299999999999997</v>
@@ -4729,7 +4788,7 @@
       <c r="R36" s="37"/>
       <c r="S36" s="48"/>
       <c r="T36" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U36" s="55" t="s">
         <v>41</v>
@@ -4738,31 +4797,33 @@
         <v>41</v>
       </c>
       <c r="W36" s="43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X36" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y36" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z36" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA36" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB36" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="AA36" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB36" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC36" s="27"/>
+      <c r="AC36" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="37" spans="1:29" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B37" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" s="55" t="s">
         <v>27</v>
@@ -4804,7 +4865,7 @@
       <c r="R37" s="48"/>
       <c r="S37" s="48"/>
       <c r="T37" s="48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U37" s="58" t="s">
         <v>41</v>
@@ -4813,28 +4874,30 @@
         <v>41</v>
       </c>
       <c r="W37" s="43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X37" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y37" s="48" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z37" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA37" s="55" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="AB37" s="79" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC37" s="37"/>
+        <v>290</v>
+      </c>
+      <c r="AC37" s="37" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="38" spans="1:29" s="30" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>15</v>
@@ -4879,7 +4942,7 @@
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
       <c r="T38" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U38" s="17" t="s">
         <v>41</v>
@@ -4888,37 +4951,39 @@
         <v>41</v>
       </c>
       <c r="W38" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X38" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y38" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z38" s="17" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="AA38" s="17" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC38" s="27"/>
+        <v>249</v>
+      </c>
+      <c r="AC38" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="39" spans="1:29" s="57" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="24">
         <v>7405</v>
@@ -4954,37 +5019,37 @@
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
       <c r="T39" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U39" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V39" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W39" s="27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="X39" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y39" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z39" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA39" s="21" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AB39" s="21" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AC39" s="68"/>
     </row>
     <row r="40" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>11</v>
@@ -4993,7 +5058,7 @@
         <v>32</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E40" s="36">
         <v>63.26</v>
@@ -5025,7 +5090,7 @@
       <c r="R40" s="27"/>
       <c r="S40" s="29"/>
       <c r="T40" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U40" s="21" t="s">
         <v>41</v>
@@ -5037,31 +5102,31 @@
         <v>35</v>
       </c>
       <c r="X40" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y40" s="27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z40" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA40" s="21" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AC40" s="27"/>
     </row>
-    <row r="41" spans="1:29" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" s="44" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>29</v>
@@ -5100,7 +5165,7 @@
       <c r="R41" s="37"/>
       <c r="S41" s="48"/>
       <c r="T41" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U41" s="55" t="s">
         <v>41</v>
@@ -5109,31 +5174,33 @@
         <v>41</v>
       </c>
       <c r="W41" s="43" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="X41" s="37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y41" s="37" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Z41" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA41" s="55" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AB41" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC41" s="37"/>
+        <v>270</v>
+      </c>
+      <c r="AC41" s="37" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="42" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" s="73" t="s">
         <v>29</v>
@@ -5173,7 +5240,7 @@
       <c r="R42" s="68"/>
       <c r="S42" s="69"/>
       <c r="T42" s="69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U42" s="73" t="s">
         <v>41</v>
@@ -5182,31 +5249,33 @@
         <v>41</v>
       </c>
       <c r="W42" s="67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X42" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y42" s="37" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z42" s="73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA42" s="73" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AB42" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC42" s="27"/>
+        <v>273</v>
+      </c>
+      <c r="AC42" s="27" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="43" spans="1:29" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>29</v>
@@ -5248,7 +5317,7 @@
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
       <c r="T43" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U43" s="18" t="s">
         <v>41</v>
@@ -5257,73 +5326,75 @@
         <v>41</v>
       </c>
       <c r="W43" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X43" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y43" s="27" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Z43" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA43" s="18" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AB43" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC43" s="37"/>
-    </row>
-    <row r="44" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="AC43" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="44" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>29</v>
+        <v>312</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="51">
-        <v>1411</v>
+      <c r="E44" s="43">
+        <v>80</v>
       </c>
       <c r="F44" s="40">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G44" s="41">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H44" s="53">
-        <v>2020</v>
-      </c>
-      <c r="I44" s="76">
-        <v>2060</v>
+        <v>2015</v>
+      </c>
+      <c r="I44" s="42">
+        <v>2035</v>
       </c>
       <c r="J44" s="37">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="K44" s="37">
-        <v>2060</v>
+        <v>2035</v>
       </c>
       <c r="L44" s="55">
-        <v>2020</v>
-      </c>
-      <c r="M44" s="37">
-        <v>2060</v>
-      </c>
-      <c r="N44" s="37"/>
+        <v>2015</v>
+      </c>
+      <c r="M44" s="48">
+        <v>2035</v>
+      </c>
+      <c r="N44" s="48"/>
       <c r="O44" s="37"/>
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
       <c r="S44" s="48"/>
       <c r="T44" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U44" s="43" t="s">
         <v>41</v>
@@ -5332,73 +5403,75 @@
         <v>41</v>
       </c>
       <c r="W44" s="43" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="X44" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y44" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z44" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA44" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB44" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC44" s="27"/>
-    </row>
-    <row r="45" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="AB44" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC44" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>89</v>
+        <v>313</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>29</v>
       </c>
       <c r="D45" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="43">
-        <v>80</v>
+      <c r="E45" s="51">
+        <v>1411</v>
       </c>
       <c r="F45" s="40">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G45" s="41">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H45" s="53">
-        <v>2015</v>
-      </c>
-      <c r="I45" s="42">
-        <v>2035</v>
+        <v>2020</v>
+      </c>
+      <c r="I45" s="76">
+        <v>2060</v>
       </c>
       <c r="J45" s="37">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="K45" s="37">
-        <v>2035</v>
+        <v>2060</v>
       </c>
       <c r="L45" s="55">
-        <v>2015</v>
-      </c>
-      <c r="M45" s="48">
-        <v>2035</v>
-      </c>
-      <c r="N45" s="48"/>
+        <v>2020</v>
+      </c>
+      <c r="M45" s="37">
+        <v>2060</v>
+      </c>
+      <c r="N45" s="37"/>
       <c r="O45" s="37"/>
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
       <c r="S45" s="48"/>
       <c r="T45" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U45" s="43" t="s">
         <v>41</v>
@@ -5407,39 +5480,39 @@
         <v>41</v>
       </c>
       <c r="W45" s="43" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="X45" s="37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y45" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z45" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA45" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB45" s="79" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC45" s="37" t="s">
-        <v>288</v>
+        <v>278</v>
+      </c>
+      <c r="AB45" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC45" s="27" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="30" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" s="18">
         <v>37.299999999999997</v>
@@ -5475,7 +5548,7 @@
       <c r="R46" s="27"/>
       <c r="S46" s="29"/>
       <c r="T46" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U46" s="18" t="s">
         <v>41</v>
@@ -5484,37 +5557,37 @@
         <v>41</v>
       </c>
       <c r="W46" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X46" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Y46" s="27" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Z46" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA46" s="21" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="AB46" s="21" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="AC46" s="27"/>
     </row>
     <row r="47" spans="1:29" s="44" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E47" s="39">
         <v>39.4</v>
@@ -5550,7 +5623,7 @@
       <c r="R47" s="48"/>
       <c r="S47" s="48"/>
       <c r="T47" s="49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U47" s="39" t="s">
         <v>41</v>
@@ -5559,178 +5632,182 @@
         <v>41</v>
       </c>
       <c r="W47" s="43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X47" s="37" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Y47" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z47" s="55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AA47" s="55" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AB47" s="55" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AC47" s="37"/>
     </row>
-    <row r="48" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="42" t="s">
+    <row r="48" spans="1:29" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="21">
+        <v>37.97</v>
+      </c>
+      <c r="F48" s="26">
+        <v>43</v>
+      </c>
+      <c r="G48" s="26">
+        <v>9</v>
+      </c>
+      <c r="H48" s="63">
+        <v>2018</v>
+      </c>
+      <c r="I48" s="21">
+        <v>2050</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="18">
+        <v>2018</v>
+      </c>
+      <c r="O48" s="27">
+        <v>2030</v>
+      </c>
+      <c r="P48" s="27">
+        <v>2035</v>
+      </c>
+      <c r="Q48" s="27">
+        <v>2040</v>
+      </c>
+      <c r="R48" s="27">
+        <v>2045</v>
+      </c>
+      <c r="S48" s="29">
+        <v>2050</v>
+      </c>
+      <c r="T48" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="U48" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W48" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="X48" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y48" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z48" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA48" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB48" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC48" s="37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C49" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D49" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="43">
+      <c r="E49" s="43">
         <v>37.99</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F49" s="40">
         <v>42</v>
       </c>
-      <c r="G48" s="41">
+      <c r="G49" s="41">
         <v>10</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H49" s="53">
         <v>2015</v>
       </c>
-      <c r="I48" s="42">
-        <v>2050</v>
-      </c>
-      <c r="J48" s="37">
+      <c r="I49" s="42">
+        <v>2050</v>
+      </c>
+      <c r="J49" s="37">
         <v>2015</v>
       </c>
-      <c r="K48" s="37">
-        <v>2050</v>
-      </c>
-      <c r="L48" s="56"/>
-      <c r="M48" s="37">
-        <v>2050</v>
-      </c>
-      <c r="N48" s="37">
+      <c r="K49" s="37">
+        <v>2050</v>
+      </c>
+      <c r="L49" s="56"/>
+      <c r="M49" s="37">
+        <v>2050</v>
+      </c>
+      <c r="N49" s="37">
         <v>2015</v>
       </c>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="U48" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="V48" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="W48" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="X48" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y48" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z48" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA48" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB48" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="AC48" s="27"/>
-    </row>
-    <row r="49" spans="1:29" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="21">
-        <v>37.97</v>
-      </c>
-      <c r="F49" s="26">
-        <v>43</v>
-      </c>
-      <c r="G49" s="26">
-        <v>9</v>
-      </c>
-      <c r="H49" s="63">
-        <v>2018</v>
-      </c>
-      <c r="I49" s="21">
-        <v>2050</v>
-      </c>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="18">
-        <v>2018</v>
-      </c>
-      <c r="O49" s="27">
-        <v>2030</v>
-      </c>
-      <c r="P49" s="27">
-        <v>2035</v>
-      </c>
-      <c r="Q49" s="27">
-        <v>2040</v>
-      </c>
-      <c r="R49" s="27">
-        <v>2045</v>
-      </c>
-      <c r="S49" s="29">
-        <v>2050</v>
-      </c>
-      <c r="T49" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="U49" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V49" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W49" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="X49" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y49" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z49" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA49" s="21" t="s">
-        <v>294</v>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="U49" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="V49" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="W49" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="X49" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y49" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z49" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA49" s="55" t="s">
+        <v>283</v>
       </c>
       <c r="AB49" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC49" s="37"/>
+        <v>292</v>
+      </c>
+      <c r="AC49" s="27" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5761,7 +5838,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -5794,25 +5871,25 @@
     </row>
     <row r="5" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="J5" s="3"/>
     </row>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -2063,9 +2063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W41" sqref="W41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5073,7 +5073,7 @@
         <v>2011</v>
       </c>
       <c r="I40" s="18">
-        <v>2050</v>
+        <v>2154</v>
       </c>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="321">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1028,12 +1028,27 @@
   <si>
     <t>External costs: Unit impact-specific costs (literature)</t>
   </si>
+  <si>
+    <t>geo_scale</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Multi-country</t>
+  </si>
+  <si>
+    <t>Sub-national</t>
+  </si>
+  <si>
+    <t>publi_yr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1093,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1174,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1405,7 +1426,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1758,15 +1800,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AC48" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="A1:AC48"/>
-  <sortState ref="A2:AB49">
-    <sortCondition ref="A1:A49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AE49" totalsRowShown="0" dataDxfId="29">
+  <autoFilter ref="A1:AE49"/>
+  <sortState ref="A2:AD48">
+    <sortCondition ref="A1:A48"/>
   </sortState>
-  <tableColumns count="29">
+  <tableColumns count="31">
     <tableColumn id="18" name="author_date" dataDxfId="28"/>
     <tableColumn id="1" name="title" dataDxfId="27"/>
+    <tableColumn id="17" name="publi_yr"/>
     <tableColumn id="3" name="Geographical scale" dataDxfId="26"/>
+    <tableColumn id="16" name="geo_scale"/>
     <tableColumn id="26" name="1st authors' institution" dataDxfId="25"/>
     <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="24"/>
     <tableColumn id="32" name="rank_pop" dataDxfId="23"/>
@@ -2061,11 +2105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,9 +2136,10 @@
     <col min="27" max="27" width="24.44140625" customWidth="1"/>
     <col min="28" max="28" width="17.21875" customWidth="1"/>
     <col min="29" max="29" width="23.5546875" customWidth="1"/>
+    <col min="30" max="31" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2102,3203 +2147,3455 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>100</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>101</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>196</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>192</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>206</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>207</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>26</v>
+      <c r="C2" s="46">
+        <v>2022</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="46">
         <v>67.5</v>
       </c>
-      <c r="F2" s="40">
+      <c r="H2" s="40">
         <v>36</v>
       </c>
-      <c r="G2" s="41">
+      <c r="I2" s="41">
         <v>13</v>
       </c>
-      <c r="H2" s="41">
+      <c r="J2" s="41">
         <v>2021</v>
       </c>
-      <c r="I2" s="46">
-        <v>2050</v>
-      </c>
-      <c r="J2" s="37">
+      <c r="K2" s="46">
+        <v>2050</v>
+      </c>
+      <c r="L2" s="37">
         <v>2021</v>
       </c>
-      <c r="K2" s="37">
-        <v>2050</v>
-      </c>
-      <c r="L2" s="46"/>
       <c r="M2" s="37">
         <v>2050</v>
       </c>
-      <c r="N2" s="48">
+      <c r="N2" s="46"/>
+      <c r="O2" s="37">
+        <v>2050</v>
+      </c>
+      <c r="P2" s="48">
         <v>2021</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48" t="s">
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="W2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="X2" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="Y2" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="Z2" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="AA2" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="AB2" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AC2" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AD2" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="AE2" s="27" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>29</v>
+      <c r="C3" s="25">
+        <v>2018</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="35">
         <v>1338</v>
       </c>
-      <c r="F3" s="26">
+      <c r="H3" s="26">
         <v>25</v>
       </c>
-      <c r="G3" s="26">
+      <c r="I3" s="26">
         <v>21</v>
       </c>
-      <c r="H3" s="26">
+      <c r="J3" s="26">
         <v>2010</v>
       </c>
-      <c r="I3" s="31">
-        <v>2050</v>
-      </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="17">
+      <c r="K3" s="31">
+        <v>2050</v>
+      </c>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="17">
         <v>2010</v>
       </c>
-      <c r="M3" s="27">
-        <v>2050</v>
-      </c>
-      <c r="N3" s="28"/>
       <c r="O3" s="27">
+        <v>2050</v>
+      </c>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="27">
         <v>2030</v>
       </c>
-      <c r="P3" s="27">
-        <v>2050</v>
-      </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29" t="s">
+      <c r="R3" s="27">
+        <v>2050</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="X3" s="27" t="s">
+      <c r="Z3" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="27" t="s">
+      <c r="AA3" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="AB3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AC3" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AD3" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AE3" s="37" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="30" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="30" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="25">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="35">
+      <c r="G4" s="35">
         <v>1380</v>
       </c>
-      <c r="F4" s="26">
+      <c r="H4" s="26">
         <v>21</v>
       </c>
-      <c r="G4" s="26">
+      <c r="I4" s="26">
         <v>25</v>
       </c>
-      <c r="H4" s="26">
+      <c r="J4" s="26">
         <v>2015</v>
       </c>
-      <c r="I4" s="25">
-        <v>2050</v>
-      </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="17">
+      <c r="K4" s="25">
+        <v>2050</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="17">
         <v>2015</v>
       </c>
-      <c r="M4" s="29">
-        <v>2050</v>
-      </c>
-      <c r="N4" s="29"/>
       <c r="O4" s="29">
+        <v>2050</v>
+      </c>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29">
         <v>2030</v>
       </c>
-      <c r="P4" s="29">
-        <v>2050</v>
-      </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="R4" s="29">
+        <v>2050</v>
+      </c>
       <c r="S4" s="29"/>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="U4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="Z4" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="AA4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="AB4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AC4" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AD4" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AE4" s="27" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>163</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="25">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="26">
+      <c r="G5" s="26">
         <v>1410</v>
       </c>
-      <c r="F5" s="26">
+      <c r="H5" s="26">
         <v>19</v>
       </c>
-      <c r="G5" s="26">
+      <c r="I5" s="26">
         <v>27</v>
       </c>
-      <c r="H5" s="26">
+      <c r="J5" s="26">
         <v>2020</v>
       </c>
-      <c r="I5" s="25">
-        <v>2050</v>
-      </c>
-      <c r="J5" s="27">
+      <c r="K5" s="25">
+        <v>2050</v>
+      </c>
+      <c r="L5" s="27">
         <v>2020</v>
       </c>
-      <c r="K5" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L5" s="25">
+      <c r="M5" s="27">
+        <v>2050</v>
+      </c>
+      <c r="N5" s="25">
         <v>2020</v>
       </c>
-      <c r="M5" s="27">
-        <v>2050</v>
-      </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
+      <c r="O5" s="27">
+        <v>2050</v>
+      </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="29" t="s">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="U5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="X5" s="27" t="s">
+      <c r="Z5" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="AA5" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="AB5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AC5" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AD5" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="AC5" s="37"/>
-    </row>
-    <row r="6" spans="1:29" s="30" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE5" s="37"/>
+    </row>
+    <row r="6" spans="1:31" s="30" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="49">
+        <v>2012</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="E6" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="39">
+      <c r="G6" s="39">
         <v>3</v>
       </c>
-      <c r="F6" s="40">
+      <c r="H6" s="40">
         <v>48</v>
       </c>
-      <c r="G6" s="41">
+      <c r="I6" s="41">
         <v>1</v>
       </c>
-      <c r="H6" s="41">
+      <c r="J6" s="41">
         <v>2010</v>
       </c>
-      <c r="I6" s="39">
+      <c r="K6" s="39">
         <v>2040</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="48">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="48">
         <v>2010</v>
       </c>
-      <c r="O6" s="48">
+      <c r="Q6" s="48">
         <v>2040</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
       <c r="R6" s="48"/>
       <c r="S6" s="48"/>
-      <c r="T6" s="49" t="s">
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="49" t="s">
+      <c r="W6" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="49" t="s">
+      <c r="X6" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="Y6" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="X6" s="37" t="s">
+      <c r="Z6" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="Y6" s="37" t="s">
+      <c r="AA6" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="Z6" s="39" t="s">
+      <c r="AB6" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA6" s="55" t="s">
+      <c r="AC6" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AB6" s="39" t="s">
+      <c r="AD6" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="AC6" s="27"/>
-    </row>
-    <row r="7" spans="1:29" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AE6" s="27"/>
+    </row>
+    <row r="7" spans="1:31" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>285</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="31">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="E7" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="35">
+      <c r="G7" s="35">
         <v>1241</v>
       </c>
-      <c r="F7" s="26">
+      <c r="H7" s="26">
         <v>29</v>
       </c>
-      <c r="G7" s="26">
+      <c r="I7" s="26">
         <v>17</v>
       </c>
-      <c r="H7" s="26">
+      <c r="J7" s="26">
         <v>2010</v>
       </c>
-      <c r="I7" s="31">
-        <v>2050</v>
-      </c>
-      <c r="J7" s="27">
+      <c r="K7" s="31">
+        <v>2050</v>
+      </c>
+      <c r="L7" s="27">
         <v>2010</v>
       </c>
-      <c r="K7" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L7" s="17">
+      <c r="M7" s="27">
+        <v>2050</v>
+      </c>
+      <c r="N7" s="17">
         <v>2010</v>
       </c>
-      <c r="M7" s="27">
-        <v>2050</v>
-      </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
+      <c r="O7" s="27">
+        <v>2050</v>
+      </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="31" t="s">
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="U7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" s="18" t="s">
+      <c r="W7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="X7" s="27" t="s">
+      <c r="Z7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y7" s="27" t="s">
+      <c r="AA7" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="AB7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AC7" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="AD7" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="AC7" s="37"/>
-    </row>
-    <row r="8" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AE7" s="37"/>
+    </row>
+    <row r="8" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>287</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="39">
+        <v>2022</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="E8" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="40">
+      <c r="G8" s="40">
         <v>1241</v>
       </c>
-      <c r="F8" s="40">
+      <c r="H8" s="40">
         <v>28</v>
       </c>
-      <c r="G8" s="41">
+      <c r="I8" s="41">
         <v>18</v>
       </c>
-      <c r="H8" s="41">
+      <c r="J8" s="41">
         <v>2010</v>
       </c>
-      <c r="I8" s="39">
-        <v>2050</v>
-      </c>
-      <c r="J8" s="37">
+      <c r="K8" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L8" s="37">
         <v>2010</v>
       </c>
-      <c r="K8" s="37">
-        <v>2050</v>
-      </c>
-      <c r="L8" s="39">
+      <c r="M8" s="37">
+        <v>2050</v>
+      </c>
+      <c r="N8" s="39">
         <v>2010</v>
       </c>
-      <c r="M8" s="37">
-        <v>2050</v>
-      </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="O8" s="37">
+        <v>2050</v>
+      </c>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="49" t="s">
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="W8" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="V8" s="39" t="s">
+      <c r="X8" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="W8" s="42" t="s">
+      <c r="Y8" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="X8" s="37" t="s">
+      <c r="Z8" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y8" s="37" t="s">
+      <c r="AA8" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="Z8" s="39" t="s">
+      <c r="AB8" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="AA8" s="39" t="s">
+      <c r="AC8" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="AB8" s="39" t="s">
+      <c r="AD8" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="AC8" s="18"/>
-    </row>
-    <row r="9" spans="1:29" s="44" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE8" s="18"/>
+    </row>
+    <row r="9" spans="1:31" s="44" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="22">
+      <c r="G9" s="22">
         <v>3870</v>
       </c>
-      <c r="F9" s="26">
+      <c r="H9" s="26">
         <v>15</v>
       </c>
-      <c r="G9" s="26">
+      <c r="I9" s="26">
         <v>34</v>
       </c>
-      <c r="H9" s="26">
+      <c r="J9" s="26">
         <v>2015</v>
       </c>
-      <c r="I9" s="17">
+      <c r="K9" s="17">
         <v>2040</v>
       </c>
-      <c r="J9" s="27">
+      <c r="L9" s="27">
         <v>2015</v>
       </c>
-      <c r="K9" s="18">
+      <c r="M9" s="18">
         <v>2040</v>
       </c>
-      <c r="L9" s="17">
+      <c r="N9" s="17">
         <v>2015</v>
       </c>
-      <c r="M9" s="27">
+      <c r="O9" s="27">
         <v>2040</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="18" t="s">
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="W9" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="X9" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="W9" s="28" t="s">
+      <c r="Y9" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="X9" s="27" t="s">
+      <c r="Z9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y9" s="27" t="s">
+      <c r="AA9" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="Z9" s="17" t="s">
+      <c r="AB9" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AC9" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="AB9" s="17" t="s">
+      <c r="AD9" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="AC9" s="37"/>
-    </row>
-    <row r="10" spans="1:29" s="30" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE9" s="37"/>
+    </row>
+    <row r="10" spans="1:31" s="30" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="25">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="20">
+      <c r="G10" s="20">
         <v>6000</v>
       </c>
-      <c r="F10" s="26">
+      <c r="H10" s="26">
         <v>13</v>
       </c>
-      <c r="G10" s="26">
+      <c r="I10" s="26">
         <v>36</v>
       </c>
-      <c r="H10" s="26">
+      <c r="J10" s="26">
         <v>2012</v>
       </c>
-      <c r="I10" s="25">
-        <v>2050</v>
-      </c>
-      <c r="J10" s="27">
+      <c r="K10" s="25">
+        <v>2050</v>
+      </c>
+      <c r="L10" s="27">
         <v>2012</v>
       </c>
-      <c r="K10" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L10" s="17">
+      <c r="M10" s="27">
+        <v>2050</v>
+      </c>
+      <c r="N10" s="17">
         <v>2012</v>
       </c>
-      <c r="M10" s="27">
-        <v>2050</v>
-      </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
+      <c r="O10" s="27">
+        <v>2050</v>
+      </c>
+      <c r="P10" s="29"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="17" t="s">
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="W10" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="X10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="W10" s="28" t="s">
+      <c r="Y10" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="X10" s="27" t="s">
+      <c r="Z10" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y10" s="27" t="s">
+      <c r="AA10" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Z10" s="17" t="s">
+      <c r="AB10" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA10" s="80" t="s">
+      <c r="AC10" s="81" t="s">
         <v>293</v>
       </c>
-      <c r="AB10" s="78" t="s">
+      <c r="AD10" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="AC10" s="27" t="s">
+      <c r="AE10" s="27" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>197</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="64" t="s">
-        <v>29</v>
+      <c r="C11" s="39">
+        <v>2019</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="64">
         <v>1408</v>
       </c>
-      <c r="F11" s="40">
+      <c r="H11" s="40">
         <v>20</v>
       </c>
-      <c r="G11" s="41">
+      <c r="I11" s="41">
         <v>26</v>
       </c>
-      <c r="H11" s="65">
+      <c r="J11" s="65">
         <v>2015</v>
       </c>
-      <c r="I11" s="39">
-        <v>2050</v>
-      </c>
-      <c r="J11" s="48">
+      <c r="K11" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L11" s="48">
         <v>2015</v>
       </c>
-      <c r="K11" s="48">
-        <v>2050</v>
-      </c>
-      <c r="L11" s="64"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48">
+      <c r="M11" s="48">
+        <v>2050</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48">
         <v>2015</v>
       </c>
-      <c r="P11" s="48">
+      <c r="R11" s="48">
         <v>2030</v>
       </c>
-      <c r="Q11" s="48">
-        <v>2050</v>
-      </c>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48" t="s">
+      <c r="S11" s="48">
+        <v>2050</v>
+      </c>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="U11" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="V11" s="43" t="s">
-        <v>41</v>
-      </c>
       <c r="W11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="X11" s="37" t="s">
+      <c r="Z11" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y11" s="37" t="s">
+      <c r="AA11" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Z11" s="39" t="s">
+      <c r="AB11" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA11" s="39" t="s">
+      <c r="AC11" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="AB11" s="39" t="s">
+      <c r="AD11" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="AC11" s="37"/>
-    </row>
-    <row r="12" spans="1:29" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AE11" s="37"/>
+    </row>
+    <row r="12" spans="1:31" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="80">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="E12" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="31">
+      <c r="G12" s="31">
         <v>38.6</v>
       </c>
-      <c r="F12" s="26">
-        <v>41</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="H12" s="26">
+        <v>41</v>
+      </c>
+      <c r="I12" s="26">
         <v>6</v>
       </c>
-      <c r="H12" s="26">
+      <c r="J12" s="26">
         <v>2017</v>
       </c>
-      <c r="I12" s="17">
+      <c r="K12" s="17">
         <v>2060</v>
       </c>
-      <c r="J12" s="27">
+      <c r="L12" s="27">
         <v>2017</v>
       </c>
-      <c r="K12" s="27">
+      <c r="M12" s="27">
         <v>2060</v>
       </c>
-      <c r="L12" s="17">
+      <c r="N12" s="17">
         <v>2017</v>
       </c>
-      <c r="M12" s="29">
+      <c r="O12" s="29">
         <v>2060</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="29" t="s">
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" s="28" t="s">
+      <c r="W12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="X12" s="27" t="s">
+      <c r="Z12" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="AA12" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="AB12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AC12" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="AB12" s="17" t="s">
+      <c r="AD12" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="AC12" s="27" t="s">
+      <c r="AE12" s="27" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="42">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="E13" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="52">
+      <c r="G13" s="52">
         <v>1380</v>
       </c>
-      <c r="F13" s="40">
+      <c r="H13" s="40">
         <v>22</v>
       </c>
-      <c r="G13" s="41">
+      <c r="I13" s="41">
         <v>24</v>
       </c>
-      <c r="H13" s="41">
+      <c r="J13" s="41">
         <v>2015</v>
       </c>
-      <c r="I13" s="54">
-        <v>2050</v>
-      </c>
-      <c r="J13" s="37">
+      <c r="K13" s="54">
+        <v>2050</v>
+      </c>
+      <c r="L13" s="37">
         <v>2015</v>
       </c>
-      <c r="K13" s="59">
-        <v>2050</v>
-      </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37">
+      <c r="M13" s="59">
+        <v>2050</v>
+      </c>
+      <c r="N13" s="46"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37">
         <v>2015</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="43" t="s">
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="U13" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="42" t="s">
+      <c r="W13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="X13" s="37" t="s">
+      <c r="Z13" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y13" s="37" t="s">
+      <c r="AA13" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="Z13" s="39" t="s">
+      <c r="AB13" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="AA13" s="39" t="s">
+      <c r="AC13" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="AB13" s="39" t="s">
+      <c r="AD13" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="AC13" s="37"/>
-    </row>
-    <row r="14" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AE13" s="37"/>
+    </row>
+    <row r="14" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="49">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="46">
+      <c r="G14" s="46">
         <v>21</v>
       </c>
-      <c r="F14" s="40">
+      <c r="H14" s="40">
         <v>46</v>
       </c>
-      <c r="G14" s="41">
+      <c r="I14" s="41">
         <v>3</v>
       </c>
-      <c r="H14" s="41">
+      <c r="J14" s="41">
         <v>2020</v>
       </c>
-      <c r="I14" s="49">
-        <v>2050</v>
-      </c>
-      <c r="J14" s="48">
+      <c r="K14" s="49">
+        <v>2050</v>
+      </c>
+      <c r="L14" s="48">
         <v>2020</v>
       </c>
-      <c r="K14" s="48">
-        <v>2050</v>
-      </c>
-      <c r="L14" s="39">
+      <c r="M14" s="48">
+        <v>2050</v>
+      </c>
+      <c r="N14" s="39">
         <v>2020</v>
       </c>
-      <c r="M14" s="48">
-        <v>2050</v>
-      </c>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="48">
+        <v>2050</v>
+      </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
       <c r="R14" s="48"/>
       <c r="S14" s="48"/>
-      <c r="T14" s="49" t="s">
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="U14" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="V14" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" s="37" t="s">
+      <c r="W14" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="X14" s="37" t="s">
+      <c r="Z14" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y14" s="37" t="s">
+      <c r="AA14" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="Z14" s="39" t="s">
+      <c r="AB14" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="AA14" s="39" t="s">
+      <c r="AC14" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="AB14" s="39" t="s">
+      <c r="AD14" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="AC14" s="27" t="s">
+      <c r="AE14" s="27" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="31">
+        <v>2023</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="E15" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="31">
+      <c r="G15" s="31">
         <v>100</v>
       </c>
-      <c r="F15" s="26">
+      <c r="H15" s="26">
         <v>33</v>
       </c>
-      <c r="G15" s="26">
+      <c r="I15" s="26">
         <v>15</v>
       </c>
-      <c r="H15" s="26">
+      <c r="J15" s="26">
         <v>2017</v>
       </c>
-      <c r="I15" s="31">
+      <c r="K15" s="31">
         <v>2060</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="27">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="27">
         <v>2017</v>
       </c>
-      <c r="O15" s="27">
+      <c r="Q15" s="27">
         <v>2030</v>
       </c>
-      <c r="P15" s="27">
+      <c r="R15" s="27">
         <v>2060</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="25" t="s">
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="18" t="s">
+      <c r="W15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="X15" s="27" t="s">
+      <c r="Z15" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="Y15" s="27" t="s">
+      <c r="AA15" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Z15" s="17" t="s">
+      <c r="AB15" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="AA15" s="17" t="s">
+      <c r="AC15" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="AB15" s="17" t="s">
+      <c r="AD15" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="AC15" s="37"/>
-    </row>
-    <row r="16" spans="1:29" s="30" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE15" s="37"/>
+    </row>
+    <row r="16" spans="1:31" s="30" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="17">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="26">
+      <c r="G16" s="26">
         <v>7821</v>
       </c>
-      <c r="F16" s="26">
+      <c r="H16" s="26">
         <v>1</v>
       </c>
-      <c r="G16" s="26">
+      <c r="I16" s="26">
         <v>48</v>
       </c>
-      <c r="H16" s="26">
+      <c r="J16" s="26">
         <v>2020</v>
       </c>
-      <c r="I16" s="23">
-        <v>2050</v>
-      </c>
-      <c r="J16" s="27">
+      <c r="K16" s="23">
+        <v>2050</v>
+      </c>
+      <c r="L16" s="27">
         <v>2020</v>
       </c>
-      <c r="K16" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L16" s="17">
+      <c r="M16" s="27">
+        <v>2050</v>
+      </c>
+      <c r="N16" s="17">
         <v>2020</v>
       </c>
-      <c r="M16" s="27">
-        <v>2050</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
+      <c r="O16" s="27">
+        <v>2050</v>
+      </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="29" t="s">
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="U16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16" s="28" t="s">
+      <c r="W16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="X16" s="27" t="s">
+      <c r="Z16" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y16" s="27" t="s">
+      <c r="AA16" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z16" s="17" t="s">
+      <c r="AB16" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA16" s="17" t="s">
+      <c r="AC16" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="AB16" s="17" t="s">
+      <c r="AD16" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="AC16" s="18" t="s">
+      <c r="AE16" s="18" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="44" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" s="44" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>117</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="48">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="E17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="51">
+      <c r="G17" s="51">
         <v>6970</v>
       </c>
-      <c r="F17" s="40">
+      <c r="H17" s="40">
         <v>12</v>
       </c>
-      <c r="G17" s="41">
+      <c r="I17" s="41">
         <v>37</v>
       </c>
-      <c r="H17" s="53">
+      <c r="J17" s="53">
         <v>2010</v>
       </c>
-      <c r="I17" s="43">
+      <c r="K17" s="43">
         <v>2030</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="43">
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="43">
         <v>2010</v>
       </c>
-      <c r="M17" s="43">
+      <c r="O17" s="43">
         <v>2030</v>
       </c>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48">
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48">
         <v>2030</v>
       </c>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
       <c r="R17" s="48"/>
       <c r="S17" s="48"/>
-      <c r="T17" s="39" t="s">
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="U17" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="V17" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="W17" s="37" t="s">
+      <c r="W17" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="X17" s="37" t="s">
+      <c r="Z17" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y17" s="37" t="s">
+      <c r="AA17" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="Z17" s="39" t="s">
+      <c r="AB17" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="AA17" s="43" t="s">
+      <c r="AC17" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="AB17" s="43" t="s">
+      <c r="AD17" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="AC17" s="37"/>
-    </row>
-    <row r="18" spans="1:29" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AE17" s="37"/>
+    </row>
+    <row r="18" spans="1:31" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="28">
+        <v>2023</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="18">
+      <c r="G18" s="18">
         <v>70</v>
       </c>
-      <c r="F18" s="26">
+      <c r="H18" s="26">
         <v>35</v>
       </c>
-      <c r="G18" s="26">
+      <c r="I18" s="26">
         <v>30</v>
       </c>
-      <c r="H18" s="33">
+      <c r="J18" s="33">
         <v>2021</v>
       </c>
-      <c r="I18" s="36">
+      <c r="K18" s="36">
         <v>2100</v>
       </c>
-      <c r="J18" s="27">
+      <c r="L18" s="27">
         <v>2021</v>
       </c>
-      <c r="K18" s="27">
+      <c r="M18" s="27">
         <v>2100</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27">
+      <c r="N18" s="31"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27">
         <v>2020</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="28" t="s">
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="U18" s="31" t="s">
+      <c r="W18" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="V18" s="31" t="s">
+      <c r="X18" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="W18" s="28" t="s">
+      <c r="Y18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="X18" s="27" t="s">
+      <c r="Z18" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="Y18" s="27" t="s">
+      <c r="AA18" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="Z18" s="17" t="s">
+      <c r="AB18" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AA18" s="17" t="s">
+      <c r="AC18" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="AB18" s="46" t="s">
+      <c r="AD18" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="AC18" s="27"/>
-    </row>
-    <row r="19" spans="1:29" s="44" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="AE18" s="27"/>
+    </row>
+    <row r="19" spans="1:31" s="44" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="39">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="E19" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="41">
+      <c r="G19" s="41">
         <v>4680</v>
       </c>
-      <c r="F19" s="40">
+      <c r="H19" s="40">
         <v>14</v>
       </c>
-      <c r="G19" s="41">
+      <c r="I19" s="41">
         <v>35</v>
       </c>
-      <c r="H19" s="41">
+      <c r="J19" s="41">
         <v>2010</v>
       </c>
-      <c r="I19" s="39">
+      <c r="K19" s="39">
         <v>2040</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="39">
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="39">
         <v>2010</v>
       </c>
-      <c r="M19" s="48">
-        <v>2040</v>
-      </c>
-      <c r="N19" s="48"/>
       <c r="O19" s="48">
         <v>2040</v>
       </c>
       <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
+      <c r="Q19" s="48">
+        <v>2040</v>
+      </c>
       <c r="R19" s="48"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="48" t="s">
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="U19" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="V19" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="W19" s="37" t="s">
+      <c r="W19" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="X19" s="37" t="s">
+      <c r="Z19" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y19" s="48" t="s">
+      <c r="AA19" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="Z19" s="39" t="s">
+      <c r="AB19" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA19" s="39" t="s">
+      <c r="AC19" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="AB19" s="39" t="s">
+      <c r="AD19" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="AC19" s="37"/>
-    </row>
-    <row r="20" spans="1:29" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AE19" s="37"/>
+    </row>
+    <row r="20" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>40</v>
+      <c r="C20" s="31">
+        <v>2021</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="31">
         <v>51</v>
       </c>
-      <c r="F20" s="26">
+      <c r="H20" s="26">
         <v>39</v>
       </c>
-      <c r="G20" s="26">
+      <c r="I20" s="26">
         <v>11</v>
       </c>
-      <c r="H20" s="26">
+      <c r="J20" s="26">
         <v>2022</v>
       </c>
-      <c r="I20" s="31">
-        <v>2050</v>
-      </c>
-      <c r="J20" s="27">
+      <c r="K20" s="31">
+        <v>2050</v>
+      </c>
+      <c r="L20" s="27">
         <v>2022</v>
       </c>
-      <c r="K20" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L20" s="17">
+      <c r="M20" s="27">
+        <v>2050</v>
+      </c>
+      <c r="N20" s="17">
         <v>2022</v>
       </c>
-      <c r="M20" s="29">
-        <v>2050</v>
-      </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
+      <c r="O20" s="29">
+        <v>2050</v>
+      </c>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="29" t="s">
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="U20" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V20" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="W20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="X20" s="27" t="s">
+      <c r="Z20" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="Y20" s="27" t="s">
+      <c r="AA20" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z20" s="17" t="s">
+      <c r="AB20" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="AA20" s="17" t="s">
+      <c r="AC20" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="AB20" s="17" t="s">
+      <c r="AD20" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="AC20" s="27"/>
-    </row>
-    <row r="21" spans="1:29" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="AE20" s="27"/>
+    </row>
+    <row r="21" spans="1:31" s="44" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>111</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="39">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="E21" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="40">
+      <c r="G21" s="40">
         <v>7662</v>
       </c>
-      <c r="F21" s="40">
+      <c r="H21" s="40">
         <v>6</v>
       </c>
-      <c r="G21" s="41">
+      <c r="I21" s="41">
         <v>43</v>
       </c>
-      <c r="H21" s="41">
+      <c r="J21" s="41">
         <v>2018</v>
       </c>
-      <c r="I21" s="39">
+      <c r="K21" s="39">
         <v>2030</v>
       </c>
-      <c r="J21" s="48">
+      <c r="L21" s="48">
         <v>2018</v>
       </c>
-      <c r="K21" s="48">
+      <c r="M21" s="48">
         <v>2030</v>
       </c>
-      <c r="L21" s="39">
+      <c r="N21" s="39">
         <v>2018</v>
       </c>
-      <c r="M21" s="43">
+      <c r="O21" s="43">
         <v>2030</v>
       </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="49" t="s">
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="U21" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="V21" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="37" t="s">
+      <c r="W21" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X21" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="X21" s="37" t="s">
+      <c r="Z21" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y21" s="37" t="s">
+      <c r="AA21" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="Z21" s="39" t="s">
+      <c r="AB21" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA21" s="39" t="s">
+      <c r="AC21" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="AB21" s="39" t="s">
+      <c r="AD21" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="AC21" s="37"/>
-    </row>
-    <row r="22" spans="1:29" s="30" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="AE21" s="37"/>
+    </row>
+    <row r="22" spans="1:31" s="30" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>29</v>
+      <c r="C22" s="17">
+        <v>2020</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="20">
         <v>1380</v>
       </c>
-      <c r="F22" s="26">
+      <c r="H22" s="26">
         <v>23</v>
       </c>
-      <c r="G22" s="26">
+      <c r="I22" s="26">
         <v>23</v>
       </c>
-      <c r="H22" s="26">
+      <c r="J22" s="26">
         <v>2015</v>
       </c>
-      <c r="I22" s="17">
+      <c r="K22" s="17">
         <v>2030</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="17">
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="17">
         <v>2015</v>
       </c>
-      <c r="M22" s="27">
-        <v>2030</v>
-      </c>
-      <c r="N22" s="27"/>
       <c r="O22" s="27">
         <v>2030</v>
       </c>
       <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
+      <c r="Q22" s="27">
+        <v>2030</v>
+      </c>
       <c r="R22" s="27"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="31" t="s">
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="U22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W22" s="18" t="s">
+      <c r="W22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="X22" s="27" t="s">
+      <c r="Z22" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y22" s="27" t="s">
+      <c r="AA22" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z22" s="17" t="s">
+      <c r="AB22" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA22" s="17" t="s">
+      <c r="AC22" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="AB22" s="78" t="s">
+      <c r="AD22" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="AC22" s="27" t="s">
+      <c r="AE22" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="44" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="44" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>202</v>
       </c>
       <c r="B23" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="25">
+        <v>2012</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="17">
+      <c r="G23" s="17">
         <v>503</v>
       </c>
-      <c r="F23" s="26">
+      <c r="H23" s="26">
         <v>31</v>
       </c>
-      <c r="G23" s="26">
+      <c r="I23" s="26">
         <v>31</v>
       </c>
-      <c r="H23" s="20">
+      <c r="J23" s="20">
         <v>2005</v>
       </c>
-      <c r="I23" s="17">
-        <v>2050</v>
-      </c>
-      <c r="J23" s="29">
+      <c r="K23" s="17">
+        <v>2050</v>
+      </c>
+      <c r="L23" s="29">
         <v>2005</v>
       </c>
-      <c r="K23" s="29">
-        <v>2050</v>
-      </c>
-      <c r="L23" s="17">
+      <c r="M23" s="29">
+        <v>2050</v>
+      </c>
+      <c r="N23" s="17">
         <v>2005</v>
       </c>
-      <c r="M23" s="18">
-        <v>2050</v>
-      </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="O23" s="18">
+        <v>2050</v>
+      </c>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="29" t="s">
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="U23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V23" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="W23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="X23" s="29" t="s">
+      <c r="Z23" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="Y23" s="29" t="s">
+      <c r="AA23" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="Z23" s="17" t="s">
+      <c r="AB23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA23" s="17" t="s">
+      <c r="AC23" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="AB23" s="17" t="s">
+      <c r="AD23" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="AC23" s="37"/>
-    </row>
-    <row r="24" spans="1:29" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AE23" s="37"/>
+    </row>
+    <row r="24" spans="1:31" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>203</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="25">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="E24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="20">
+      <c r="G24" s="20">
         <v>7662</v>
       </c>
-      <c r="F24" s="26">
+      <c r="H24" s="26">
         <v>7</v>
       </c>
-      <c r="G24" s="26">
+      <c r="I24" s="26">
         <v>42</v>
       </c>
-      <c r="H24" s="20">
+      <c r="J24" s="20">
         <v>2015</v>
       </c>
-      <c r="I24" s="17">
+      <c r="K24" s="17">
         <v>2040</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="29">
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="29">
         <v>2015</v>
       </c>
-      <c r="O24" s="29">
+      <c r="Q24" s="29">
         <v>2040</v>
       </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
-      <c r="T24" s="25" t="s">
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="U24" s="17" t="s">
+      <c r="W24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="V24" s="17" t="s">
+      <c r="X24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="W24" s="18" t="s">
+      <c r="Y24" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="X24" s="29" t="s">
+      <c r="Z24" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="Y24" s="29" t="s">
+      <c r="AA24" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="Z24" s="17" t="s">
+      <c r="AB24" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA24" s="17" t="s">
+      <c r="AC24" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="AB24" s="17" t="s">
+      <c r="AD24" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="AC24" s="27"/>
-    </row>
-    <row r="25" spans="1:29" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AE24" s="27"/>
+    </row>
+    <row r="25" spans="1:31" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="46">
+        <v>2021</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="E25" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="47">
+      <c r="G25" s="47">
         <v>3820</v>
       </c>
-      <c r="F25" s="40">
+      <c r="H25" s="40">
         <v>16</v>
       </c>
-      <c r="G25" s="41">
+      <c r="I25" s="41">
         <v>33</v>
       </c>
-      <c r="H25" s="41">
+      <c r="J25" s="41">
         <v>2015</v>
       </c>
-      <c r="I25" s="46">
-        <v>2050</v>
-      </c>
-      <c r="J25" s="37">
+      <c r="K25" s="46">
+        <v>2050</v>
+      </c>
+      <c r="L25" s="37">
         <v>2015</v>
       </c>
-      <c r="K25" s="37">
-        <v>2050</v>
-      </c>
-      <c r="L25" s="39">
+      <c r="M25" s="37">
+        <v>2050</v>
+      </c>
+      <c r="N25" s="39">
         <v>2015</v>
       </c>
-      <c r="M25" s="48">
-        <v>2050</v>
-      </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
+      <c r="O25" s="48">
+        <v>2050</v>
+      </c>
+      <c r="P25" s="48"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="39" t="s">
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="U25" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="V25" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="W25" s="43" t="s">
+      <c r="W25" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="X25" s="37" t="s">
+      <c r="Z25" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="37" t="s">
+      <c r="AA25" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Z25" s="39" t="s">
+      <c r="AB25" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA25" s="39" t="s">
+      <c r="AC25" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="AB25" s="39" t="s">
+      <c r="AD25" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="AC25" s="37"/>
-    </row>
-    <row r="26" spans="1:29" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AE25" s="37"/>
+    </row>
+    <row r="26" spans="1:31" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>121</v>
       </c>
       <c r="B26" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="49">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="E26" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E26" s="40">
+      <c r="G26" s="40">
         <v>7405</v>
       </c>
-      <c r="F26" s="40">
+      <c r="H26" s="40">
         <v>8</v>
       </c>
-      <c r="G26" s="41">
-        <v>41</v>
-      </c>
-      <c r="H26" s="41">
+      <c r="I26" s="41">
+        <v>41</v>
+      </c>
+      <c r="J26" s="41">
         <v>2015</v>
       </c>
-      <c r="I26" s="39">
-        <v>2050</v>
-      </c>
-      <c r="J26" s="48">
+      <c r="K26" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L26" s="48">
         <v>2015</v>
       </c>
-      <c r="K26" s="48">
-        <v>2050</v>
-      </c>
-      <c r="L26" s="39">
+      <c r="M26" s="48">
+        <v>2050</v>
+      </c>
+      <c r="N26" s="39">
         <v>2015</v>
       </c>
-      <c r="M26" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
+      <c r="O26" s="43">
+        <v>2050</v>
+      </c>
       <c r="P26" s="48"/>
       <c r="Q26" s="48"/>
       <c r="R26" s="48"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="49" t="s">
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="U26" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="V26" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="W26" s="37" t="s">
+      <c r="W26" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="X26" s="37" t="s">
+      <c r="Z26" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y26" s="48" t="s">
+      <c r="AA26" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="Z26" s="39" t="s">
+      <c r="AB26" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA26" s="39" t="s">
+      <c r="AC26" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="AB26" s="39" t="s">
+      <c r="AD26" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="AC26" s="27" t="s">
+      <c r="AE26" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="17">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="20">
+      <c r="G27" s="20">
         <v>7405</v>
       </c>
-      <c r="F27" s="26">
+      <c r="H27" s="26">
         <v>9</v>
       </c>
-      <c r="G27" s="26">
+      <c r="I27" s="26">
         <v>40</v>
       </c>
-      <c r="H27" s="26">
+      <c r="J27" s="26">
         <v>2015</v>
       </c>
-      <c r="I27" s="17">
-        <v>2050</v>
-      </c>
-      <c r="J27" s="27">
+      <c r="K27" s="17">
+        <v>2050</v>
+      </c>
+      <c r="L27" s="27">
         <v>2015</v>
       </c>
-      <c r="K27" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27">
+      <c r="M27" s="27">
+        <v>2050</v>
+      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27">
         <v>2015</v>
       </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="27"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="17" t="s">
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="U27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="W27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="X27" s="27" t="s">
+      <c r="Z27" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y27" s="27" t="s">
+      <c r="AA27" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="Z27" s="17" t="s">
+      <c r="AB27" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AA27" s="17" t="s">
+      <c r="AC27" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="AB27" s="17" t="s">
+      <c r="AD27" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="AC27" s="37"/>
-    </row>
-    <row r="28" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AE27" s="37"/>
+    </row>
+    <row r="28" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="39">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="E28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="40">
+      <c r="G28" s="40">
         <v>7821</v>
       </c>
-      <c r="F28" s="40">
+      <c r="H28" s="40">
         <v>2</v>
       </c>
-      <c r="G28" s="41">
+      <c r="I28" s="41">
         <v>47</v>
       </c>
-      <c r="H28" s="41">
+      <c r="J28" s="41">
         <v>2020</v>
       </c>
-      <c r="I28" s="39">
-        <v>2050</v>
-      </c>
-      <c r="J28" s="37">
+      <c r="K28" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L28" s="37">
         <v>2020</v>
       </c>
-      <c r="K28" s="37">
-        <v>2050</v>
-      </c>
-      <c r="L28" s="39">
+      <c r="M28" s="37">
+        <v>2050</v>
+      </c>
+      <c r="N28" s="39">
         <v>2020</v>
       </c>
-      <c r="M28" s="37">
-        <v>2050</v>
-      </c>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
+      <c r="O28" s="37">
+        <v>2050</v>
+      </c>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
-      <c r="T28" s="46" t="s">
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="U28" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="V28" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="W28" s="37" t="s">
+      <c r="W28" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="X28" s="37" t="s">
+      <c r="Z28" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="Y28" s="37" t="s">
+      <c r="AA28" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="Z28" s="39" t="s">
+      <c r="AB28" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="AA28" s="39" t="s">
+      <c r="AC28" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AB28" s="39" t="s">
+      <c r="AD28" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="AC28" s="27" t="s">
+      <c r="AE28" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="20">
+      <c r="G29" s="20">
         <v>7821</v>
       </c>
-      <c r="F29" s="26">
+      <c r="H29" s="26">
         <v>3</v>
       </c>
-      <c r="G29" s="26">
+      <c r="I29" s="26">
         <v>46</v>
       </c>
-      <c r="H29" s="26">
+      <c r="J29" s="26">
         <v>2020</v>
       </c>
-      <c r="I29" s="17">
-        <v>2050</v>
-      </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="17">
+      <c r="K29" s="17">
+        <v>2050</v>
+      </c>
+      <c r="L29" s="27"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="17">
         <v>2020</v>
       </c>
-      <c r="M29" s="29">
-        <v>2050</v>
-      </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27">
+      <c r="O29" s="29">
+        <v>2050</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27">
         <v>2030</v>
       </c>
-      <c r="P29" s="27">
-        <v>2050</v>
-      </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
+      <c r="R29" s="27">
+        <v>2050</v>
+      </c>
       <c r="S29" s="27"/>
-      <c r="T29" s="31" t="s">
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="U29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W29" s="18" t="s">
+      <c r="W29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="X29" s="27" t="s">
+      <c r="Z29" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y29" s="27" t="s">
+      <c r="AA29" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="Z29" s="17" t="s">
+      <c r="AB29" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="AA29" s="17" t="s">
+      <c r="AC29" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="AB29" s="17" t="s">
+      <c r="AD29" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="AC29" s="37"/>
-    </row>
-    <row r="30" spans="1:29" s="30" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="AE29" s="37"/>
+    </row>
+    <row r="30" spans="1:31" s="30" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="49">
+        <v>2019</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="E30" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="39">
+      <c r="G30" s="39">
         <v>528</v>
       </c>
-      <c r="F30" s="40">
+      <c r="H30" s="40">
         <v>30</v>
       </c>
-      <c r="G30" s="41">
+      <c r="I30" s="41">
         <v>32</v>
       </c>
-      <c r="H30" s="41">
+      <c r="J30" s="41">
         <v>2015</v>
       </c>
-      <c r="I30" s="39">
-        <v>2050</v>
-      </c>
-      <c r="J30" s="48">
+      <c r="K30" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L30" s="48">
         <v>2015</v>
       </c>
-      <c r="K30" s="48">
-        <v>2050</v>
-      </c>
-      <c r="L30" s="39">
+      <c r="M30" s="48">
+        <v>2050</v>
+      </c>
+      <c r="N30" s="39">
         <v>2015</v>
       </c>
-      <c r="M30" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
+      <c r="O30" s="43">
+        <v>2050</v>
+      </c>
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
       <c r="R30" s="48"/>
       <c r="S30" s="48"/>
-      <c r="T30" s="49" t="s">
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="U30" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="V30" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="W30" s="43" t="s">
+      <c r="W30" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="X30" s="37" t="s">
+      <c r="Z30" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="Y30" s="48" t="s">
+      <c r="AA30" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="Z30" s="39" t="s">
+      <c r="AB30" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA30" s="39" t="s">
+      <c r="AC30" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="AB30" s="39" t="s">
+      <c r="AD30" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="AC30" s="27" t="s">
+      <c r="AE30" s="27" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" s="44" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="29">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="20">
+      <c r="G31" s="20">
         <v>1411</v>
       </c>
-      <c r="F31" s="26">
+      <c r="H31" s="26">
         <v>17</v>
       </c>
-      <c r="G31" s="26">
+      <c r="I31" s="26">
         <v>29</v>
       </c>
-      <c r="H31" s="33">
+      <c r="J31" s="33">
         <v>2020</v>
       </c>
-      <c r="I31" s="18">
+      <c r="K31" s="18">
         <v>2060</v>
       </c>
-      <c r="J31" s="29">
-        <v>2020</v>
-      </c>
-      <c r="K31" s="29">
-        <v>2060</v>
-      </c>
-      <c r="L31" s="21">
+      <c r="L31" s="29">
         <v>2020</v>
       </c>
       <c r="M31" s="29">
         <v>2060</v>
       </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="N31" s="21">
+        <v>2020</v>
+      </c>
+      <c r="O31" s="29">
+        <v>2060</v>
+      </c>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
-      <c r="T31" s="28" t="s">
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="U31" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="V31" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="W31" s="27" t="s">
+      <c r="W31" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="X31" s="27" t="s">
+      <c r="Z31" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y31" s="27" t="s">
+      <c r="AA31" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z31" s="21" t="s">
+      <c r="AB31" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AA31" s="21" t="s">
+      <c r="AC31" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="AB31" s="21" t="s">
+      <c r="AD31" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="AC31" s="37" t="s">
+      <c r="AE31" s="37" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>96</v>
       </c>
       <c r="B32" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="59" t="s">
-        <v>97</v>
+      <c r="C32" s="43">
+        <v>2020</v>
       </c>
       <c r="D32" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="59">
         <v>330</v>
       </c>
-      <c r="F32" s="40">
+      <c r="H32" s="40">
         <v>32</v>
       </c>
-      <c r="G32" s="41">
+      <c r="I32" s="41">
         <v>16</v>
       </c>
-      <c r="H32" s="53">
+      <c r="J32" s="53">
         <v>2020</v>
       </c>
-      <c r="I32" s="43">
+      <c r="K32" s="43">
         <v>2070</v>
       </c>
-      <c r="J32" s="37">
+      <c r="L32" s="37">
         <v>2020</v>
       </c>
-      <c r="K32" s="37">
+      <c r="M32" s="37">
         <v>2070</v>
       </c>
-      <c r="L32" s="55">
+      <c r="N32" s="55">
         <v>2020</v>
       </c>
-      <c r="M32" s="48">
+      <c r="O32" s="48">
         <v>2070</v>
       </c>
-      <c r="N32" s="48"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
+      <c r="P32" s="48"/>
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="42" t="s">
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="U32" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="V32" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="W32" s="37" t="s">
+      <c r="W32" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="X32" s="37" t="s">
+      <c r="Z32" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y32" s="37" t="s">
+      <c r="AA32" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Z32" s="55" t="s">
+      <c r="AB32" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AA32" s="55" t="s">
+      <c r="AC32" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="AB32" s="55" t="s">
+      <c r="AD32" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="AC32" s="27" t="s">
+      <c r="AE32" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>166</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="29">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="E33" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="18">
+      <c r="G33" s="18">
         <v>9</v>
       </c>
-      <c r="F33" s="26">
+      <c r="H33" s="26">
         <v>47</v>
       </c>
-      <c r="G33" s="26">
+      <c r="I33" s="26">
         <v>2</v>
       </c>
-      <c r="H33" s="33">
+      <c r="J33" s="33">
         <v>2010</v>
       </c>
-      <c r="I33" s="18">
-        <v>2050</v>
-      </c>
-      <c r="J33" s="29">
+      <c r="K33" s="18">
+        <v>2050</v>
+      </c>
+      <c r="L33" s="29">
         <v>2010</v>
       </c>
-      <c r="K33" s="29">
-        <v>2050</v>
-      </c>
-      <c r="L33" s="21">
+      <c r="M33" s="29">
+        <v>2050</v>
+      </c>
+      <c r="N33" s="21">
         <v>2010</v>
       </c>
-      <c r="M33" s="18">
-        <v>2050</v>
-      </c>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
+      <c r="O33" s="18">
+        <v>2050</v>
+      </c>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
-      <c r="T33" s="29" t="s">
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="U33" s="60" t="s">
+      <c r="W33" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="V33" s="60" t="s">
+      <c r="X33" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="W33" s="18" t="s">
+      <c r="Y33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="X33" s="27" t="s">
+      <c r="Z33" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y33" s="27" t="s">
+      <c r="AA33" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Z33" s="21" t="s">
+      <c r="AB33" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="AA33" s="21" t="s">
+      <c r="AC33" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="AB33" s="21" t="s">
+      <c r="AD33" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="AC33" s="37"/>
-    </row>
-    <row r="34" spans="1:29" s="30" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE33" s="37"/>
+    </row>
+    <row r="34" spans="1:31" s="30" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="43">
+        <v>2022</v>
+      </c>
+      <c r="D34" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="E34" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="51">
+      <c r="G34" s="51">
         <v>1338</v>
       </c>
-      <c r="F34" s="40">
+      <c r="H34" s="40">
         <v>26</v>
       </c>
-      <c r="G34" s="41">
+      <c r="I34" s="41">
         <v>20</v>
       </c>
-      <c r="H34" s="53">
+      <c r="J34" s="53">
         <v>2010</v>
       </c>
-      <c r="I34" s="43">
-        <v>2050</v>
-      </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="55">
+      <c r="K34" s="43">
+        <v>2050</v>
+      </c>
+      <c r="L34" s="37"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="55">
         <v>2010</v>
       </c>
-      <c r="M34" s="58">
-        <v>2050</v>
-      </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37">
+      <c r="O34" s="58">
+        <v>2050</v>
+      </c>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37">
         <v>2030</v>
       </c>
-      <c r="P34" s="37">
-        <v>2050</v>
-      </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="43" t="s">
+      <c r="R34" s="37">
+        <v>2050</v>
+      </c>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="U34" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="V34" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="W34" s="43" t="s">
+      <c r="W34" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X34" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y34" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="X34" s="37" t="s">
+      <c r="Z34" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y34" s="37" t="s">
+      <c r="AA34" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Z34" s="55" t="s">
+      <c r="AB34" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="AA34" s="55" t="s">
+      <c r="AC34" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="AB34" s="55" t="s">
+      <c r="AD34" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="AC34" s="27" t="s">
+      <c r="AE34" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="44" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" s="44" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="37" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="42">
+        <v>2018</v>
+      </c>
+      <c r="D35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="E35" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="52">
+      <c r="G35" s="52">
         <v>7821</v>
       </c>
-      <c r="F35" s="40">
+      <c r="H35" s="40">
         <v>4</v>
       </c>
-      <c r="G35" s="41">
+      <c r="I35" s="41">
         <v>45</v>
       </c>
-      <c r="H35" s="53">
+      <c r="J35" s="53">
         <v>2020</v>
       </c>
-      <c r="I35" s="42">
-        <v>2050</v>
-      </c>
-      <c r="J35" s="37">
+      <c r="K35" s="42">
+        <v>2050</v>
+      </c>
+      <c r="L35" s="37">
         <v>2020</v>
       </c>
-      <c r="K35" s="37">
-        <v>2050</v>
-      </c>
-      <c r="L35" s="55">
+      <c r="M35" s="37">
+        <v>2050</v>
+      </c>
+      <c r="N35" s="55">
         <v>2020</v>
       </c>
-      <c r="M35" s="48">
-        <v>2050</v>
-      </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
+      <c r="O35" s="48">
+        <v>2050</v>
+      </c>
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="42" t="s">
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="U35" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="V35" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="W35" s="43" t="s">
+      <c r="W35" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y35" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="X35" s="37" t="s">
+      <c r="Z35" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y35" s="37" t="s">
+      <c r="AA35" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="Z35" s="55" t="s">
+      <c r="AB35" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AA35" s="55" t="s">
+      <c r="AC35" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="AB35" s="55" t="s">
+      <c r="AD35" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="AC35" s="37"/>
-    </row>
-    <row r="36" spans="1:29" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AE35" s="37"/>
+    </row>
+    <row r="36" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="43">
+        <v>2020</v>
+      </c>
+      <c r="D36" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="E36" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="43">
+      <c r="G36" s="43">
         <v>37.299999999999997</v>
       </c>
-      <c r="F36" s="40">
+      <c r="H36" s="40">
         <v>44</v>
       </c>
-      <c r="G36" s="41">
+      <c r="I36" s="41">
         <v>5</v>
       </c>
-      <c r="H36" s="53">
+      <c r="J36" s="53">
         <v>2010</v>
       </c>
-      <c r="I36" s="43">
-        <v>2050</v>
-      </c>
-      <c r="J36" s="37">
+      <c r="K36" s="43">
+        <v>2050</v>
+      </c>
+      <c r="L36" s="37">
         <v>2010</v>
       </c>
-      <c r="K36" s="43">
-        <v>2050</v>
-      </c>
-      <c r="L36" s="56">
+      <c r="M36" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N36" s="56">
         <v>2010</v>
       </c>
-      <c r="M36" s="37">
-        <v>2050</v>
-      </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
+      <c r="O36" s="37">
+        <v>2050</v>
+      </c>
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="43" t="s">
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="U36" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="V36" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="W36" s="43" t="s">
+      <c r="W36" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X36" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y36" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="X36" s="37" t="s">
+      <c r="Z36" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y36" s="37" t="s">
+      <c r="AA36" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="Z36" s="55" t="s">
+      <c r="AB36" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="AA36" s="55" t="s">
+      <c r="AC36" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="AB36" s="55" t="s">
+      <c r="AD36" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="AC36" s="27" t="s">
+      <c r="AE36" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B37" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="48">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="E37" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="51">
+      <c r="G37" s="51">
         <v>7405</v>
       </c>
-      <c r="F37" s="40">
+      <c r="H37" s="40">
         <v>10</v>
       </c>
-      <c r="G37" s="41">
+      <c r="I37" s="41">
         <v>39</v>
       </c>
-      <c r="H37" s="53">
+      <c r="J37" s="53">
         <v>2015</v>
       </c>
-      <c r="I37" s="43">
-        <v>2050</v>
-      </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="55">
+      <c r="K37" s="43">
+        <v>2050</v>
+      </c>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="55">
         <v>2015</v>
       </c>
-      <c r="M37" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48">
+      <c r="O37" s="43">
+        <v>2050</v>
+      </c>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48">
         <v>2030</v>
       </c>
-      <c r="P37" s="48">
-        <v>2050</v>
-      </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
+      <c r="R37" s="48">
+        <v>2050</v>
+      </c>
       <c r="S37" s="48"/>
-      <c r="T37" s="48" t="s">
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="U37" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="V37" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="W37" s="43" t="s">
+      <c r="W37" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y37" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="X37" s="37" t="s">
+      <c r="Z37" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y37" s="48" t="s">
+      <c r="AA37" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="Z37" s="55" t="s">
+      <c r="AB37" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AA37" s="55" t="s">
+      <c r="AC37" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="AB37" s="79" t="s">
+      <c r="AD37" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="AC37" s="37" t="s">
+      <c r="AE37" s="37" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="30" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" s="30" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="18">
+        <v>2023</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="E38" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="20">
+      <c r="G38" s="20">
         <v>7821</v>
       </c>
-      <c r="F38" s="26">
+      <c r="H38" s="26">
         <v>5</v>
       </c>
-      <c r="G38" s="26">
+      <c r="I38" s="26">
         <v>44</v>
       </c>
-      <c r="H38" s="33">
+      <c r="J38" s="33">
         <v>2020</v>
       </c>
-      <c r="I38" s="18">
+      <c r="K38" s="18">
         <v>2100</v>
       </c>
-      <c r="J38" s="27">
-        <v>2020</v>
-      </c>
-      <c r="K38" s="27">
-        <v>2100</v>
-      </c>
-      <c r="L38" s="17">
+      <c r="L38" s="27">
         <v>2020</v>
       </c>
       <c r="M38" s="27">
         <v>2100</v>
       </c>
-      <c r="N38" s="25"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
+      <c r="N38" s="17">
+        <v>2020</v>
+      </c>
+      <c r="O38" s="27">
+        <v>2100</v>
+      </c>
+      <c r="P38" s="25"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
-      <c r="T38" s="29" t="s">
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="U38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V38" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="W38" s="27" t="s">
+      <c r="W38" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X38" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y38" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="X38" s="27" t="s">
+      <c r="Z38" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y38" s="27" t="s">
+      <c r="AA38" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z38" s="17" t="s">
+      <c r="AB38" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="AA38" s="17" t="s">
+      <c r="AC38" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="AB38" s="17" t="s">
+      <c r="AD38" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="AC38" s="27" t="s">
+      <c r="AE38" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="57" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" s="57" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>123</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="29">
+        <v>2018</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="E39" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="24">
+      <c r="G39" s="24">
         <v>7405</v>
       </c>
-      <c r="F39" s="26">
+      <c r="H39" s="26">
         <v>11</v>
       </c>
-      <c r="G39" s="26">
+      <c r="I39" s="26">
         <v>38</v>
       </c>
-      <c r="H39" s="33">
+      <c r="J39" s="33">
         <v>2015</v>
       </c>
-      <c r="I39" s="18">
-        <v>2050</v>
-      </c>
-      <c r="J39" s="29">
+      <c r="K39" s="18">
+        <v>2050</v>
+      </c>
+      <c r="L39" s="29">
         <v>2015</v>
       </c>
-      <c r="K39" s="29">
-        <v>2050</v>
-      </c>
-      <c r="L39" s="21">
+      <c r="M39" s="29">
+        <v>2050</v>
+      </c>
+      <c r="N39" s="21">
         <v>2015</v>
       </c>
-      <c r="M39" s="18">
-        <v>2050</v>
-      </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
+      <c r="O39" s="18">
+        <v>2050</v>
+      </c>
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
       <c r="S39" s="29"/>
-      <c r="T39" s="29" t="s">
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="U39" s="21" t="s">
+      <c r="W39" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="V39" s="21" t="s">
+      <c r="X39" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="W39" s="27" t="s">
+      <c r="Y39" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="X39" s="27" t="s">
+      <c r="Z39" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y39" s="27" t="s">
+      <c r="AA39" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="Z39" s="21" t="s">
+      <c r="AB39" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AA39" s="21" t="s">
+      <c r="AC39" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="AB39" s="21" t="s">
+      <c r="AD39" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AC39" s="68"/>
-    </row>
-    <row r="40" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AE39" s="68"/>
+    </row>
+    <row r="40" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="18">
+        <v>2018</v>
+      </c>
+      <c r="D40" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="E40" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F40" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="36">
+      <c r="G40" s="36">
         <v>63.26</v>
       </c>
-      <c r="F40" s="26">
+      <c r="H40" s="26">
         <v>37</v>
       </c>
-      <c r="G40" s="26">
+      <c r="I40" s="26">
         <v>12</v>
       </c>
-      <c r="H40" s="33">
+      <c r="J40" s="33">
         <v>2011</v>
       </c>
-      <c r="I40" s="18">
+      <c r="K40" s="18">
         <v>2154</v>
       </c>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="21"/>
+      <c r="L40" s="27"/>
       <c r="M40" s="27"/>
-      <c r="N40" s="29">
+      <c r="N40" s="21"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="29">
         <v>2011</v>
       </c>
-      <c r="O40" s="27">
-        <v>2050</v>
-      </c>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="Q40" s="27">
+        <v>2050</v>
+      </c>
       <c r="R40" s="27"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29" t="s">
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="U40" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V40" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W40" s="18" t="s">
+      <c r="W40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X40" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="X40" s="27" t="s">
+      <c r="Z40" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y40" s="27" t="s">
+      <c r="AA40" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Z40" s="21" t="s">
+      <c r="AB40" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AA40" s="21" t="s">
+      <c r="AC40" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="AB40" s="21" t="s">
+      <c r="AD40" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="AC40" s="27"/>
-    </row>
-    <row r="41" spans="1:29" s="44" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE40" s="27"/>
+    </row>
+    <row r="41" spans="1:31" s="44" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="43">
+        <v>2021</v>
+      </c>
+      <c r="D41" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="E41" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F41" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="43">
+      <c r="G41" s="43">
         <v>61</v>
       </c>
-      <c r="F41" s="40">
+      <c r="H41" s="40">
         <v>38</v>
       </c>
-      <c r="G41" s="41">
+      <c r="I41" s="41">
         <v>8</v>
       </c>
-      <c r="H41" s="53">
+      <c r="J41" s="53">
         <v>2020</v>
       </c>
-      <c r="I41" s="43">
+      <c r="K41" s="43">
         <v>2060</v>
       </c>
-      <c r="J41" s="37">
-        <v>2020</v>
-      </c>
-      <c r="K41" s="37">
-        <v>2060</v>
-      </c>
-      <c r="L41" s="55">
+      <c r="L41" s="37">
         <v>2020</v>
       </c>
       <c r="M41" s="37">
         <v>2060</v>
       </c>
-      <c r="N41" s="48"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="N41" s="55">
+        <v>2020</v>
+      </c>
+      <c r="O41" s="37">
+        <v>2060</v>
+      </c>
+      <c r="P41" s="48"/>
       <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48" t="s">
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="U41" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="W41" s="43" t="s">
+      <c r="W41" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X41" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y41" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="X41" s="37" t="s">
+      <c r="Z41" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="Y41" s="37" t="s">
+      <c r="AA41" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="Z41" s="55" t="s">
+      <c r="AB41" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AA41" s="55" t="s">
+      <c r="AC41" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="AB41" s="55" t="s">
+      <c r="AD41" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="AC41" s="37" t="s">
+      <c r="AE41" s="37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="67" t="s">
         <v>103</v>
       </c>
       <c r="B42" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="67">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="E42" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F42" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="74">
+      <c r="G42" s="74">
         <v>1380</v>
       </c>
-      <c r="F42" s="40">
+      <c r="H42" s="40">
         <v>24</v>
       </c>
-      <c r="G42" s="41">
+      <c r="I42" s="41">
         <v>22</v>
       </c>
-      <c r="H42" s="75">
+      <c r="J42" s="75">
         <v>2015</v>
       </c>
-      <c r="I42" s="67">
+      <c r="K42" s="67">
         <v>2035</v>
       </c>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="73">
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="73">
         <v>2015</v>
       </c>
-      <c r="M42" s="68">
-        <v>2035</v>
-      </c>
-      <c r="N42" s="68"/>
       <c r="O42" s="68">
         <v>2035</v>
       </c>
       <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
+      <c r="Q42" s="68">
+        <v>2035</v>
+      </c>
       <c r="R42" s="68"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69" t="s">
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="U42" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="V42" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="W42" s="67" t="s">
+      <c r="W42" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="X42" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y42" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="X42" s="37" t="s">
+      <c r="Z42" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y42" s="37" t="s">
+      <c r="AA42" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="Z42" s="73" t="s">
+      <c r="AB42" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="AA42" s="73" t="s">
+      <c r="AC42" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="AB42" s="73" t="s">
+      <c r="AD42" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="AC42" s="27" t="s">
+      <c r="AE42" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>29</v>
+      <c r="C43" s="29">
+        <v>2018</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="24">
         <v>1338</v>
       </c>
-      <c r="F43" s="26">
+      <c r="H43" s="26">
         <v>27</v>
       </c>
-      <c r="G43" s="26">
+      <c r="I43" s="26">
         <v>19</v>
       </c>
-      <c r="H43" s="33">
-        <v>2010</v>
-      </c>
-      <c r="I43" s="29">
-        <v>2050</v>
-      </c>
-      <c r="J43" s="18">
+      <c r="J43" s="33">
         <v>2010</v>
       </c>
       <c r="K43" s="29">
@@ -5307,506 +5604,548 @@
       <c r="L43" s="18">
         <v>2010</v>
       </c>
-      <c r="M43" s="18">
-        <v>2050</v>
-      </c>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
+      <c r="M43" s="29">
+        <v>2050</v>
+      </c>
+      <c r="N43" s="18">
+        <v>2010</v>
+      </c>
+      <c r="O43" s="18">
+        <v>2050</v>
+      </c>
       <c r="P43" s="29"/>
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
-      <c r="T43" s="29" t="s">
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V43" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="W43" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X43" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y43" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="X43" s="27" t="s">
+      <c r="Z43" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y43" s="27" t="s">
+      <c r="AA43" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="Z43" s="18" t="s">
+      <c r="AB43" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AA43" s="18" t="s">
+      <c r="AC43" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="AB43" s="18" t="s">
+      <c r="AD43" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="AC43" s="37" t="s">
+      <c r="AE43" s="37" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="44" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" s="44" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
         <v>312</v>
       </c>
       <c r="B44" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="42">
+        <v>2021</v>
+      </c>
+      <c r="D44" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="E44" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F44" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="43">
+      <c r="G44" s="43">
         <v>80</v>
       </c>
-      <c r="F44" s="40">
+      <c r="H44" s="40">
         <v>34</v>
       </c>
-      <c r="G44" s="41">
+      <c r="I44" s="41">
         <v>14</v>
       </c>
-      <c r="H44" s="53">
+      <c r="J44" s="53">
         <v>2015</v>
       </c>
-      <c r="I44" s="42">
+      <c r="K44" s="42">
         <v>2035</v>
       </c>
-      <c r="J44" s="37">
+      <c r="L44" s="37">
         <v>2015</v>
       </c>
-      <c r="K44" s="37">
+      <c r="M44" s="37">
         <v>2035</v>
       </c>
-      <c r="L44" s="55">
+      <c r="N44" s="55">
         <v>2015</v>
       </c>
-      <c r="M44" s="48">
+      <c r="O44" s="48">
         <v>2035</v>
       </c>
-      <c r="N44" s="48"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
+      <c r="P44" s="48"/>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48" t="s">
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="V44" s="43" t="s">
-        <v>41</v>
-      </c>
       <c r="W44" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X44" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y44" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="X44" s="37" t="s">
+      <c r="Z44" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y44" s="37" t="s">
+      <c r="AA44" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="Z44" s="55" t="s">
+      <c r="AB44" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AA44" s="55" t="s">
+      <c r="AC44" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="AB44" s="79" t="s">
+      <c r="AD44" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="AC44" s="37" t="s">
+      <c r="AE44" s="37" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>313</v>
       </c>
       <c r="B45" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="43">
+        <v>2021</v>
+      </c>
+      <c r="D45" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="E45" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F45" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="51">
+      <c r="G45" s="51">
         <v>1411</v>
       </c>
-      <c r="F45" s="40">
+      <c r="H45" s="40">
         <v>18</v>
       </c>
-      <c r="G45" s="41">
+      <c r="I45" s="41">
         <v>28</v>
       </c>
-      <c r="H45" s="53">
+      <c r="J45" s="53">
         <v>2020</v>
       </c>
-      <c r="I45" s="76">
+      <c r="K45" s="76">
         <v>2060</v>
       </c>
-      <c r="J45" s="37">
-        <v>2020</v>
-      </c>
-      <c r="K45" s="37">
-        <v>2060</v>
-      </c>
-      <c r="L45" s="55">
+      <c r="L45" s="37">
         <v>2020</v>
       </c>
       <c r="M45" s="37">
         <v>2060</v>
       </c>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
+      <c r="N45" s="55">
+        <v>2020</v>
+      </c>
+      <c r="O45" s="37">
+        <v>2060</v>
+      </c>
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48" t="s">
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="U45" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="V45" s="43" t="s">
-        <v>41</v>
-      </c>
       <c r="W45" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y45" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="X45" s="37" t="s">
+      <c r="Z45" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="Y45" s="37" t="s">
+      <c r="AA45" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="Z45" s="55" t="s">
+      <c r="AB45" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AA45" s="55" t="s">
+      <c r="AC45" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="AB45" s="55" t="s">
+      <c r="AD45" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="AC45" s="27" t="s">
+      <c r="AE45" s="27" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="30" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" s="30" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="28">
+        <v>2019</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="18">
+      <c r="G46" s="18">
         <v>37.299999999999997</v>
       </c>
-      <c r="F46" s="26">
+      <c r="H46" s="26">
         <v>45</v>
       </c>
-      <c r="G46" s="26">
+      <c r="I46" s="26">
         <v>4</v>
       </c>
-      <c r="H46" s="33">
+      <c r="J46" s="33">
         <v>2010</v>
       </c>
-      <c r="I46" s="28">
-        <v>2050</v>
-      </c>
-      <c r="J46" s="27">
+      <c r="K46" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L46" s="27">
         <v>2010</v>
       </c>
-      <c r="K46" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L46" s="62">
+      <c r="M46" s="27">
+        <v>2050</v>
+      </c>
+      <c r="N46" s="62">
         <v>2010</v>
       </c>
-      <c r="M46" s="27">
-        <v>2050</v>
-      </c>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
+      <c r="O46" s="27">
+        <v>2050</v>
+      </c>
       <c r="P46" s="27"/>
       <c r="Q46" s="27"/>
       <c r="R46" s="27"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29" t="s">
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="U46" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V46" s="18" t="s">
-        <v>41</v>
-      </c>
       <c r="W46" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X46" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y46" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="X46" s="27" t="s">
+      <c r="Z46" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="Y46" s="27" t="s">
+      <c r="AA46" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="Z46" s="21" t="s">
+      <c r="AB46" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AA46" s="21" t="s">
+      <c r="AC46" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AB46" s="21" t="s">
+      <c r="AD46" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AC46" s="27"/>
-    </row>
-    <row r="47" spans="1:29" s="44" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE46" s="27"/>
+    </row>
+    <row r="47" spans="1:31" s="44" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="39">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="E47" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="39">
+      <c r="G47" s="39">
         <v>39.4</v>
       </c>
-      <c r="F47" s="40">
+      <c r="H47" s="40">
         <v>40</v>
       </c>
-      <c r="G47" s="41">
+      <c r="I47" s="41">
         <v>7</v>
       </c>
-      <c r="H47" s="41">
+      <c r="J47" s="41">
         <v>2018</v>
       </c>
-      <c r="I47" s="39">
-        <v>2050</v>
-      </c>
-      <c r="J47" s="48">
+      <c r="K47" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L47" s="48">
         <v>2018</v>
       </c>
-      <c r="K47" s="48">
-        <v>2050</v>
-      </c>
-      <c r="L47" s="39">
+      <c r="M47" s="48">
+        <v>2050</v>
+      </c>
+      <c r="N47" s="39">
         <v>2018</v>
       </c>
-      <c r="M47" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
+      <c r="O47" s="43">
+        <v>2050</v>
+      </c>
       <c r="P47" s="48"/>
       <c r="Q47" s="48"/>
       <c r="R47" s="48"/>
       <c r="S47" s="48"/>
-      <c r="T47" s="49" t="s">
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="U47" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="V47" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="W47" s="43" t="s">
+      <c r="W47" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="X47" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y47" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="X47" s="37" t="s">
+      <c r="Z47" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="Y47" s="37" t="s">
+      <c r="AA47" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="Z47" s="55" t="s">
+      <c r="AB47" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="AA47" s="55" t="s">
+      <c r="AC47" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="AB47" s="55" t="s">
+      <c r="AD47" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="AC47" s="37"/>
-    </row>
-    <row r="48" spans="1:29" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="AE47" s="37"/>
+    </row>
+    <row r="48" spans="1:31" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="87">
+        <v>2020</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F48" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="G48" s="84">
+        <v>37.99</v>
+      </c>
+      <c r="H48" s="40">
+        <v>42</v>
+      </c>
+      <c r="I48" s="41">
+        <v>10</v>
+      </c>
+      <c r="J48" s="53">
+        <v>2015</v>
+      </c>
+      <c r="K48" s="42">
+        <v>2050</v>
+      </c>
+      <c r="L48" s="37">
+        <v>2015</v>
+      </c>
+      <c r="M48" s="37">
+        <v>2050</v>
+      </c>
+      <c r="N48" s="83"/>
+      <c r="O48" s="86">
+        <v>2050</v>
+      </c>
+      <c r="P48" s="37">
+        <v>2015</v>
+      </c>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="W48" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y48" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z48" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA48" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB48" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC48" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD48" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE48" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" s="44" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B49" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C49" s="82">
+        <v>2021</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="E49" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="21">
+      <c r="G49" s="21">
         <v>37.97</v>
       </c>
-      <c r="F48" s="26">
+      <c r="H49" s="26">
         <v>43</v>
       </c>
-      <c r="G48" s="26">
+      <c r="I49" s="26">
         <v>9</v>
       </c>
-      <c r="H48" s="63">
+      <c r="J49" s="63">
         <v>2018</v>
       </c>
-      <c r="I48" s="21">
-        <v>2050</v>
-      </c>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="18">
+      <c r="K49" s="21">
+        <v>2050</v>
+      </c>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="18">
         <v>2018</v>
       </c>
-      <c r="O48" s="27">
+      <c r="Q49" s="27">
         <v>2030</v>
       </c>
-      <c r="P48" s="27">
+      <c r="R49" s="27">
         <v>2035</v>
       </c>
-      <c r="Q48" s="27">
+      <c r="S49" s="27">
         <v>2040</v>
       </c>
-      <c r="R48" s="27">
+      <c r="T49" s="27">
         <v>2045</v>
       </c>
-      <c r="S48" s="29">
-        <v>2050</v>
-      </c>
-      <c r="T48" s="60" t="s">
+      <c r="U49" s="29">
+        <v>2050</v>
+      </c>
+      <c r="V49" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="U48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="W48" s="18" t="s">
+      <c r="W49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X49" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y49" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="X48" s="27" t="s">
+      <c r="Z49" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="Y48" s="27" t="s">
+      <c r="AA49" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Z48" s="21" t="s">
+      <c r="AB49" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AA48" s="21" t="s">
+      <c r="AC49" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="AB48" s="79" t="s">
+      <c r="AD49" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="AC48" s="37" t="s">
+      <c r="AE49" s="37" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="43">
-        <v>37.99</v>
-      </c>
-      <c r="F49" s="40">
-        <v>42</v>
-      </c>
-      <c r="G49" s="41">
-        <v>10</v>
-      </c>
-      <c r="H49" s="53">
-        <v>2015</v>
-      </c>
-      <c r="I49" s="42">
-        <v>2050</v>
-      </c>
-      <c r="J49" s="37">
-        <v>2015</v>
-      </c>
-      <c r="K49" s="37">
-        <v>2050</v>
-      </c>
-      <c r="L49" s="56"/>
-      <c r="M49" s="37">
-        <v>2050</v>
-      </c>
-      <c r="N49" s="37">
-        <v>2015</v>
-      </c>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="U49" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="V49" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="W49" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="X49" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y49" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z49" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA49" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB49" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC49" s="27" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="322">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1042,6 +1042,9 @@
   </si>
   <si>
     <t>publi_yr</t>
+  </si>
+  <si>
+    <t>Microsimulation model</t>
   </si>
 </sst>
 </file>
@@ -1098,6 +1101,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2107,9 +2111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,7 +2803,7 @@
         <v>219</v>
       </c>
       <c r="AD8" s="39" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="AE8" s="18"/>
     </row>
@@ -5079,7 +5083,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="44" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" s="44" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>119</v>
       </c>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -2109,9 +2109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -2103,9 +2103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE45" sqref="AE44:AE45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -1260,12 +1260,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1404,53 +1398,59 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2109,9 +2109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2236,157 +2236,157 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="43">
         <v>2022</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="43">
         <v>67.5</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="37">
         <v>36</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="38">
         <v>13</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="38">
         <v>2021</v>
       </c>
-      <c r="K2" s="45">
-        <v>2050</v>
-      </c>
-      <c r="L2" s="36">
+      <c r="K2" s="43">
+        <v>2050</v>
+      </c>
+      <c r="L2" s="34">
         <v>2021</v>
       </c>
-      <c r="M2" s="36">
-        <v>2050</v>
-      </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="36">
-        <v>2050</v>
-      </c>
-      <c r="P2" s="47">
+      <c r="M2" s="34">
+        <v>2050</v>
+      </c>
+      <c r="N2" s="43"/>
+      <c r="O2" s="34">
+        <v>2050</v>
+      </c>
+      <c r="P2" s="45">
         <v>2021</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47" t="s">
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="Z2" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AB2" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="AD2" s="45" t="s">
+      <c r="AD2" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="AE2" s="26" t="s">
+      <c r="AE2" s="24" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>2018</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="32">
         <v>1338</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="23">
         <v>25</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="23">
         <v>21</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="23">
         <v>2010</v>
       </c>
-      <c r="K3" s="30">
-        <v>2050</v>
-      </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="K3" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="17">
         <v>2010</v>
       </c>
-      <c r="O3" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="26">
+      <c r="O3" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="24">
         <v>2030</v>
       </c>
-      <c r="R3" s="26">
-        <v>2050</v>
-      </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28" t="s">
+      <c r="R3" s="24">
+        <v>2050</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="26" t="s">
+      <c r="W3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="24" t="s">
         <v>188</v>
       </c>
       <c r="AB3" s="17" t="s">
@@ -2398,18 +2398,18 @@
       <c r="AD3" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="AE3" s="36" t="s">
+      <c r="AE3" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="29" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:31" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>2020</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -2418,58 +2418,58 @@
       <c r="E4" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="32">
         <v>1380</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="23">
         <v>21</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="23">
         <v>25</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="23">
         <v>2015</v>
       </c>
-      <c r="K4" s="24">
-        <v>2050</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
+      <c r="K4" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="17">
         <v>2015</v>
       </c>
-      <c r="O4" s="28">
-        <v>2050</v>
-      </c>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28">
+      <c r="O4" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26">
         <v>2030</v>
       </c>
-      <c r="R4" s="28">
-        <v>2050</v>
-      </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
+      <c r="R4" s="26">
+        <v>2050</v>
+      </c>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
       <c r="V4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="W4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="26" t="s">
+      <c r="W4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="26" t="s">
         <v>185</v>
       </c>
       <c r="AB4" s="17" t="s">
@@ -2481,224 +2481,224 @@
       <c r="AD4" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="AE4" s="26" t="s">
+      <c r="AE4" s="24" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>2022</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>1410</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="23">
         <v>19</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="23">
         <v>27</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>2020</v>
       </c>
-      <c r="K5" s="24">
-        <v>2050</v>
-      </c>
-      <c r="L5" s="26">
+      <c r="K5" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L5" s="24">
         <v>2020</v>
       </c>
-      <c r="M5" s="26">
-        <v>2050</v>
-      </c>
-      <c r="N5" s="24">
+      <c r="M5" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N5" s="22">
         <v>2020</v>
       </c>
-      <c r="O5" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="28" t="s">
+      <c r="O5" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="W5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="26" t="s">
+      <c r="W5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="Z5" s="26" t="s">
+      <c r="Z5" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA5" s="26" t="s">
+      <c r="AA5" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AB5" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="AC5" s="24" t="s">
+      <c r="AC5" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AD5" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="AE5" s="36"/>
-    </row>
-    <row r="6" spans="1:31" s="29" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="AE5" s="34"/>
+    </row>
+    <row r="6" spans="1:31" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="46">
         <v>2012</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="36">
         <v>3</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="37">
         <v>48</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="38">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="38">
         <v>2010</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="36">
         <v>2040</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="47">
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="45">
         <v>2010</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="45">
         <v>2040</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="48" t="s">
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="48" t="s">
+      <c r="W6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="X6" s="48" t="s">
+      <c r="X6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="42" t="s">
+      <c r="Y6" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="Z6" s="36" t="s">
+      <c r="Z6" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="AA6" s="36" t="s">
+      <c r="AA6" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="AB6" s="38" t="s">
+      <c r="AB6" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="AC6" s="54" t="s">
+      <c r="AC6" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="AD6" s="38" t="s">
+      <c r="AD6" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="AE6" s="26"/>
-    </row>
-    <row r="7" spans="1:31" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AE6" s="24"/>
+    </row>
+    <row r="7" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="28">
         <v>2021</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="28" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>1241</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="23">
         <v>29</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <v>17</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="23">
         <v>2010</v>
       </c>
-      <c r="K7" s="30">
-        <v>2050</v>
-      </c>
-      <c r="L7" s="26">
+      <c r="K7" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L7" s="24">
         <v>2010</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="24">
         <v>2050</v>
       </c>
       <c r="N7" s="17">
         <v>2010</v>
       </c>
-      <c r="O7" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="30" t="s">
+      <c r="O7" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="28" t="s">
         <v>41</v>
       </c>
       <c r="X7" s="17" t="s">
@@ -2707,10 +2707,10 @@
       <c r="Y7" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="Z7" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA7" s="26" t="s">
+      <c r="AA7" s="24" t="s">
         <v>188</v>
       </c>
       <c r="AB7" s="17" t="s">
@@ -2722,90 +2722,90 @@
       <c r="AD7" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="AE7" s="36"/>
-    </row>
-    <row r="8" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="AE7" s="34"/>
+    </row>
+    <row r="8" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="36">
         <v>2022</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="37">
         <v>1241</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="37">
         <v>28</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="38">
         <v>18</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="38">
         <v>2010</v>
       </c>
-      <c r="K8" s="38">
-        <v>2050</v>
-      </c>
-      <c r="L8" s="36">
+      <c r="K8" s="36">
+        <v>2050</v>
+      </c>
+      <c r="L8" s="34">
         <v>2010</v>
       </c>
-      <c r="M8" s="36">
-        <v>2050</v>
-      </c>
-      <c r="N8" s="38">
+      <c r="M8" s="34">
+        <v>2050</v>
+      </c>
+      <c r="N8" s="36">
         <v>2010</v>
       </c>
-      <c r="O8" s="36">
-        <v>2050</v>
-      </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="48" t="s">
+      <c r="O8" s="34">
+        <v>2050</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="Y8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="Z8" s="36" t="s">
+      <c r="Z8" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA8" s="36" t="s">
+      <c r="AA8" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" s="38" t="s">
+      <c r="AB8" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="AC8" s="38" t="s">
+      <c r="AC8" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="AD8" s="38" t="s">
+      <c r="AD8" s="36" t="s">
         <v>309</v>
       </c>
       <c r="AE8" s="18"/>
     </row>
-    <row r="9" spans="1:31" s="43" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="41" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>46</v>
       </c>
@@ -2824,22 +2824,22 @@
       <c r="F9" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="83">
         <v>3870</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>15</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="23">
         <v>34</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>2015</v>
       </c>
       <c r="K9" s="17">
         <v>2040</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="24">
         <v>2015</v>
       </c>
       <c r="M9" s="18">
@@ -2848,15 +2848,15 @@
       <c r="N9" s="17">
         <v>2015</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="24">
         <v>2040</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="18" t="s">
         <v>219</v>
       </c>
@@ -2866,13 +2866,13 @@
       <c r="X9" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="Y9" s="27" t="s">
+      <c r="Y9" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="Z9" s="26" t="s">
+      <c r="Z9" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" s="26" t="s">
+      <c r="AA9" s="24" t="s">
         <v>186</v>
       </c>
       <c r="AB9" s="17" t="s">
@@ -2884,16 +2884,16 @@
       <c r="AD9" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="AE9" s="36"/>
-    </row>
-    <row r="10" spans="1:31" s="29" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="AE9" s="34"/>
+    </row>
+    <row r="10" spans="1:31" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>2017</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -2908,203 +2908,203 @@
       <c r="G10" s="20">
         <v>6000</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>13</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="23">
         <v>36</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>2012</v>
       </c>
-      <c r="K10" s="24">
-        <v>2050</v>
-      </c>
-      <c r="L10" s="26">
+      <c r="K10" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L10" s="24">
         <v>2012</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="24">
         <v>2050</v>
       </c>
       <c r="N10" s="17">
         <v>2012</v>
       </c>
-      <c r="O10" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="28"/>
+      <c r="O10" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="26"/>
       <c r="V10" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="W10" s="30" t="s">
+      <c r="W10" s="28" t="s">
         <v>183</v>
       </c>
       <c r="X10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="Y10" s="27" t="s">
+      <c r="Y10" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="Z10" s="26" t="s">
+      <c r="Z10" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA10" s="26" t="s">
+      <c r="AA10" s="24" t="s">
         <v>185</v>
       </c>
       <c r="AB10" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="AC10" s="87" t="s">
+      <c r="AC10" s="86" t="s">
         <v>282</v>
       </c>
-      <c r="AD10" s="68" t="s">
+      <c r="AD10" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="AE10" s="26" t="s">
+      <c r="AE10" s="24" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="36">
         <v>2019</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="59" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="59">
         <v>1408</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="37">
         <v>20</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="38">
         <v>26</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="60">
         <v>2015</v>
       </c>
-      <c r="K11" s="38">
-        <v>2050</v>
-      </c>
-      <c r="L11" s="47">
+      <c r="K11" s="36">
+        <v>2050</v>
+      </c>
+      <c r="L11" s="45">
         <v>2015</v>
       </c>
-      <c r="M11" s="47">
-        <v>2050</v>
-      </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47">
+      <c r="M11" s="45">
+        <v>2050</v>
+      </c>
+      <c r="N11" s="59"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45">
         <v>2015</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="45">
         <v>2030</v>
       </c>
-      <c r="S11" s="47">
-        <v>2050</v>
-      </c>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47" t="s">
+      <c r="S11" s="45">
+        <v>2050</v>
+      </c>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="W11" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="42" t="s">
+      <c r="W11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="Z11" s="36" t="s">
+      <c r="Z11" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA11" s="36" t="s">
+      <c r="AA11" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="AB11" s="38" t="s">
+      <c r="AB11" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="AC11" s="38" t="s">
+      <c r="AC11" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="AD11" s="38" t="s">
+      <c r="AD11" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AE11" s="36"/>
-    </row>
-    <row r="12" spans="1:31" s="29" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AE11" s="34"/>
+    </row>
+    <row r="12" spans="1:31" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="70">
         <v>2023</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="28">
         <v>38.6</v>
       </c>
-      <c r="H12" s="25">
-        <v>41</v>
-      </c>
-      <c r="I12" s="25">
+      <c r="H12" s="23">
+        <v>41</v>
+      </c>
+      <c r="I12" s="23">
         <v>6</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>2017</v>
       </c>
       <c r="K12" s="17">
         <v>2060</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="24">
         <v>2017</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="24">
         <v>2060</v>
       </c>
       <c r="N12" s="17">
         <v>2017</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="26">
         <v>2060</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="28" t="s">
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="26" t="s">
         <v>126</v>
       </c>
       <c r="W12" s="17" t="s">
@@ -3113,13 +3113,13 @@
       <c r="X12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Y12" s="27" t="s">
+      <c r="Y12" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="Z12" s="26" t="s">
+      <c r="Z12" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="AA12" s="26" t="s">
+      <c r="AA12" s="24" t="s">
         <v>185</v>
       </c>
       <c r="AB12" s="17" t="s">
@@ -3131,223 +3131,223 @@
       <c r="AD12" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="AE12" s="26" t="s">
+      <c r="AE12" s="24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="43" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>2022</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="56" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="49">
         <v>1380</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="37">
         <v>22</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="38">
         <v>24</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="38">
         <v>2015</v>
       </c>
-      <c r="K13" s="53">
-        <v>2050</v>
-      </c>
-      <c r="L13" s="36">
+      <c r="K13" s="51">
+        <v>2050</v>
+      </c>
+      <c r="L13" s="34">
         <v>2015</v>
       </c>
-      <c r="M13" s="58">
-        <v>2050</v>
-      </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36">
+      <c r="M13" s="56">
+        <v>2050</v>
+      </c>
+      <c r="N13" s="43"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34">
         <v>2015</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="42" t="s">
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="W13" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="41" t="s">
+      <c r="W13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="Z13" s="36" t="s">
+      <c r="Z13" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA13" s="36" t="s">
+      <c r="AA13" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="AB13" s="38" t="s">
+      <c r="AB13" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="AC13" s="38" t="s">
+      <c r="AC13" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="AD13" s="38" t="s">
+      <c r="AD13" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="AE13" s="36"/>
-    </row>
-    <row r="14" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="AE13" s="34"/>
+    </row>
+    <row r="14" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="46">
         <v>2022</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="43">
         <v>21</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="37">
         <v>46</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="38">
         <v>3</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="38">
         <v>2020</v>
       </c>
-      <c r="K14" s="48">
-        <v>2050</v>
-      </c>
-      <c r="L14" s="47">
+      <c r="K14" s="46">
+        <v>2050</v>
+      </c>
+      <c r="L14" s="45">
         <v>2020</v>
       </c>
-      <c r="M14" s="47">
-        <v>2050</v>
-      </c>
-      <c r="N14" s="38">
+      <c r="M14" s="45">
+        <v>2050</v>
+      </c>
+      <c r="N14" s="36">
         <v>2020</v>
       </c>
-      <c r="O14" s="47">
-        <v>2050</v>
-      </c>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="48" t="s">
+      <c r="O14" s="45">
+        <v>2050</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="W14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="36" t="s">
+      <c r="W14" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="Z14" s="36" t="s">
+      <c r="Z14" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA14" s="36" t="s">
+      <c r="AA14" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="AB14" s="38" t="s">
+      <c r="AB14" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="AC14" s="38" t="s">
+      <c r="AC14" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="AD14" s="38" t="s">
+      <c r="AD14" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="AE14" s="26" t="s">
+      <c r="AE14" s="24" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <v>2023</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="28">
         <v>100</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="23">
         <v>33</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="23">
         <v>15</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>2017</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="28">
         <v>2060</v>
       </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="26">
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="24">
         <v>2017</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="24">
         <v>2030</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="24">
         <v>2060</v>
       </c>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
       <c r="U15" s="18"/>
-      <c r="V15" s="24" t="s">
+      <c r="V15" s="22" t="s">
         <v>125</v>
       </c>
       <c r="W15" s="17" t="s">
@@ -3359,10 +3359,10 @@
       <c r="Y15" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="Z15" s="26" t="s">
+      <c r="Z15" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="AA15" s="26" t="s">
+      <c r="AA15" s="24" t="s">
         <v>185</v>
       </c>
       <c r="AB15" s="17" t="s">
@@ -3374,9 +3374,9 @@
       <c r="AD15" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="AE15" s="36"/>
-    </row>
-    <row r="16" spans="1:31" s="29" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE15" s="34"/>
+    </row>
+    <row r="16" spans="1:31" s="27" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>51</v>
       </c>
@@ -3386,49 +3386,49 @@
       <c r="C16" s="17">
         <v>2018</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="23">
         <v>7821</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="23">
         <v>1</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="23">
         <v>48</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>2020</v>
       </c>
-      <c r="K16" s="23">
-        <v>2050</v>
-      </c>
-      <c r="L16" s="26">
+      <c r="K16" s="76">
+        <v>2050</v>
+      </c>
+      <c r="L16" s="24">
         <v>2020</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="24">
         <v>2050</v>
       </c>
       <c r="N16" s="17">
         <v>2020</v>
       </c>
-      <c r="O16" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="28" t="s">
+      <c r="O16" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="26" t="s">
         <v>125</v>
       </c>
       <c r="W16" s="18" t="s">
@@ -3437,13 +3437,13 @@
       <c r="X16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Y16" s="27" t="s">
+      <c r="Y16" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="Z16" s="26" t="s">
+      <c r="Z16" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA16" s="26" t="s">
+      <c r="AA16" s="24" t="s">
         <v>188</v>
       </c>
       <c r="AB16" s="17" t="s">
@@ -3459,93 +3459,93 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="43" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+    <row r="17" spans="1:31" s="41" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="45">
         <v>2013</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="48">
         <v>6970</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="37">
         <v>12</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="38">
         <v>37</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="50">
         <v>2010</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="40">
         <v>2030</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="42">
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="40">
         <v>2010</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="40">
         <v>2030</v>
       </c>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47">
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45">
         <v>2030</v>
       </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="38" t="s">
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="W17" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="36" t="s">
+      <c r="W17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="Z17" s="36" t="s">
+      <c r="Z17" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA17" s="36" t="s">
+      <c r="AA17" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="AB17" s="38" t="s">
+      <c r="AB17" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="AC17" s="42" t="s">
+      <c r="AC17" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="AD17" s="42" t="s">
+      <c r="AD17" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="AE17" s="36"/>
-    </row>
-    <row r="18" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="AE17" s="34"/>
+    </row>
+    <row r="18" spans="1:31" s="27" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>2023</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -3560,50 +3560,50 @@
       <c r="G18" s="18">
         <v>70</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="23">
         <v>35</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="23">
         <v>30</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="30">
         <v>2021</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>2100</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="24">
         <v>2021</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="24">
         <v>2100</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26">
+      <c r="N18" s="28"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24">
         <v>2020</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="27" t="s">
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="W18" s="30" t="s">
+      <c r="W18" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="X18" s="30" t="s">
+      <c r="X18" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="Y18" s="27" t="s">
+      <c r="Y18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="26" t="s">
+      <c r="Z18" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="AA18" s="26" t="s">
+      <c r="AA18" s="24" t="s">
         <v>194</v>
       </c>
       <c r="AB18" s="17" t="s">
@@ -3612,143 +3612,143 @@
       <c r="AC18" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="AD18" s="45" t="s">
+      <c r="AD18" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="AE18" s="26"/>
-    </row>
-    <row r="19" spans="1:31" s="43" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="AE18" s="24"/>
+    </row>
+    <row r="19" spans="1:31" s="41" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="36">
         <v>2022</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>107</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="38">
         <v>4680</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="37">
         <v>14</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="38">
         <v>35</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="38">
         <v>2010</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="36">
         <v>2040</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="38">
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="36">
         <v>2010</v>
       </c>
-      <c r="O19" s="47">
+      <c r="O19" s="45">
         <v>2040</v>
       </c>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47">
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45">
         <v>2040</v>
       </c>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="47" t="s">
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="W19" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19" s="36" t="s">
+      <c r="W19" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="Z19" s="36" t="s">
+      <c r="Z19" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA19" s="47" t="s">
+      <c r="AA19" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="AB19" s="38" t="s">
+      <c r="AB19" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="AC19" s="38" t="s">
+      <c r="AC19" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="AD19" s="38" t="s">
+      <c r="AD19" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AE19" s="36"/>
-    </row>
-    <row r="20" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="AE19" s="34"/>
+    </row>
+    <row r="20" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="28">
         <v>2021</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="28">
         <v>51</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="23">
         <v>39</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="23">
         <v>11</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <v>2022</v>
       </c>
-      <c r="K20" s="30">
-        <v>2050</v>
-      </c>
-      <c r="L20" s="26">
+      <c r="K20" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L20" s="24">
         <v>2022</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="24">
         <v>2050</v>
       </c>
       <c r="N20" s="17">
         <v>2022</v>
       </c>
-      <c r="O20" s="28">
-        <v>2050</v>
-      </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28" t="s">
+      <c r="O20" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26" t="s">
         <v>129</v>
       </c>
       <c r="W20" s="18" t="s">
@@ -3760,10 +3760,10 @@
       <c r="Y20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Z20" s="26" t="s">
+      <c r="Z20" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="AA20" s="26" t="s">
+      <c r="AA20" s="24" t="s">
         <v>188</v>
       </c>
       <c r="AB20" s="17" t="s">
@@ -3775,91 +3775,91 @@
       <c r="AD20" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AE20" s="26"/>
-    </row>
-    <row r="21" spans="1:31" s="43" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="AE20" s="24"/>
+    </row>
+    <row r="21" spans="1:31" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="36">
         <v>2021</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="37">
         <v>7662</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="37">
         <v>6</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="38">
         <v>43</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="38">
         <v>2018</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>2030</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="45">
         <v>2018</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="45">
         <v>2030</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="36">
         <v>2018</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="40">
         <v>2030</v>
       </c>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="48" t="s">
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="W21" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="X21" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="36" t="s">
+      <c r="W21" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="X21" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="Z21" s="36" t="s">
+      <c r="Z21" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA21" s="36" t="s">
+      <c r="AA21" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="AB21" s="38" t="s">
+      <c r="AB21" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="AC21" s="38" t="s">
+      <c r="AC21" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="AD21" s="38" t="s">
+      <c r="AD21" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="AE21" s="36"/>
-    </row>
-    <row r="22" spans="1:31" s="29" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="AE21" s="34"/>
+    </row>
+    <row r="22" spans="1:31" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -3880,35 +3880,35 @@
       <c r="G22" s="20">
         <v>1380</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="23">
         <v>23</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="23">
         <v>23</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>2015</v>
       </c>
       <c r="K22" s="17">
         <v>2030</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="17">
         <v>2015</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="24">
         <v>2030</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26">
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24">
         <v>2030</v>
       </c>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="30" t="s">
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="28" t="s">
         <v>131</v>
       </c>
       <c r="W22" s="17" t="s">
@@ -3920,10 +3920,10 @@
       <c r="Y22" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="Z22" s="26" t="s">
+      <c r="Z22" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA22" s="26" t="s">
+      <c r="AA22" s="24" t="s">
         <v>188</v>
       </c>
       <c r="AB22" s="17" t="s">
@@ -3932,21 +3932,21 @@
       <c r="AC22" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="AD22" s="68" t="s">
+      <c r="AD22" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="AE22" s="26" t="s">
+      <c r="AE22" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="43" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="41" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>2012</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -3961,10 +3961,10 @@
       <c r="G23" s="17">
         <v>503</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="23">
         <v>31</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="23">
         <v>31</v>
       </c>
       <c r="J23" s="20">
@@ -3973,10 +3973,10 @@
       <c r="K23" s="17">
         <v>2050</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="26">
         <v>2005</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="26">
         <v>2050</v>
       </c>
       <c r="N23" s="17">
@@ -3985,13 +3985,13 @@
       <c r="O23" s="18">
         <v>2050</v>
       </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="28" t="s">
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="26" t="s">
         <v>198</v>
       </c>
       <c r="W23" s="18" t="s">
@@ -4003,10 +4003,10 @@
       <c r="Y23" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="Z23" s="28" t="s">
+      <c r="Z23" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="AA23" s="28" t="s">
+      <c r="AA23" s="26" t="s">
         <v>188</v>
       </c>
       <c r="AB23" s="17" t="s">
@@ -4018,16 +4018,16 @@
       <c r="AD23" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="AE23" s="36"/>
-    </row>
-    <row r="24" spans="1:31" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AE23" s="34"/>
+    </row>
+    <row r="24" spans="1:31" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>2018</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -4042,10 +4042,10 @@
       <c r="G24" s="20">
         <v>7662</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="23">
         <v>7</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="23">
         <v>42</v>
       </c>
       <c r="J24" s="20">
@@ -4054,21 +4054,21 @@
       <c r="K24" s="17">
         <v>2040</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="17"/>
       <c r="O24" s="18"/>
-      <c r="P24" s="28">
+      <c r="P24" s="26">
         <v>2015</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="26">
         <v>2040</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="24" t="s">
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="22" t="s">
         <v>204</v>
       </c>
       <c r="W24" s="17" t="s">
@@ -4080,10 +4080,10 @@
       <c r="Y24" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Z24" s="28" t="s">
+      <c r="Z24" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="AA24" s="28" t="s">
+      <c r="AA24" s="26" t="s">
         <v>186</v>
       </c>
       <c r="AB24" s="17" t="s">
@@ -4095,174 +4095,174 @@
       <c r="AD24" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="AE24" s="26"/>
-    </row>
-    <row r="25" spans="1:31" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="AE24" s="24"/>
+    </row>
+    <row r="25" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="43">
         <v>2021</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="43" t="s">
         <v>81</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="44">
         <v>3820</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="37">
         <v>16</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="38">
         <v>33</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="38">
         <v>2015</v>
       </c>
-      <c r="K25" s="45">
-        <v>2050</v>
-      </c>
-      <c r="L25" s="36">
+      <c r="K25" s="43">
+        <v>2050</v>
+      </c>
+      <c r="L25" s="34">
         <v>2015</v>
       </c>
-      <c r="M25" s="36">
-        <v>2050</v>
-      </c>
-      <c r="N25" s="38">
+      <c r="M25" s="34">
+        <v>2050</v>
+      </c>
+      <c r="N25" s="36">
         <v>2015</v>
       </c>
-      <c r="O25" s="47">
-        <v>2050</v>
-      </c>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="38" t="s">
+      <c r="O25" s="45">
+        <v>2050</v>
+      </c>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="W25" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y25" s="42" t="s">
+      <c r="W25" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="Z25" s="36" t="s">
+      <c r="Z25" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA25" s="36" t="s">
+      <c r="AA25" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="AB25" s="38" t="s">
+      <c r="AB25" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="AC25" s="38" t="s">
+      <c r="AC25" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AD25" s="38" t="s">
+      <c r="AD25" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="AE25" s="36"/>
-    </row>
-    <row r="26" spans="1:31" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="AE25" s="34"/>
+    </row>
+    <row r="26" spans="1:31" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="46">
         <v>2020</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="37">
         <v>7405</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="37">
         <v>8</v>
       </c>
-      <c r="I26" s="40">
-        <v>41</v>
-      </c>
-      <c r="J26" s="40">
+      <c r="I26" s="38">
+        <v>41</v>
+      </c>
+      <c r="J26" s="38">
         <v>2015</v>
       </c>
-      <c r="K26" s="38">
-        <v>2050</v>
-      </c>
-      <c r="L26" s="47">
+      <c r="K26" s="36">
+        <v>2050</v>
+      </c>
+      <c r="L26" s="45">
         <v>2015</v>
       </c>
-      <c r="M26" s="47">
-        <v>2050</v>
-      </c>
-      <c r="N26" s="38">
+      <c r="M26" s="45">
+        <v>2050</v>
+      </c>
+      <c r="N26" s="36">
         <v>2015</v>
       </c>
-      <c r="O26" s="42">
-        <v>2050</v>
-      </c>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="48" t="s">
+      <c r="O26" s="40">
+        <v>2050</v>
+      </c>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="W26" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="X26" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y26" s="36" t="s">
+      <c r="W26" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="Z26" s="36" t="s">
+      <c r="Z26" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA26" s="47" t="s">
+      <c r="AA26" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="AB26" s="38" t="s">
+      <c r="AB26" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="AC26" s="38" t="s">
+      <c r="AC26" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="AD26" s="38" t="s">
+      <c r="AD26" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="AE26" s="26" t="s">
+      <c r="AE26" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -4274,7 +4274,7 @@
       <c r="D27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="17" t="s">
@@ -4283,34 +4283,34 @@
       <c r="G27" s="20">
         <v>7405</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="23">
         <v>9</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="23">
         <v>40</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="23">
         <v>2015</v>
       </c>
       <c r="K27" s="17">
         <v>2050</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="24">
         <v>2015</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="24">
         <v>2050</v>
       </c>
       <c r="N27" s="17"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26">
+      <c r="O27" s="24"/>
+      <c r="P27" s="24">
         <v>2015</v>
       </c>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="28"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="26"/>
       <c r="V27" s="17" t="s">
         <v>125</v>
       </c>
@@ -4323,10 +4323,10 @@
       <c r="Y27" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Z27" s="26" t="s">
+      <c r="Z27" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA27" s="26" t="s">
+      <c r="AA27" s="24" t="s">
         <v>187</v>
       </c>
       <c r="AB27" s="17" t="s">
@@ -4338,93 +4338,93 @@
       <c r="AD27" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="AE27" s="36"/>
-    </row>
-    <row r="28" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="AE27" s="34"/>
+    </row>
+    <row r="28" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="36">
         <v>2020</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="37">
         <v>7821</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="37">
         <v>2</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="38">
         <v>47</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="38">
         <v>2020</v>
       </c>
-      <c r="K28" s="38">
-        <v>2050</v>
-      </c>
-      <c r="L28" s="36">
+      <c r="K28" s="36">
+        <v>2050</v>
+      </c>
+      <c r="L28" s="34">
         <v>2020</v>
       </c>
-      <c r="M28" s="36">
-        <v>2050</v>
-      </c>
-      <c r="N28" s="38">
+      <c r="M28" s="34">
+        <v>2050</v>
+      </c>
+      <c r="N28" s="36">
         <v>2020</v>
       </c>
-      <c r="O28" s="36">
-        <v>2050</v>
-      </c>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="45" t="s">
+      <c r="O28" s="34">
+        <v>2050</v>
+      </c>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="W28" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" s="36" t="s">
+      <c r="W28" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Z28" s="36" t="s">
+      <c r="Z28" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="AA28" s="36" t="s">
+      <c r="AA28" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="AB28" s="38" t="s">
+      <c r="AB28" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="AC28" s="38" t="s">
+      <c r="AC28" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="AD28" s="38" t="s">
+      <c r="AD28" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="AE28" s="26" t="s">
+      <c r="AE28" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+    <row r="29" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -4436,7 +4436,7 @@
       <c r="D29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -4445,37 +4445,37 @@
       <c r="G29" s="20">
         <v>7821</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="23">
         <v>3</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="23">
         <v>46</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="23">
         <v>2020</v>
       </c>
       <c r="K29" s="17">
         <v>2050</v>
       </c>
-      <c r="L29" s="26"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="18"/>
       <c r="N29" s="17">
         <v>2020</v>
       </c>
-      <c r="O29" s="28">
-        <v>2050</v>
-      </c>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26">
+      <c r="O29" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24">
         <v>2030</v>
       </c>
-      <c r="R29" s="26">
-        <v>2050</v>
-      </c>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="30" t="s">
+      <c r="R29" s="24">
+        <v>2050</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="28" t="s">
         <v>68</v>
       </c>
       <c r="W29" s="17" t="s">
@@ -4487,10 +4487,10 @@
       <c r="Y29" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Z29" s="26" t="s">
+      <c r="Z29" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA29" s="26" t="s">
+      <c r="AA29" s="24" t="s">
         <v>186</v>
       </c>
       <c r="AB29" s="17" t="s">
@@ -4502,99 +4502,99 @@
       <c r="AD29" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="AE29" s="36"/>
-    </row>
-    <row r="30" spans="1:31" s="29" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
+      <c r="AE29" s="34"/>
+    </row>
+    <row r="30" spans="1:31" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="46">
         <v>2019</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="46" t="s">
         <v>174</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="36">
         <v>528</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="37">
         <v>30</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="38">
         <v>32</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="38">
         <v>2015</v>
       </c>
-      <c r="K30" s="38">
-        <v>2050</v>
-      </c>
-      <c r="L30" s="47">
+      <c r="K30" s="36">
+        <v>2050</v>
+      </c>
+      <c r="L30" s="45">
         <v>2015</v>
       </c>
-      <c r="M30" s="47">
-        <v>2050</v>
-      </c>
-      <c r="N30" s="38">
+      <c r="M30" s="45">
+        <v>2050</v>
+      </c>
+      <c r="N30" s="36">
         <v>2015</v>
       </c>
-      <c r="O30" s="42">
-        <v>2050</v>
-      </c>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="48" t="s">
+      <c r="O30" s="40">
+        <v>2050</v>
+      </c>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="W30" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y30" s="42" t="s">
+      <c r="W30" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="Z30" s="36" t="s">
+      <c r="Z30" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="AA30" s="47" t="s">
+      <c r="AA30" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="AB30" s="38" t="s">
+      <c r="AB30" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="AC30" s="38" t="s">
+      <c r="AC30" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="AD30" s="38" t="s">
+      <c r="AD30" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="AE30" s="26" t="s">
+      <c r="AE30" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="43" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="26">
         <v>2022</v>
       </c>
       <c r="D31" s="21" t="s">
@@ -4609,52 +4609,52 @@
       <c r="G31" s="20">
         <v>1411</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="23">
         <v>17</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="23">
         <v>29</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="30">
         <v>2020</v>
       </c>
       <c r="K31" s="18">
         <v>2060</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="26">
         <v>2020</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="26">
         <v>2060</v>
       </c>
       <c r="N31" s="21">
         <v>2020</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="26">
         <v>2060</v>
       </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="27" t="s">
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="W31" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="X31" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y31" s="26" t="s">
+      <c r="W31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="Z31" s="26" t="s">
+      <c r="Z31" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA31" s="26" t="s">
+      <c r="AA31" s="24" t="s">
         <v>185</v>
       </c>
       <c r="AB31" s="21" t="s">
@@ -4666,107 +4666,107 @@
       <c r="AD31" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="AE31" s="36" t="s">
+      <c r="AE31" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="67" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+    <row r="32" spans="1:31" s="65" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="40">
         <v>2020</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="56" t="s">
         <v>97</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G32" s="56">
         <v>330</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="37">
         <v>32</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="38">
         <v>16</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="50">
         <v>2020</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="40">
         <v>2070</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="34">
         <v>2020</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32" s="34">
         <v>2070</v>
       </c>
-      <c r="N32" s="54">
+      <c r="N32" s="52">
         <v>2020</v>
       </c>
-      <c r="O32" s="47">
+      <c r="O32" s="45">
         <v>2070</v>
       </c>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="41" t="s">
+      <c r="P32" s="45"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="W32" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="X32" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y32" s="36" t="s">
+      <c r="W32" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Z32" s="36" t="s">
+      <c r="Z32" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA32" s="36" t="s">
+      <c r="AA32" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="AB32" s="54" t="s">
+      <c r="AB32" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="AC32" s="54" t="s">
+      <c r="AC32" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="AD32" s="54" t="s">
+      <c r="AD32" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="AE32" s="26" t="s">
+      <c r="AE32" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:31" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="26">
         <v>2015</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="40" t="s">
         <v>307</v>
       </c>
       <c r="F33" s="18" t="s">
@@ -4775,22 +4775,22 @@
       <c r="G33" s="18">
         <v>9</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="23">
         <v>47</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="23">
         <v>2</v>
       </c>
-      <c r="J33" s="32">
+      <c r="J33" s="30">
         <v>2010</v>
       </c>
       <c r="K33" s="18">
         <v>2050</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="26">
         <v>2010</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="26">
         <v>2050</v>
       </c>
       <c r="N33" s="21">
@@ -4799,28 +4799,28 @@
       <c r="O33" s="18">
         <v>2050</v>
       </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28" t="s">
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="W33" s="59" t="s">
+      <c r="W33" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="X33" s="59" t="s">
+      <c r="X33" s="57" t="s">
         <v>175</v>
       </c>
       <c r="Y33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Z33" s="26" t="s">
+      <c r="Z33" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA33" s="26" t="s">
+      <c r="AA33" s="24" t="s">
         <v>185</v>
       </c>
       <c r="AB33" s="21" t="s">
@@ -4832,340 +4832,340 @@
       <c r="AD33" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="AE33" s="36"/>
-    </row>
-    <row r="34" spans="1:31" s="29" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="AE33" s="34"/>
+    </row>
+    <row r="34" spans="1:31" s="27" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="40">
         <v>2022</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="52" t="s">
         <v>29</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="50">
+      <c r="G34" s="48">
         <v>1338</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="37">
         <v>26</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="38">
         <v>20</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J34" s="50">
         <v>2010</v>
       </c>
-      <c r="K34" s="42">
-        <v>2050</v>
-      </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="54">
+      <c r="K34" s="40">
+        <v>2050</v>
+      </c>
+      <c r="L34" s="34"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="52">
         <v>2010</v>
       </c>
-      <c r="O34" s="57">
-        <v>2050</v>
-      </c>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36">
+      <c r="O34" s="55">
+        <v>2050</v>
+      </c>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34">
         <v>2030</v>
       </c>
-      <c r="R34" s="36">
-        <v>2050</v>
-      </c>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="42" t="s">
+      <c r="R34" s="34">
+        <v>2050</v>
+      </c>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="W34" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X34" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y34" s="42" t="s">
+      <c r="W34" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X34" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y34" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Z34" s="36" t="s">
+      <c r="Z34" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA34" s="36" t="s">
+      <c r="AA34" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="AB34" s="54" t="s">
+      <c r="AB34" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="AC34" s="54" t="s">
+      <c r="AC34" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="AD34" s="54" t="s">
+      <c r="AD34" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="AE34" s="26" t="s">
+      <c r="AE34" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="43" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:31" s="41" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="39">
         <v>2018</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="49">
         <v>7821</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="37">
         <v>4</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="38">
         <v>45</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="50">
         <v>2020</v>
       </c>
-      <c r="K35" s="41">
-        <v>2050</v>
-      </c>
-      <c r="L35" s="36">
+      <c r="K35" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L35" s="34">
         <v>2020</v>
       </c>
-      <c r="M35" s="36">
-        <v>2050</v>
-      </c>
-      <c r="N35" s="54">
+      <c r="M35" s="34">
+        <v>2050</v>
+      </c>
+      <c r="N35" s="52">
         <v>2020</v>
       </c>
-      <c r="O35" s="47">
-        <v>2050</v>
-      </c>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="41" t="s">
+      <c r="O35" s="45">
+        <v>2050</v>
+      </c>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="W35" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X35" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y35" s="42" t="s">
+      <c r="W35" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y35" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="Z35" s="36" t="s">
+      <c r="Z35" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA35" s="36" t="s">
+      <c r="AA35" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="AB35" s="54" t="s">
+      <c r="AB35" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AC35" s="54" t="s">
+      <c r="AC35" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="AD35" s="54" t="s">
+      <c r="AD35" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="AE35" s="36"/>
-    </row>
-    <row r="36" spans="1:31" s="29" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
+      <c r="AE35" s="34"/>
+    </row>
+    <row r="36" spans="1:31" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="40">
         <v>2020</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="40">
         <v>37.299999999999997</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="37">
         <v>44</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="38">
         <v>5</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J36" s="50">
         <v>2010</v>
       </c>
-      <c r="K36" s="42">
-        <v>2050</v>
-      </c>
-      <c r="L36" s="36">
+      <c r="K36" s="40">
+        <v>2050</v>
+      </c>
+      <c r="L36" s="34">
         <v>2010</v>
       </c>
-      <c r="M36" s="42">
-        <v>2050</v>
-      </c>
-      <c r="N36" s="55">
+      <c r="M36" s="40">
+        <v>2050</v>
+      </c>
+      <c r="N36" s="53">
         <v>2010</v>
       </c>
-      <c r="O36" s="36">
-        <v>2050</v>
-      </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="42" t="s">
+      <c r="O36" s="34">
+        <v>2050</v>
+      </c>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="W36" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X36" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y36" s="42" t="s">
+      <c r="W36" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X36" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y36" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Z36" s="36" t="s">
+      <c r="Z36" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA36" s="36" t="s">
+      <c r="AA36" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="AB36" s="54" t="s">
+      <c r="AB36" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="AC36" s="54" t="s">
+      <c r="AC36" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="AD36" s="54" t="s">
+      <c r="AD36" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="AE36" s="26" t="s">
+      <c r="AE36" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:31" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
+    <row r="37" spans="1:31" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="45">
         <v>2022</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37" s="48">
         <v>7405</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="37">
         <v>10</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="38">
         <v>39</v>
       </c>
-      <c r="J37" s="52">
+      <c r="J37" s="50">
         <v>2015</v>
       </c>
-      <c r="K37" s="42">
-        <v>2050</v>
-      </c>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="54">
+      <c r="K37" s="40">
+        <v>2050</v>
+      </c>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="52">
         <v>2015</v>
       </c>
-      <c r="O37" s="42">
-        <v>2050</v>
-      </c>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47">
+      <c r="O37" s="40">
+        <v>2050</v>
+      </c>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45">
         <v>2030</v>
       </c>
-      <c r="R37" s="47">
-        <v>2050</v>
-      </c>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47" t="s">
+      <c r="R37" s="45">
+        <v>2050</v>
+      </c>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="W37" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="X37" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y37" s="42" t="s">
+      <c r="W37" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y37" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Z37" s="36" t="s">
+      <c r="Z37" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA37" s="47" t="s">
+      <c r="AA37" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="AB37" s="54" t="s">
+      <c r="AB37" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AC37" s="54" t="s">
+      <c r="AC37" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="AD37" s="69" t="s">
+      <c r="AD37" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="AE37" s="36" t="s">
+      <c r="AE37" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:31" s="29" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:31" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -5177,7 +5177,7 @@
       <c r="D38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F38" s="18" t="s">
@@ -5186,37 +5186,37 @@
       <c r="G38" s="20">
         <v>7821</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="23">
         <v>5</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="23">
         <v>44</v>
       </c>
-      <c r="J38" s="32">
+      <c r="J38" s="30">
         <v>2020</v>
       </c>
       <c r="K38" s="18">
         <v>2100</v>
       </c>
-      <c r="L38" s="26">
+      <c r="L38" s="24">
         <v>2020</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="24">
         <v>2100</v>
       </c>
       <c r="N38" s="17">
         <v>2020</v>
       </c>
-      <c r="O38" s="26">
+      <c r="O38" s="24">
         <v>2100</v>
       </c>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="28" t="s">
+      <c r="P38" s="22"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="26" t="s">
         <v>125</v>
       </c>
       <c r="W38" s="17" t="s">
@@ -5225,13 +5225,13 @@
       <c r="X38" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Y38" s="26" t="s">
+      <c r="Y38" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="Z38" s="26" t="s">
+      <c r="Z38" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA38" s="26" t="s">
+      <c r="AA38" s="24" t="s">
         <v>188</v>
       </c>
       <c r="AB38" s="17" t="s">
@@ -5243,48 +5243,48 @@
       <c r="AD38" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="AE38" s="26" t="s">
+      <c r="AE38" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:31" s="56" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="26">
         <v>2018</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="81">
+      <c r="G39" s="72">
         <v>7405</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="23">
         <v>11</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="23">
         <v>38</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J39" s="30">
         <v>2015</v>
       </c>
       <c r="K39" s="18">
         <v>2050</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39" s="26">
         <v>2015</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="26">
         <v>2050</v>
       </c>
       <c r="N39" s="21">
@@ -5293,13 +5293,13 @@
       <c r="O39" s="18">
         <v>2050</v>
       </c>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28" t="s">
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26" t="s">
         <v>139</v>
       </c>
       <c r="W39" s="21" t="s">
@@ -5308,13 +5308,13 @@
       <c r="X39" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="Y39" s="26" t="s">
+      <c r="Y39" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="Z39" s="26" t="s">
+      <c r="Z39" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA39" s="26" t="s">
+      <c r="AA39" s="24" t="s">
         <v>188</v>
       </c>
       <c r="AB39" s="21" t="s">
@@ -5326,9 +5326,9 @@
       <c r="AD39" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="AE39" s="65"/>
-    </row>
-    <row r="40" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AE39" s="63"/>
+    </row>
+    <row r="40" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>85</v>
       </c>
@@ -5338,45 +5338,45 @@
       <c r="C40" s="18">
         <v>2018</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="D40" s="80" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="33">
         <v>63.26</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="23">
         <v>37</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="23">
         <v>12</v>
       </c>
-      <c r="J40" s="32">
+      <c r="J40" s="30">
         <v>2011</v>
       </c>
       <c r="K40" s="18">
         <v>2154</v>
       </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
       <c r="N40" s="21"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="28">
+      <c r="O40" s="24"/>
+      <c r="P40" s="26">
         <v>2011</v>
       </c>
-      <c r="Q40" s="26">
-        <v>2050</v>
-      </c>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28" t="s">
+      <c r="Q40" s="24">
+        <v>2050</v>
+      </c>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26" t="s">
         <v>125</v>
       </c>
       <c r="W40" s="21" t="s">
@@ -5388,10 +5388,10 @@
       <c r="Y40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Z40" s="26" t="s">
+      <c r="Z40" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA40" s="26" t="s">
+      <c r="AA40" s="24" t="s">
         <v>185</v>
       </c>
       <c r="AB40" s="21" t="s">
@@ -5403,180 +5403,180 @@
       <c r="AD40" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="AE40" s="26"/>
-    </row>
-    <row r="41" spans="1:31" s="43" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="AE40" s="24"/>
+    </row>
+    <row r="41" spans="1:31" s="41" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="40">
         <v>2021</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="52" t="s">
         <v>86</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="40">
         <v>61</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="37">
         <v>38</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="38">
         <v>8</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J41" s="50">
         <v>2020</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="40">
         <v>2060</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="34">
         <v>2020</v>
       </c>
-      <c r="M41" s="36">
+      <c r="M41" s="34">
         <v>2060</v>
       </c>
-      <c r="N41" s="54">
+      <c r="N41" s="52">
         <v>2020</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="34">
         <v>2060</v>
       </c>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47" t="s">
+      <c r="P41" s="45"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="W41" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X41" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y41" s="42" t="s">
+      <c r="W41" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X41" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y41" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="Z41" s="36" t="s">
+      <c r="Z41" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="AA41" s="36" t="s">
+      <c r="AA41" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="AB41" s="54" t="s">
+      <c r="AB41" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AC41" s="54" t="s">
+      <c r="AC41" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="AD41" s="54" t="s">
+      <c r="AD41" s="52" t="s">
         <v>264</v>
       </c>
-      <c r="AE41" s="36" t="s">
+      <c r="AE41" s="34" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="64" t="s">
+    <row r="42" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="62">
         <v>2020</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="82" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="82">
+      <c r="G42" s="84">
         <v>1380</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="37">
         <v>24</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="38">
         <v>22</v>
       </c>
-      <c r="J42" s="84">
+      <c r="J42" s="85">
         <v>2015</v>
       </c>
-      <c r="K42" s="64">
+      <c r="K42" s="62">
         <v>2035</v>
       </c>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="80">
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="82">
         <v>2015</v>
       </c>
-      <c r="O42" s="65">
+      <c r="O42" s="63">
         <v>2035</v>
       </c>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65">
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63">
         <v>2035</v>
       </c>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66" t="s">
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="W42" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="X42" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y42" s="64" t="s">
+      <c r="W42" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="X42" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y42" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="Z42" s="36" t="s">
+      <c r="Z42" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA42" s="36" t="s">
+      <c r="AA42" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="AB42" s="80" t="s">
+      <c r="AB42" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="AC42" s="80" t="s">
+      <c r="AC42" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="AD42" s="80" t="s">
+      <c r="AD42" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="AE42" s="26" t="s">
+      <c r="AE42" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="43" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="26">
         <v>2018</v>
       </c>
       <c r="D43" s="18" t="s">
@@ -5588,25 +5588,25 @@
       <c r="F43" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G43" s="81">
+      <c r="G43" s="72">
         <v>1338</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="23">
         <v>27</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I43" s="23">
         <v>19</v>
       </c>
-      <c r="J43" s="32">
+      <c r="J43" s="30">
         <v>2010</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="26">
         <v>2050</v>
       </c>
       <c r="L43" s="18">
         <v>2010</v>
       </c>
-      <c r="M43" s="28">
+      <c r="M43" s="26">
         <v>2050</v>
       </c>
       <c r="N43" s="18">
@@ -5615,13 +5615,13 @@
       <c r="O43" s="18">
         <v>2050</v>
       </c>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28" t="s">
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26" t="s">
         <v>125</v>
       </c>
       <c r="W43" s="18" t="s">
@@ -5633,10 +5633,10 @@
       <c r="Y43" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="Z43" s="26" t="s">
+      <c r="Z43" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA43" s="26" t="s">
+      <c r="AA43" s="24" t="s">
         <v>194</v>
       </c>
       <c r="AB43" s="18" t="s">
@@ -5648,190 +5648,190 @@
       <c r="AD43" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="AE43" s="36" t="s">
+      <c r="AE43" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="43" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
+    <row r="44" spans="1:31" s="41" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="39">
         <v>2021</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="39" t="s">
         <v>87</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="40">
         <v>80</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H44" s="37">
         <v>34</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="38">
         <v>14</v>
       </c>
-      <c r="J44" s="52">
+      <c r="J44" s="50">
         <v>2015</v>
       </c>
-      <c r="K44" s="41">
+      <c r="K44" s="39">
         <v>2035</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="34">
         <v>2015</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44" s="34">
         <v>2035</v>
       </c>
-      <c r="N44" s="54">
+      <c r="N44" s="52">
         <v>2015</v>
       </c>
-      <c r="O44" s="47">
+      <c r="O44" s="45">
         <v>2035</v>
       </c>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47" t="s">
+      <c r="P44" s="45"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="W44" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="X44" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y44" s="42" t="s">
+      <c r="W44" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="X44" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y44" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Z44" s="36" t="s">
+      <c r="Z44" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA44" s="36" t="s">
+      <c r="AA44" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="AB44" s="54" t="s">
+      <c r="AB44" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AC44" s="54" t="s">
+      <c r="AC44" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="AD44" s="69" t="s">
+      <c r="AD44" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="AE44" s="26" t="s">
+      <c r="AE44" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
+    <row r="45" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="40">
         <v>2021</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="81" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="50">
+      <c r="G45" s="48">
         <v>1411</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="37">
         <v>18</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="38">
         <v>28</v>
       </c>
-      <c r="J45" s="52">
+      <c r="J45" s="50">
         <v>2020</v>
       </c>
-      <c r="K45" s="85">
+      <c r="K45" s="74">
         <v>2060</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="34">
         <v>2020</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="34">
         <v>2060</v>
       </c>
-      <c r="N45" s="54">
+      <c r="N45" s="52">
         <v>2020</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="34">
         <v>2060</v>
       </c>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47" t="s">
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="W45" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="X45" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y45" s="42" t="s">
+      <c r="W45" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y45" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="Z45" s="36" t="s">
+      <c r="Z45" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="AA45" s="36" t="s">
+      <c r="AA45" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="AB45" s="54" t="s">
+      <c r="AB45" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AC45" s="54" t="s">
+      <c r="AC45" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="AD45" s="54" t="s">
+      <c r="AD45" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="AE45" s="26" t="s">
+      <c r="AE45" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="29" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
+    <row r="46" spans="1:31" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="27">
+      <c r="C46" s="25">
         <v>2019</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="52" t="s">
         <v>307</v>
       </c>
       <c r="F46" s="18" t="s">
@@ -5840,37 +5840,37 @@
       <c r="G46" s="18">
         <v>37.299999999999997</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="23">
         <v>45</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I46" s="23">
         <v>4</v>
       </c>
-      <c r="J46" s="32">
+      <c r="J46" s="30">
         <v>2010</v>
       </c>
-      <c r="K46" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L46" s="26">
+      <c r="K46" s="25">
+        <v>2050</v>
+      </c>
+      <c r="L46" s="24">
         <v>2010</v>
       </c>
-      <c r="M46" s="26">
-        <v>2050</v>
-      </c>
-      <c r="N46" s="60">
+      <c r="M46" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N46" s="58">
         <v>2010</v>
       </c>
-      <c r="O46" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28" t="s">
+      <c r="O46" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26" t="s">
         <v>134</v>
       </c>
       <c r="W46" s="18" t="s">
@@ -5882,10 +5882,10 @@
       <c r="Y46" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Z46" s="26" t="s">
+      <c r="Z46" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="AA46" s="26" t="s">
+      <c r="AA46" s="24" t="s">
         <v>193</v>
       </c>
       <c r="AB46" s="21" t="s">
@@ -5897,180 +5897,180 @@
       <c r="AD46" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="AE46" s="26"/>
-    </row>
-    <row r="47" spans="1:31" s="43" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
+      <c r="AE46" s="24"/>
+    </row>
+    <row r="47" spans="1:31" s="41" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="36">
         <v>2022</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="36">
         <v>39.4</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="37">
         <v>40</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="38">
         <v>7</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="38">
         <v>2018</v>
       </c>
-      <c r="K47" s="38">
-        <v>2050</v>
-      </c>
-      <c r="L47" s="47">
+      <c r="K47" s="36">
+        <v>2050</v>
+      </c>
+      <c r="L47" s="45">
         <v>2018</v>
       </c>
-      <c r="M47" s="47">
-        <v>2050</v>
-      </c>
-      <c r="N47" s="38">
+      <c r="M47" s="45">
+        <v>2050</v>
+      </c>
+      <c r="N47" s="36">
         <v>2018</v>
       </c>
-      <c r="O47" s="42">
-        <v>2050</v>
-      </c>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="48" t="s">
+      <c r="O47" s="40">
+        <v>2050</v>
+      </c>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="W47" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X47" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y47" s="42" t="s">
+      <c r="W47" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X47" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y47" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="Z47" s="36" t="s">
+      <c r="Z47" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="AA47" s="36" t="s">
+      <c r="AA47" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="AB47" s="54" t="s">
+      <c r="AB47" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AC47" s="54" t="s">
+      <c r="AC47" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="AD47" s="54" t="s">
+      <c r="AD47" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="AE47" s="36"/>
-    </row>
-    <row r="48" spans="1:31" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
+      <c r="AE47" s="34"/>
+    </row>
+    <row r="48" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="78">
         <v>2020</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="52" t="s">
         <v>33</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="F48" s="70" t="s">
+      <c r="F48" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="G48" s="70">
+      <c r="G48" s="68">
         <v>37.99</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H48" s="37">
         <v>42</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="38">
         <v>10</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J48" s="50">
         <v>2015</v>
       </c>
-      <c r="K48" s="41">
-        <v>2050</v>
-      </c>
-      <c r="L48" s="36">
+      <c r="K48" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L48" s="34">
         <v>2015</v>
       </c>
-      <c r="M48" s="36">
-        <v>2050</v>
-      </c>
-      <c r="N48" s="86"/>
-      <c r="O48" s="71">
-        <v>2050</v>
-      </c>
-      <c r="P48" s="36">
+      <c r="M48" s="34">
+        <v>2050</v>
+      </c>
+      <c r="N48" s="75"/>
+      <c r="O48" s="69">
+        <v>2050</v>
+      </c>
+      <c r="P48" s="34">
         <v>2015</v>
       </c>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47" t="s">
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="W48" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X48" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y48" s="70" t="s">
+      <c r="W48" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y48" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="Z48" s="36" t="s">
+      <c r="Z48" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="AA48" s="36" t="s">
+      <c r="AA48" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="AB48" s="86" t="s">
+      <c r="AB48" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="AC48" s="72" t="s">
+      <c r="AC48" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="AD48" s="69" t="s">
+      <c r="AD48" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="AE48" s="26" t="s">
+      <c r="AE48" s="24" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:31" s="43" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="76" t="s">
+      <c r="B49" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="77">
+      <c r="C49" s="79">
         <v>2021</v>
       </c>
       <c r="D49" s="21" t="s">
@@ -6085,41 +6085,41 @@
       <c r="G49" s="21">
         <v>37.97</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H49" s="23">
         <v>43</v>
       </c>
-      <c r="I49" s="25">
+      <c r="I49" s="23">
         <v>9</v>
       </c>
-      <c r="J49" s="83">
+      <c r="J49" s="73">
         <v>2018</v>
       </c>
       <c r="K49" s="21">
         <v>2050</v>
       </c>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
       <c r="N49" s="21"/>
-      <c r="O49" s="26"/>
+      <c r="O49" s="24"/>
       <c r="P49" s="18">
         <v>2018</v>
       </c>
-      <c r="Q49" s="26">
+      <c r="Q49" s="24">
         <v>2030</v>
       </c>
-      <c r="R49" s="26">
+      <c r="R49" s="24">
         <v>2035</v>
       </c>
-      <c r="S49" s="26">
+      <c r="S49" s="24">
         <v>2040</v>
       </c>
-      <c r="T49" s="26">
+      <c r="T49" s="24">
         <v>2045</v>
       </c>
-      <c r="U49" s="28">
-        <v>2050</v>
-      </c>
-      <c r="V49" s="59" t="s">
+      <c r="U49" s="26">
+        <v>2050</v>
+      </c>
+      <c r="V49" s="57" t="s">
         <v>68</v>
       </c>
       <c r="W49" s="21" t="s">
@@ -6131,10 +6131,10 @@
       <c r="Y49" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="Z49" s="26" t="s">
+      <c r="Z49" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="AA49" s="26" t="s">
+      <c r="AA49" s="24" t="s">
         <v>185</v>
       </c>
       <c r="AB49" s="21" t="s">
@@ -6143,10 +6143,10 @@
       <c r="AC49" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="AD49" s="69" t="s">
+      <c r="AD49" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="AE49" s="36" t="s">
+      <c r="AE49" s="34" t="s">
         <v>302</v>
       </c>
     </row>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -2109,7 +2109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q38" sqref="Q38"/>
     </sheetView>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -370,9 +370,6 @@
     <t>Yang, 2019</t>
   </si>
   <si>
-    <t>Climate policies can help resolve energy security and air pollution challenges</t>
-  </si>
-  <si>
     <t>McCollum, 2013</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
   </si>
   <si>
     <t>sector</t>
-  </si>
-  <si>
-    <t>all</t>
   </si>
   <si>
     <t>Service, transport, construction, industry, energy</t>
@@ -736,11 +730,6 @@
 Assumptions based on current levels and targets (PA)</t>
   </si>
   <si>
-    <t>all
-25+ (PM2.5)
-15+ (PA)</t>
-  </si>
-  <si>
     <t>GEOSChem</t>
   </si>
   <si>
@@ -755,12 +744,6 @@
   </si>
   <si>
     <t>Implementation of climate transport policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all
-all
-0-85 (PA)
-</t>
   </si>
   <si>
     <t>CMIP6 GISS-E2.1</t>
@@ -1043,6 +1026,23 @@
 ITHIM (physical activity)
 Theoretical policies (Diet) 
 </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All
+All
+0-85 (PA)
+</t>
+  </si>
+  <si>
+    <t>Climate policies can help resolve energy security and air pollution chAllenges</t>
+  </si>
+  <si>
+    <t>All
+25+ (PM2.5)
+15+ (PA)</t>
   </si>
 </sst>
 </file>
@@ -2109,9 +2109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q38" sqref="Q38"/>
+      <selection pane="topRight" activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,31 +2149,31 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
@@ -2206,34 +2206,34 @@
         <v>102</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AA1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AB1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD1" t="s">
         <v>205</v>
       </c>
-      <c r="AC1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>207</v>
-      </c>
       <c r="AE1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2250,7 +2250,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>26</v>
@@ -2298,25 +2298,25 @@
         <v>42</v>
       </c>
       <c r="Y2" s="39" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Z2" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA2" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AB2" s="36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AC2" s="36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AD2" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE2" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>29</v>
@@ -2381,25 +2381,25 @@
         <v>41</v>
       </c>
       <c r="Y3" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z3" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AE3" s="34" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>29</v>
@@ -2455,7 +2455,7 @@
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>41</v>
@@ -2464,33 +2464,33 @@
         <v>41</v>
       </c>
       <c r="Y4" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Z4" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA4" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AE4" s="24" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="22">
         <v>2022</v>
@@ -2499,10 +2499,10 @@
         <v>29</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G5" s="23">
         <v>1410</v>
@@ -2538,7 +2538,7 @@
       <c r="T5" s="24"/>
       <c r="U5" s="22"/>
       <c r="V5" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W5" s="22" t="s">
         <v>41</v>
@@ -2547,43 +2547,43 @@
         <v>41</v>
       </c>
       <c r="Y5" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z5" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB5" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC5" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD5" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AE5" s="34"/>
     </row>
     <row r="6" spans="1:31" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="46">
         <v>2012</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" s="36">
         <v>3</v>
@@ -2624,28 +2624,28 @@
         <v>42</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z6" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA6" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AB6" s="36" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC6" s="52" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AD6" s="36" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AE6" s="24"/>
     </row>
     <row r="7" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>19</v>
@@ -2657,10 +2657,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="32">
         <v>1241</v>
@@ -2696,7 +2696,7 @@
       <c r="T7" s="24"/>
       <c r="U7" s="26"/>
       <c r="V7" s="28" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>41</v>
@@ -2705,28 +2705,28 @@
         <v>41</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z7" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA7" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC7" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD7" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="AD7" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="AE7" s="34"/>
     </row>
     <row r="8" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>16</v>
@@ -2738,10 +2738,10 @@
         <v>28</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="37">
         <v>1241</v>
@@ -2777,31 +2777,31 @@
       <c r="T8" s="34"/>
       <c r="U8" s="40"/>
       <c r="V8" s="46" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W8" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X8" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y8" s="39" t="s">
         <v>67</v>
       </c>
       <c r="Z8" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA8" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB8" s="36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AC8" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AD8" s="36" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AE8" s="18"/>
     </row>
@@ -2819,10 +2819,10 @@
         <v>75</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G9" s="83">
         <v>3870</v>
@@ -2858,31 +2858,31 @@
       <c r="T9" s="24"/>
       <c r="U9" s="22"/>
       <c r="V9" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y9" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z9" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA9" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE9" s="34"/>
     </row>
@@ -2900,7 +2900,7 @@
         <v>76</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>97</v>
@@ -2942,39 +2942,39 @@
         <v>68</v>
       </c>
       <c r="W10" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y10" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA10" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="X10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y10" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA10" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="AB10" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC10" s="86" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AD10" s="66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE10" s="24" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="36">
         <v>2019</v>
@@ -2983,7 +2983,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F11" s="59" t="s">
         <v>29</v>
@@ -3024,7 +3024,7 @@
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
       <c r="V11" s="45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W11" s="40" t="s">
         <v>41</v>
@@ -3033,22 +3033,22 @@
         <v>41</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z11" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA11" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB11" s="36" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC11" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AD11" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE11" s="34"/>
     </row>
@@ -3066,7 +3066,7 @@
         <v>77</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>29</v>
@@ -3105,7 +3105,7 @@
       <c r="T12" s="24"/>
       <c r="U12" s="28"/>
       <c r="V12" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>41</v>
@@ -3114,25 +3114,25 @@
         <v>41</v>
       </c>
       <c r="Y12" s="25" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Z12" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE12" s="24" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>29</v>
@@ -3186,7 +3186,7 @@
       <c r="T13" s="34"/>
       <c r="U13" s="46"/>
       <c r="V13" s="40" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W13" s="36" t="s">
         <v>41</v>
@@ -3195,22 +3195,22 @@
         <v>41</v>
       </c>
       <c r="Y13" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z13" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA13" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB13" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC13" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD13" s="36" t="s">
         <v>222</v>
-      </c>
-      <c r="AD13" s="36" t="s">
-        <v>224</v>
       </c>
       <c r="AE13" s="34"/>
     </row>
@@ -3228,7 +3228,7 @@
         <v>78</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>29</v>
@@ -3276,25 +3276,25 @@
         <v>41</v>
       </c>
       <c r="Y14" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z14" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA14" s="34" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AB14" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC14" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD14" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="AD14" s="36" t="s">
-        <v>216</v>
-      </c>
       <c r="AE14" s="24" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3311,7 +3311,7 @@
         <v>79</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>29</v>
@@ -3348,7 +3348,7 @@
       <c r="T15" s="24"/>
       <c r="U15" s="18"/>
       <c r="V15" s="22" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>41</v>
@@ -3357,22 +3357,22 @@
         <v>41</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z15" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA15" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB15" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AE15" s="34"/>
     </row>
@@ -3393,7 +3393,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G16" s="23">
         <v>7821</v>
@@ -3429,7 +3429,7 @@
       <c r="T16" s="24"/>
       <c r="U16" s="28"/>
       <c r="V16" s="26" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>41</v>
@@ -3438,33 +3438,33 @@
         <v>41</v>
       </c>
       <c r="Y16" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z16" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA16" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC16" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AE16" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="41" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="C17" s="45">
         <v>2013</v>
@@ -3476,7 +3476,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="48">
         <v>6970</v>
@@ -3519,22 +3519,22 @@
         <v>41</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z17" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA17" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB17" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AC17" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AD17" s="40" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AE17" s="34"/>
     </row>
@@ -3552,10 +3552,10 @@
         <v>80</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G18" s="18">
         <v>70</v>
@@ -3589,31 +3589,31 @@
       <c r="T18" s="24"/>
       <c r="U18" s="26"/>
       <c r="V18" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X18" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Y18" s="25" t="s">
         <v>35</v>
       </c>
       <c r="Z18" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA18" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AD18" s="43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE18" s="24"/>
     </row>
@@ -3631,7 +3631,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>97</v>
@@ -3668,7 +3668,7 @@
       <c r="T19" s="45"/>
       <c r="U19" s="36"/>
       <c r="V19" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W19" s="46" t="s">
         <v>41</v>
@@ -3677,22 +3677,22 @@
         <v>41</v>
       </c>
       <c r="Y19" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z19" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA19" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB19" s="36" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC19" s="36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AD19" s="36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE19" s="34"/>
     </row>
@@ -3710,7 +3710,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>40</v>
@@ -3749,7 +3749,7 @@
       <c r="T20" s="24"/>
       <c r="U20" s="25"/>
       <c r="V20" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="W20" s="18" t="s">
         <v>41</v>
@@ -3761,19 +3761,19 @@
         <v>35</v>
       </c>
       <c r="Z20" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA20" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AD20" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AE20" s="24"/>
     </row>
@@ -3830,7 +3830,7 @@
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
       <c r="V21" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W21" s="46" t="s">
         <v>41</v>
@@ -3839,22 +3839,22 @@
         <v>41</v>
       </c>
       <c r="Y21" s="34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z21" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA21" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB21" s="36" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC21" s="36" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AD21" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AE21" s="34"/>
     </row>
@@ -3872,7 +3872,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>29</v>
@@ -3909,7 +3909,7 @@
       <c r="T22" s="24"/>
       <c r="U22" s="26"/>
       <c r="V22" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W22" s="17" t="s">
         <v>41</v>
@@ -3918,45 +3918,45 @@
         <v>41</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Z22" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA22" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AD22" s="66" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AE22" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="41" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="22">
         <v>2012</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G23" s="17">
         <v>503</v>
@@ -3992,7 +3992,7 @@
       <c r="T23" s="26"/>
       <c r="U23" s="22"/>
       <c r="V23" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W23" s="18" t="s">
         <v>41</v>
@@ -4001,43 +4001,43 @@
         <v>41</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Z23" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC23" s="17" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AD23" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AE23" s="34"/>
     </row>
     <row r="24" spans="1:31" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C24" s="22">
         <v>2018</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G24" s="20">
         <v>7662</v>
@@ -4069,31 +4069,31 @@
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
       <c r="V24" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC24" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AE24" s="24"/>
     </row>
@@ -4111,10 +4111,10 @@
         <v>81</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G25" s="44">
         <v>3820</v>
@@ -4150,7 +4150,7 @@
       <c r="T25" s="34"/>
       <c r="U25" s="45"/>
       <c r="V25" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W25" s="36" t="s">
         <v>41</v>
@@ -4159,31 +4159,31 @@
         <v>41</v>
       </c>
       <c r="Y25" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Z25" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA25" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB25" s="36" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC25" s="36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AD25" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AE25" s="34"/>
     </row>
     <row r="26" spans="1:31" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="46">
         <v>2020</v>
@@ -4195,7 +4195,7 @@
         <v>27</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G26" s="37">
         <v>7405</v>
@@ -4231,7 +4231,7 @@
       <c r="T26" s="45"/>
       <c r="U26" s="39"/>
       <c r="V26" s="46" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W26" s="46" t="s">
         <v>41</v>
@@ -4240,25 +4240,25 @@
         <v>41</v>
       </c>
       <c r="Y26" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z26" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA26" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB26" s="36" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC26" s="36" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AD26" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AE26" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4278,7 +4278,7 @@
         <v>27</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G27" s="20">
         <v>7405</v>
@@ -4312,7 +4312,7 @@
       <c r="T27" s="24"/>
       <c r="U27" s="26"/>
       <c r="V27" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W27" s="18" t="s">
         <v>41</v>
@@ -4321,22 +4321,22 @@
         <v>41</v>
       </c>
       <c r="Y27" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z27" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AD27" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AE27" s="34"/>
     </row>
@@ -4357,7 +4357,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G28" s="37">
         <v>7821</v>
@@ -4402,25 +4402,25 @@
         <v>41</v>
       </c>
       <c r="Y28" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z28" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA28" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AB28" s="36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AC28" s="36" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AD28" s="36" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AE28" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4485,43 +4485,43 @@
         <v>41</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z29" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA29" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AC29" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AD29" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AE29" s="34"/>
     </row>
     <row r="30" spans="1:31" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C30" s="46">
         <v>2019</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G30" s="36">
         <v>528</v>
@@ -4566,25 +4566,25 @@
         <v>41</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z30" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA30" s="45" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AB30" s="36" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC30" s="36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AD30" s="36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AE30" s="24" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4601,7 +4601,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>29</v>
@@ -4640,7 +4640,7 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="25" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W31" s="26" t="s">
         <v>41</v>
@@ -4649,25 +4649,25 @@
         <v>41</v>
       </c>
       <c r="Y31" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z31" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA31" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB31" s="21" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC31" s="21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AD31" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AE31" s="34" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="65" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4684,7 +4684,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F32" s="56" t="s">
         <v>97</v>
@@ -4723,7 +4723,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="45"/>
       <c r="V32" s="39" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W32" s="55" t="s">
         <v>41</v>
@@ -4732,45 +4732,45 @@
         <v>41</v>
       </c>
       <c r="Y32" s="34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z32" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA32" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB32" s="52" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AC32" s="52" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AD32" s="52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AE32" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="26">
         <v>2015</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G33" s="18">
         <v>9</v>
@@ -4806,31 +4806,31 @@
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
       <c r="V33" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="W33" s="57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="X33" s="57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Y33" s="18" t="s">
         <v>35</v>
       </c>
       <c r="Z33" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA33" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB33" s="21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AC33" s="21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AD33" s="21" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AE33" s="34"/>
     </row>
@@ -4848,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>29</v>
@@ -4887,7 +4887,7 @@
       <c r="T34" s="34"/>
       <c r="U34" s="45"/>
       <c r="V34" s="40" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W34" s="52" t="s">
         <v>41</v>
@@ -4896,25 +4896,25 @@
         <v>41</v>
       </c>
       <c r="Y34" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z34" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA34" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB34" s="52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AC34" s="52" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AD34" s="52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AE34" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:31" s="41" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -4934,7 +4934,7 @@
         <v>27</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G35" s="49">
         <v>7821</v>
@@ -4970,7 +4970,7 @@
       <c r="T35" s="34"/>
       <c r="U35" s="45"/>
       <c r="V35" s="39" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W35" s="52" t="s">
         <v>41</v>
@@ -4979,22 +4979,22 @@
         <v>41</v>
       </c>
       <c r="Y35" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z35" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA35" s="34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB35" s="52" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC35" s="52" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AD35" s="52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AE35" s="34"/>
     </row>
@@ -5012,7 +5012,7 @@
         <v>84</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F36" s="52" t="s">
         <v>97</v>
@@ -5060,33 +5060,33 @@
         <v>41</v>
       </c>
       <c r="Y36" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z36" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA36" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB36" s="52" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AC36" s="52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AD36" s="52" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AE36" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:31" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="45">
         <v>2022</v>
@@ -5134,7 +5134,7 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W37" s="55" t="s">
         <v>41</v>
@@ -5143,25 +5143,25 @@
         <v>41</v>
       </c>
       <c r="Y37" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z37" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA37" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB37" s="52" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC37" s="52" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AD37" s="67" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AE37" s="34" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5217,7 +5217,7 @@
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="26" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>41</v>
@@ -5226,33 +5226,33 @@
         <v>41</v>
       </c>
       <c r="Y38" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z38" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA38" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AE38" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:31" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="26">
         <v>2018</v>
@@ -5300,31 +5300,31 @@
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
       <c r="V39" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="W39" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X39" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Y39" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z39" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA39" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AB39" s="21" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC39" s="21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AD39" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE39" s="63"/>
     </row>
@@ -5342,10 +5342,10 @@
         <v>32</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G40" s="33">
         <v>63.26</v>
@@ -5377,7 +5377,7 @@
       <c r="T40" s="24"/>
       <c r="U40" s="26"/>
       <c r="V40" s="26" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>41</v>
@@ -5389,19 +5389,19 @@
         <v>35</v>
       </c>
       <c r="Z40" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA40" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC40" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AD40" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AE40" s="24"/>
     </row>
@@ -5419,7 +5419,7 @@
         <v>86</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F41" s="52" t="s">
         <v>29</v>
@@ -5467,25 +5467,25 @@
         <v>41</v>
       </c>
       <c r="Y41" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z41" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA41" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AB41" s="52" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC41" s="52" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AD41" s="52" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AE41" s="34" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5502,7 +5502,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>29</v>
@@ -5539,7 +5539,7 @@
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
       <c r="V42" s="64" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W42" s="82" t="s">
         <v>41</v>
@@ -5548,25 +5548,25 @@
         <v>41</v>
       </c>
       <c r="Y42" s="62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z42" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA42" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AB42" s="82" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC42" s="82" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AD42" s="82" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AE42" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:31" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5583,7 +5583,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>29</v>
@@ -5622,7 +5622,7 @@
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="26" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W43" s="18" t="s">
         <v>41</v>
@@ -5631,30 +5631,30 @@
         <v>41</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z43" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA43" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AB43" s="18" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC43" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AD43" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE43" s="34" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:31" s="41" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>14</v>
@@ -5666,7 +5666,7 @@
         <v>87</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F44" s="40" t="s">
         <v>29</v>
@@ -5714,30 +5714,30 @@
         <v>41</v>
       </c>
       <c r="Y44" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z44" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA44" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB44" s="52" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC44" s="52" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AD44" s="67" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AE44" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>2</v>
@@ -5749,7 +5749,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>29</v>
@@ -5797,25 +5797,25 @@
         <v>41</v>
       </c>
       <c r="Y45" s="40" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Z45" s="34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA45" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB45" s="52" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC45" s="52" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AD45" s="52" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AE45" s="24" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:31" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5832,7 +5832,7 @@
         <v>84</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>97</v>
@@ -5871,7 +5871,7 @@
       <c r="T46" s="24"/>
       <c r="U46" s="26"/>
       <c r="V46" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W46" s="18" t="s">
         <v>41</v>
@@ -5880,22 +5880,22 @@
         <v>41</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z46" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA46" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AB46" s="21" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC46" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AD46" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AE46" s="24"/>
     </row>
@@ -5913,7 +5913,7 @@
         <v>84</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>97</v>
@@ -5952,7 +5952,7 @@
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
       <c r="V47" s="46" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="W47" s="36" t="s">
         <v>41</v>
@@ -5961,22 +5961,22 @@
         <v>41</v>
       </c>
       <c r="Y47" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z47" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA47" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB47" s="52" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC47" s="52" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AD47" s="52" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AE47" s="34"/>
     </row>
@@ -5994,10 +5994,10 @@
         <v>33</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G48" s="68">
         <v>37.99</v>
@@ -6033,7 +6033,7 @@
       <c r="T48" s="34"/>
       <c r="U48" s="45"/>
       <c r="V48" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W48" s="52" t="s">
         <v>41</v>
@@ -6042,25 +6042,25 @@
         <v>41</v>
       </c>
       <c r="Y48" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Z48" s="34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA48" s="34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB48" s="75" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC48" s="87" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AD48" s="67" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AE48" s="24" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6077,7 +6077,7 @@
         <v>33</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>33</v>
@@ -6129,25 +6129,25 @@
         <v>41</v>
       </c>
       <c r="Y49" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z49" s="24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA49" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AB49" s="21" t="s">
-        <v>125</v>
+        <v>318</v>
       </c>
       <c r="AC49" s="21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AD49" s="67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE49" s="34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="322">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -808,9 +808,6 @@
   </si>
   <si>
     <t>WRF-Chem_MEET-CA</t>
-  </si>
-  <si>
-    <t>30-99</t>
   </si>
   <si>
     <t>GAINS_CAM-Chem</t>
@@ -1043,6 +1040,9 @@
     <t>All
 25+ (PM2.5)
 15+ (PA)</t>
+  </si>
+  <si>
+    <t>VSL+social cost of carbon</t>
   </si>
 </sst>
 </file>
@@ -2110,8 +2110,8 @@
   <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z35" sqref="Z35"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,13 +2149,13 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
         <v>155</v>
@@ -2233,7 +2233,7 @@
         <v>205</v>
       </c>
       <c r="AE1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2250,7 +2250,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>26</v>
@@ -2298,7 +2298,7 @@
         <v>42</v>
       </c>
       <c r="Y2" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Z2" s="34" t="s">
         <v>187</v>
@@ -2316,7 +2316,7 @@
         <v>207</v>
       </c>
       <c r="AE2" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>29</v>
@@ -2390,16 +2390,16 @@
         <v>186</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC3" s="17" t="s">
         <v>210</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE3" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>29</v>
@@ -2455,7 +2455,7 @@
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>41</v>
@@ -2464,7 +2464,7 @@
         <v>41</v>
       </c>
       <c r="Y4" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z4" s="24" t="s">
         <v>188</v>
@@ -2473,16 +2473,16 @@
         <v>183</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC4" s="17" t="s">
         <v>209</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AE4" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2499,7 +2499,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>154</v>
@@ -2562,7 +2562,7 @@
         <v>211</v>
       </c>
       <c r="AD5" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AE5" s="34"/>
     </row>
@@ -2580,7 +2580,7 @@
         <v>169</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>153</v>
@@ -2633,19 +2633,19 @@
         <v>191</v>
       </c>
       <c r="AB6" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC6" s="52" t="s">
         <v>231</v>
       </c>
       <c r="AD6" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AE6" s="24"/>
     </row>
     <row r="7" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>19</v>
@@ -2657,7 +2657,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>153</v>
@@ -2696,7 +2696,7 @@
       <c r="T7" s="24"/>
       <c r="U7" s="26"/>
       <c r="V7" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>41</v>
@@ -2714,7 +2714,7 @@
         <v>186</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC7" s="17" t="s">
         <v>212</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="8" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>16</v>
@@ -2738,7 +2738,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>152</v>
@@ -2777,7 +2777,7 @@
       <c r="T8" s="34"/>
       <c r="U8" s="40"/>
       <c r="V8" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W8" s="36" t="s">
         <v>181</v>
@@ -2801,7 +2801,7 @@
         <v>215</v>
       </c>
       <c r="AD8" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE8" s="18"/>
     </row>
@@ -2819,7 +2819,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>154</v>
@@ -2876,7 +2876,7 @@
         <v>184</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC9" s="17" t="s">
         <v>226</v>
@@ -2900,7 +2900,7 @@
         <v>76</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>97</v>
@@ -2957,16 +2957,16 @@
         <v>183</v>
       </c>
       <c r="AB10" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC10" s="86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD10" s="66" t="s">
         <v>208</v>
       </c>
       <c r="AE10" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2983,7 +2983,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F11" s="59" t="s">
         <v>29</v>
@@ -3042,7 +3042,7 @@
         <v>186</v>
       </c>
       <c r="AB11" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC11" s="36" t="s">
         <v>218</v>
@@ -3066,7 +3066,7 @@
         <v>77</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>29</v>
@@ -3114,7 +3114,7 @@
         <v>41</v>
       </c>
       <c r="Y12" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z12" s="24" t="s">
         <v>189</v>
@@ -3123,7 +3123,7 @@
         <v>183</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC12" s="17" t="s">
         <v>219</v>
@@ -3132,7 +3132,7 @@
         <v>208</v>
       </c>
       <c r="AE12" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>29</v>
@@ -3186,7 +3186,7 @@
       <c r="T13" s="34"/>
       <c r="U13" s="46"/>
       <c r="V13" s="40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W13" s="36" t="s">
         <v>41</v>
@@ -3228,7 +3228,7 @@
         <v>78</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>29</v>
@@ -3282,7 +3282,7 @@
         <v>188</v>
       </c>
       <c r="AA14" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB14" s="36" t="s">
         <v>221</v>
@@ -3294,7 +3294,7 @@
         <v>214</v>
       </c>
       <c r="AE14" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3311,7 +3311,7 @@
         <v>79</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>29</v>
@@ -3348,7 +3348,7 @@
       <c r="T15" s="24"/>
       <c r="U15" s="18"/>
       <c r="V15" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>41</v>
@@ -3369,7 +3369,7 @@
         <v>223</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>222</v>
@@ -3429,7 +3429,7 @@
       <c r="T16" s="24"/>
       <c r="U16" s="28"/>
       <c r="V16" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>41</v>
@@ -3447,7 +3447,7 @@
         <v>186</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC16" s="17" t="s">
         <v>241</v>
@@ -3456,7 +3456,7 @@
         <v>242</v>
       </c>
       <c r="AE16" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="41" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3464,7 +3464,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C17" s="45">
         <v>2013</v>
@@ -3534,7 +3534,7 @@
         <v>224</v>
       </c>
       <c r="AD17" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE17" s="34"/>
     </row>
@@ -3552,7 +3552,7 @@
         <v>80</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>154</v>
@@ -3607,10 +3607,10 @@
         <v>192</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD18" s="43" t="s">
         <v>207</v>
@@ -3631,7 +3631,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>97</v>
@@ -3686,7 +3686,7 @@
         <v>186</v>
       </c>
       <c r="AB19" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC19" s="36" t="s">
         <v>227</v>
@@ -3710,7 +3710,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>40</v>
@@ -3848,7 +3848,7 @@
         <v>184</v>
       </c>
       <c r="AB21" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC21" s="36" t="s">
         <v>232</v>
@@ -3872,7 +3872,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>29</v>
@@ -3927,16 +3927,16 @@
         <v>186</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC22" s="17" t="s">
         <v>233</v>
       </c>
       <c r="AD22" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AE22" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="41" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
@@ -3953,7 +3953,7 @@
         <v>198</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>156</v>
@@ -4001,7 +4001,7 @@
         <v>41</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z23" s="26" t="s">
         <v>188</v>
@@ -4010,13 +4010,13 @@
         <v>186</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC23" s="17" t="s">
         <v>234</v>
       </c>
       <c r="AD23" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE23" s="34"/>
     </row>
@@ -4031,10 +4031,10 @@
         <v>2018</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>156</v>
@@ -4087,7 +4087,7 @@
         <v>184</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC24" s="17" t="s">
         <v>235</v>
@@ -4111,7 +4111,7 @@
         <v>81</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>156</v>
@@ -4168,7 +4168,7 @@
         <v>186</v>
       </c>
       <c r="AB25" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC25" s="36" t="s">
         <v>236</v>
@@ -4231,7 +4231,7 @@
       <c r="T26" s="45"/>
       <c r="U26" s="39"/>
       <c r="V26" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W26" s="46" t="s">
         <v>41</v>
@@ -4249,7 +4249,7 @@
         <v>186</v>
       </c>
       <c r="AB26" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC26" s="36" t="s">
         <v>237</v>
@@ -4258,7 +4258,7 @@
         <v>222</v>
       </c>
       <c r="AE26" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4312,7 +4312,7 @@
       <c r="T27" s="24"/>
       <c r="U27" s="26"/>
       <c r="V27" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W27" s="18" t="s">
         <v>41</v>
@@ -4330,7 +4330,7 @@
         <v>185</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC27" s="17" t="s">
         <v>238</v>
@@ -4338,7 +4338,9 @@
       <c r="AD27" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="AE27" s="34"/>
+      <c r="AE27" s="34" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="28" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
@@ -4420,7 +4422,7 @@
         <v>240</v>
       </c>
       <c r="AE28" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4518,7 +4520,7 @@
         <v>172</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>153</v>
@@ -4572,19 +4574,19 @@
         <v>189</v>
       </c>
       <c r="AA30" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB30" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC30" s="36" t="s">
         <v>244</v>
       </c>
       <c r="AD30" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE30" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4601,7 +4603,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>29</v>
@@ -4640,7 +4642,7 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W31" s="26" t="s">
         <v>41</v>
@@ -4658,7 +4660,7 @@
         <v>183</v>
       </c>
       <c r="AB31" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC31" s="21" t="s">
         <v>245</v>
@@ -4667,7 +4669,7 @@
         <v>222</v>
       </c>
       <c r="AE31" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="65" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4684,7 +4686,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F32" s="56" t="s">
         <v>97</v>
@@ -4723,7 +4725,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="45"/>
       <c r="V32" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W32" s="55" t="s">
         <v>41</v>
@@ -4750,7 +4752,7 @@
         <v>222</v>
       </c>
       <c r="AE32" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4767,7 +4769,7 @@
         <v>165</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>154</v>
@@ -4848,7 +4850,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>29</v>
@@ -4863,7 +4865,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="50">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="K34" s="40">
         <v>2050</v>
@@ -4871,7 +4873,7 @@
       <c r="L34" s="34"/>
       <c r="M34" s="40"/>
       <c r="N34" s="52">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="O34" s="55">
         <v>2050</v>
@@ -4887,7 +4889,7 @@
       <c r="T34" s="34"/>
       <c r="U34" s="45"/>
       <c r="V34" s="40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W34" s="52" t="s">
         <v>41</v>
@@ -4914,7 +4916,7 @@
         <v>214</v>
       </c>
       <c r="AE34" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:31" s="41" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -4964,13 +4966,15 @@
         <v>2050</v>
       </c>
       <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
+      <c r="Q35" s="34">
+        <v>2030</v>
+      </c>
       <c r="R35" s="34"/>
       <c r="S35" s="34"/>
       <c r="T35" s="34"/>
       <c r="U35" s="45"/>
       <c r="V35" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W35" s="52" t="s">
         <v>41</v>
@@ -4988,7 +4992,7 @@
         <v>186</v>
       </c>
       <c r="AB35" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC35" s="52" t="s">
         <v>251</v>
@@ -5012,7 +5016,7 @@
         <v>84</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F36" s="52" t="s">
         <v>97</v>
@@ -5069,16 +5073,16 @@
         <v>183</v>
       </c>
       <c r="AB36" s="52" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="AC36" s="52" t="s">
         <v>252</v>
       </c>
       <c r="AD36" s="52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AE36" s="24" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:31" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5134,7 +5138,7 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W37" s="55" t="s">
         <v>41</v>
@@ -5152,16 +5156,16 @@
         <v>186</v>
       </c>
       <c r="AB37" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC37" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD37" s="67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE37" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:31" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5211,13 +5215,15 @@
         <v>2100</v>
       </c>
       <c r="P38" s="22"/>
-      <c r="Q38" s="24"/>
+      <c r="Q38" s="24">
+        <v>2030</v>
+      </c>
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>41</v>
@@ -5235,16 +5241,16 @@
         <v>186</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AD38" s="17" t="s">
         <v>242</v>
       </c>
       <c r="AE38" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:31" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5318,10 +5324,10 @@
         <v>186</v>
       </c>
       <c r="AB39" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC39" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AD39" s="21" t="s">
         <v>208</v>
@@ -5342,7 +5348,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>154</v>
@@ -5377,7 +5383,7 @@
       <c r="T40" s="24"/>
       <c r="U40" s="26"/>
       <c r="V40" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>41</v>
@@ -5395,13 +5401,13 @@
         <v>183</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC40" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD40" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="AD40" s="21" t="s">
-        <v>259</v>
       </c>
       <c r="AE40" s="24"/>
     </row>
@@ -5419,7 +5425,7 @@
         <v>86</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F41" s="52" t="s">
         <v>29</v>
@@ -5476,16 +5482,16 @@
         <v>192</v>
       </c>
       <c r="AB41" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC41" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD41" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AE41" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5502,7 +5508,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>29</v>
@@ -5539,7 +5545,7 @@
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
       <c r="V42" s="64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W42" s="82" t="s">
         <v>41</v>
@@ -5557,16 +5563,16 @@
         <v>184</v>
       </c>
       <c r="AB42" s="82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC42" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD42" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="AD42" s="82" t="s">
-        <v>263</v>
-      </c>
       <c r="AE42" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:31" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5583,7 +5589,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>29</v>
@@ -5622,7 +5628,7 @@
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W43" s="18" t="s">
         <v>41</v>
@@ -5640,21 +5646,21 @@
         <v>192</v>
       </c>
       <c r="AB43" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC43" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD43" s="18" t="s">
         <v>208</v>
       </c>
       <c r="AE43" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:31" s="41" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>14</v>
@@ -5666,7 +5672,7 @@
         <v>87</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F44" s="40" t="s">
         <v>29</v>
@@ -5723,21 +5729,21 @@
         <v>183</v>
       </c>
       <c r="AB44" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC44" s="52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD44" s="67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE44" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>2</v>
@@ -5749,7 +5755,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>29</v>
@@ -5797,7 +5803,7 @@
         <v>41</v>
       </c>
       <c r="Y45" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z45" s="34" t="s">
         <v>188</v>
@@ -5806,16 +5812,16 @@
         <v>183</v>
       </c>
       <c r="AB45" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC45" s="52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD45" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE45" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:31" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5832,7 +5838,7 @@
         <v>84</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>97</v>
@@ -5889,13 +5895,13 @@
         <v>191</v>
       </c>
       <c r="AB46" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC46" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD46" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AE46" s="24"/>
     </row>
@@ -5913,7 +5919,7 @@
         <v>84</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>97</v>
@@ -5952,7 +5958,7 @@
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
       <c r="V47" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W47" s="36" t="s">
         <v>41</v>
@@ -5970,13 +5976,13 @@
         <v>183</v>
       </c>
       <c r="AB47" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC47" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD47" s="52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE47" s="34"/>
     </row>
@@ -5994,10 +6000,10 @@
         <v>33</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G48" s="68">
         <v>37.99</v>
@@ -6051,16 +6057,16 @@
         <v>183</v>
       </c>
       <c r="AB48" s="75" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC48" s="87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD48" s="67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE48" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6077,7 +6083,7 @@
         <v>33</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>33</v>
@@ -6138,16 +6144,16 @@
         <v>183</v>
       </c>
       <c r="AB49" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC49" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD49" s="67" t="s">
         <v>207</v>
       </c>
       <c r="AE49" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="329">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1043,6 +1043,27 @@
   </si>
   <si>
     <t>VSL+social cost of carbon</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Housing, industry, transport, energy</t>
+  </si>
+  <si>
+    <t>Transport, housing</t>
+  </si>
+  <si>
+    <t>Industry, transport, housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy, industry, housing, transport, shipping, land use, waste </t>
+  </si>
+  <si>
+    <t>Energy, industry, housing, transport, food system, solvent</t>
+  </si>
+  <si>
+    <t>Energy, transport, industry, agriculture</t>
   </si>
 </sst>
 </file>
@@ -2109,9 +2130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2455,7 +2476,7 @@
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="17" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>41</v>
@@ -2696,7 +2717,7 @@
       <c r="T7" s="24"/>
       <c r="U7" s="26"/>
       <c r="V7" s="28" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>41</v>
@@ -2777,7 +2798,7 @@
       <c r="T8" s="34"/>
       <c r="U8" s="40"/>
       <c r="V8" s="46" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W8" s="36" t="s">
         <v>181</v>
@@ -3186,7 +3207,7 @@
       <c r="T13" s="34"/>
       <c r="U13" s="46"/>
       <c r="V13" s="40" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="W13" s="36" t="s">
         <v>41</v>
@@ -3348,7 +3369,7 @@
       <c r="T15" s="24"/>
       <c r="U15" s="18"/>
       <c r="V15" s="22" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>41</v>
@@ -3429,7 +3450,7 @@
       <c r="T16" s="24"/>
       <c r="U16" s="28"/>
       <c r="V16" s="26" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>41</v>
@@ -4231,7 +4252,7 @@
       <c r="T26" s="45"/>
       <c r="U26" s="39"/>
       <c r="V26" s="46" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W26" s="46" t="s">
         <v>41</v>
@@ -4312,7 +4333,7 @@
       <c r="T27" s="24"/>
       <c r="U27" s="26"/>
       <c r="V27" s="17" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W27" s="18" t="s">
         <v>41</v>
@@ -4425,7 +4446,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>58</v>
       </c>
@@ -4478,7 +4499,7 @@
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
       <c r="V29" s="28" t="s">
-        <v>68</v>
+        <v>326</v>
       </c>
       <c r="W29" s="17" t="s">
         <v>41</v>
@@ -4642,7 +4663,7 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="25" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="W31" s="26" t="s">
         <v>41</v>
@@ -4725,7 +4746,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="45"/>
       <c r="V32" s="39" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W32" s="55" t="s">
         <v>41</v>
@@ -4889,7 +4910,7 @@
       <c r="T34" s="34"/>
       <c r="U34" s="45"/>
       <c r="V34" s="40" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W34" s="52" t="s">
         <v>41</v>
@@ -4974,7 +4995,7 @@
       <c r="T35" s="34"/>
       <c r="U35" s="45"/>
       <c r="V35" s="39" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W35" s="52" t="s">
         <v>41</v>
@@ -4989,7 +5010,7 @@
         <v>188</v>
       </c>
       <c r="AA35" s="34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AB35" s="52" t="s">
         <v>317</v>
@@ -5138,7 +5159,7 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W37" s="55" t="s">
         <v>41</v>
@@ -5223,7 +5244,7 @@
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="26" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>41</v>
@@ -5383,7 +5404,7 @@
       <c r="T40" s="24"/>
       <c r="U40" s="26"/>
       <c r="V40" s="26" t="s">
-        <v>317</v>
+        <v>68</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>41</v>
@@ -5545,7 +5566,7 @@
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
       <c r="V42" s="64" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="W42" s="82" t="s">
         <v>41</v>
@@ -5628,7 +5649,7 @@
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="26" t="s">
-        <v>317</v>
+        <v>68</v>
       </c>
       <c r="W43" s="18" t="s">
         <v>41</v>
@@ -5958,7 +5979,7 @@
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
       <c r="V47" s="46" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="W47" s="36" t="s">
         <v>41</v>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="332">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -914,9 +914,6 @@
 Economic</t>
   </si>
   <si>
-    <t>VSL + Adjustment factor that accounts for morbidity and non-health effects (https://web.stanford.edu/group/efmh/jacobson/Articles/I/USStatesWWS.pdf)</t>
-  </si>
-  <si>
     <t>Deaths,
 Cardiovascular disease, 
 Cerebrovascular disease,
@@ -1064,6 +1061,18 @@
   </si>
   <si>
     <t>Energy, transport, industry, agriculture</t>
+  </si>
+  <si>
+    <t>include_mortality</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>VSL + Adjustment factor that accounts for morbidity and Non-health effects (https://web.stanford.edu/group/efmh/jacobson/Articles/I/USStatesWWS.pdf)</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1486,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1823,43 +1835,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AE49" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="A1:AE49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AF49" totalsRowShown="0" dataDxfId="30">
+  <autoFilter ref="A1:AF49"/>
   <sortState ref="A2:AE49">
     <sortCondition ref="A1:A49"/>
   </sortState>
-  <tableColumns count="31">
-    <tableColumn id="18" name="author_date" dataDxfId="28"/>
-    <tableColumn id="1" name="title" dataDxfId="27"/>
+  <tableColumns count="32">
+    <tableColumn id="18" name="author_date" dataDxfId="29"/>
+    <tableColumn id="1" name="title" dataDxfId="28"/>
     <tableColumn id="17" name="publi_yr"/>
-    <tableColumn id="3" name="Geographical scale" dataDxfId="26"/>
+    <tableColumn id="3" name="Geographical scale" dataDxfId="27"/>
     <tableColumn id="16" name="geo_scale"/>
-    <tableColumn id="26" name="1st authors' institution" dataDxfId="25"/>
-    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="24"/>
-    <tableColumn id="32" name="rank_pop" dataDxfId="23"/>
-    <tableColumn id="33" name="rank_plot" dataDxfId="22"/>
-    <tableColumn id="34" name="time_scale_min" dataDxfId="21"/>
-    <tableColumn id="4" name="time_scale_max" dataDxfId="20"/>
-    <tableColumn id="6" name="begin_point" dataDxfId="19"/>
-    <tableColumn id="7" name="end_point" dataDxfId="18"/>
-    <tableColumn id="8" name="bau" dataDxfId="17"/>
-    <tableColumn id="31" name="bau_proj" dataDxfId="16"/>
-    <tableColumn id="9" name="baseline" dataDxfId="15"/>
-    <tableColumn id="11" name="res_point" dataDxfId="14"/>
-    <tableColumn id="12" name="res_point2" dataDxfId="13"/>
-    <tableColumn id="28" name="res_point3" dataDxfId="12"/>
-    <tableColumn id="27" name="res_point4" dataDxfId="11"/>
-    <tableColumn id="30" name="res_point5" dataDxfId="10"/>
-    <tableColumn id="5" name="sector" dataDxfId="9"/>
-    <tableColumn id="35" name="exposure_cat" dataDxfId="8"/>
-    <tableColumn id="10" name="exposure" dataDxfId="7"/>
-    <tableColumn id="25" name="health outcome" dataDxfId="6"/>
-    <tableColumn id="13" name="baseline_scenario" dataDxfId="5"/>
-    <tableColumn id="14" name="mitigation_type" dataDxfId="4"/>
-    <tableColumn id="22" name="age_range" dataDxfId="3"/>
-    <tableColumn id="2" name="model_exposure" dataDxfId="2"/>
-    <tableColumn id="23" name="model_health" dataDxfId="1"/>
-    <tableColumn id="15" name="model_monetary" dataDxfId="0"/>
+    <tableColumn id="26" name="1st authors' institution" dataDxfId="26"/>
+    <tableColumn id="29" name="Population included at baseline (million), banque mondiale" dataDxfId="25"/>
+    <tableColumn id="32" name="rank_pop" dataDxfId="24"/>
+    <tableColumn id="33" name="rank_plot" dataDxfId="23"/>
+    <tableColumn id="34" name="time_scale_min" dataDxfId="22"/>
+    <tableColumn id="4" name="time_scale_max" dataDxfId="21"/>
+    <tableColumn id="6" name="begin_point" dataDxfId="20"/>
+    <tableColumn id="7" name="end_point" dataDxfId="19"/>
+    <tableColumn id="8" name="bau" dataDxfId="18"/>
+    <tableColumn id="31" name="bau_proj" dataDxfId="17"/>
+    <tableColumn id="9" name="baseline" dataDxfId="16"/>
+    <tableColumn id="11" name="res_point" dataDxfId="15"/>
+    <tableColumn id="12" name="res_point2" dataDxfId="14"/>
+    <tableColumn id="28" name="res_point3" dataDxfId="13"/>
+    <tableColumn id="27" name="res_point4" dataDxfId="12"/>
+    <tableColumn id="30" name="res_point5" dataDxfId="11"/>
+    <tableColumn id="5" name="sector" dataDxfId="10"/>
+    <tableColumn id="35" name="exposure_cat" dataDxfId="9"/>
+    <tableColumn id="10" name="exposure" dataDxfId="8"/>
+    <tableColumn id="25" name="health outcome" dataDxfId="7"/>
+    <tableColumn id="13" name="baseline_scenario" dataDxfId="6"/>
+    <tableColumn id="14" name="mitigation_type" dataDxfId="5"/>
+    <tableColumn id="22" name="age_range" dataDxfId="4"/>
+    <tableColumn id="2" name="model_exposure" dataDxfId="3"/>
+    <tableColumn id="23" name="model_health" dataDxfId="2"/>
+    <tableColumn id="15" name="model_monetary" dataDxfId="1"/>
+    <tableColumn id="19" name="include_mortality" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2128,11 +2141,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2162,7 +2175,7 @@
     <col min="30" max="31" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2170,13 +2183,13 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F1" t="s">
         <v>155</v>
@@ -2256,8 +2269,11 @@
       <c r="AE1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>49</v>
       </c>
@@ -2271,7 +2287,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>26</v>
@@ -2339,8 +2355,11 @@
       <c r="AE2" s="24" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="AF2" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>70</v>
       </c>
@@ -2354,7 +2373,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>29</v>
@@ -2411,7 +2430,7 @@
         <v>186</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC3" s="17" t="s">
         <v>210</v>
@@ -2422,8 +2441,11 @@
       <c r="AE3" s="34" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="AF3" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>72</v>
       </c>
@@ -2437,7 +2459,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>29</v>
@@ -2476,7 +2498,7 @@
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>41</v>
@@ -2494,7 +2516,7 @@
         <v>183</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC4" s="17" t="s">
         <v>209</v>
@@ -2505,8 +2527,11 @@
       <c r="AE4" s="24" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AF4" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>161</v>
       </c>
@@ -2520,7 +2545,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>154</v>
@@ -2586,8 +2611,11 @@
         <v>273</v>
       </c>
       <c r="AE5" s="34"/>
-    </row>
-    <row r="6" spans="1:31" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF5" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
         <v>168</v>
       </c>
@@ -2601,7 +2629,7 @@
         <v>169</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>153</v>
@@ -2654,17 +2682,20 @@
         <v>191</v>
       </c>
       <c r="AB6" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC6" s="52" t="s">
         <v>231</v>
       </c>
       <c r="AD6" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AE6" s="24"/>
-    </row>
-    <row r="7" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AF6" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>270</v>
       </c>
@@ -2678,7 +2709,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>153</v>
@@ -2717,7 +2748,7 @@
       <c r="T7" s="24"/>
       <c r="U7" s="26"/>
       <c r="V7" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>41</v>
@@ -2735,7 +2766,7 @@
         <v>186</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC7" s="17" t="s">
         <v>212</v>
@@ -2744,8 +2775,11 @@
         <v>214</v>
       </c>
       <c r="AE7" s="34"/>
-    </row>
-    <row r="8" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF7" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>272</v>
       </c>
@@ -2759,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>152</v>
@@ -2798,7 +2832,7 @@
       <c r="T8" s="34"/>
       <c r="U8" s="40"/>
       <c r="V8" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W8" s="36" t="s">
         <v>181</v>
@@ -2822,11 +2856,14 @@
         <v>215</v>
       </c>
       <c r="AD8" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE8" s="18"/>
-    </row>
-    <row r="9" spans="1:31" s="41" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF8" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="41" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>46</v>
       </c>
@@ -2840,7 +2877,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>154</v>
@@ -2897,7 +2934,7 @@
         <v>184</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AC9" s="17" t="s">
         <v>226</v>
@@ -2906,8 +2943,11 @@
         <v>208</v>
       </c>
       <c r="AE9" s="34"/>
-    </row>
-    <row r="10" spans="1:31" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF9" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>65</v>
       </c>
@@ -2921,7 +2961,7 @@
         <v>76</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>97</v>
@@ -2978,7 +3018,7 @@
         <v>183</v>
       </c>
       <c r="AB10" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC10" s="86" t="s">
         <v>277</v>
@@ -2987,10 +3027,13 @@
         <v>208</v>
       </c>
       <c r="AE10" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>194</v>
       </c>
@@ -3004,7 +3047,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" s="59" t="s">
         <v>29</v>
@@ -3063,7 +3106,7 @@
         <v>186</v>
       </c>
       <c r="AB11" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC11" s="36" t="s">
         <v>218</v>
@@ -3072,8 +3115,11 @@
         <v>208</v>
       </c>
       <c r="AE11" s="34"/>
-    </row>
-    <row r="12" spans="1:31" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AF11" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3133,7 @@
         <v>77</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>29</v>
@@ -3135,7 +3181,7 @@
         <v>41</v>
       </c>
       <c r="Y12" s="25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z12" s="24" t="s">
         <v>189</v>
@@ -3144,7 +3190,7 @@
         <v>183</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC12" s="17" t="s">
         <v>219</v>
@@ -3153,10 +3199,13 @@
         <v>208</v>
       </c>
       <c r="AE12" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+      <c r="AF12" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>50</v>
       </c>
@@ -3170,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>29</v>
@@ -3207,7 +3256,7 @@
       <c r="T13" s="34"/>
       <c r="U13" s="46"/>
       <c r="V13" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W13" s="36" t="s">
         <v>41</v>
@@ -3234,8 +3283,11 @@
         <v>222</v>
       </c>
       <c r="AE13" s="34"/>
-    </row>
-    <row r="14" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF13" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>74</v>
       </c>
@@ -3249,7 +3301,7 @@
         <v>78</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>29</v>
@@ -3303,7 +3355,7 @@
         <v>188</v>
       </c>
       <c r="AA14" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AB14" s="36" t="s">
         <v>221</v>
@@ -3315,10 +3367,13 @@
         <v>214</v>
       </c>
       <c r="AE14" s="24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+      <c r="AF14" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>63</v>
       </c>
@@ -3332,7 +3387,7 @@
         <v>79</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>29</v>
@@ -3369,7 +3424,7 @@
       <c r="T15" s="24"/>
       <c r="U15" s="18"/>
       <c r="V15" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>41</v>
@@ -3390,14 +3445,17 @@
         <v>223</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD15" s="17" t="s">
         <v>222</v>
       </c>
       <c r="AE15" s="34"/>
-    </row>
-    <row r="16" spans="1:31" s="27" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF15" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="27" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>51</v>
       </c>
@@ -3450,7 +3508,7 @@
       <c r="T16" s="24"/>
       <c r="U16" s="28"/>
       <c r="V16" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>41</v>
@@ -3468,7 +3526,7 @@
         <v>186</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC16" s="17" t="s">
         <v>241</v>
@@ -3477,15 +3535,18 @@
         <v>242</v>
       </c>
       <c r="AE16" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" s="41" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+      <c r="AF16" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="41" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="45">
         <v>2013</v>
@@ -3558,8 +3619,11 @@
         <v>271</v>
       </c>
       <c r="AE17" s="34"/>
-    </row>
-    <row r="18" spans="1:31" s="27" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF17" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="27" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>45</v>
       </c>
@@ -3573,7 +3637,7 @@
         <v>80</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>154</v>
@@ -3628,17 +3692,20 @@
         <v>192</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD18" s="43" t="s">
         <v>207</v>
       </c>
       <c r="AE18" s="24"/>
-    </row>
-    <row r="19" spans="1:31" s="41" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="AF18" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="41" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>104</v>
       </c>
@@ -3652,7 +3719,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>97</v>
@@ -3707,7 +3774,7 @@
         <v>186</v>
       </c>
       <c r="AB19" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC19" s="36" t="s">
         <v>227</v>
@@ -3716,8 +3783,11 @@
         <v>208</v>
       </c>
       <c r="AE19" s="34"/>
-    </row>
-    <row r="20" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF19" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>55</v>
       </c>
@@ -3731,7 +3801,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>40</v>
@@ -3797,8 +3867,11 @@
         <v>228</v>
       </c>
       <c r="AE20" s="24"/>
-    </row>
-    <row r="21" spans="1:31" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="AF20" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
         <v>111</v>
       </c>
@@ -3869,7 +3942,7 @@
         <v>184</v>
       </c>
       <c r="AB21" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC21" s="36" t="s">
         <v>232</v>
@@ -3878,8 +3951,11 @@
         <v>222</v>
       </c>
       <c r="AE21" s="34"/>
-    </row>
-    <row r="22" spans="1:31" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="AF21" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>62</v>
       </c>
@@ -3893,7 +3969,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>29</v>
@@ -3948,19 +4024,22 @@
         <v>186</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC22" s="17" t="s">
         <v>233</v>
       </c>
       <c r="AD22" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AE22" s="24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" s="41" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="AF22" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="41" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>199</v>
       </c>
@@ -3974,7 +4053,7 @@
         <v>198</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>156</v>
@@ -4022,7 +4101,7 @@
         <v>41</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Z23" s="26" t="s">
         <v>188</v>
@@ -4031,17 +4110,20 @@
         <v>186</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC23" s="17" t="s">
         <v>234</v>
       </c>
       <c r="AD23" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE23" s="34"/>
-    </row>
-    <row r="24" spans="1:31" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AF23" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>200</v>
       </c>
@@ -4052,10 +4134,10 @@
         <v>2018</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>156</v>
@@ -4108,7 +4190,7 @@
         <v>184</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC24" s="17" t="s">
         <v>235</v>
@@ -4117,8 +4199,11 @@
         <v>222</v>
       </c>
       <c r="AE24" s="24"/>
-    </row>
-    <row r="25" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AF24" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>54</v>
       </c>
@@ -4132,7 +4217,7 @@
         <v>81</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>156</v>
@@ -4189,7 +4274,7 @@
         <v>186</v>
       </c>
       <c r="AB25" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC25" s="36" t="s">
         <v>236</v>
@@ -4198,8 +4283,11 @@
         <v>213</v>
       </c>
       <c r="AE25" s="34"/>
-    </row>
-    <row r="26" spans="1:31" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF25" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>120</v>
       </c>
@@ -4252,7 +4340,7 @@
       <c r="T26" s="45"/>
       <c r="U26" s="39"/>
       <c r="V26" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W26" s="46" t="s">
         <v>41</v>
@@ -4270,7 +4358,7 @@
         <v>186</v>
       </c>
       <c r="AB26" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC26" s="36" t="s">
         <v>237</v>
@@ -4281,8 +4369,11 @@
       <c r="AE26" s="24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AF26" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>59</v>
       </c>
@@ -4333,7 +4424,7 @@
       <c r="T27" s="24"/>
       <c r="U27" s="26"/>
       <c r="V27" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W27" s="18" t="s">
         <v>41</v>
@@ -4351,7 +4442,7 @@
         <v>185</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC27" s="17" t="s">
         <v>238</v>
@@ -4362,8 +4453,11 @@
       <c r="AE27" s="34" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF27" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>60</v>
       </c>
@@ -4445,8 +4539,11 @@
       <c r="AE28" s="24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF28" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>58</v>
       </c>
@@ -4499,7 +4596,7 @@
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
       <c r="V29" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W29" s="17" t="s">
         <v>41</v>
@@ -4526,8 +4623,11 @@
         <v>240</v>
       </c>
       <c r="AE29" s="34"/>
-    </row>
-    <row r="30" spans="1:31" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="AF29" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>171</v>
       </c>
@@ -4541,7 +4641,7 @@
         <v>172</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>153</v>
@@ -4595,22 +4695,25 @@
         <v>189</v>
       </c>
       <c r="AA30" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB30" s="36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC30" s="36" t="s">
         <v>244</v>
       </c>
       <c r="AD30" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE30" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="AF30" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>109</v>
       </c>
@@ -4624,7 +4727,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>29</v>
@@ -4663,7 +4766,7 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W31" s="26" t="s">
         <v>41</v>
@@ -4681,7 +4784,7 @@
         <v>183</v>
       </c>
       <c r="AB31" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC31" s="21" t="s">
         <v>245</v>
@@ -4692,8 +4795,11 @@
       <c r="AE31" s="34" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" s="65" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF31" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="65" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>96</v>
       </c>
@@ -4707,7 +4813,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F32" s="56" t="s">
         <v>97</v>
@@ -4746,7 +4852,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="45"/>
       <c r="V32" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W32" s="55" t="s">
         <v>41</v>
@@ -4775,8 +4881,11 @@
       <c r="AE32" s="24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="AF32" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>164</v>
       </c>
@@ -4790,7 +4899,7 @@
         <v>165</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>154</v>
@@ -4856,8 +4965,11 @@
         <v>248</v>
       </c>
       <c r="AE33" s="34"/>
-    </row>
-    <row r="34" spans="1:31" s="27" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF33" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" s="27" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>61</v>
       </c>
@@ -4871,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>29</v>
@@ -4910,7 +5022,7 @@
       <c r="T34" s="34"/>
       <c r="U34" s="45"/>
       <c r="V34" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W34" s="52" t="s">
         <v>41</v>
@@ -4939,8 +5051,11 @@
       <c r="AE34" s="24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" s="41" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF34" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" s="41" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
         <v>52</v>
       </c>
@@ -4995,7 +5110,7 @@
       <c r="T35" s="34"/>
       <c r="U35" s="45"/>
       <c r="V35" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W35" s="52" t="s">
         <v>41</v>
@@ -5013,7 +5128,7 @@
         <v>183</v>
       </c>
       <c r="AB35" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC35" s="52" t="s">
         <v>251</v>
@@ -5022,8 +5137,11 @@
         <v>213</v>
       </c>
       <c r="AE35" s="34"/>
-    </row>
-    <row r="36" spans="1:31" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AF35" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>48</v>
       </c>
@@ -5037,7 +5155,7 @@
         <v>84</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F36" s="52" t="s">
         <v>97</v>
@@ -5094,19 +5212,22 @@
         <v>183</v>
       </c>
       <c r="AB36" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC36" s="52" t="s">
         <v>252</v>
       </c>
       <c r="AD36" s="52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE36" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="AF36" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>118</v>
       </c>
@@ -5159,7 +5280,7 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W37" s="55" t="s">
         <v>41</v>
@@ -5177,7 +5298,7 @@
         <v>186</v>
       </c>
       <c r="AB37" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC37" s="52" t="s">
         <v>253</v>
@@ -5188,8 +5309,11 @@
       <c r="AE37" s="34" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF37" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>56</v>
       </c>
@@ -5244,7 +5368,7 @@
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>41</v>
@@ -5273,8 +5397,11 @@
       <c r="AE38" s="24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="AF38" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>122</v>
       </c>
@@ -5345,7 +5472,7 @@
         <v>186</v>
       </c>
       <c r="AB39" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC39" s="21" t="s">
         <v>256</v>
@@ -5354,8 +5481,11 @@
         <v>208</v>
       </c>
       <c r="AE39" s="63"/>
-    </row>
-    <row r="40" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF39" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>85</v>
       </c>
@@ -5369,7 +5499,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>154</v>
@@ -5422,7 +5552,7 @@
         <v>183</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC40" s="21" t="s">
         <v>257</v>
@@ -5431,8 +5561,11 @@
         <v>258</v>
       </c>
       <c r="AE40" s="24"/>
-    </row>
-    <row r="41" spans="1:31" s="41" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF40" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" s="41" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
         <v>64</v>
       </c>
@@ -5446,7 +5579,7 @@
         <v>86</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F41" s="52" t="s">
         <v>29</v>
@@ -5503,7 +5636,7 @@
         <v>192</v>
       </c>
       <c r="AB41" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC41" s="52" t="s">
         <v>260</v>
@@ -5512,10 +5645,13 @@
         <v>259</v>
       </c>
       <c r="AE41" s="34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="AF41" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="s">
         <v>103</v>
       </c>
@@ -5529,7 +5665,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>29</v>
@@ -5566,7 +5702,7 @@
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
       <c r="V42" s="64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W42" s="82" t="s">
         <v>41</v>
@@ -5584,7 +5720,7 @@
         <v>184</v>
       </c>
       <c r="AB42" s="82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC42" s="82" t="s">
         <v>261</v>
@@ -5595,8 +5731,11 @@
       <c r="AE42" s="24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AF42" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>115</v>
       </c>
@@ -5610,7 +5749,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>29</v>
@@ -5667,7 +5806,7 @@
         <v>192</v>
       </c>
       <c r="AB43" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC43" s="18" t="s">
         <v>263</v>
@@ -5678,10 +5817,13 @@
       <c r="AE43" s="34" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" s="41" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF43" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" s="41" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>14</v>
@@ -5693,7 +5835,7 @@
         <v>87</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F44" s="40" t="s">
         <v>29</v>
@@ -5750,7 +5892,7 @@
         <v>183</v>
       </c>
       <c r="AB44" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC44" s="52" t="s">
         <v>264</v>
@@ -5759,12 +5901,15 @@
         <v>275</v>
       </c>
       <c r="AE44" s="24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="AF44" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>2</v>
@@ -5776,7 +5921,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>29</v>
@@ -5824,7 +5969,7 @@
         <v>41</v>
       </c>
       <c r="Y45" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z45" s="34" t="s">
         <v>188</v>
@@ -5833,19 +5978,22 @@
         <v>183</v>
       </c>
       <c r="AB45" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC45" s="52" t="s">
         <v>265</v>
       </c>
       <c r="AD45" s="52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AE45" s="24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="AF45" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>47</v>
       </c>
@@ -5859,7 +6007,7 @@
         <v>84</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>97</v>
@@ -5916,17 +6064,20 @@
         <v>191</v>
       </c>
       <c r="AB46" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC46" s="21" t="s">
         <v>266</v>
       </c>
       <c r="AD46" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AE46" s="24"/>
-    </row>
-    <row r="47" spans="1:31" s="41" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF46" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" s="41" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
         <v>113</v>
       </c>
@@ -5940,7 +6091,7 @@
         <v>84</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>97</v>
@@ -5979,7 +6130,7 @@
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
       <c r="V47" s="46" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W47" s="36" t="s">
         <v>41</v>
@@ -5997,17 +6148,20 @@
         <v>183</v>
       </c>
       <c r="AB47" s="52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC47" s="52" t="s">
         <v>267</v>
       </c>
       <c r="AD47" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE47" s="34"/>
-    </row>
-    <row r="48" spans="1:31" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="AF47" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="40" t="s">
         <v>57</v>
       </c>
@@ -6021,10 +6175,10 @@
         <v>33</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G48" s="68">
         <v>37.99</v>
@@ -6078,7 +6232,7 @@
         <v>183</v>
       </c>
       <c r="AB48" s="75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC48" s="87" t="s">
         <v>268</v>
@@ -6087,10 +6241,13 @@
         <v>276</v>
       </c>
       <c r="AE48" s="24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="AF48" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>99</v>
       </c>
@@ -6104,7 +6261,7 @@
         <v>33</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>33</v>
@@ -6165,7 +6322,7 @@
         <v>183</v>
       </c>
       <c r="AB49" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC49" s="21" t="s">
         <v>268</v>
@@ -6174,7 +6331,10 @@
         <v>207</v>
       </c>
       <c r="AE49" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="AF49" s="24" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -2145,7 +2145,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF3" sqref="AF3"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="348">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>Phillips, 2021</t>
-  </si>
-  <si>
-    <t>Wang, 2023</t>
   </si>
   <si>
     <t>Zysk, 2020</t>
@@ -1073,6 +1070,57 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Luo, 2023</t>
+  </si>
+  <si>
+    <t>InMAP-China</t>
+  </si>
+  <si>
+    <t>GridPath</t>
+  </si>
+  <si>
+    <t>Accelerating China’s power sector decarbonization can save lives: integrating public health goals into power sector planning decisions</t>
+  </si>
+  <si>
+    <t>Impact of introducing net-zero carbon strategies on tropospheric ozone (O3) and fine particulate matter (PM2.5) concentrations in Japanese region in 2050</t>
+  </si>
+  <si>
+    <t>Hata, 2023</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>AIM_GAINS_CMAQ</t>
+  </si>
+  <si>
+    <t>Wang, 2023a</t>
+  </si>
+  <si>
+    <t>Wang, 2023b</t>
+  </si>
+  <si>
+    <t>Future Projection of Mortality From Exposure to PM2.5 and O3 Under the Carbon Neutral Pathway Roles of Changing Emissions and Population Aging</t>
+  </si>
+  <si>
+    <t>Agriculture, energy, industry, transport, residential, commercial, solvent, waste, shipping, natural burning</t>
+  </si>
+  <si>
+    <t>GEMM (CRA)</t>
+  </si>
+  <si>
+    <t>Nawaz, 2023</t>
+  </si>
+  <si>
+    <t>Sources of Air Pollution Health Impacts and Co-Benefits of Carbon Neutrality in Santiago, Chile</t>
+  </si>
+  <si>
+    <t>Santiago, Chile</t>
+  </si>
+  <si>
+    <t>Energy, industry, transport, agriculture, housing</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1481,6 +1529,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1835,8 +1901,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AF49" totalsRowShown="0" dataDxfId="30">
-  <autoFilter ref="A1:AF49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AF57" totalsRowShown="0" dataDxfId="30">
+  <autoFilter ref="A1:AF57"/>
   <sortState ref="A2:AE49">
     <sortCondition ref="A1:A49"/>
   </sortState>
@@ -2141,11 +2207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF49"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2183,31 +2249,31 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="I1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
@@ -2231,46 +2297,46 @@
         <v>38</v>
       </c>
       <c r="S1" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" t="s">
         <v>100</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" t="s">
-        <v>102</v>
-      </c>
       <c r="V1" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AB1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC1" t="s">
         <v>203</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>204</v>
       </c>
-      <c r="AD1" t="s">
-        <v>205</v>
-      </c>
       <c r="AE1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2287,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>26</v>
@@ -2326,7 +2392,7 @@
       <c r="T2" s="34"/>
       <c r="U2" s="45"/>
       <c r="V2" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W2" s="43" t="s">
         <v>42</v>
@@ -2335,36 +2401,36 @@
         <v>42</v>
       </c>
       <c r="Y2" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z2" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA2" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB2" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD2" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="AC2" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD2" s="43" t="s">
-        <v>207</v>
-      </c>
       <c r="AE2" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF2" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="22">
         <v>2018</v>
@@ -2373,7 +2439,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>29</v>
@@ -2412,7 +2478,7 @@
       <c r="T3" s="24"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>41</v>
@@ -2421,36 +2487,36 @@
         <v>41</v>
       </c>
       <c r="Y3" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z3" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE3" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF3" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="22">
         <v>2020</v>
@@ -2459,7 +2525,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>29</v>
@@ -2498,7 +2564,7 @@
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
       <c r="V4" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W4" s="26" t="s">
         <v>41</v>
@@ -2507,36 +2573,36 @@
         <v>41</v>
       </c>
       <c r="Y4" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z4" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA4" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE4" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF4" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="22">
         <v>2022</v>
@@ -2545,10 +2611,10 @@
         <v>29</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="23">
         <v>1410</v>
@@ -2584,7 +2650,7 @@
       <c r="T5" s="24"/>
       <c r="U5" s="22"/>
       <c r="V5" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W5" s="22" t="s">
         <v>41</v>
@@ -2593,46 +2659,46 @@
         <v>41</v>
       </c>
       <c r="Y5" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z5" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB5" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC5" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD5" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE5" s="34"/>
       <c r="AF5" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:32" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="46">
         <v>2012</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="36">
         <v>3</v>
@@ -2664,7 +2730,7 @@
       <c r="T6" s="45"/>
       <c r="U6" s="45"/>
       <c r="V6" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W6" s="46" t="s">
         <v>42</v>
@@ -2673,31 +2739,31 @@
         <v>42</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA6" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB6" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC6" s="52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD6" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AE6" s="24"/>
       <c r="AF6" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>19</v>
@@ -2709,10 +2775,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7" s="32">
         <v>1241</v>
@@ -2748,7 +2814,7 @@
       <c r="T7" s="24"/>
       <c r="U7" s="26"/>
       <c r="V7" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>41</v>
@@ -2757,31 +2823,31 @@
         <v>41</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z7" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA7" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC7" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AD7" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE7" s="34"/>
       <c r="AF7" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>16</v>
@@ -2793,10 +2859,10 @@
         <v>28</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="37">
         <v>1241</v>
@@ -2832,35 +2898,35 @@
       <c r="T8" s="34"/>
       <c r="U8" s="40"/>
       <c r="V8" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W8" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X8" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y8" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA8" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB8" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AC8" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AD8" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AE8" s="18"/>
       <c r="AF8" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="41" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -2874,13 +2940,13 @@
         <v>2021</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="83">
         <v>3870</v>
@@ -2916,40 +2982,40 @@
       <c r="T9" s="24"/>
       <c r="U9" s="22"/>
       <c r="V9" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W9" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y9" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z9" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA9" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE9" s="34"/>
       <c r="AF9" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>43</v>
@@ -2958,13 +3024,13 @@
         <v>2017</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="20">
         <v>6000</v>
@@ -3000,45 +3066,45 @@
       <c r="T10" s="24"/>
       <c r="U10" s="26"/>
       <c r="V10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W10" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y10" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA10" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB10" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC10" s="86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD10" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE10" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF10" s="24" t="s">
         <v>330</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>194</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>195</v>
       </c>
       <c r="C11" s="36">
         <v>2019</v>
@@ -3047,7 +3113,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11" s="59" t="s">
         <v>29</v>
@@ -3088,7 +3154,7 @@
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
       <c r="V11" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W11" s="40" t="s">
         <v>41</v>
@@ -3097,26 +3163,26 @@
         <v>41</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z11" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA11" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB11" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC11" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD11" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE11" s="34"/>
       <c r="AF11" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3130,10 +3196,10 @@
         <v>2023</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F12" s="28" t="s">
         <v>29</v>
@@ -3172,7 +3238,7 @@
       <c r="T12" s="24"/>
       <c r="U12" s="28"/>
       <c r="V12" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>41</v>
@@ -3181,28 +3247,28 @@
         <v>41</v>
       </c>
       <c r="Y12" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z12" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE12" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF12" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3219,7 +3285,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>29</v>
@@ -3256,7 +3322,7 @@
       <c r="T13" s="34"/>
       <c r="U13" s="46"/>
       <c r="V13" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W13" s="36" t="s">
         <v>41</v>
@@ -3265,43 +3331,43 @@
         <v>41</v>
       </c>
       <c r="Y13" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z13" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA13" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB13" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC13" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD13" s="36" t="s">
         <v>221</v>
-      </c>
-      <c r="AC13" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD13" s="36" t="s">
-        <v>222</v>
       </c>
       <c r="AE13" s="34"/>
       <c r="AF13" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="46">
         <v>2022</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>29</v>
@@ -3340,7 +3406,7 @@
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
       <c r="V14" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W14" s="45" t="s">
         <v>41</v>
@@ -3349,33 +3415,33 @@
         <v>41</v>
       </c>
       <c r="Y14" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z14" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA14" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AB14" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC14" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AD14" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE14" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF14" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>23</v>
@@ -3384,10 +3450,10 @@
         <v>2023</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>29</v>
@@ -3424,7 +3490,7 @@
       <c r="T15" s="24"/>
       <c r="U15" s="18"/>
       <c r="V15" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>41</v>
@@ -3433,26 +3499,26 @@
         <v>41</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z15" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA15" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB15" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE15" s="34"/>
       <c r="AF15" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="27" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3466,13 +3532,13 @@
         <v>2018</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="23">
         <v>7821</v>
@@ -3508,7 +3574,7 @@
       <c r="T16" s="24"/>
       <c r="U16" s="28"/>
       <c r="V16" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W16" s="18" t="s">
         <v>41</v>
@@ -3517,36 +3583,36 @@
         <v>41</v>
       </c>
       <c r="Y16" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA16" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC16" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD16" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="AD16" s="17" t="s">
-        <v>242</v>
-      </c>
       <c r="AE16" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF16" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="41" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17" s="45">
         <v>2013</v>
@@ -3558,7 +3624,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17" s="48">
         <v>6970</v>
@@ -3592,7 +3658,7 @@
       <c r="T17" s="45"/>
       <c r="U17" s="45"/>
       <c r="V17" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W17" s="45" t="s">
         <v>41</v>
@@ -3601,26 +3667,26 @@
         <v>41</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z17" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA17" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB17" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC17" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AD17" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AE17" s="34"/>
       <c r="AF17" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="27" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3634,13 +3700,13 @@
         <v>2023</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="18">
         <v>70</v>
@@ -3674,55 +3740,55 @@
       <c r="T18" s="24"/>
       <c r="U18" s="26"/>
       <c r="V18" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X18" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y18" s="25" t="s">
         <v>35</v>
       </c>
       <c r="Z18" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA18" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AD18" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE18" s="24"/>
       <c r="AF18" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="41" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>104</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>105</v>
       </c>
       <c r="C19" s="36">
         <v>2022</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="38">
         <v>4680</v>
@@ -3756,7 +3822,7 @@
       <c r="T19" s="45"/>
       <c r="U19" s="36"/>
       <c r="V19" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W19" s="46" t="s">
         <v>41</v>
@@ -3765,26 +3831,26 @@
         <v>41</v>
       </c>
       <c r="Y19" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z19" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA19" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB19" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC19" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AD19" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE19" s="34"/>
       <c r="AF19" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3801,7 +3867,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>40</v>
@@ -3840,7 +3906,7 @@
       <c r="T20" s="24"/>
       <c r="U20" s="25"/>
       <c r="V20" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W20" s="18" t="s">
         <v>41</v>
@@ -3852,31 +3918,31 @@
         <v>35</v>
       </c>
       <c r="Z20" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA20" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD20" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE20" s="24"/>
       <c r="AF20" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:32" s="41" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="36">
         <v>2021</v>
@@ -3888,7 +3954,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="37">
         <v>7662</v>
@@ -3924,7 +3990,7 @@
       <c r="T21" s="45"/>
       <c r="U21" s="45"/>
       <c r="V21" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W21" s="46" t="s">
         <v>41</v>
@@ -3933,31 +3999,31 @@
         <v>41</v>
       </c>
       <c r="Y21" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z21" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA21" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB21" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC21" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD21" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE21" s="34"/>
       <c r="AF21" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
@@ -3969,7 +4035,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>29</v>
@@ -4006,7 +4072,7 @@
       <c r="T22" s="24"/>
       <c r="U22" s="26"/>
       <c r="V22" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W22" s="17" t="s">
         <v>41</v>
@@ -4015,48 +4081,48 @@
         <v>41</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z22" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA22" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AD22" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AE22" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF22" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:32" s="41" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="22">
         <v>2012</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G23" s="17">
         <v>503</v>
@@ -4092,7 +4158,7 @@
       <c r="T23" s="26"/>
       <c r="U23" s="22"/>
       <c r="V23" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W23" s="18" t="s">
         <v>41</v>
@@ -4101,46 +4167,46 @@
         <v>41</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Z23" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC23" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD23" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE23" s="34"/>
       <c r="AF23" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>200</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>201</v>
       </c>
       <c r="C24" s="22">
         <v>2018</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G24" s="20">
         <v>7662</v>
@@ -4172,35 +4238,35 @@
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
       <c r="V24" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC24" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE24" s="24"/>
       <c r="AF24" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:32" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4214,13 +4280,13 @@
         <v>2021</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G25" s="44">
         <v>3820</v>
@@ -4256,7 +4322,7 @@
       <c r="T25" s="34"/>
       <c r="U25" s="45"/>
       <c r="V25" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W25" s="36" t="s">
         <v>41</v>
@@ -4265,34 +4331,34 @@
         <v>41</v>
       </c>
       <c r="Y25" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z25" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA25" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB25" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC25" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AD25" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE25" s="34"/>
       <c r="AF25" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:32" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="46">
         <v>2020</v>
@@ -4304,7 +4370,7 @@
         <v>27</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G26" s="37">
         <v>7405</v>
@@ -4340,7 +4406,7 @@
       <c r="T26" s="45"/>
       <c r="U26" s="39"/>
       <c r="V26" s="46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W26" s="46" t="s">
         <v>41</v>
@@ -4349,33 +4415,33 @@
         <v>41</v>
       </c>
       <c r="Y26" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z26" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA26" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB26" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC26" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AD26" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE26" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF26" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:32" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>20</v>
@@ -4390,7 +4456,7 @@
         <v>27</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" s="20">
         <v>7405</v>
@@ -4424,7 +4490,7 @@
       <c r="T27" s="24"/>
       <c r="U27" s="26"/>
       <c r="V27" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W27" s="18" t="s">
         <v>41</v>
@@ -4433,33 +4499,33 @@
         <v>41</v>
       </c>
       <c r="Y27" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z27" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AD27" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AE27" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF27" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>21</v>
@@ -4474,7 +4540,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G28" s="37">
         <v>7821</v>
@@ -4510,7 +4576,7 @@
       <c r="T28" s="34"/>
       <c r="U28" s="34"/>
       <c r="V28" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W28" s="40" t="s">
         <v>41</v>
@@ -4519,33 +4585,33 @@
         <v>41</v>
       </c>
       <c r="Y28" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z28" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA28" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB28" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC28" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD28" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="AD28" s="36" t="s">
-        <v>240</v>
-      </c>
       <c r="AE28" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF28" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:32" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>18</v>
@@ -4560,7 +4626,7 @@
         <v>27</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29" s="20">
         <v>7821</v>
@@ -4596,7 +4662,7 @@
       <c r="T29" s="24"/>
       <c r="U29" s="24"/>
       <c r="V29" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W29" s="17" t="s">
         <v>41</v>
@@ -4605,46 +4671,46 @@
         <v>41</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z29" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA29" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC29" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD29" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="AD29" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="AE29" s="34"/>
       <c r="AF29" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:32" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="46">
         <v>2019</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G30" s="36">
         <v>528</v>
@@ -4680,7 +4746,7 @@
       <c r="T30" s="45"/>
       <c r="U30" s="45"/>
       <c r="V30" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W30" s="46" t="s">
         <v>41</v>
@@ -4689,36 +4755,36 @@
         <v>41</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z30" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA30" s="45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB30" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC30" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AD30" s="36" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AE30" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF30" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:32" s="41" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="26">
         <v>2022</v>
@@ -4727,7 +4793,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>29</v>
@@ -4766,7 +4832,7 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W31" s="26" t="s">
         <v>41</v>
@@ -4775,48 +4841,48 @@
         <v>41</v>
       </c>
       <c r="Y31" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z31" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA31" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB31" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC31" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AD31" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE31" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF31" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:32" s="65" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="40">
         <v>2020</v>
       </c>
       <c r="D32" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="56">
         <v>330</v>
@@ -4852,7 +4918,7 @@
       <c r="T32" s="34"/>
       <c r="U32" s="45"/>
       <c r="V32" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W32" s="55" t="s">
         <v>41</v>
@@ -4861,48 +4927,48 @@
         <v>41</v>
       </c>
       <c r="Y32" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z32" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA32" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB32" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC32" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AD32" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE32" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF32" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:32" s="41" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="26">
         <v>2015</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G33" s="18">
         <v>9</v>
@@ -4938,40 +5004,40 @@
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
       <c r="V33" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W33" s="57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X33" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y33" s="18" t="s">
         <v>35</v>
       </c>
       <c r="Z33" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA33" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB33" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC33" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD33" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="AD33" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="AE33" s="34"/>
       <c r="AF33" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:32" s="27" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>13</v>
@@ -4983,7 +5049,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F34" s="40" t="s">
         <v>29</v>
@@ -5022,7 +5088,7 @@
       <c r="T34" s="34"/>
       <c r="U34" s="45"/>
       <c r="V34" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W34" s="52" t="s">
         <v>41</v>
@@ -5031,28 +5097,28 @@
         <v>41</v>
       </c>
       <c r="Y34" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z34" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA34" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB34" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC34" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AD34" s="52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE34" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF34" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:32" s="41" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -5072,7 +5138,7 @@
         <v>27</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" s="49">
         <v>7821</v>
@@ -5110,7 +5176,7 @@
       <c r="T35" s="34"/>
       <c r="U35" s="45"/>
       <c r="V35" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W35" s="52" t="s">
         <v>41</v>
@@ -5119,26 +5185,26 @@
         <v>41</v>
       </c>
       <c r="Y35" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z35" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA35" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB35" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC35" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD35" s="52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE35" s="34"/>
       <c r="AF35" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5152,13 +5218,13 @@
         <v>2020</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" s="40">
         <v>37.299999999999997</v>
@@ -5194,7 +5260,7 @@
       <c r="T36" s="34"/>
       <c r="U36" s="45"/>
       <c r="V36" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W36" s="52" t="s">
         <v>41</v>
@@ -5203,36 +5269,36 @@
         <v>41</v>
       </c>
       <c r="Y36" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z36" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA36" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB36" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC36" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AD36" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE36" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF36" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:32" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="45">
         <v>2022</v>
@@ -5280,7 +5346,7 @@
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
       <c r="V37" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W37" s="55" t="s">
         <v>41</v>
@@ -5289,33 +5355,33 @@
         <v>41</v>
       </c>
       <c r="Y37" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z37" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA37" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB37" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC37" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AD37" s="67" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AE37" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF37" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:32" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>15</v>
@@ -5368,7 +5434,7 @@
       <c r="T38" s="24"/>
       <c r="U38" s="24"/>
       <c r="V38" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>41</v>
@@ -5377,36 +5443,36 @@
         <v>41</v>
       </c>
       <c r="Y38" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z38" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA38" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE38" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF38" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="54" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" s="26">
         <v>2018</v>
@@ -5418,7 +5484,7 @@
         <v>27</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="72">
         <v>7405</v>
@@ -5454,40 +5520,40 @@
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
       <c r="V39" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W39" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X39" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y39" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z39" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA39" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AB39" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC39" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD39" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE39" s="63"/>
       <c r="AF39" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="18" t="s">
         <v>11</v>
@@ -5499,10 +5565,10 @@
         <v>32</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G40" s="33">
         <v>63.26</v>
@@ -5534,7 +5600,7 @@
       <c r="T40" s="24"/>
       <c r="U40" s="26"/>
       <c r="V40" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>41</v>
@@ -5546,28 +5612,28 @@
         <v>35</v>
       </c>
       <c r="Z40" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA40" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC40" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD40" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="AD40" s="21" t="s">
-        <v>258</v>
       </c>
       <c r="AE40" s="24"/>
       <c r="AF40" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:32" s="41" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="40" t="s">
         <v>24</v>
@@ -5576,10 +5642,10 @@
         <v>2021</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F41" s="52" t="s">
         <v>29</v>
@@ -5618,7 +5684,7 @@
       <c r="T41" s="34"/>
       <c r="U41" s="45"/>
       <c r="V41" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W41" s="52" t="s">
         <v>41</v>
@@ -5627,36 +5693,36 @@
         <v>41</v>
       </c>
       <c r="Y41" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z41" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA41" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB41" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC41" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD41" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE41" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF41" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="62">
         <v>2020</v>
@@ -5665,7 +5731,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>29</v>
@@ -5702,7 +5768,7 @@
       <c r="T42" s="63"/>
       <c r="U42" s="64"/>
       <c r="V42" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W42" s="82" t="s">
         <v>41</v>
@@ -5711,36 +5777,36 @@
         <v>41</v>
       </c>
       <c r="Y42" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z42" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA42" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB42" s="82" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC42" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD42" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="AD42" s="82" t="s">
-        <v>262</v>
-      </c>
       <c r="AE42" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF42" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:32" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="26">
         <v>2018</v>
@@ -5749,7 +5815,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>29</v>
@@ -5788,7 +5854,7 @@
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
       <c r="V43" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W43" s="18" t="s">
         <v>41</v>
@@ -5797,33 +5863,33 @@
         <v>41</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z43" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA43" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB43" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC43" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AD43" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE43" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF43" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:32" s="41" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>14</v>
@@ -5832,10 +5898,10 @@
         <v>2021</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F44" s="40" t="s">
         <v>29</v>
@@ -5874,7 +5940,7 @@
       <c r="T44" s="34"/>
       <c r="U44" s="45"/>
       <c r="V44" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W44" s="40" t="s">
         <v>41</v>
@@ -5883,33 +5949,33 @@
         <v>41</v>
       </c>
       <c r="Y44" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z44" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA44" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB44" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC44" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AD44" s="67" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE44" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF44" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>2</v>
@@ -5921,7 +5987,7 @@
         <v>29</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>29</v>
@@ -5960,7 +6026,7 @@
       <c r="T45" s="34"/>
       <c r="U45" s="45"/>
       <c r="V45" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W45" s="40" t="s">
         <v>41</v>
@@ -5969,28 +6035,28 @@
         <v>41</v>
       </c>
       <c r="Y45" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z45" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA45" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB45" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC45" s="52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AD45" s="52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AE45" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF45" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:32" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6004,13 +6070,13 @@
         <v>2019</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" s="18">
         <v>37.299999999999997</v>
@@ -6046,7 +6112,7 @@
       <c r="T46" s="24"/>
       <c r="U46" s="26"/>
       <c r="V46" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W46" s="18" t="s">
         <v>41</v>
@@ -6055,46 +6121,46 @@
         <v>41</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z46" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA46" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB46" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC46" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AD46" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AE46" s="24"/>
       <c r="AF46" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="41" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="36">
         <v>2022</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G47" s="36">
         <v>39.4</v>
@@ -6130,7 +6196,7 @@
       <c r="T47" s="45"/>
       <c r="U47" s="45"/>
       <c r="V47" s="46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W47" s="36" t="s">
         <v>41</v>
@@ -6139,31 +6205,31 @@
         <v>41</v>
       </c>
       <c r="Y47" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z47" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA47" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB47" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC47" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AD47" s="52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE47" s="34"/>
       <c r="AF47" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="39" t="s">
         <v>17</v>
@@ -6175,10 +6241,10 @@
         <v>33</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G48" s="68">
         <v>37.99</v>
@@ -6214,7 +6280,7 @@
       <c r="T48" s="34"/>
       <c r="U48" s="45"/>
       <c r="V48" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W48" s="52" t="s">
         <v>41</v>
@@ -6223,36 +6289,36 @@
         <v>41</v>
       </c>
       <c r="Y48" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Z48" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA48" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB48" s="75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AC48" s="87" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD48" s="67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE48" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF48" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:32" s="41" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="79">
         <v>2021</v>
@@ -6261,7 +6327,7 @@
         <v>33</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F49" s="21" t="s">
         <v>33</v>
@@ -6304,7 +6370,7 @@
         <v>2050</v>
       </c>
       <c r="V49" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W49" s="21" t="s">
         <v>41</v>
@@ -6313,29 +6379,450 @@
         <v>41</v>
       </c>
       <c r="Y49" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Z49" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA49" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB49" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC49" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD49" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE49" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF49" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" s="93" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="89" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" s="93">
+        <v>2023</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="88"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90">
+        <v>2022</v>
+      </c>
+      <c r="K50" s="89">
+        <v>2050</v>
+      </c>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="89"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="W50" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X50" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y50" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z50" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA50" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB50" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC50" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD50" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="AE50" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF50" s="24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="93" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51" s="89" t="s">
+        <v>335</v>
+      </c>
+      <c r="C51" s="93">
+        <v>2023</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="G51" s="88"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90">
+        <v>2015</v>
+      </c>
+      <c r="K51" s="89">
+        <v>2050</v>
+      </c>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="89"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="89"/>
+      <c r="S51" s="89"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="89"/>
+      <c r="V51" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="W51" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="X51" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y51" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z51" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA51" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB51" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC51" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD51" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE51" s="89"/>
+      <c r="AF51" s="89" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" s="93" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" s="89" t="s">
+        <v>341</v>
+      </c>
+      <c r="C52" s="93">
+        <v>2023</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="88"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90">
+        <v>2015</v>
+      </c>
+      <c r="K52" s="89">
+        <v>2060</v>
+      </c>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="W52" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="X52" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y52" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z52" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA52" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB52" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC52" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD52" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE52" s="89"/>
+      <c r="AF52" s="89" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" s="93" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="89" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="93">
+        <v>2023</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="E53" s="93" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" s="88"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90">
+        <v>2016</v>
+      </c>
+      <c r="K53" s="89">
+        <v>2050</v>
+      </c>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="89"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="89"/>
+      <c r="S53" s="89"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="89"/>
+      <c r="V53" s="89" t="s">
+        <v>347</v>
+      </c>
+      <c r="W53" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="X53" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y53" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z53" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA53" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="AB49" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC49" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD49" s="67" t="s">
+      <c r="AB53" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC53" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD53" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="AE49" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="AF49" s="24" t="s">
-        <v>329</v>
-      </c>
+      <c r="AE53" s="89"/>
+      <c r="AF53" s="89"/>
+    </row>
+    <row r="54" spans="1:32" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="89"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="93">
+        <v>2023</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="89"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="89"/>
+      <c r="S54" s="89"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="89"/>
+      <c r="V54" s="89"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="89"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="89"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="89"/>
+      <c r="AF54" s="89"/>
+    </row>
+    <row r="55" spans="1:32" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="89"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="93">
+        <v>2023</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="89"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="89"/>
+      <c r="AA55" s="89"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="40"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="89"/>
+      <c r="AF55" s="89"/>
+    </row>
+    <row r="56" spans="1:32" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="93">
+        <v>2023</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="89"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="89"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="89"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="89"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="89"/>
+      <c r="AA56" s="89"/>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="40"/>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="89"/>
+      <c r="AF56" s="89"/>
+    </row>
+    <row r="57" spans="1:32" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="91"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="93">
+        <v>2023</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="91"/>
+      <c r="Q57" s="91"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="91"/>
+      <c r="T57" s="91"/>
+      <c r="U57" s="91"/>
+      <c r="V57" s="91"/>
+      <c r="W57" s="91"/>
+      <c r="X57" s="91"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="91"/>
+      <c r="AA57" s="91"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="40"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="91"/>
+      <c r="AF57" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6351,7 +6838,7 @@
   <dimension ref="B2:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6366,7 +6853,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="3"/>
     </row>
@@ -6399,25 +6886,25 @@
     </row>
     <row r="5" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="J5" s="3"/>
     </row>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -1343,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1483,9 +1483,6 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1541,9 +1538,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1562,27 +1556,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1598,45 +1580,21 @@
     <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1646,14 +1604,32 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2011,7 +1987,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AF57" totalsRowShown="0" dataDxfId="30">
   <autoFilter ref="A1:AF57"/>
   <sortState ref="A2:AF57">
-    <sortCondition ref="A1:A57"/>
+    <sortCondition descending="1" ref="C1:C57"/>
   </sortState>
   <tableColumns count="32">
     <tableColumn id="18" name="author_date" dataDxfId="29"/>
@@ -2316,9 +2292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF46" sqref="AF46"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2447,1161 +2423,1105 @@
       </c>
     </row>
     <row r="2" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="42">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>26</v>
+      <c r="A2" s="71" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="79">
+        <v>2023</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="42">
-        <v>67.5</v>
-      </c>
-      <c r="H2" s="36">
+      <c r="F2" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="73">
+        <v>1411</v>
+      </c>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81">
         <v>36</v>
       </c>
-      <c r="I2" s="87">
-        <v>17</v>
-      </c>
-      <c r="J2" s="37">
-        <v>2021</v>
-      </c>
-      <c r="K2" s="42">
-        <v>2050</v>
-      </c>
-      <c r="L2" s="33">
-        <v>2021</v>
-      </c>
-      <c r="M2" s="33">
-        <v>2050</v>
-      </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="33">
-        <v>2050</v>
-      </c>
-      <c r="P2" s="43">
-        <v>2021</v>
-      </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z2" s="33" t="s">
+      <c r="J2" s="81">
+        <v>2020</v>
+      </c>
+      <c r="K2" s="80">
+        <v>2060</v>
+      </c>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="71" t="s">
+        <v>358</v>
+      </c>
+      <c r="W2" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z2" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA2" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB2" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC2" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD2" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="79">
+        <v>2023</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="73">
+        <v>127</v>
+      </c>
+      <c r="H3" s="80"/>
+      <c r="I3" s="37">
+        <v>18.8333333333333</v>
+      </c>
+      <c r="J3" s="81">
+        <v>2015</v>
+      </c>
+      <c r="K3" s="80">
+        <v>2050</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="W3" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z3" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="AA2" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB2" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC2" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD2" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF2" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="22">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="32">
-        <v>1338</v>
-      </c>
-      <c r="H3" s="23">
-        <v>25</v>
-      </c>
-      <c r="I3" s="87">
-        <v>25</v>
-      </c>
-      <c r="J3" s="23">
-        <v>2010</v>
-      </c>
-      <c r="K3" s="28">
-        <v>2050</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="17">
-        <v>2010</v>
-      </c>
-      <c r="O3" s="24">
-        <v>2050</v>
-      </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="24">
-        <v>2030</v>
-      </c>
-      <c r="R3" s="24">
-        <v>2050</v>
-      </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA3" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AA3" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB3" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="AC3" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD3" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE3" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="22">
-        <v>2020</v>
+      <c r="AC3" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD3" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="64">
+        <v>2023</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>297</v>
+        <v>75</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="32">
-        <v>1380</v>
+      <c r="G4" s="28">
+        <v>38.6</v>
       </c>
       <c r="H4" s="23">
-        <v>21</v>
-      </c>
-      <c r="I4" s="87">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="I4" s="37">
+        <v>8</v>
       </c>
       <c r="J4" s="23">
-        <v>2015</v>
-      </c>
-      <c r="K4" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+        <v>2017</v>
+      </c>
+      <c r="K4" s="17">
+        <v>2060</v>
+      </c>
+      <c r="L4" s="24">
+        <v>2017</v>
+      </c>
+      <c r="M4" s="24">
+        <v>2060</v>
+      </c>
       <c r="N4" s="17">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="O4" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26">
-        <v>2030</v>
-      </c>
-      <c r="R4" s="26">
-        <v>2050</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="W4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>281</v>
+        <v>2060</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="25" t="s">
+        <v>282</v>
       </c>
       <c r="Z4" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA4" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA4" s="24" t="s">
         <v>181</v>
       </c>
       <c r="AB4" s="17" t="s">
         <v>314</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="AE4" s="24" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AF4" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="85">
+      <c r="A5" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="79">
         <v>2023</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="73" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="73">
+        <v>1412</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81">
+        <v>37</v>
+      </c>
+      <c r="J5" s="81">
+        <v>2022</v>
+      </c>
+      <c r="K5" s="80">
+        <v>2050</v>
+      </c>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z5" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA5" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB5" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC5" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD5" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE5" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF5" s="71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="75">
-        <v>1411</v>
-      </c>
-      <c r="H5" s="86"/>
-      <c r="I5" s="87">
-        <v>36</v>
-      </c>
-      <c r="J5" s="87">
-        <v>2020</v>
-      </c>
-      <c r="K5" s="86">
+      <c r="G6" s="28">
+        <v>100</v>
+      </c>
+      <c r="H6" s="23">
+        <v>33</v>
+      </c>
+      <c r="I6" s="81">
+        <v>12</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2017</v>
+      </c>
+      <c r="K6" s="28">
         <v>2060</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="W5" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z5" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA5" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB5" s="75" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC5" s="75" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD5" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="23">
-        <v>1410</v>
-      </c>
-      <c r="H6" s="23">
-        <v>19</v>
-      </c>
-      <c r="I6" s="87">
-        <v>33</v>
-      </c>
-      <c r="J6" s="23">
-        <v>2020</v>
-      </c>
-      <c r="K6" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L6" s="24">
-        <v>2020</v>
-      </c>
-      <c r="M6" s="24">
-        <v>2050</v>
-      </c>
-      <c r="N6" s="22">
-        <v>2020</v>
-      </c>
-      <c r="O6" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="24">
+        <v>2017</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>2030</v>
+      </c>
+      <c r="R6" s="24">
+        <v>2060</v>
+      </c>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="26"/>
+      <c r="U6" s="18"/>
       <c r="V6" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>137</v>
+        <v>324</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="Z6" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA6" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB6" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC6" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD6" s="22" t="s">
-        <v>271</v>
+        <v>181</v>
+      </c>
+      <c r="AB6" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD6" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="AE6" s="33"/>
       <c r="AF6" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="79">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="73">
+        <v>1372</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="37">
+        <v>26</v>
+      </c>
+      <c r="J7" s="81">
+        <v>2014</v>
+      </c>
+      <c r="K7" s="80">
+        <v>2060</v>
+      </c>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="74" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z7" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA7" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB7" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC7" s="73" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD7" s="73" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE7" s="71" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF7" s="71" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="44">
-        <v>2012</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="35">
-        <v>3</v>
-      </c>
-      <c r="H7" s="36">
-        <v>48</v>
-      </c>
-      <c r="I7" s="37">
+    <row r="8" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="37">
-        <v>2010</v>
-      </c>
-      <c r="K7" s="35">
-        <v>2040</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="43">
-        <v>2010</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>2040</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="W7" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="X7" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z7" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA7" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB7" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC7" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD7" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="28">
-        <v>2021</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>28</v>
+        <v>2023</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="32">
-        <v>1241</v>
+      <c r="F8" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="17">
+        <v>70</v>
       </c>
       <c r="H8" s="23">
-        <v>29</v>
-      </c>
-      <c r="I8" s="87">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="I8" s="37">
+        <v>18</v>
       </c>
       <c r="J8" s="23">
-        <v>2010</v>
-      </c>
-      <c r="K8" s="28">
-        <v>2050</v>
+        <v>2021</v>
+      </c>
+      <c r="K8" s="77">
+        <v>2100</v>
       </c>
       <c r="L8" s="24">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="M8" s="24">
-        <v>2050</v>
-      </c>
-      <c r="N8" s="17">
-        <v>2010</v>
-      </c>
-      <c r="O8" s="24">
-        <v>2050</v>
-      </c>
-      <c r="P8" s="24"/>
+        <v>2100</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="24">
+        <v>2020</v>
+      </c>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="26"/>
       <c r="V8" s="28" t="s">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="W8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="18" t="s">
-        <v>139</v>
+        <v>178</v>
+      </c>
+      <c r="X8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="Z8" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA8" s="24" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AC8" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD8" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE8" s="33"/>
+        <v>313</v>
+      </c>
+      <c r="AD8" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE8" s="24"/>
       <c r="AF8" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="40" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="35">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="36">
-        <v>1241</v>
-      </c>
-      <c r="H9" s="36">
-        <v>28</v>
-      </c>
-      <c r="I9" s="87">
-        <v>22</v>
-      </c>
-      <c r="J9" s="37">
-        <v>2010</v>
-      </c>
-      <c r="K9" s="35">
-        <v>2050</v>
-      </c>
-      <c r="L9" s="33">
-        <v>2010</v>
-      </c>
-      <c r="M9" s="33">
-        <v>2050</v>
-      </c>
-      <c r="N9" s="35">
-        <v>2010</v>
-      </c>
-      <c r="O9" s="33">
-        <v>2050</v>
-      </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="W9" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z9" s="33" t="s">
+      <c r="A9" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="79">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="73">
+        <v>6</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81">
+        <v>2</v>
+      </c>
+      <c r="J9" s="81">
+        <v>2016</v>
+      </c>
+      <c r="K9" s="80">
+        <v>2050</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="W9" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z9" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA9" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB9" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC9" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD9" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="76" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="79">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="73">
+        <v>9</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81">
+        <v>3</v>
+      </c>
+      <c r="J10" s="81">
+        <v>2016</v>
+      </c>
+      <c r="K10" s="80">
+        <v>2045</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z10" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="AA9" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB9" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC9" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD9" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="24" t="s">
+      <c r="AA10" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB10" s="73" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC10" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD10" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE10" s="76" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF10" s="76" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2021</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="102">
-        <v>3870</v>
-      </c>
-      <c r="H10" s="23">
+    <row r="11" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="79">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" s="73">
+        <v>7821</v>
+      </c>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81">
+        <v>56</v>
+      </c>
+      <c r="J11" s="81">
+        <v>2020</v>
+      </c>
+      <c r="K11" s="80">
+        <v>2100</v>
+      </c>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="W11" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z11" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA11" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB11" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC11" s="73" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD11" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="87">
-        <v>40.8333333333333</v>
-      </c>
-      <c r="J10" s="23">
-        <v>2015</v>
-      </c>
-      <c r="K10" s="17">
-        <v>2040</v>
-      </c>
-      <c r="L10" s="24">
-        <v>2015</v>
-      </c>
-      <c r="M10" s="18">
-        <v>2040</v>
-      </c>
-      <c r="N10" s="17">
-        <v>2015</v>
-      </c>
-      <c r="O10" s="24">
-        <v>2040</v>
-      </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y10" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA10" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB10" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC10" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
-        <v>334</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="85">
+      <c r="C12" s="17">
         <v>2023</v>
       </c>
-      <c r="D11" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="G11" s="75">
-        <v>127</v>
-      </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="37">
-        <v>18.8333333333333</v>
-      </c>
-      <c r="J11" s="87">
-        <v>2015</v>
-      </c>
-      <c r="K11" s="86">
-        <v>2050</v>
-      </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="W11" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z11" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA11" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB11" s="75" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC11" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD11" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="27" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="22">
-        <v>2017</v>
-      </c>
       <c r="D12" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>298</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G12" s="20">
-        <v>6000</v>
+        <v>7821</v>
       </c>
       <c r="H12" s="23">
-        <v>13</v>
-      </c>
-      <c r="I12" s="37">
-        <v>42.8333333333333</v>
+        <v>5</v>
+      </c>
+      <c r="I12" s="81">
+        <v>51</v>
       </c>
       <c r="J12" s="23">
-        <v>2012</v>
-      </c>
-      <c r="K12" s="22">
-        <v>2050</v>
+        <v>2020</v>
+      </c>
+      <c r="K12" s="17">
+        <v>2100</v>
       </c>
       <c r="L12" s="24">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="M12" s="24">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="N12" s="17">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="O12" s="24">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="P12" s="26"/>
-      <c r="Q12" s="24"/>
+      <c r="Q12" s="24">
+        <v>2030</v>
+      </c>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
       <c r="U12" s="22"/>
-      <c r="V12" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="28" t="s">
-        <v>179</v>
+      <c r="V12" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="24" t="s">
         <v>140</v>
       </c>
       <c r="Z12" s="24" t="s">
         <v>186</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC12" s="106" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD12" s="61" t="s">
-        <v>206</v>
+        <v>253</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="AE12" s="24" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="AF12" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="39">
-        <v>2019</v>
-      </c>
-      <c r="D13" s="56" t="s">
+    <row r="13" spans="1:32" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="72">
+        <v>2023</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="56">
-        <v>1408</v>
-      </c>
-      <c r="H13" s="36">
-        <v>20</v>
-      </c>
-      <c r="I13" s="37">
-        <v>32</v>
-      </c>
-      <c r="J13" s="92">
+      <c r="G13" s="74">
+        <v>1380</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81">
+        <v>31</v>
+      </c>
+      <c r="J13" s="81">
         <v>2015</v>
       </c>
-      <c r="K13" s="35">
-        <v>2050</v>
-      </c>
-      <c r="L13" s="43">
-        <v>2015</v>
-      </c>
-      <c r="M13" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N13" s="104"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43">
-        <v>2015</v>
-      </c>
-      <c r="R13" s="43">
-        <v>2030</v>
-      </c>
-      <c r="S13" s="43">
-        <v>2050</v>
-      </c>
-      <c r="T13" s="43"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="W13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="39" t="s">
+      <c r="K13" s="80">
+        <v>2060</v>
+      </c>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="W13" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="Z13" s="33" t="s">
+      <c r="Z13" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AA13" s="33" t="s">
+      <c r="AA13" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="AB13" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC13" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD13" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="24" t="s">
+      <c r="AB13" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC13" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD13" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="42">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="42">
+        <v>67.5</v>
+      </c>
+      <c r="H14" s="36">
+        <v>36</v>
+      </c>
+      <c r="I14" s="81">
+        <v>17</v>
+      </c>
+      <c r="J14" s="37">
+        <v>2021</v>
+      </c>
+      <c r="K14" s="42">
+        <v>2050</v>
+      </c>
+      <c r="L14" s="33">
+        <v>2021</v>
+      </c>
+      <c r="M14" s="33">
+        <v>2050</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="33">
+        <v>2050</v>
+      </c>
+      <c r="P14" s="43">
+        <v>2021</v>
+      </c>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z14" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA14" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB14" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC14" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD14" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE14" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF14" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="65">
-        <v>2023</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="28">
-        <v>38.6</v>
-      </c>
-      <c r="H14" s="23">
-        <v>41</v>
-      </c>
-      <c r="I14" s="37">
-        <v>8</v>
-      </c>
-      <c r="J14" s="23">
-        <v>2017</v>
-      </c>
-      <c r="K14" s="17">
-        <v>2060</v>
-      </c>
-      <c r="L14" s="24">
-        <v>2017</v>
-      </c>
-      <c r="M14" s="24">
-        <v>2060</v>
-      </c>
-      <c r="N14" s="17">
-        <v>2017</v>
-      </c>
-      <c r="O14" s="26">
-        <v>2060</v>
-      </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="W14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z14" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA14" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB14" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC14" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD14" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE14" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="AF14" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="42">
+    <row r="15" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="22">
         <v>2022</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="91">
-        <v>1380</v>
-      </c>
-      <c r="H15" s="36">
-        <v>22</v>
-      </c>
-      <c r="I15" s="37">
-        <v>29</v>
-      </c>
-      <c r="J15" s="37">
-        <v>2015</v>
-      </c>
-      <c r="K15" s="49">
-        <v>2050</v>
-      </c>
-      <c r="L15" s="33">
-        <v>2015</v>
-      </c>
-      <c r="M15" s="54">
-        <v>2050</v>
-      </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="33">
-        <v>2015</v>
-      </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="W15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" s="38" t="s">
+      <c r="F15" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1410</v>
+      </c>
+      <c r="H15" s="23">
+        <v>19</v>
+      </c>
+      <c r="I15" s="81">
+        <v>33</v>
+      </c>
+      <c r="J15" s="23">
+        <v>2020</v>
+      </c>
+      <c r="K15" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L15" s="24">
+        <v>2020</v>
+      </c>
+      <c r="M15" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N15" s="22">
+        <v>2020</v>
+      </c>
+      <c r="O15" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="W15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="Z15" s="33" t="s">
+      <c r="Z15" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AA15" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB15" s="35" t="s">
+      <c r="AA15" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB15" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="AC15" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD15" s="35" t="s">
-        <v>220</v>
+      <c r="AC15" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD15" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="AE15" s="33"/>
       <c r="AF15" s="24" t="s">
@@ -3609,378 +3529,390 @@
       </c>
     </row>
     <row r="16" spans="1:32" s="27" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="44">
+      <c r="A16" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="35">
         <v>2022</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="42">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="36">
+        <v>1241</v>
       </c>
       <c r="H16" s="36">
-        <v>46</v>
-      </c>
-      <c r="I16" s="87">
-        <v>4.8333333333333304</v>
+        <v>28</v>
+      </c>
+      <c r="I16" s="81">
+        <v>22</v>
       </c>
       <c r="J16" s="37">
-        <v>2020</v>
-      </c>
-      <c r="K16" s="44">
-        <v>2050</v>
-      </c>
-      <c r="L16" s="43">
-        <v>2020</v>
-      </c>
-      <c r="M16" s="43">
+        <v>2010</v>
+      </c>
+      <c r="K16" s="35">
+        <v>2050</v>
+      </c>
+      <c r="L16" s="33">
+        <v>2010</v>
+      </c>
+      <c r="M16" s="33">
         <v>2050</v>
       </c>
       <c r="N16" s="35">
-        <v>2020</v>
-      </c>
-      <c r="O16" s="43">
-        <v>2050</v>
-      </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="44"/>
+        <v>2010</v>
+      </c>
+      <c r="O16" s="33">
+        <v>2050</v>
+      </c>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="35"/>
       <c r="V16" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="X16" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="33" t="s">
-        <v>138</v>
+        <v>319</v>
+      </c>
+      <c r="W16" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y16" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="Z16" s="33" t="s">
         <v>186</v>
       </c>
       <c r="AA16" s="33" t="s">
-        <v>310</v>
+        <v>182</v>
       </c>
       <c r="AB16" s="35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AC16" s="35" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AD16" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE16" s="24" t="s">
-        <v>283</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AE16" s="18"/>
       <c r="AF16" s="24" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="40" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
-        <v>330</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>332</v>
-      </c>
-      <c r="C17" s="74">
-        <v>2023</v>
-      </c>
-      <c r="D17" s="80" t="s">
+      <c r="A17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="38">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="E17" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="F17" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="80">
-        <v>1412</v>
-      </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="87">
-        <v>37</v>
-      </c>
-      <c r="J17" s="82">
+      <c r="F17" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="47">
+        <v>1380</v>
+      </c>
+      <c r="H17" s="36">
+        <v>22</v>
+      </c>
+      <c r="I17" s="37">
+        <v>29</v>
+      </c>
+      <c r="J17" s="48">
+        <v>2015</v>
+      </c>
+      <c r="K17" s="53">
+        <v>2050</v>
+      </c>
+      <c r="L17" s="33">
+        <v>2015</v>
+      </c>
+      <c r="M17" s="53">
+        <v>2050</v>
+      </c>
+      <c r="N17" s="38"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43">
+        <v>2015</v>
+      </c>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="W17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z17" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA17" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB17" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC17" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD17" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="27" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="43">
         <v>2022</v>
       </c>
-      <c r="K17" s="81">
-        <v>2050</v>
-      </c>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="W17" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z17" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA17" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB17" s="75" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC17" s="80" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD17" s="80" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE17" s="73" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF17" s="73" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" s="27" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="25">
-        <v>2023</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="25">
-        <v>100</v>
-      </c>
-      <c r="H18" s="23">
-        <v>33</v>
-      </c>
-      <c r="I18" s="87">
-        <v>12</v>
-      </c>
-      <c r="J18" s="30">
-        <v>2017</v>
-      </c>
-      <c r="K18" s="25">
-        <v>2060</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="24">
-        <v>2017</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>2030</v>
-      </c>
-      <c r="R18" s="24">
-        <v>2060</v>
-      </c>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z18" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA18" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB18" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC18" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD18" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE18" s="33"/>
+      <c r="G18" s="38">
+        <v>21</v>
+      </c>
+      <c r="H18" s="36">
+        <v>46</v>
+      </c>
+      <c r="I18" s="81">
+        <v>4.8333333333333304</v>
+      </c>
+      <c r="J18" s="48">
+        <v>2020</v>
+      </c>
+      <c r="K18" s="43">
+        <v>2050</v>
+      </c>
+      <c r="L18" s="43">
+        <v>2020</v>
+      </c>
+      <c r="M18" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N18" s="35">
+        <v>2020</v>
+      </c>
+      <c r="O18" s="43">
+        <v>2050</v>
+      </c>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="W18" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z18" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA18" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB18" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC18" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD18" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE18" s="24" t="s">
+        <v>283</v>
+      </c>
       <c r="AF18" s="24" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>347</v>
-      </c>
-      <c r="C19" s="85">
-        <v>2023</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="75">
-        <v>1372</v>
-      </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="37">
-        <v>26</v>
-      </c>
-      <c r="J19" s="87">
-        <v>2014</v>
-      </c>
-      <c r="K19" s="86">
-        <v>2060</v>
-      </c>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="W19" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19" s="77" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z19" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA19" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB19" s="75" t="s">
+    <row r="19" spans="1:32" s="40" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="35">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="37">
+        <v>4680</v>
+      </c>
+      <c r="H19" s="36">
+        <v>14</v>
+      </c>
+      <c r="I19" s="81">
+        <v>41.8333333333333</v>
+      </c>
+      <c r="J19" s="37">
+        <v>2010</v>
+      </c>
+      <c r="K19" s="35">
+        <v>2040</v>
+      </c>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="35">
+        <v>2010</v>
+      </c>
+      <c r="O19" s="43">
+        <v>2040</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43">
+        <v>2040</v>
+      </c>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="W19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z19" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA19" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB19" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="AC19" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="AD19" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE19" s="73" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF19" s="73" t="s">
+      <c r="AC19" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD19" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>51</v>
+      <c r="A20" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C20" s="17">
-        <v>2018</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>80</v>
+        <v>2022</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="23">
-        <v>7821</v>
+      <c r="F20" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="20">
+        <v>7405</v>
       </c>
       <c r="H20" s="23">
-        <v>1</v>
-      </c>
-      <c r="I20" s="37">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="I20" s="81">
+        <v>48</v>
       </c>
       <c r="J20" s="23">
-        <v>2020</v>
-      </c>
-      <c r="K20" s="94">
+        <v>2015</v>
+      </c>
+      <c r="K20" s="17">
         <v>2050</v>
       </c>
       <c r="L20" s="24">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="M20" s="24">
         <v>2050</v>
       </c>
-      <c r="N20" s="17">
-        <v>2020</v>
-      </c>
-      <c r="O20" s="24">
-        <v>2050</v>
-      </c>
-      <c r="P20" s="24"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="24">
+        <v>2015</v>
+      </c>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="26" t="s">
+      <c r="U20" s="26"/>
+      <c r="V20" s="18" t="s">
         <v>319</v>
       </c>
       <c r="W20" s="18" t="s">
@@ -3989,247 +3921,257 @@
       <c r="X20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Y20" s="25" t="s">
-        <v>140</v>
+      <c r="Y20" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="Z20" s="24" t="s">
         <v>186</v>
       </c>
       <c r="AA20" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB20" s="17" t="s">
         <v>314</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AD20" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE20" s="18" t="s">
-        <v>285</v>
+        <v>238</v>
+      </c>
+      <c r="AE20" s="33" t="s">
+        <v>278</v>
       </c>
       <c r="AF20" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="44">
-        <v>2013</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="36">
-        <v>6970</v>
-      </c>
-      <c r="H21" s="36">
-        <v>12</v>
-      </c>
-      <c r="I21" s="87">
-        <v>45</v>
-      </c>
-      <c r="J21" s="37">
-        <v>2010</v>
-      </c>
-      <c r="K21" s="35">
-        <v>2030</v>
-      </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="35">
-        <v>2010</v>
-      </c>
-      <c r="O21" s="39">
-        <v>2030</v>
-      </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43">
-        <v>2030</v>
-      </c>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="W21" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="X21" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z21" s="33" t="s">
+    <row r="21" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2022</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1411</v>
+      </c>
+      <c r="H21" s="23">
+        <v>17</v>
+      </c>
+      <c r="I21" s="37">
+        <v>35</v>
+      </c>
+      <c r="J21" s="23">
+        <v>2020</v>
+      </c>
+      <c r="K21" s="17">
+        <v>2060</v>
+      </c>
+      <c r="L21" s="26">
+        <v>2020</v>
+      </c>
+      <c r="M21" s="26">
+        <v>2060</v>
+      </c>
+      <c r="N21" s="17">
+        <v>2020</v>
+      </c>
+      <c r="O21" s="26">
+        <v>2060</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="W21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z21" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AA21" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB21" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC21" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD21" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE21" s="33"/>
+      <c r="AA21" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB21" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC21" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE21" s="33" t="s">
+        <v>278</v>
+      </c>
       <c r="AF21" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="28">
-        <v>2023</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>78</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="35">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="17">
-        <v>70</v>
-      </c>
-      <c r="H22" s="23">
-        <v>35</v>
-      </c>
-      <c r="I22" s="37">
-        <v>18</v>
-      </c>
-      <c r="J22" s="23">
-        <v>2021</v>
-      </c>
-      <c r="K22" s="83">
-        <v>2100</v>
-      </c>
-      <c r="L22" s="24">
-        <v>2021</v>
-      </c>
-      <c r="M22" s="24">
-        <v>2100</v>
-      </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="24">
-        <v>2020</v>
-      </c>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="W22" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="X22" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y22" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA22" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB22" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC22" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD22" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE22" s="24"/>
+      <c r="F22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="36">
+        <v>1338</v>
+      </c>
+      <c r="H22" s="36">
+        <v>26</v>
+      </c>
+      <c r="I22" s="81">
+        <v>24</v>
+      </c>
+      <c r="J22" s="37">
+        <v>2015</v>
+      </c>
+      <c r="K22" s="35">
+        <v>2050</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="35">
+        <v>2015</v>
+      </c>
+      <c r="O22" s="43">
+        <v>2050</v>
+      </c>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33">
+        <v>2030</v>
+      </c>
+      <c r="R22" s="33">
+        <v>2050</v>
+      </c>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X22" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y22" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z22" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA22" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB22" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC22" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD22" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE22" s="24" t="s">
+        <v>278</v>
+      </c>
       <c r="AF22" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="40" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="35">
+        <v>116</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="44">
         <v>2022</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="37">
-        <v>4680</v>
+      <c r="D23" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="36">
+        <v>7405</v>
       </c>
       <c r="H23" s="36">
-        <v>14</v>
-      </c>
-      <c r="I23" s="87">
-        <v>41.8333333333333</v>
+        <v>10</v>
+      </c>
+      <c r="I23" s="37">
+        <v>45.8333333333333</v>
       </c>
       <c r="J23" s="37">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="K23" s="35">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
       <c r="N23" s="35">
-        <v>2010</v>
-      </c>
-      <c r="O23" s="43">
-        <v>2040</v>
+        <v>2015</v>
+      </c>
+      <c r="O23" s="39">
+        <v>2050</v>
       </c>
       <c r="P23" s="43"/>
       <c r="Q23" s="43">
-        <v>2040</v>
-      </c>
-      <c r="R23" s="43"/>
+        <v>2030</v>
+      </c>
+      <c r="R23" s="43">
+        <v>2050</v>
+      </c>
       <c r="S23" s="43"/>
       <c r="T23" s="43"/>
-      <c r="U23" s="35"/>
+      <c r="U23" s="44"/>
       <c r="V23" s="43" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="W23" s="43" t="s">
         <v>41</v>
@@ -4237,8 +4179,8 @@
       <c r="X23" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Y23" s="33" t="s">
-        <v>143</v>
+      <c r="Y23" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="Z23" s="33" t="s">
         <v>186</v>
@@ -4250,627 +4192,651 @@
         <v>314</v>
       </c>
       <c r="AC23" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD23" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE23" s="33"/>
+        <v>251</v>
+      </c>
+      <c r="AD23" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE23" s="33" t="s">
+        <v>278</v>
+      </c>
       <c r="AF23" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="B24" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="C24" s="85">
-        <v>2023</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>343</v>
-      </c>
-      <c r="E24" s="89" t="s">
+    <row r="24" spans="1:32" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="35">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="75">
-        <v>6</v>
-      </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="87">
-        <v>2</v>
-      </c>
-      <c r="J24" s="87">
-        <v>2016</v>
-      </c>
-      <c r="K24" s="86">
-        <v>2050</v>
-      </c>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="86" t="s">
-        <v>344</v>
-      </c>
-      <c r="W24" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="X24" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z24" s="73" t="s">
+      <c r="G24" s="35">
+        <v>39.4</v>
+      </c>
+      <c r="H24" s="36">
+        <v>40</v>
+      </c>
+      <c r="I24" s="81">
+        <v>9</v>
+      </c>
+      <c r="J24" s="37">
+        <v>2018</v>
+      </c>
+      <c r="K24" s="35">
+        <v>2050</v>
+      </c>
+      <c r="L24" s="43">
+        <v>2018</v>
+      </c>
+      <c r="M24" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N24" s="35">
+        <v>2018</v>
+      </c>
+      <c r="O24" s="39">
+        <v>2050</v>
+      </c>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z24" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AA24" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB24" s="75" t="s">
+      <c r="AA24" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB24" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="AC24" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD24" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="81" t="s">
-        <v>359</v>
-      </c>
-      <c r="B25" s="84" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" s="85">
-        <v>2023</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="E25" s="89" t="s">
-        <v>299</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="75">
-        <v>9</v>
-      </c>
-      <c r="H25" s="86"/>
-      <c r="I25" s="87">
-        <v>3</v>
-      </c>
-      <c r="J25" s="87">
-        <v>2016</v>
-      </c>
-      <c r="K25" s="86">
-        <v>2045</v>
-      </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="W25" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y25" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z25" s="81" t="s">
+      <c r="AC24" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD24" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="28">
+        <v>2021</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="32">
+        <v>1241</v>
+      </c>
+      <c r="H25" s="23">
+        <v>29</v>
+      </c>
+      <c r="I25" s="81">
+        <v>21</v>
+      </c>
+      <c r="J25" s="23">
+        <v>2010</v>
+      </c>
+      <c r="K25" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L25" s="24">
+        <v>2010</v>
+      </c>
+      <c r="M25" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N25" s="17">
+        <v>2010</v>
+      </c>
+      <c r="O25" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="W25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z25" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AA25" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB25" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC25" s="75" t="s">
-        <v>363</v>
-      </c>
-      <c r="AD25" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE25" s="81" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF25" s="81" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="28">
+      <c r="AA25" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB25" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC25" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD25" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
         <v>2021</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>40</v>
+      <c r="D26" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="28">
-        <v>51</v>
+        <v>298</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="88">
+        <v>3870</v>
       </c>
       <c r="H26" s="23">
-        <v>39</v>
-      </c>
-      <c r="I26" s="87">
         <v>15</v>
       </c>
+      <c r="I26" s="81">
+        <v>40.8333333333333</v>
+      </c>
       <c r="J26" s="23">
-        <v>2022</v>
-      </c>
-      <c r="K26" s="28">
-        <v>2050</v>
+        <v>2015</v>
+      </c>
+      <c r="K26" s="17">
+        <v>2040</v>
       </c>
       <c r="L26" s="24">
-        <v>2022</v>
-      </c>
-      <c r="M26" s="24">
-        <v>2050</v>
+        <v>2015</v>
+      </c>
+      <c r="M26" s="18">
+        <v>2040</v>
       </c>
       <c r="N26" s="17">
-        <v>2022</v>
-      </c>
-      <c r="O26" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P26" s="24"/>
+        <v>2015</v>
+      </c>
+      <c r="O26" s="24">
+        <v>2040</v>
+      </c>
+      <c r="P26" s="26"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="22" t="s">
-        <v>125</v>
+      <c r="U26" s="26"/>
+      <c r="V26" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="W26" s="17" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="X26" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y26" s="18" t="s">
-        <v>35</v>
+        <v>149</v>
+      </c>
+      <c r="Y26" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="Z26" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA26" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AB26" s="17" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="AC26" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD26" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE26" s="24"/>
+        <v>206</v>
+      </c>
+      <c r="AE26" s="33"/>
       <c r="AF26" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="35">
+    <row r="27" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="28">
         <v>2021</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="36">
-        <v>7662</v>
-      </c>
-      <c r="H27" s="36">
-        <v>6</v>
-      </c>
-      <c r="I27" s="87">
-        <v>50</v>
-      </c>
-      <c r="J27" s="37">
-        <v>2018</v>
-      </c>
-      <c r="K27" s="35">
-        <v>2030</v>
-      </c>
-      <c r="L27" s="43">
-        <v>2018</v>
-      </c>
-      <c r="M27" s="43">
-        <v>2030</v>
-      </c>
-      <c r="N27" s="35">
-        <v>2018</v>
-      </c>
-      <c r="O27" s="39">
-        <v>2030</v>
-      </c>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="W27" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="X27" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y27" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z27" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA27" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB27" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC27" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD27" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE27" s="33"/>
+      <c r="D27" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="28">
+        <v>51</v>
+      </c>
+      <c r="H27" s="23">
+        <v>39</v>
+      </c>
+      <c r="I27" s="81">
+        <v>15</v>
+      </c>
+      <c r="J27" s="23">
+        <v>2022</v>
+      </c>
+      <c r="K27" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L27" s="24">
+        <v>2022</v>
+      </c>
+      <c r="M27" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N27" s="17">
+        <v>2022</v>
+      </c>
+      <c r="O27" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA27" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB27" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC27" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD27" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE27" s="24"/>
       <c r="AF27" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="17">
-        <v>2020</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="20">
-        <v>1380</v>
-      </c>
-      <c r="H28" s="23">
-        <v>23</v>
-      </c>
-      <c r="I28" s="87">
-        <v>28</v>
-      </c>
-      <c r="J28" s="23">
-        <v>2015</v>
-      </c>
-      <c r="K28" s="17">
+    <row r="28" spans="1:32" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="35">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="36">
+        <v>7662</v>
+      </c>
+      <c r="H28" s="36">
+        <v>6</v>
+      </c>
+      <c r="I28" s="81">
+        <v>50</v>
+      </c>
+      <c r="J28" s="37">
+        <v>2018</v>
+      </c>
+      <c r="K28" s="35">
         <v>2030</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="17">
-        <v>2015</v>
-      </c>
-      <c r="O28" s="24">
+      <c r="L28" s="43">
+        <v>2018</v>
+      </c>
+      <c r="M28" s="43">
         <v>2030</v>
       </c>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24">
+      <c r="N28" s="35">
+        <v>2018</v>
+      </c>
+      <c r="O28" s="39">
         <v>2030</v>
       </c>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="W28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z28" s="24" t="s">
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="W28" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z28" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AA28" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB28" s="17" t="s">
+      <c r="AA28" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB28" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="AC28" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD28" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE28" s="24" t="s">
-        <v>278</v>
-      </c>
+      <c r="AC28" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD28" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE28" s="33"/>
       <c r="AF28" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="40" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="22">
-        <v>2012</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>196</v>
+    <row r="29" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="42">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>79</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="17">
-        <v>503</v>
-      </c>
-      <c r="H29" s="23">
-        <v>31</v>
-      </c>
-      <c r="I29" s="87">
-        <v>38</v>
-      </c>
-      <c r="J29" s="20">
-        <v>2005</v>
-      </c>
-      <c r="K29" s="17">
-        <v>2050</v>
-      </c>
-      <c r="L29" s="26">
-        <v>2005</v>
-      </c>
-      <c r="M29" s="26">
-        <v>2050</v>
-      </c>
-      <c r="N29" s="17">
-        <v>2005</v>
-      </c>
-      <c r="O29" s="18">
-        <v>2050</v>
-      </c>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="W29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y29" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z29" s="26" t="s">
+      <c r="G29" s="83">
+        <v>3820</v>
+      </c>
+      <c r="H29" s="36">
+        <v>16</v>
+      </c>
+      <c r="I29" s="37">
+        <v>39.8333333333333</v>
+      </c>
+      <c r="J29" s="37">
+        <v>2015</v>
+      </c>
+      <c r="K29" s="42">
+        <v>2050</v>
+      </c>
+      <c r="L29" s="33">
+        <v>2015</v>
+      </c>
+      <c r="M29" s="33">
+        <v>2050</v>
+      </c>
+      <c r="N29" s="35">
+        <v>2015</v>
+      </c>
+      <c r="O29" s="43">
+        <v>2050</v>
+      </c>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="W29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y29" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z29" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AA29" s="26" t="s">
+      <c r="AA29" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="AB29" s="17" t="s">
+      <c r="AB29" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="AC29" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD29" s="17" t="s">
-        <v>305</v>
+      <c r="AC29" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD29" s="35" t="s">
+        <v>211</v>
       </c>
       <c r="AE29" s="33"/>
       <c r="AF29" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="22">
-        <v>2018</v>
+    <row r="30" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2021</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>298</v>
+        <v>27</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="G30" s="20">
-        <v>7662</v>
+        <v>7821</v>
       </c>
       <c r="H30" s="23">
-        <v>7</v>
-      </c>
-      <c r="I30" s="37">
-        <v>44</v>
-      </c>
-      <c r="J30" s="20">
-        <v>2015</v>
+        <v>3</v>
+      </c>
+      <c r="I30" s="81">
+        <v>53</v>
+      </c>
+      <c r="J30" s="23">
+        <v>2020</v>
       </c>
       <c r="K30" s="17">
-        <v>2040</v>
-      </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="26">
-        <v>2015</v>
-      </c>
-      <c r="Q30" s="26">
-        <v>2040</v>
-      </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="22" t="s">
-        <v>200</v>
+        <v>2050</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17">
+        <v>2020</v>
+      </c>
+      <c r="O30" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24">
+        <v>2030</v>
+      </c>
+      <c r="R30" s="24">
+        <v>2050</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="28" t="s">
+        <v>323</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="X30" s="17" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="Y30" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="Z30" s="26" t="s">
+      <c r="Z30" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AA30" s="26" t="s">
+      <c r="AA30" s="24" t="s">
         <v>182</v>
       </c>
       <c r="AB30" s="17" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AD30" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE30" s="24"/>
+        <v>238</v>
+      </c>
+      <c r="AE30" s="33"/>
       <c r="AF30" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="39">
+        <v>2021</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="35">
+        <v>61</v>
+      </c>
+      <c r="H31" s="36">
+        <v>38</v>
+      </c>
+      <c r="I31" s="37">
         <v>10</v>
       </c>
-      <c r="C31" s="38">
-        <v>2021</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="91">
-        <v>3820</v>
-      </c>
-      <c r="H31" s="36">
-        <v>16</v>
-      </c>
-      <c r="I31" s="37">
-        <v>39.8333333333333</v>
-      </c>
       <c r="J31" s="48">
-        <v>2015</v>
-      </c>
-      <c r="K31" s="38">
-        <v>2050</v>
+        <v>2020</v>
+      </c>
+      <c r="K31" s="39">
+        <v>2060</v>
       </c>
       <c r="L31" s="33">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="M31" s="33">
-        <v>2050</v>
-      </c>
-      <c r="N31" s="50">
-        <v>2015</v>
-      </c>
-      <c r="O31" s="43">
-        <v>2050</v>
+        <v>2060</v>
+      </c>
+      <c r="N31" s="49">
+        <v>2020</v>
+      </c>
+      <c r="O31" s="33">
+        <v>2060</v>
       </c>
       <c r="P31" s="43"/>
       <c r="Q31" s="33"/>
@@ -4878,8 +4844,8 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="43"/>
-      <c r="V31" s="39" t="s">
-        <v>128</v>
+      <c r="V31" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="W31" s="39" t="s">
         <v>41</v>
@@ -4888,240 +4854,260 @@
         <v>41</v>
       </c>
       <c r="Y31" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z31" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA31" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB31" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB31" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="AC31" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD31" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE31" s="33"/>
+      <c r="AC31" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD31" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE31" s="33" t="s">
+        <v>289</v>
+      </c>
       <c r="AF31" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="60" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="43">
-        <v>2020</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>27</v>
+        <v>292</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="38">
+        <v>2021</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="46">
-        <v>7405</v>
+        <v>29</v>
+      </c>
+      <c r="G32" s="39">
+        <v>80</v>
       </c>
       <c r="H32" s="36">
-        <v>8</v>
-      </c>
-      <c r="I32" s="87">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="I32" s="81">
+        <v>11</v>
       </c>
       <c r="J32" s="48">
         <v>2015</v>
       </c>
-      <c r="K32" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L32" s="43">
+      <c r="K32" s="38">
+        <v>2035</v>
+      </c>
+      <c r="L32" s="33">
         <v>2015</v>
       </c>
-      <c r="M32" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N32" s="50">
+      <c r="M32" s="33">
+        <v>2035</v>
+      </c>
+      <c r="N32" s="49">
         <v>2015</v>
       </c>
-      <c r="O32" s="39">
-        <v>2050</v>
+      <c r="O32" s="43">
+        <v>2035</v>
       </c>
       <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="38"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="43"/>
       <c r="V32" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="W32" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="X32" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y32" s="33" t="s">
-        <v>138</v>
+        <v>66</v>
+      </c>
+      <c r="W32" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="Z32" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AA32" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB32" s="50" t="s">
+      <c r="AA32" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB32" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="AC32" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD32" s="50" t="s">
-        <v>220</v>
+      <c r="AC32" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD32" s="61" t="s">
+        <v>273</v>
       </c>
       <c r="AE32" s="24" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AF32" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="39">
+        <v>2021</v>
+      </c>
+      <c r="D33" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="46">
+        <v>1411</v>
+      </c>
+      <c r="H33" s="36">
+        <v>18</v>
+      </c>
+      <c r="I33" s="81">
+        <v>34</v>
+      </c>
+      <c r="J33" s="48">
+        <v>2020</v>
+      </c>
+      <c r="K33" s="67">
+        <v>2060</v>
+      </c>
+      <c r="L33" s="33">
+        <v>2020</v>
+      </c>
+      <c r="M33" s="33">
+        <v>2060</v>
+      </c>
+      <c r="N33" s="49">
+        <v>2020</v>
+      </c>
+      <c r="O33" s="33">
+        <v>2060</v>
+      </c>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="W33" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z33" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA33" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB33" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC33" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD33" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE33" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF33" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="73" t="s">
-        <v>351</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="C33" s="74">
-        <v>2023</v>
-      </c>
-      <c r="D33" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="G33" s="77">
-        <v>7821</v>
-      </c>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87">
-        <v>56</v>
-      </c>
-      <c r="J33" s="78">
-        <v>2020</v>
-      </c>
-      <c r="K33" s="73">
-        <v>2100</v>
-      </c>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="W33" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="X33" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y33" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z33" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA33" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB33" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC33" s="76" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD33" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73" t="s">
-        <v>329</v>
-      </c>
-    </row>
     <row r="34" spans="1:32" s="27" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="18">
-        <v>2022</v>
+      <c r="A34" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="85">
+        <v>2021</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="67">
-        <v>7405</v>
+        <v>33</v>
+      </c>
+      <c r="G34" s="18">
+        <v>37.97</v>
       </c>
       <c r="H34" s="23">
-        <v>9</v>
-      </c>
-      <c r="I34" s="87">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="I34" s="81">
+        <v>13</v>
       </c>
       <c r="J34" s="30">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="K34" s="18">
         <v>2050</v>
       </c>
-      <c r="L34" s="24">
-        <v>2015</v>
-      </c>
-      <c r="M34" s="24">
-        <v>2050</v>
-      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="24">
-        <v>2015</v>
-      </c>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="18" t="s">
-        <v>319</v>
+      <c r="O34" s="54"/>
+      <c r="P34" s="18">
+        <v>2018</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>2030</v>
+      </c>
+      <c r="R34" s="24">
+        <v>2035</v>
+      </c>
+      <c r="S34" s="24">
+        <v>2040</v>
+      </c>
+      <c r="T34" s="24">
+        <v>2045</v>
+      </c>
+      <c r="U34" s="26">
+        <v>2050</v>
+      </c>
+      <c r="V34" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="W34" s="21" t="s">
         <v>41</v>
@@ -5130,170 +5116,168 @@
         <v>41</v>
       </c>
       <c r="Y34" s="18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Z34" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA34" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AB34" s="21" t="s">
         <v>314</v>
       </c>
       <c r="AC34" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD34" s="21" t="s">
-        <v>238</v>
+        <v>266</v>
+      </c>
+      <c r="AD34" s="61" t="s">
+        <v>205</v>
       </c>
       <c r="AE34" s="33" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="AF34" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:32" s="40" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="26">
+        <v>2020</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="91">
+        <v>1380</v>
+      </c>
+      <c r="H35" s="23">
         <v>21</v>
       </c>
-      <c r="C35" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="46">
-        <v>7821</v>
-      </c>
-      <c r="H35" s="36">
-        <v>2</v>
-      </c>
-      <c r="I35" s="87">
-        <v>54</v>
-      </c>
-      <c r="J35" s="48">
-        <v>2020</v>
-      </c>
-      <c r="K35" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L35" s="33">
-        <v>2020</v>
-      </c>
-      <c r="M35" s="33">
-        <v>2050</v>
-      </c>
-      <c r="N35" s="50">
-        <v>2020</v>
-      </c>
-      <c r="O35" s="33">
-        <v>2050</v>
-      </c>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="W35" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="X35" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y35" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z35" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA35" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB35" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC35" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD35" s="50" t="s">
-        <v>238</v>
+      <c r="I35" s="81">
+        <v>30</v>
+      </c>
+      <c r="J35" s="30">
+        <v>2015</v>
+      </c>
+      <c r="K35" s="26">
+        <v>2050</v>
+      </c>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="21">
+        <v>2015</v>
+      </c>
+      <c r="O35" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26">
+        <v>2030</v>
+      </c>
+      <c r="R35" s="26">
+        <v>2050</v>
+      </c>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="W35" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y35" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z35" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA35" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB35" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC35" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD35" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="AE35" s="24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF35" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36" s="18">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>297</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="67">
-        <v>7821</v>
+        <v>29</v>
+      </c>
+      <c r="G36" s="66">
+        <v>1380</v>
       </c>
       <c r="H36" s="23">
-        <v>3</v>
-      </c>
-      <c r="I36" s="87">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="I36" s="81">
+        <v>28</v>
       </c>
       <c r="J36" s="30">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="K36" s="18">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="L36" s="24"/>
-      <c r="M36" s="18"/>
+      <c r="M36" s="24"/>
       <c r="N36" s="21">
-        <v>2020</v>
-      </c>
-      <c r="O36" s="26">
-        <v>2050</v>
+        <v>2015</v>
+      </c>
+      <c r="O36" s="24">
+        <v>2030</v>
       </c>
       <c r="P36" s="24"/>
       <c r="Q36" s="24">
         <v>2030</v>
       </c>
-      <c r="R36" s="24">
-        <v>2050</v>
-      </c>
+      <c r="R36" s="24"/>
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
+      <c r="U36" s="26"/>
       <c r="V36" s="25" t="s">
-        <v>323</v>
+        <v>127</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>41</v>
@@ -5302,55 +5286,57 @@
         <v>41</v>
       </c>
       <c r="Y36" s="18" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Z36" s="24" t="s">
         <v>186</v>
       </c>
       <c r="AA36" s="24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="AC36" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD36" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE36" s="33"/>
+        <v>231</v>
+      </c>
+      <c r="AD36" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE36" s="24" t="s">
+        <v>278</v>
+      </c>
       <c r="AF36" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="40" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C37" s="43">
-        <v>2019</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>298</v>
+        <v>2020</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="G37" s="39">
-        <v>528</v>
+      <c r="G37" s="46">
+        <v>7405</v>
       </c>
       <c r="H37" s="36">
-        <v>30</v>
-      </c>
-      <c r="I37" s="37">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="I37" s="81">
+        <v>49</v>
       </c>
       <c r="J37" s="48">
         <v>2015</v>
@@ -5364,7 +5350,7 @@
       <c r="M37" s="43">
         <v>2050</v>
       </c>
-      <c r="N37" s="50">
+      <c r="N37" s="49">
         <v>2015</v>
       </c>
       <c r="O37" s="39">
@@ -5375,128 +5361,128 @@
       <c r="R37" s="43"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
+      <c r="U37" s="38"/>
       <c r="V37" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="W37" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y37" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z37" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA37" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB37" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC37" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD37" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE37" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF37" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="39">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="36">
+        <v>7821</v>
+      </c>
+      <c r="H38" s="36">
+        <v>2</v>
+      </c>
+      <c r="I38" s="81">
+        <v>54</v>
+      </c>
+      <c r="J38" s="48">
+        <v>2020</v>
+      </c>
+      <c r="K38" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L38" s="33">
+        <v>2020</v>
+      </c>
+      <c r="M38" s="33">
+        <v>2050</v>
+      </c>
+      <c r="N38" s="35">
+        <v>2020</v>
+      </c>
+      <c r="O38" s="33">
+        <v>2050</v>
+      </c>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="W37" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="X37" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y37" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z37" s="33" t="s">
+      <c r="W38" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X38" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y38" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z38" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="AA37" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB37" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC37" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD37" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE37" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF37" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="26">
-        <v>2022</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="20">
-        <v>1411</v>
-      </c>
-      <c r="H38" s="23">
-        <v>17</v>
-      </c>
-      <c r="I38" s="37">
-        <v>35</v>
-      </c>
-      <c r="J38" s="30">
-        <v>2020</v>
-      </c>
-      <c r="K38" s="18">
-        <v>2060</v>
-      </c>
-      <c r="L38" s="26">
-        <v>2020</v>
-      </c>
-      <c r="M38" s="26">
-        <v>2060</v>
-      </c>
-      <c r="N38" s="17">
-        <v>2020</v>
-      </c>
-      <c r="O38" s="26">
-        <v>2060</v>
-      </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="W38" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X38" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y38" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z38" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA38" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB38" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC38" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD38" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE38" s="33" t="s">
+      <c r="AA38" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB38" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC38" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD38" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE38" s="24" t="s">
         <v>278</v>
       </c>
       <c r="AF38" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="52" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" s="51" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>94</v>
       </c>
@@ -5506,22 +5492,22 @@
       <c r="C39" s="39">
         <v>2020</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="82" t="s">
         <v>95</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="54">
+      <c r="G39" s="53">
         <v>330</v>
       </c>
       <c r="H39" s="36">
         <v>32</v>
       </c>
-      <c r="I39" s="87">
+      <c r="I39" s="81">
         <v>19.8333333333333</v>
       </c>
       <c r="J39" s="48">
@@ -5536,7 +5522,7 @@
       <c r="M39" s="33">
         <v>2070</v>
       </c>
-      <c r="N39" s="50">
+      <c r="N39" s="49">
         <v>2020</v>
       </c>
       <c r="O39" s="43">
@@ -5551,10 +5537,10 @@
       <c r="V39" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="W39" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="X39" s="53" t="s">
+      <c r="W39" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X39" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Y39" s="33" t="s">
@@ -5566,13 +5552,13 @@
       <c r="AA39" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="AB39" s="50" t="s">
+      <c r="AB39" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="AC39" s="50" t="s">
+      <c r="AC39" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="AD39" s="50" t="s">
+      <c r="AD39" s="49" t="s">
         <v>220</v>
       </c>
       <c r="AE39" s="24" t="s">
@@ -5582,168 +5568,168 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" s="26">
-        <v>2015</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>163</v>
+    <row r="40" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="39">
+        <v>2020</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" s="18">
-        <v>10</v>
-      </c>
-      <c r="H40" s="23">
-        <v>47</v>
+      <c r="F40" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="39">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H40" s="36">
+        <v>44</v>
       </c>
       <c r="I40" s="37">
-        <v>3.8333333333333299</v>
-      </c>
-      <c r="J40" s="30">
+        <v>6.8333333333333304</v>
+      </c>
+      <c r="J40" s="48">
         <v>2010</v>
       </c>
-      <c r="K40" s="18">
-        <v>2050</v>
-      </c>
-      <c r="L40" s="26">
+      <c r="K40" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L40" s="33">
         <v>2010</v>
       </c>
-      <c r="M40" s="26">
-        <v>2050</v>
-      </c>
-      <c r="N40" s="21">
+      <c r="M40" s="39">
+        <v>2050</v>
+      </c>
+      <c r="N40" s="50">
         <v>2010</v>
       </c>
-      <c r="O40" s="18">
-        <v>2050</v>
-      </c>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="W40" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="X40" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y40" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z40" s="24" t="s">
+      <c r="O40" s="33">
+        <v>2050</v>
+      </c>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="W40" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X40" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y40" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z40" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AA40" s="24" t="s">
+      <c r="AA40" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="AB40" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC40" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD40" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE40" s="33"/>
+      <c r="AB40" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC40" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD40" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE40" s="24" t="s">
+        <v>318</v>
+      </c>
       <c r="AF40" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:32" s="40" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="39">
-        <v>2022</v>
-      </c>
-      <c r="D41" s="50" t="s">
+      <c r="A41" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="56">
+        <v>2020</v>
+      </c>
+      <c r="D41" s="68" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="46">
-        <v>1338</v>
+      <c r="G41" s="69">
+        <v>1380</v>
       </c>
       <c r="H41" s="36">
-        <v>26</v>
-      </c>
-      <c r="I41" s="87">
         <v>24</v>
       </c>
-      <c r="J41" s="48">
+      <c r="I41" s="81">
+        <v>27</v>
+      </c>
+      <c r="J41" s="70">
         <v>2015</v>
       </c>
-      <c r="K41" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L41" s="33"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="50">
+      <c r="K41" s="56">
+        <v>2035</v>
+      </c>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="68">
         <v>2015</v>
       </c>
-      <c r="O41" s="43">
-        <v>2050</v>
-      </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33">
-        <v>2030</v>
-      </c>
-      <c r="R41" s="33">
-        <v>2050</v>
-      </c>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="W41" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="X41" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y41" s="39" t="s">
+      <c r="O41" s="57">
+        <v>2035</v>
+      </c>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57">
+        <v>2035</v>
+      </c>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="W41" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="X41" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y41" s="56" t="s">
         <v>140</v>
       </c>
       <c r="Z41" s="33" t="s">
         <v>186</v>
       </c>
       <c r="AA41" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB41" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC41" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD41" s="50" t="s">
-        <v>212</v>
+        <v>182</v>
+      </c>
+      <c r="AB41" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC41" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD41" s="68" t="s">
+        <v>260</v>
       </c>
       <c r="AE41" s="24" t="s">
         <v>278</v>
@@ -5752,146 +5738,148 @@
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
-        <v>52</v>
+    <row r="42" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="38">
-        <v>2018</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="47">
-        <v>7821</v>
+        <v>17</v>
+      </c>
+      <c r="C42" s="86">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" s="62">
+        <v>37.99</v>
       </c>
       <c r="H42" s="36">
-        <v>4</v>
-      </c>
-      <c r="I42" s="37">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="I42" s="81">
+        <v>14</v>
       </c>
       <c r="J42" s="48">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="K42" s="38">
         <v>2050</v>
       </c>
       <c r="L42" s="33">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="M42" s="33">
         <v>2050</v>
       </c>
-      <c r="N42" s="50">
-        <v>2020</v>
-      </c>
-      <c r="O42" s="43">
-        <v>2050</v>
-      </c>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33">
-        <v>2030</v>
-      </c>
+      <c r="N42" s="96"/>
+      <c r="O42" s="63">
+        <v>2050</v>
+      </c>
+      <c r="P42" s="33">
+        <v>2015</v>
+      </c>
+      <c r="Q42" s="33"/>
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
       <c r="T42" s="33"/>
       <c r="U42" s="43"/>
-      <c r="V42" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="W42" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="X42" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y42" s="39" t="s">
-        <v>137</v>
+      <c r="V42" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="W42" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X42" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y42" s="62" t="s">
+        <v>148</v>
       </c>
       <c r="Z42" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA42" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="AB42" s="50" t="s">
+      <c r="AB42" s="96" t="s">
         <v>314</v>
       </c>
-      <c r="AC42" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD42" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE42" s="33"/>
+      <c r="AC42" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD42" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE42" s="24" t="s">
+        <v>295</v>
+      </c>
       <c r="AF42" s="24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="C43" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>299</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" s="39">
-        <v>37.299999999999997</v>
+        <v>2019</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="55">
+        <v>1408</v>
       </c>
       <c r="H43" s="36">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I43" s="37">
-        <v>6.8333333333333304</v>
-      </c>
-      <c r="J43" s="48">
-        <v>2010</v>
+        <v>32</v>
+      </c>
+      <c r="J43" s="95">
+        <v>2015</v>
       </c>
       <c r="K43" s="39">
         <v>2050</v>
       </c>
-      <c r="L43" s="33">
-        <v>2010</v>
-      </c>
-      <c r="M43" s="39">
-        <v>2050</v>
-      </c>
-      <c r="N43" s="38">
-        <v>2010</v>
-      </c>
-      <c r="O43" s="33">
-        <v>2050</v>
-      </c>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
+      <c r="L43" s="43">
+        <v>2015</v>
+      </c>
+      <c r="M43" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43">
+        <v>2015</v>
+      </c>
+      <c r="R43" s="43">
+        <v>2030</v>
+      </c>
+      <c r="S43" s="43">
+        <v>2050</v>
+      </c>
+      <c r="T43" s="43"/>
       <c r="U43" s="43"/>
-      <c r="V43" s="39" t="s">
-        <v>66</v>
+      <c r="V43" s="43" t="s">
+        <v>194</v>
       </c>
       <c r="W43" s="39" t="s">
         <v>41</v>
@@ -5900,57 +5888,55 @@
         <v>41</v>
       </c>
       <c r="Y43" s="39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Z43" s="33" t="s">
         <v>186</v>
       </c>
       <c r="AA43" s="33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AB43" s="39" t="s">
         <v>314</v>
       </c>
       <c r="AC43" s="39" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="AD43" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE43" s="24" t="s">
-        <v>318</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="AE43" s="33"/>
       <c r="AF43" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:32" s="40" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="C44" s="43">
-        <v>2022</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>27</v>
+        <v>2019</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="46">
-        <v>7405</v>
+        <v>151</v>
+      </c>
+      <c r="G44" s="39">
+        <v>528</v>
       </c>
       <c r="H44" s="36">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I44" s="37">
-        <v>45.8333333333333</v>
+        <v>39</v>
       </c>
       <c r="J44" s="48">
         <v>2015</v>
@@ -5958,26 +5944,26 @@
       <c r="K44" s="39">
         <v>2050</v>
       </c>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="50">
+      <c r="L44" s="43">
         <v>2015</v>
       </c>
+      <c r="M44" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N44" s="49">
+        <v>2015</v>
+      </c>
       <c r="O44" s="39">
         <v>2050</v>
       </c>
       <c r="P44" s="43"/>
-      <c r="Q44" s="43">
-        <v>2030</v>
-      </c>
-      <c r="R44" s="43">
-        <v>2050</v>
-      </c>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
       <c r="S44" s="43"/>
       <c r="T44" s="43"/>
       <c r="U44" s="43"/>
       <c r="V44" s="43" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="W44" s="43" t="s">
         <v>41</v>
@@ -5986,86 +5972,84 @@
         <v>41</v>
       </c>
       <c r="Y44" s="39" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Z44" s="33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA44" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB44" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB44" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="AC44" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD44" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE44" s="33" t="s">
-        <v>278</v>
+      <c r="AC44" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD44" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE44" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="AF44" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="18">
-        <v>2023</v>
+        <v>47</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="25">
+        <v>2019</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>27</v>
+        <v>82</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>299</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="67">
-        <v>7821</v>
+        <v>95</v>
+      </c>
+      <c r="G45" s="18">
+        <v>37.299999999999997</v>
       </c>
       <c r="H45" s="23">
-        <v>5</v>
-      </c>
-      <c r="I45" s="87">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I45" s="81">
+        <v>5.8333333333333304</v>
       </c>
       <c r="J45" s="30">
-        <v>2020</v>
-      </c>
-      <c r="K45" s="18">
-        <v>2100</v>
+        <v>2010</v>
+      </c>
+      <c r="K45" s="25">
+        <v>2050</v>
       </c>
       <c r="L45" s="24">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="M45" s="24">
-        <v>2100</v>
-      </c>
-      <c r="N45" s="21">
-        <v>2020</v>
+        <v>2050</v>
+      </c>
+      <c r="N45" s="93">
+        <v>2010</v>
       </c>
       <c r="O45" s="24">
-        <v>2100</v>
-      </c>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="24">
-        <v>2030</v>
-      </c>
+        <v>2050</v>
+      </c>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
+      <c r="U45" s="26"/>
       <c r="V45" s="26" t="s">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="W45" s="18" t="s">
         <v>41</v>
@@ -6073,168 +6057,178 @@
       <c r="X45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Y45" s="24" t="s">
-        <v>140</v>
+      <c r="Y45" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="Z45" s="24" t="s">
         <v>186</v>
       </c>
       <c r="AA45" s="24" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AB45" s="21" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="AC45" s="21" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AD45" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE45" s="24" t="s">
-        <v>278</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="AE45" s="24"/>
       <c r="AF45" s="24" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:32" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="B46" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="C46" s="74">
-        <v>2023</v>
-      </c>
-      <c r="D46" s="76" t="s">
+      <c r="A46" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="26">
+        <v>2018</v>
+      </c>
+      <c r="D46" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="100" t="s">
+      <c r="E46" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="F46" s="80" t="s">
+      <c r="F46" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G46" s="77">
-        <v>1380</v>
-      </c>
-      <c r="H46" s="86"/>
-      <c r="I46" s="87">
-        <v>31</v>
-      </c>
-      <c r="J46" s="78">
-        <v>2015</v>
-      </c>
-      <c r="K46" s="73">
-        <v>2060</v>
-      </c>
-      <c r="L46" s="73"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
-      <c r="V46" s="73" t="s">
-        <v>340</v>
-      </c>
-      <c r="W46" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="X46" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y46" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z46" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA46" s="73" t="s">
+      <c r="G46" s="91">
+        <v>1338</v>
+      </c>
+      <c r="H46" s="23">
+        <v>25</v>
+      </c>
+      <c r="I46" s="81">
+        <v>25</v>
+      </c>
+      <c r="J46" s="30">
+        <v>2010</v>
+      </c>
+      <c r="K46" s="25">
+        <v>2050</v>
+      </c>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="21">
+        <v>2010</v>
+      </c>
+      <c r="O46" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="24">
+        <v>2030</v>
+      </c>
+      <c r="R46" s="24">
+        <v>2050</v>
+      </c>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="W46" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X46" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y46" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z46" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA46" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="AB46" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC46" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD46" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE46" s="73"/>
-      <c r="AF46" s="73" t="s">
-        <v>327</v>
+      <c r="AB46" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC46" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD46" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE46" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF46" s="24" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="40" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="22">
+        <v>51</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="17">
         <v>2018</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="20">
-        <v>7405</v>
+      <c r="F47" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="23">
+        <v>7821</v>
       </c>
       <c r="H47" s="23">
-        <v>11</v>
-      </c>
-      <c r="I47" s="87">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="I47" s="37">
+        <v>55</v>
       </c>
       <c r="J47" s="23">
-        <v>2015</v>
-      </c>
-      <c r="K47" s="17">
-        <v>2050</v>
-      </c>
-      <c r="L47" s="26">
-        <v>2015</v>
-      </c>
-      <c r="M47" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K47" s="84">
+        <v>2050</v>
+      </c>
+      <c r="L47" s="24">
+        <v>2020</v>
+      </c>
+      <c r="M47" s="24">
         <v>2050</v>
       </c>
       <c r="N47" s="17">
-        <v>2015</v>
-      </c>
-      <c r="O47" s="18">
-        <v>2050</v>
-      </c>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
+        <v>2020</v>
+      </c>
+      <c r="O47" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="25"/>
       <c r="V47" s="22" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="W47" s="17" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="X47" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y47" s="24" t="s">
-        <v>142</v>
+        <v>41</v>
+      </c>
+      <c r="Y47" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="Z47" s="24" t="s">
         <v>186</v>
@@ -6246,317 +6240,315 @@
         <v>314</v>
       </c>
       <c r="AC47" s="21" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="AD47" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE47" s="58"/>
+        <v>240</v>
+      </c>
+      <c r="AE47" s="18" t="s">
+        <v>285</v>
+      </c>
       <c r="AF47" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="18">
+        <v>198</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="26">
         <v>2018</v>
       </c>
-      <c r="D48" s="99" t="s">
-        <v>32</v>
+      <c r="D48" s="21" t="s">
+        <v>311</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="F48" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="101">
-        <v>63.26</v>
+        <v>298</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" s="66">
+        <v>7662</v>
       </c>
       <c r="H48" s="23">
-        <v>37</v>
-      </c>
-      <c r="I48" s="87">
-        <v>16</v>
-      </c>
-      <c r="J48" s="30">
-        <v>2011</v>
+        <v>7</v>
+      </c>
+      <c r="I48" s="37">
+        <v>44</v>
+      </c>
+      <c r="J48" s="66">
+        <v>2015</v>
       </c>
       <c r="K48" s="18">
-        <v>2154</v>
-      </c>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
+        <v>2040</v>
+      </c>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="17"/>
-      <c r="O48" s="24"/>
+      <c r="O48" s="18"/>
       <c r="P48" s="26">
-        <v>2011</v>
-      </c>
-      <c r="Q48" s="24">
-        <v>2050</v>
-      </c>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
+        <v>2015</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>2040</v>
+      </c>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="26" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="W48" s="21" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="X48" s="21" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="Y48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z48" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z48" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="AA48" s="24" t="s">
-        <v>181</v>
+      <c r="AA48" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="AB48" s="17" t="s">
         <v>314</v>
       </c>
       <c r="AC48" s="21" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="AD48" s="21" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="AE48" s="24"/>
       <c r="AF48" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="97" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="B49" s="92" t="s">
+        <v>8</v>
       </c>
       <c r="C49" s="50">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>299</v>
+        <v>27</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>27</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="50">
-        <v>61</v>
+        <v>150</v>
+      </c>
+      <c r="G49" s="94">
+        <v>7821</v>
       </c>
       <c r="H49" s="36">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="I49" s="37">
-        <v>10</v>
-      </c>
-      <c r="J49" s="103">
+        <v>52</v>
+      </c>
+      <c r="J49" s="89">
         <v>2020</v>
       </c>
       <c r="K49" s="50">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="L49" s="33">
         <v>2020</v>
       </c>
       <c r="M49" s="33">
-        <v>2060</v>
-      </c>
-      <c r="N49" s="50">
+        <v>2050</v>
+      </c>
+      <c r="N49" s="49">
         <v>2020</v>
       </c>
-      <c r="O49" s="33">
-        <v>2060</v>
-      </c>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="33"/>
+      <c r="O49" s="43">
+        <v>2050</v>
+      </c>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33">
+        <v>2030</v>
+      </c>
       <c r="R49" s="33"/>
       <c r="S49" s="33"/>
       <c r="T49" s="33"/>
       <c r="U49" s="43"/>
-      <c r="V49" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="W49" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="X49" s="50" t="s">
+      <c r="V49" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="W49" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X49" s="49" t="s">
         <v>41</v>
       </c>
       <c r="Y49" s="39" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Z49" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA49" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB49" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB49" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="AC49" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD49" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE49" s="33" t="s">
-        <v>289</v>
-      </c>
+      <c r="AC49" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD49" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE49" s="33"/>
       <c r="AF49" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:32" s="74" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="57">
-        <v>2020</v>
-      </c>
-      <c r="D50" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="F50" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="71">
-        <v>1380</v>
-      </c>
-      <c r="H50" s="46">
-        <v>24</v>
-      </c>
-      <c r="I50" s="87">
+    <row r="50" spans="1:32" s="72" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="26">
+        <v>2018</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="72">
+      <c r="E50" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="66">
+        <v>7405</v>
+      </c>
+      <c r="H50" s="30">
+        <v>11</v>
+      </c>
+      <c r="I50" s="81">
+        <v>47</v>
+      </c>
+      <c r="J50" s="30">
         <v>2015</v>
       </c>
-      <c r="K50" s="57">
-        <v>2035</v>
-      </c>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="95">
+      <c r="K50" s="18">
+        <v>2050</v>
+      </c>
+      <c r="L50" s="26">
         <v>2015</v>
       </c>
-      <c r="O50" s="58">
-        <v>2035</v>
-      </c>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58">
-        <v>2035</v>
-      </c>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="105" t="s">
-        <v>320</v>
-      </c>
-      <c r="W50" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="X50" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y50" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z50" s="33" t="s">
+      <c r="M50" s="26">
+        <v>2050</v>
+      </c>
+      <c r="N50" s="17">
+        <v>2015</v>
+      </c>
+      <c r="O50" s="18">
+        <v>2050</v>
+      </c>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="W50" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="X50" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y50" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z50" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AA50" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB50" s="70" t="s">
+      <c r="AA50" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB50" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="AC50" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD50" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE50" s="24" t="s">
-        <v>278</v>
-      </c>
+      <c r="AC50" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="AD50" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE50" s="57"/>
       <c r="AF50" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="72" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="26">
+        <v>83</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="18">
         <v>2018</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>29</v>
+      <c r="D51" s="77" t="s">
+        <v>32</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="67">
-        <v>1338</v>
+      <c r="F51" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" s="87">
+        <v>63.26</v>
       </c>
       <c r="H51" s="30">
-        <v>27</v>
-      </c>
-      <c r="I51" s="37">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="I51" s="81">
+        <v>16</v>
       </c>
       <c r="J51" s="30">
-        <v>2010</v>
-      </c>
-      <c r="K51" s="26">
-        <v>2050</v>
-      </c>
-      <c r="L51" s="18">
-        <v>2010</v>
-      </c>
-      <c r="M51" s="26">
-        <v>2050</v>
-      </c>
-      <c r="N51" s="17">
-        <v>2010</v>
-      </c>
-      <c r="O51" s="18">
-        <v>2050</v>
-      </c>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
+        <v>2011</v>
+      </c>
+      <c r="K51" s="18">
+        <v>2154</v>
+      </c>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="26">
+        <v>2011</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>2050</v>
+      </c>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
       <c r="U51" s="26"/>
       <c r="V51" s="26" t="s">
         <v>66</v>
@@ -6568,514 +6560,500 @@
         <v>41</v>
       </c>
       <c r="Y51" s="18" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="Z51" s="24" t="s">
         <v>186</v>
       </c>
       <c r="AA51" s="24" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="AB51" s="17" t="s">
         <v>314</v>
       </c>
       <c r="AC51" s="18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AD51" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE51" s="33" t="s">
-        <v>278</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="AE51" s="24"/>
       <c r="AF51" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:32" s="74" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="38">
-        <v>2021</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>85</v>
+    <row r="52" spans="1:32" s="72" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="26">
+        <v>2018</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="F52" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="39">
-        <v>80</v>
-      </c>
-      <c r="H52" s="46">
-        <v>34</v>
-      </c>
-      <c r="I52" s="87">
-        <v>11</v>
-      </c>
-      <c r="J52" s="48">
-        <v>2015</v>
-      </c>
-      <c r="K52" s="38">
-        <v>2035</v>
-      </c>
-      <c r="L52" s="33">
-        <v>2015</v>
-      </c>
-      <c r="M52" s="33">
-        <v>2035</v>
-      </c>
-      <c r="N52" s="35">
-        <v>2015</v>
-      </c>
-      <c r="O52" s="43">
-        <v>2035</v>
-      </c>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43" t="s">
+      <c r="G52" s="66">
+        <v>1338</v>
+      </c>
+      <c r="H52" s="30">
+        <v>27</v>
+      </c>
+      <c r="I52" s="37">
+        <v>23</v>
+      </c>
+      <c r="J52" s="30">
+        <v>2010</v>
+      </c>
+      <c r="K52" s="26">
+        <v>2050</v>
+      </c>
+      <c r="L52" s="18">
+        <v>2010</v>
+      </c>
+      <c r="M52" s="26">
+        <v>2050</v>
+      </c>
+      <c r="N52" s="17">
+        <v>2010</v>
+      </c>
+      <c r="O52" s="18">
+        <v>2050</v>
+      </c>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="W52" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="X52" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y52" s="39" t="s">
+      <c r="W52" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X52" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y52" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="Z52" s="33" t="s">
+      <c r="Z52" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="AA52" s="33" t="s">
+      <c r="AA52" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB52" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC52" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD52" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE52" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF52" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" s="72" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="26">
+        <v>2017</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="66">
+        <v>6000</v>
+      </c>
+      <c r="H53" s="30">
+        <v>13</v>
+      </c>
+      <c r="I53" s="37">
+        <v>42.8333333333333</v>
+      </c>
+      <c r="J53" s="30">
+        <v>2012</v>
+      </c>
+      <c r="K53" s="26">
+        <v>2050</v>
+      </c>
+      <c r="L53" s="24">
+        <v>2012</v>
+      </c>
+      <c r="M53" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N53" s="17">
+        <v>2012</v>
+      </c>
+      <c r="O53" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W53" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="X53" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y53" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z53" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA53" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="AB52" s="35" t="s">
+      <c r="AB53" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="AC52" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD52" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE52" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF52" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" s="74" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="39">
-        <v>2021</v>
-      </c>
-      <c r="D53" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F53" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="46">
-        <v>1411</v>
-      </c>
-      <c r="H53" s="46">
-        <v>18</v>
-      </c>
-      <c r="I53" s="87">
-        <v>34</v>
-      </c>
-      <c r="J53" s="48">
-        <v>2020</v>
-      </c>
-      <c r="K53" s="68">
-        <v>2060</v>
-      </c>
-      <c r="L53" s="33">
-        <v>2020</v>
-      </c>
-      <c r="M53" s="33">
-        <v>2060</v>
-      </c>
-      <c r="N53" s="35">
-        <v>2020</v>
-      </c>
-      <c r="O53" s="33">
-        <v>2060</v>
-      </c>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="W53" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="X53" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y53" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="Z53" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA53" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB53" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC53" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD53" s="35" t="s">
-        <v>302</v>
+      <c r="AC53" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD53" s="60" t="s">
+        <v>206</v>
       </c>
       <c r="AE53" s="24" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="AF53" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="74" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="25">
-        <v>2019</v>
+    <row r="54" spans="1:32" s="72" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="26">
+        <v>2015</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="E54" s="39" t="s">
         <v>299</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="G54" s="18">
-        <v>37.299999999999997</v>
+        <v>10</v>
       </c>
       <c r="H54" s="30">
-        <v>45</v>
-      </c>
-      <c r="I54" s="87">
-        <v>5.8333333333333304</v>
+        <v>47</v>
+      </c>
+      <c r="I54" s="37">
+        <v>3.8333333333333299</v>
       </c>
       <c r="J54" s="30">
         <v>2010</v>
       </c>
-      <c r="K54" s="25">
-        <v>2050</v>
-      </c>
-      <c r="L54" s="24">
+      <c r="K54" s="18">
+        <v>2050</v>
+      </c>
+      <c r="L54" s="26">
         <v>2010</v>
       </c>
-      <c r="M54" s="24">
-        <v>2050</v>
-      </c>
-      <c r="N54" s="28">
+      <c r="M54" s="26">
+        <v>2050</v>
+      </c>
+      <c r="N54" s="17">
         <v>2010</v>
       </c>
-      <c r="O54" s="24">
-        <v>2050</v>
-      </c>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
+      <c r="O54" s="18">
+        <v>2050</v>
+      </c>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="W54" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X54" s="18" t="s">
-        <v>41</v>
+        <v>164</v>
+      </c>
+      <c r="W54" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="X54" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="Y54" s="18" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="Z54" s="24" t="s">
         <v>186</v>
       </c>
       <c r="AA54" s="24" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AB54" s="17" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="AC54" s="18" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="AD54" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE54" s="24"/>
+        <v>246</v>
+      </c>
+      <c r="AE54" s="33"/>
       <c r="AF54" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:32" s="74" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" s="72" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="39">
-        <v>2022</v>
+        <v>114</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="C55" s="43">
+        <v>2013</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>299</v>
+        <v>27</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="39">
-        <v>39.4</v>
+        <v>154</v>
+      </c>
+      <c r="G55" s="46">
+        <v>6970</v>
       </c>
       <c r="H55" s="46">
-        <v>40</v>
-      </c>
-      <c r="I55" s="87">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="I55" s="81">
+        <v>45</v>
       </c>
       <c r="J55" s="48">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="K55" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L55" s="43">
-        <v>2018</v>
-      </c>
-      <c r="M55" s="43">
-        <v>2050</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
       <c r="N55" s="35">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="O55" s="39">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
+      <c r="Q55" s="43">
+        <v>2030</v>
+      </c>
       <c r="R55" s="43"/>
       <c r="S55" s="43"/>
       <c r="T55" s="43"/>
       <c r="U55" s="43"/>
-      <c r="V55" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="W55" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="X55" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y55" s="39" t="s">
-        <v>140</v>
+      <c r="V55" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="W55" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X55" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y55" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="Z55" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AA55" s="33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AB55" s="35" t="s">
-        <v>314</v>
+        <v>223</v>
       </c>
       <c r="AC55" s="39" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="AD55" s="35" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="AE55" s="33"/>
       <c r="AF55" s="24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" s="74" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" s="72" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="98">
-        <v>2020</v>
+        <v>166</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="43">
+        <v>2012</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F56" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="G56" s="63">
-        <v>37.99</v>
+        <v>167</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="39">
+        <v>3</v>
       </c>
       <c r="H56" s="46">
-        <v>42</v>
-      </c>
-      <c r="I56" s="87">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="I56" s="37">
+        <v>1</v>
       </c>
       <c r="J56" s="48">
-        <v>2015</v>
-      </c>
-      <c r="K56" s="38">
-        <v>2050</v>
-      </c>
-      <c r="L56" s="33">
-        <v>2015</v>
-      </c>
-      <c r="M56" s="33">
-        <v>2050</v>
-      </c>
-      <c r="N56" s="69"/>
-      <c r="O56" s="64">
-        <v>2050</v>
-      </c>
-      <c r="P56" s="33">
-        <v>2015</v>
-      </c>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
+        <v>2010</v>
+      </c>
+      <c r="K56" s="39">
+        <v>2040</v>
+      </c>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="43">
+        <v>2010</v>
+      </c>
+      <c r="Q56" s="43">
+        <v>2040</v>
+      </c>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
       <c r="U56" s="43"/>
       <c r="V56" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="W56" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="X56" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y56" s="63" t="s">
-        <v>148</v>
+        <v>64</v>
+      </c>
+      <c r="W56" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="X56" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y56" s="39" t="s">
+        <v>137</v>
       </c>
       <c r="Z56" s="33" t="s">
         <v>185</v>
       </c>
       <c r="AA56" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB56" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB56" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="AC56" s="88" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD56" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE56" s="24" t="s">
-        <v>295</v>
-      </c>
+      <c r="AC56" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD56" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE56" s="24"/>
       <c r="AF56" s="24" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="74" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" s="72" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="96">
-        <v>2021</v>
+        <v>197</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" s="26">
+        <v>2012</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="G57" s="18">
-        <v>37.97</v>
+        <v>503</v>
       </c>
       <c r="H57" s="30">
-        <v>43</v>
-      </c>
-      <c r="I57" s="87">
-        <v>13</v>
-      </c>
-      <c r="J57" s="30">
-        <v>2018</v>
+        <v>31</v>
+      </c>
+      <c r="I57" s="81">
+        <v>38</v>
+      </c>
+      <c r="J57" s="66">
+        <v>2005</v>
       </c>
       <c r="K57" s="18">
         <v>2050</v>
       </c>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="18">
-        <v>2018</v>
-      </c>
-      <c r="Q57" s="24">
-        <v>2030</v>
-      </c>
-      <c r="R57" s="24">
-        <v>2035</v>
-      </c>
-      <c r="S57" s="24">
-        <v>2040</v>
-      </c>
-      <c r="T57" s="24">
-        <v>2045</v>
-      </c>
-      <c r="U57" s="26">
-        <v>2050</v>
-      </c>
+      <c r="L57" s="26">
+        <v>2005</v>
+      </c>
+      <c r="M57" s="26">
+        <v>2050</v>
+      </c>
+      <c r="N57" s="21">
+        <v>2005</v>
+      </c>
+      <c r="O57" s="18">
+        <v>2050</v>
+      </c>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="26"/>
       <c r="V57" s="26" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="W57" s="18" t="s">
         <v>41</v>
@@ -7084,28 +7062,26 @@
         <v>41</v>
       </c>
       <c r="Y57" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z57" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA57" s="24" t="s">
-        <v>181</v>
+        <v>288</v>
+      </c>
+      <c r="Z57" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA57" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="AB57" s="21" t="s">
         <v>314</v>
       </c>
       <c r="AC57" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD57" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE57" s="33" t="s">
-        <v>294</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="AD57" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE57" s="33"/>
       <c r="AF57" s="24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="365">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -388,31 +388,10 @@
     <t>Service, transport, construction, industry, energy</t>
   </si>
   <si>
-    <t>Energie, logement, transport, diet</t>
-  </si>
-  <si>
-    <t>Agriculture, energy, industry, residential, shipping, transport, waste</t>
-  </si>
-  <si>
-    <t>Energy, industry, transport, agriculture, waste, building</t>
-  </si>
-  <si>
-    <t>Agriculture, energy, industry, transportation, residential/commercial, solvents, waste, and shipping</t>
-  </si>
-  <si>
-    <t>Agriculture, energy, industry, transport, services</t>
-  </si>
-  <si>
     <t>Energy, industry, transport</t>
   </si>
   <si>
     <t>Diet</t>
-  </si>
-  <si>
-    <t>Energy, transport, residential, commercial, industry, agriculture</t>
-  </si>
-  <si>
-    <t>Energy, transport, household</t>
   </si>
   <si>
     <t>exposure</t>
@@ -425,9 +404,6 @@
 Diet 
 Active travel 
 Indoor pollution</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
   </si>
   <si>
     <t>health outcome</t>
@@ -519,9 +495,6 @@
     <t>Conibear, 2022</t>
   </si>
   <si>
-    <t>Residential, industry, transport, agriculture, energy</t>
-  </si>
-  <si>
     <t>A tale of two cities: Comparison of impacts on CO2 emissions, the indoor environment and health of home energy efficiency strategies in London and Milton Keynes</t>
   </si>
   <si>
@@ -619,9 +592,6 @@
   </si>
   <si>
     <t>Air Quality Improvement Co-benefits of Low-Carbon Pathways toward Well Below the 2 °C Climate Target in China</t>
-  </si>
-  <si>
-    <t>Energy, industry, transport, household</t>
   </si>
   <si>
     <t>Co-benefits of post-2012 global climate mitigation policies</t>
@@ -643,9 +613,6 @@
     <t>Outlook for clean air in the context of sustainable development goals</t>
   </si>
   <si>
-    <t>Energy, industry, transport, household, agriculture, waste</t>
-  </si>
-  <si>
     <t>age_range</t>
   </si>
   <si>
@@ -687,9 +654,6 @@
   </si>
   <si>
     <t>0-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy &amp; Diet/agriculture &amp; Transport </t>
   </si>
   <si>
     <t>TIMES_GAINS</t>
@@ -1045,9 +1009,6 @@
     <t>Energy, industry, housing, transport, food system, solvent</t>
   </si>
   <si>
-    <t>Energy, transport, industry, agriculture</t>
-  </si>
-  <si>
     <t>include_mortality</t>
   </si>
   <si>
@@ -1084,16 +1045,10 @@
     <t>Future Projection of Mortality From Exposure to PM2.5 and O3 Under the Carbon Neutral Pathway Roles of Changing Emissions and Population Aging</t>
   </si>
   <si>
-    <t>Agriculture, energy, industry, transport, residential, commercial, solvent, waste, shipping, natural burning</t>
-  </si>
-  <si>
     <t>Sources of Air Pollution Health Impacts and Co-Benefits of Carbon Neutrality in Santiago, Chile</t>
   </si>
   <si>
     <t>Santiago, Chile</t>
-  </si>
-  <si>
-    <t>Energy, industry, transport, agriculture, housing</t>
   </si>
   <si>
     <t>Costs and health benefits of the rural energy transition to carbon neutrality in China</t>
@@ -1177,6 +1132,48 @@
   </si>
   <si>
     <t>Shihui Zhang, 2021</t>
+  </si>
+  <si>
+    <t>Energy, housing, transport, diet</t>
+  </si>
+  <si>
+    <t>Energy, transport, housing</t>
+  </si>
+  <si>
+    <t>Residential, industry, transport, food system, energy</t>
+  </si>
+  <si>
+    <t>Energy, transport, industry, food system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy &amp; Diet/food system &amp; Transport </t>
+  </si>
+  <si>
+    <t>Energy, industry, transport, food system, waste, housing</t>
+  </si>
+  <si>
+    <t>food system, energy, industry, transportation, residential/commercial, solvents, waste, and shipping</t>
+  </si>
+  <si>
+    <t>food system, energy, industry, transport, services</t>
+  </si>
+  <si>
+    <t>Energy, transport, residential, commercial, industry, food system</t>
+  </si>
+  <si>
+    <t>Energy, industry, transport, housing, food system, waste</t>
+  </si>
+  <si>
+    <t>food system</t>
+  </si>
+  <si>
+    <t>food system, energy, industry, residential, shipping, transport, waste</t>
+  </si>
+  <si>
+    <t>Energy, industry, transport, food system, housing</t>
+  </si>
+  <si>
+    <t>food system, energy, industry, transport, residential, commercial, solvent, waste, shipping, natural burning</t>
   </si>
 </sst>
 </file>
@@ -2298,9 +2295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2338,31 +2335,31 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
@@ -2398,42 +2395,42 @@
         <v>120</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Z1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC1" t="s">
         <v>190</v>
       </c>
-      <c r="AA1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>201</v>
-      </c>
       <c r="AD1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="AE1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AF1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C2" s="77">
         <v>2023</v>
@@ -2442,7 +2439,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F2" s="71" t="s">
         <v>29</v>
@@ -2471,7 +2468,7 @@
       <c r="T2" s="69"/>
       <c r="U2" s="74"/>
       <c r="V2" s="69" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="W2" s="78" t="s">
         <v>41</v>
@@ -2480,31 +2477,31 @@
         <v>41</v>
       </c>
       <c r="Y2" s="72" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z2" s="69" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA2" s="69" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB2" s="71" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC2" s="71" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AD2" s="71" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE2" s="69"/>
       <c r="AF2" s="69" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="40" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>15</v>
@@ -2557,7 +2554,7 @@
       <c r="T3" s="24"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W3" s="18" t="s">
         <v>41</v>
@@ -2566,48 +2563,48 @@
         <v>41</v>
       </c>
       <c r="Y3" s="24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z3" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA3" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB3" s="17" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AC3" s="17" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AD3" s="17" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AE3" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF3" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C4" s="77">
         <v>2023</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="G4" s="71">
         <v>127</v>
@@ -2633,7 +2630,7 @@
       <c r="T4" s="69"/>
       <c r="U4" s="74"/>
       <c r="V4" s="78" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="W4" s="74" t="s">
         <v>41</v>
@@ -2642,26 +2639,26 @@
         <v>41</v>
       </c>
       <c r="Y4" s="72" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z4" s="69" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA4" s="69" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AB4" s="71" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC4" s="71" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="AD4" s="71" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="AE4" s="69"/>
       <c r="AF4" s="69" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -2678,7 +2675,7 @@
         <v>75</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>29</v>
@@ -2726,36 +2723,36 @@
         <v>41</v>
       </c>
       <c r="Y5" s="25" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="Z5" s="24" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB5" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF5" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="AC5" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD5" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE5" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF5" s="24" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:32" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C6" s="77">
         <v>2023</v>
@@ -2764,7 +2761,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F6" s="71" t="s">
         <v>95</v>
@@ -2802,28 +2799,28 @@
         <v>41</v>
       </c>
       <c r="Y6" s="72" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="69" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA6" s="69" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB6" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC6" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD6" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE6" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF6" s="69" t="s">
         <v>311</v>
-      </c>
-      <c r="AC6" s="87" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD6" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE6" s="69" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF6" s="69" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2840,10 +2837,10 @@
         <v>78</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G7" s="17">
         <v>70</v>
@@ -2877,40 +2874,40 @@
       <c r="T7" s="24"/>
       <c r="U7" s="26"/>
       <c r="V7" s="28" t="s">
-        <v>122</v>
+        <v>351</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Y7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="Z7" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA7" s="24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AC7" s="17" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="AD7" s="42" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AE7" s="24"/>
       <c r="AF7" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="27" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>102</v>
@@ -2922,7 +2919,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F8" s="44" t="s">
         <v>95</v>
@@ -2959,7 +2956,7 @@
       <c r="T8" s="43"/>
       <c r="U8" s="39"/>
       <c r="V8" s="44" t="s">
-        <v>123</v>
+        <v>362</v>
       </c>
       <c r="W8" s="44" t="s">
         <v>41</v>
@@ -2968,43 +2965,43 @@
         <v>41</v>
       </c>
       <c r="Y8" s="33" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Z8" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA8" s="43" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB8" s="35" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC8" s="35" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD8" s="35" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE8" s="33"/>
       <c r="AF8" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="40" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C9" s="77">
         <v>2023</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F9" s="71" t="s">
         <v>95</v>
@@ -3033,7 +3030,7 @@
       <c r="T9" s="69"/>
       <c r="U9" s="78"/>
       <c r="V9" s="74" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="W9" s="78" t="s">
         <v>41</v>
@@ -3042,43 +3039,43 @@
         <v>41</v>
       </c>
       <c r="Y9" s="72" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z9" s="69" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA9" s="69" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AB9" s="71" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC9" s="71" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD9" s="71" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE9" s="69"/>
       <c r="AF9" s="69" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="74" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C10" s="77">
         <v>2023</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>95</v>
@@ -3116,36 +3113,36 @@
         <v>41</v>
       </c>
       <c r="Y10" s="72" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z10" s="74" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA10" s="69" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB10" s="71" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AC10" s="73" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AD10" s="71" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE10" s="74" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AF10" s="74" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="69" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C11" s="77">
         <v>2023</v>
@@ -3157,7 +3154,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="71" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G11" s="71">
         <v>7821</v>
@@ -3183,7 +3180,7 @@
       <c r="T11" s="69"/>
       <c r="U11" s="69"/>
       <c r="V11" s="69" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="W11" s="74" t="s">
         <v>41</v>
@@ -3192,34 +3189,34 @@
         <v>41</v>
       </c>
       <c r="Y11" s="72" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z11" s="69" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA11" s="69" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB11" s="71" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AC11" s="71" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AD11" s="71" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AE11" s="69"/>
       <c r="AF11" s="69" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="69" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C12" s="77">
         <v>2023</v>
@@ -3228,7 +3225,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F12" s="71" t="s">
         <v>29</v>
@@ -3266,33 +3263,33 @@
         <v>41</v>
       </c>
       <c r="Y12" s="72" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="Z12" s="69" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA12" s="69" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB12" s="71" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC12" s="71" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AD12" s="71" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="AE12" s="69" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF12" s="69" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>23</v>
@@ -3304,7 +3301,7 @@
         <v>77</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>29</v>
@@ -3341,7 +3338,7 @@
       <c r="T13" s="24"/>
       <c r="U13" s="17"/>
       <c r="V13" s="26" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>41</v>
@@ -3350,34 +3347,34 @@
         <v>41</v>
       </c>
       <c r="Y13" s="18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Z13" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA13" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB13" s="17" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AE13" s="33"/>
       <c r="AF13" s="24" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="C14" s="77">
         <v>2023</v>
@@ -3386,7 +3383,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F14" s="71" t="s">
         <v>29</v>
@@ -3415,7 +3412,7 @@
       <c r="T14" s="69"/>
       <c r="U14" s="74"/>
       <c r="V14" s="78" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="W14" s="74" t="s">
         <v>41</v>
@@ -3424,26 +3421,26 @@
         <v>41</v>
       </c>
       <c r="Y14" s="72" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z14" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA14" s="69" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB14" s="71" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AC14" s="71" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="AD14" s="71" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AE14" s="69"/>
       <c r="AF14" s="69" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3460,7 +3457,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F15" s="42" t="s">
         <v>26</v>
@@ -3508,36 +3505,36 @@
         <v>42</v>
       </c>
       <c r="Y15" s="38" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="Z15" s="33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA15" s="33" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AB15" s="35" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AC15" s="35" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="AD15" s="42" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AE15" s="24" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AF15" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="27" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C16" s="22">
         <v>2022</v>
@@ -3546,10 +3543,10 @@
         <v>29</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G16" s="23">
         <v>1410</v>
@@ -3585,7 +3582,7 @@
       <c r="T16" s="24"/>
       <c r="U16" s="22"/>
       <c r="V16" s="26" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="W16" s="26" t="s">
         <v>41</v>
@@ -3594,31 +3591,31 @@
         <v>41</v>
       </c>
       <c r="Y16" s="24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z16" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA16" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB16" s="22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AC16" s="22" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AD16" s="22" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="AE16" s="33"/>
       <c r="AF16" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="40" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>16</v>
@@ -3630,10 +3627,10 @@
         <v>28</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G17" s="46">
         <v>1241</v>
@@ -3669,35 +3666,35 @@
       <c r="T17" s="33"/>
       <c r="U17" s="39"/>
       <c r="V17" s="44" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W17" s="39" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X17" s="39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Y17" s="38" t="s">
         <v>65</v>
       </c>
       <c r="Z17" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA17" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AB17" s="35" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AC17" s="39" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="AD17" s="39" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AE17" s="18"/>
       <c r="AF17" s="24" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="27" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3714,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>29</v>
@@ -3751,7 +3748,7 @@
       <c r="T18" s="33"/>
       <c r="U18" s="43"/>
       <c r="V18" s="39" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="W18" s="35" t="s">
         <v>41</v>
@@ -3760,26 +3757,26 @@
         <v>41</v>
       </c>
       <c r="Y18" s="38" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z18" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA18" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB18" s="35" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AC18" s="35" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="AD18" s="35" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AE18" s="33"/>
       <c r="AF18" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3796,7 +3793,7 @@
         <v>76</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F19" s="42" t="s">
         <v>29</v>
@@ -3844,28 +3841,28 @@
         <v>41</v>
       </c>
       <c r="Y19" s="33" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Z19" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA19" s="33" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="AB19" s="35" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AC19" s="35" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AD19" s="35" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AE19" s="24" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AF19" s="24" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3885,7 +3882,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G20" s="20">
         <v>7405</v>
@@ -3919,7 +3916,7 @@
       <c r="T20" s="24"/>
       <c r="U20" s="26"/>
       <c r="V20" s="18" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W20" s="18" t="s">
         <v>41</v>
@@ -3928,28 +3925,28 @@
         <v>41</v>
       </c>
       <c r="Y20" s="18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z20" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA20" s="24" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC20" s="17" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AD20" s="17" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AE20" s="33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF20" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3966,7 +3963,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>29</v>
@@ -4005,7 +4002,7 @@
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="28" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="W21" s="22" t="s">
         <v>41</v>
@@ -4014,28 +4011,28 @@
         <v>41</v>
       </c>
       <c r="Y21" s="24" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z21" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA21" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB21" s="17" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC21" s="17" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="AD21" s="17" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AE21" s="33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF21" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4052,7 +4049,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F22" s="35" t="s">
         <v>29</v>
@@ -4091,7 +4088,7 @@
       <c r="T22" s="33"/>
       <c r="U22" s="43"/>
       <c r="V22" s="35" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W22" s="35" t="s">
         <v>41</v>
@@ -4100,28 +4097,28 @@
         <v>41</v>
       </c>
       <c r="Y22" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z22" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA22" s="33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB22" s="35" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AC22" s="35" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AD22" s="35" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AE22" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF22" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:32" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4177,7 +4174,7 @@
       <c r="T23" s="43"/>
       <c r="U23" s="44"/>
       <c r="V23" s="43" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W23" s="43" t="s">
         <v>41</v>
@@ -4186,28 +4183,28 @@
         <v>41</v>
       </c>
       <c r="Y23" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z23" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA23" s="43" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB23" s="35" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC23" s="35" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AD23" s="60" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AE23" s="33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF23" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:32" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4224,7 +4221,7 @@
         <v>82</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F24" s="35" t="s">
         <v>95</v>
@@ -4263,7 +4260,7 @@
       <c r="T24" s="43"/>
       <c r="U24" s="43"/>
       <c r="V24" s="44" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="W24" s="35" t="s">
         <v>41</v>
@@ -4272,31 +4269,31 @@
         <v>41</v>
       </c>
       <c r="Y24" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z24" s="33" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA24" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB24" s="35" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC24" s="35" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="AD24" s="35" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AE24" s="33"/>
       <c r="AF24" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>19</v>
@@ -4308,10 +4305,10 @@
         <v>28</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G25" s="32">
         <v>1241</v>
@@ -4347,7 +4344,7 @@
       <c r="T25" s="24"/>
       <c r="U25" s="26"/>
       <c r="V25" s="28" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="W25" s="28" t="s">
         <v>41</v>
@@ -4356,26 +4353,26 @@
         <v>41</v>
       </c>
       <c r="Y25" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Z25" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA25" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB25" s="17" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC25" s="17" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AE25" s="33"/>
       <c r="AF25" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4392,10 +4389,10 @@
         <v>73</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G26" s="85">
         <v>3870</v>
@@ -4431,35 +4428,35 @@
       <c r="T26" s="24"/>
       <c r="U26" s="26"/>
       <c r="V26" s="17" t="s">
-        <v>214</v>
+        <v>355</v>
       </c>
       <c r="W26" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y26" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z26" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="X26" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y26" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z26" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="AA26" s="24" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AB26" s="17" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AC26" s="17" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AD26" s="17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE26" s="33"/>
       <c r="AF26" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4476,7 +4473,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>40</v>
@@ -4515,7 +4512,7 @@
       <c r="T27" s="24"/>
       <c r="U27" s="25"/>
       <c r="V27" s="22" t="s">
-        <v>124</v>
+        <v>356</v>
       </c>
       <c r="W27" s="18" t="s">
         <v>41</v>
@@ -4527,23 +4524,23 @@
         <v>35</v>
       </c>
       <c r="Z27" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="AD27" s="17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="AE27" s="24"/>
       <c r="AF27" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:32" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -4599,7 +4596,7 @@
       <c r="T28" s="43"/>
       <c r="U28" s="43"/>
       <c r="V28" s="44" t="s">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="W28" s="43" t="s">
         <v>41</v>
@@ -4608,26 +4605,26 @@
         <v>41</v>
       </c>
       <c r="Y28" s="33" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z28" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA28" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AB28" s="35" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC28" s="35" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="AD28" s="35" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AE28" s="33"/>
       <c r="AF28" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4644,10 +4641,10 @@
         <v>79</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G29" s="80">
         <v>3820</v>
@@ -4683,7 +4680,7 @@
       <c r="T29" s="33"/>
       <c r="U29" s="43"/>
       <c r="V29" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="W29" s="35" t="s">
         <v>41</v>
@@ -4692,26 +4689,26 @@
         <v>41</v>
       </c>
       <c r="Y29" s="39" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="Z29" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA29" s="33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB29" s="35" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC29" s="35" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AD29" s="35" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AE29" s="33"/>
       <c r="AF29" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4767,7 +4764,7 @@
       <c r="T30" s="24"/>
       <c r="U30" s="24"/>
       <c r="V30" s="28" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="W30" s="17" t="s">
         <v>41</v>
@@ -4776,26 +4773,26 @@
         <v>41</v>
       </c>
       <c r="Y30" s="18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z30" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA30" s="24" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AB30" s="17" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AD30" s="17" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AE30" s="33"/>
       <c r="AF30" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4812,7 +4809,7 @@
         <v>84</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>29</v>
@@ -4860,33 +4857,33 @@
         <v>41</v>
       </c>
       <c r="Y31" s="39" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Z31" s="33" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA31" s="33" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AB31" s="49" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC31" s="49" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="AD31" s="49" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AE31" s="33" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AF31" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:32" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>14</v>
@@ -4898,7 +4895,7 @@
         <v>85</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>29</v>
@@ -4946,33 +4943,33 @@
         <v>41</v>
       </c>
       <c r="Y32" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z32" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA32" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB32" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC32" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD32" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE32" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF32" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="AC32" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD32" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE32" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF32" s="24" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>2</v>
@@ -4984,7 +4981,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>29</v>
@@ -5032,28 +5029,28 @@
         <v>41</v>
       </c>
       <c r="Y33" s="39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Z33" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA33" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB33" s="49" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC33" s="49" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AD33" s="49" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AE33" s="24" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AF33" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:32" s="27" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -5070,7 +5067,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>33</v>
@@ -5122,28 +5119,28 @@
         <v>41</v>
       </c>
       <c r="Y34" s="18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Z34" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA34" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB34" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC34" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD34" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE34" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF34" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="AC34" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD34" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE34" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF34" s="24" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:32" s="40" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -5160,7 +5157,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>29</v>
@@ -5199,7 +5196,7 @@
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
       <c r="V35" s="18" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W35" s="54" t="s">
         <v>41</v>
@@ -5208,28 +5205,28 @@
         <v>41</v>
       </c>
       <c r="Y35" s="24" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Z35" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB35" s="21" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC35" s="21" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AD35" s="21" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AE35" s="24" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF35" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -5246,7 +5243,7 @@
         <v>29</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>29</v>
@@ -5283,7 +5280,7 @@
       <c r="T36" s="24"/>
       <c r="U36" s="26"/>
       <c r="V36" s="25" t="s">
-        <v>126</v>
+        <v>358</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>41</v>
@@ -5292,28 +5289,28 @@
         <v>41</v>
       </c>
       <c r="Y36" s="18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Z36" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA36" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB36" s="21" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC36" s="21" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AD36" s="61" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AE36" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF36" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:32" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5333,7 +5330,7 @@
         <v>27</v>
       </c>
       <c r="F37" s="39" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G37" s="46">
         <v>7405</v>
@@ -5369,7 +5366,7 @@
       <c r="T37" s="43"/>
       <c r="U37" s="38"/>
       <c r="V37" s="43" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W37" s="52" t="s">
         <v>41</v>
@@ -5378,28 +5375,28 @@
         <v>41</v>
       </c>
       <c r="Y37" s="33" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Z37" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA37" s="43" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB37" s="49" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC37" s="49" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AD37" s="49" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AE37" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF37" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:32" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5419,7 +5416,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G38" s="36">
         <v>7821</v>
@@ -5464,28 +5461,28 @@
         <v>41</v>
       </c>
       <c r="Y38" s="33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z38" s="33" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA38" s="33" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AB38" s="35" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AC38" s="35" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AD38" s="35" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AE38" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF38" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="51" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5502,7 +5499,7 @@
         <v>95</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F39" s="53" t="s">
         <v>95</v>
@@ -5541,7 +5538,7 @@
       <c r="T39" s="33"/>
       <c r="U39" s="43"/>
       <c r="V39" s="38" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W39" s="52" t="s">
         <v>41</v>
@@ -5550,28 +5547,28 @@
         <v>41</v>
       </c>
       <c r="Y39" s="33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z39" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA39" s="33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB39" s="49" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AC39" s="49" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AD39" s="49" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AE39" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF39" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5588,7 +5585,7 @@
         <v>82</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>95</v>
@@ -5636,28 +5633,28 @@
         <v>41</v>
       </c>
       <c r="Y40" s="39" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z40" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA40" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB40" s="49" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC40" s="49" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AD40" s="49" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="AE40" s="24" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="AF40" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:32" s="40" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
@@ -5674,7 +5671,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>29</v>
@@ -5711,7 +5708,7 @@
       <c r="T41" s="57"/>
       <c r="U41" s="58"/>
       <c r="V41" s="58" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="W41" s="68" t="s">
         <v>41</v>
@@ -5720,28 +5717,28 @@
         <v>41</v>
       </c>
       <c r="Y41" s="56" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z41" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA41" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AB41" s="68" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC41" s="68" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AD41" s="68" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AE41" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF41" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5758,10 +5755,10 @@
         <v>33</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F42" s="62" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G42" s="62">
         <v>37.99</v>
@@ -5797,7 +5794,7 @@
       <c r="T42" s="33"/>
       <c r="U42" s="43"/>
       <c r="V42" s="43" t="s">
-        <v>130</v>
+        <v>352</v>
       </c>
       <c r="W42" s="49" t="s">
         <v>41</v>
@@ -5806,36 +5803,36 @@
         <v>41</v>
       </c>
       <c r="Y42" s="62" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Z42" s="33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA42" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB42" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC42" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD42" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE42" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF42" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="AC42" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD42" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE42" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="AF42" s="24" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C43" s="39">
         <v>2019</v>
@@ -5844,7 +5841,7 @@
         <v>29</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F43" s="55" t="s">
         <v>29</v>
@@ -5885,7 +5882,7 @@
       <c r="T43" s="43"/>
       <c r="U43" s="43"/>
       <c r="V43" s="43" t="s">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="W43" s="39" t="s">
         <v>41</v>
@@ -5894,46 +5891,46 @@
         <v>41</v>
       </c>
       <c r="Y43" s="39" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z43" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA43" s="33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB43" s="39" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC43" s="39" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AD43" s="39" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE43" s="33"/>
       <c r="AF43" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:32" s="40" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C44" s="43">
         <v>2019</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G44" s="39">
         <v>528</v>
@@ -5978,28 +5975,28 @@
         <v>41</v>
       </c>
       <c r="Y44" s="39" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Z44" s="33" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AA44" s="43" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="AB44" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC44" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD44" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE44" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF44" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="AC44" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD44" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE44" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF44" s="24" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6016,7 +6013,7 @@
         <v>82</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>95</v>
@@ -6055,7 +6052,7 @@
       <c r="T45" s="24"/>
       <c r="U45" s="26"/>
       <c r="V45" s="26" t="s">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="W45" s="18" t="s">
         <v>41</v>
@@ -6064,26 +6061,26 @@
         <v>41</v>
       </c>
       <c r="Y45" s="18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z45" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA45" s="24" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AB45" s="21" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC45" s="21" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="AD45" s="21" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="AE45" s="24"/>
       <c r="AF45" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:32" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6100,7 +6097,7 @@
         <v>29</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>29</v>
@@ -6148,28 +6145,28 @@
         <v>41</v>
       </c>
       <c r="Y46" s="24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Z46" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA46" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB46" s="21" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC46" s="21" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AD46" s="21" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AE46" s="33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF46" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="40" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6189,7 +6186,7 @@
         <v>27</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G47" s="23">
         <v>7821</v>
@@ -6225,7 +6222,7 @@
       <c r="T47" s="24"/>
       <c r="U47" s="25"/>
       <c r="V47" s="22" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W47" s="17" t="s">
         <v>41</v>
@@ -6234,48 +6231,48 @@
         <v>41</v>
       </c>
       <c r="Y47" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z47" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA47" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB47" s="21" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC47" s="21" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AD47" s="21" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AE47" s="18" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AF47" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C48" s="26">
         <v>2018</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G48" s="66">
         <v>7662</v>
@@ -6307,35 +6304,35 @@
       <c r="T48" s="26"/>
       <c r="U48" s="26"/>
       <c r="V48" s="26" t="s">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="W48" s="21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="X48" s="21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Y48" s="18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z48" s="26" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA48" s="26" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AB48" s="17" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC48" s="21" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AD48" s="21" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AE48" s="24"/>
       <c r="AF48" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6355,7 +6352,7 @@
         <v>27</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G49" s="93">
         <v>7821</v>
@@ -6393,7 +6390,7 @@
       <c r="T49" s="33"/>
       <c r="U49" s="43"/>
       <c r="V49" s="50" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="W49" s="49" t="s">
         <v>41</v>
@@ -6402,26 +6399,26 @@
         <v>41</v>
       </c>
       <c r="Y49" s="39" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z49" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA49" s="33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB49" s="49" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC49" s="49" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AD49" s="49" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AE49" s="33"/>
       <c r="AF49" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:32" s="70" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6477,35 +6474,35 @@
       <c r="T50" s="26"/>
       <c r="U50" s="26"/>
       <c r="V50" s="54" t="s">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="W50" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="X50" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Y50" s="24" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Z50" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA50" s="24" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB50" s="21" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC50" s="21" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AD50" s="21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE50" s="57"/>
       <c r="AF50" s="24" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:32" s="70" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6522,10 +6519,10 @@
         <v>32</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F51" s="84" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G51" s="84">
         <v>63.26</v>
@@ -6569,23 +6566,23 @@
         <v>35</v>
       </c>
       <c r="Z51" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA51" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB51" s="17" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC51" s="18" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AD51" s="21" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AE51" s="24"/>
       <c r="AF51" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:32" s="70" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6602,7 +6599,7 @@
         <v>29</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>29</v>
@@ -6650,28 +6647,28 @@
         <v>41</v>
       </c>
       <c r="Y52" s="18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z52" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA52" s="24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AB52" s="17" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC52" s="18" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AD52" s="17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE52" s="33" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF52" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:32" s="70" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -6688,7 +6685,7 @@
         <v>74</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>95</v>
@@ -6730,54 +6727,54 @@
         <v>66</v>
       </c>
       <c r="W53" s="25" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="X53" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Y53" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="Z53" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA53" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB53" s="17" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC53" s="99" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AD53" s="60" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AE53" s="24" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AF53" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:32" s="70" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C54" s="26">
         <v>2015</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G54" s="18">
         <v>10</v>
@@ -6813,35 +6810,35 @@
       <c r="T54" s="26"/>
       <c r="U54" s="26"/>
       <c r="V54" s="26" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="W54" s="26" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="X54" s="26" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Y54" s="18" t="s">
         <v>35</v>
       </c>
       <c r="Z54" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA54" s="24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AB54" s="17" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AC54" s="18" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="AD54" s="17" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AE54" s="33"/>
       <c r="AF54" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:32" s="70" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6849,7 +6846,7 @@
         <v>113</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C55" s="43">
         <v>2013</v>
@@ -6861,7 +6858,7 @@
         <v>27</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G55" s="46">
         <v>6970</v>
@@ -6904,46 +6901,46 @@
         <v>41</v>
       </c>
       <c r="Y55" s="33" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Z55" s="33" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA55" s="33" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AB55" s="35" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AC55" s="39" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AD55" s="35" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AE55" s="33"/>
       <c r="AF55" s="24" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:32" s="70" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C56" s="43">
         <v>2012</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G56" s="39">
         <v>3</v>
@@ -6984,46 +6981,46 @@
         <v>42</v>
       </c>
       <c r="Y56" s="39" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Z56" s="33" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AA56" s="33" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AB56" s="35" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC56" s="39" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="AD56" s="35" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="AE56" s="24"/>
       <c r="AF56" s="24" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:32" s="70" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C57" s="26">
         <v>2012</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G57" s="18">
         <v>503</v>
@@ -7059,7 +7056,7 @@
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
       <c r="V57" s="26" t="s">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="W57" s="18" t="s">
         <v>41</v>
@@ -7068,26 +7065,26 @@
         <v>41</v>
       </c>
       <c r="Y57" s="18" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Z57" s="26" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA57" s="26" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AB57" s="21" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AC57" s="18" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="AD57" s="21" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AE57" s="33"/>
       <c r="AF57" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="367">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -1174,6 +1174,14 @@
   </si>
   <si>
     <t>food system, energy, industry, transport, residential, commercial, solvent, waste, shipping, natural burning</t>
+  </si>
+  <si>
+    <t>Air pollution
+(Warm temperature -&gt; not a cobenefit)</t>
+  </si>
+  <si>
+    <t>YLL
+Economic</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1583,9 +1591,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1598,22 +1603,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,6 +1644,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2005,7 +2010,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AF57" totalsRowShown="0" dataDxfId="30">
   <autoFilter ref="A1:AF57"/>
   <sortState ref="A2:AF57">
-    <sortCondition ref="A1:A57"/>
+    <sortCondition ref="AF1:AF57"/>
   </sortState>
   <tableColumns count="32">
     <tableColumn id="18" name="author_date" dataDxfId="29"/>
@@ -2310,9 +2315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2440,1398 +2445,1376 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="42">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="42">
-        <v>67.5</v>
+    <row r="2" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="44">
+        <v>2012</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="35">
+        <v>3</v>
       </c>
       <c r="H2" s="36">
-        <v>36</v>
-      </c>
-      <c r="I2" s="79">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="I2" s="37">
+        <v>1</v>
       </c>
       <c r="J2" s="37">
-        <v>2021</v>
-      </c>
-      <c r="K2" s="42">
-        <v>2050</v>
-      </c>
-      <c r="L2" s="33">
-        <v>2021</v>
-      </c>
-      <c r="M2" s="33">
-        <v>2050</v>
-      </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="33">
-        <v>2050</v>
-      </c>
+        <v>2010</v>
+      </c>
+      <c r="K2" s="35">
+        <v>2040</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="43">
-        <v>2021</v>
-      </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
+        <v>2010</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>2040</v>
+      </c>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="43"/>
       <c r="V2" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="38" t="s">
-        <v>263</v>
+      <c r="Y2" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="Z2" s="33" t="s">
         <v>175</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AB2" s="35" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="AC2" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD2" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>266</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AD2" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE2" s="24"/>
       <c r="AF2" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="40" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="22">
-        <v>2018</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>29</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="35">
+        <v>2022</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>282</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="36">
+        <v>1241</v>
+      </c>
+      <c r="H3" s="36">
+        <v>28</v>
+      </c>
+      <c r="I3" s="79">
+        <v>22</v>
+      </c>
+      <c r="J3" s="37">
+        <v>2010</v>
+      </c>
+      <c r="K3" s="35">
+        <v>2050</v>
+      </c>
+      <c r="L3" s="33">
+        <v>2010</v>
+      </c>
+      <c r="M3" s="33">
+        <v>2050</v>
+      </c>
+      <c r="N3" s="35">
+        <v>2010</v>
+      </c>
+      <c r="O3" s="33">
+        <v>2050</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="W3" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA3" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB3" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC3" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD3" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="77">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="71">
+        <v>127</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="37">
+        <v>18.8333333333333</v>
+      </c>
+      <c r="J4" s="79">
+        <v>2015</v>
+      </c>
+      <c r="K4" s="78">
+        <v>2050</v>
+      </c>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="78" t="s">
+        <v>304</v>
+      </c>
+      <c r="W4" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z4" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA4" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB4" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC4" s="71" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="64">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="32">
-        <v>1338</v>
-      </c>
-      <c r="H3" s="23">
-        <v>25</v>
-      </c>
-      <c r="I3" s="79">
-        <v>25</v>
-      </c>
-      <c r="J3" s="23">
+      <c r="G5" s="28">
+        <v>38.6</v>
+      </c>
+      <c r="H5" s="23">
+        <v>41</v>
+      </c>
+      <c r="I5" s="37">
+        <v>8</v>
+      </c>
+      <c r="J5" s="23">
+        <v>2017</v>
+      </c>
+      <c r="K5" s="17">
+        <v>2060</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2017</v>
+      </c>
+      <c r="M5" s="24">
+        <v>2060</v>
+      </c>
+      <c r="N5" s="17">
+        <v>2017</v>
+      </c>
+      <c r="O5" s="26">
+        <v>2060</v>
+      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB5" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD5" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="44">
+        <v>2022</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="42">
+        <v>21</v>
+      </c>
+      <c r="H6" s="36">
+        <v>46</v>
+      </c>
+      <c r="I6" s="79">
+        <v>4.8333333333333304</v>
+      </c>
+      <c r="J6" s="37">
+        <v>2020</v>
+      </c>
+      <c r="K6" s="44">
+        <v>2050</v>
+      </c>
+      <c r="L6" s="43">
+        <v>2020</v>
+      </c>
+      <c r="M6" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N6" s="35">
+        <v>2020</v>
+      </c>
+      <c r="O6" s="43">
+        <v>2050</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z6" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA6" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB6" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC6" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD6" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE6" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF6" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="77">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="71">
+        <v>1412</v>
+      </c>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79">
+        <v>37</v>
+      </c>
+      <c r="J7" s="79">
+        <v>2022</v>
+      </c>
+      <c r="K7" s="78">
+        <v>2050</v>
+      </c>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="W7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z7" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA7" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB7" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC7" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD7" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE7" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF7" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="44">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="36">
+        <v>6970</v>
+      </c>
+      <c r="H8" s="36">
+        <v>12</v>
+      </c>
+      <c r="I8" s="79">
+        <v>45</v>
+      </c>
+      <c r="J8" s="37">
         <v>2010</v>
       </c>
-      <c r="K3" s="28">
-        <v>2050</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="17">
+      <c r="K8" s="35">
+        <v>2030</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="35">
         <v>2010</v>
       </c>
-      <c r="O3" s="24">
-        <v>2050</v>
-      </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="24">
+      <c r="O8" s="39">
         <v>2030</v>
       </c>
-      <c r="R3" s="24">
-        <v>2050</v>
-      </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26" t="s">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43">
+        <v>2030</v>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="W3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z3" s="24" t="s">
+      <c r="W8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z8" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC3" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD3" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE3" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="22">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="32">
-        <v>1380</v>
-      </c>
-      <c r="H4" s="23">
-        <v>21</v>
-      </c>
-      <c r="I4" s="79">
-        <v>30</v>
-      </c>
-      <c r="J4" s="23">
-        <v>2015</v>
-      </c>
-      <c r="K4" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="17">
-        <v>2015</v>
-      </c>
-      <c r="O4" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26">
-        <v>2030</v>
-      </c>
-      <c r="R4" s="26">
-        <v>2050</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="W4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA4" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD4" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE4" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF4" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
-        <v>332</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="77">
-        <v>2023</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="71">
-        <v>1411</v>
-      </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79">
-        <v>36</v>
-      </c>
-      <c r="J5" s="79">
-        <v>2020</v>
-      </c>
-      <c r="K5" s="78">
-        <v>2060</v>
-      </c>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="W5" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z5" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA5" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB5" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC5" s="71" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD5" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="27" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="22">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="23">
-        <v>1410</v>
-      </c>
-      <c r="H6" s="23">
-        <v>19</v>
-      </c>
-      <c r="I6" s="79">
-        <v>33</v>
-      </c>
-      <c r="J6" s="23">
-        <v>2020</v>
-      </c>
-      <c r="K6" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L6" s="24">
-        <v>2020</v>
-      </c>
-      <c r="M6" s="24">
-        <v>2050</v>
-      </c>
-      <c r="N6" s="22">
-        <v>2020</v>
-      </c>
-      <c r="O6" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="W6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB6" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC6" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD6" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="44">
-        <v>2012</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="35">
-        <v>3</v>
-      </c>
-      <c r="H7" s="36">
-        <v>48</v>
-      </c>
-      <c r="I7" s="37">
-        <v>1</v>
-      </c>
-      <c r="J7" s="37">
-        <v>2010</v>
-      </c>
-      <c r="K7" s="35">
-        <v>2040</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="43">
-        <v>2010</v>
-      </c>
-      <c r="Q7" s="43">
-        <v>2040</v>
-      </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="W7" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="X7" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z7" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA7" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC7" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD7" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="28">
-        <v>2021</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="32">
-        <v>1241</v>
-      </c>
-      <c r="H8" s="23">
-        <v>29</v>
-      </c>
-      <c r="I8" s="79">
-        <v>21</v>
-      </c>
-      <c r="J8" s="23">
-        <v>2010</v>
-      </c>
-      <c r="K8" s="28">
-        <v>2050</v>
-      </c>
-      <c r="L8" s="24">
-        <v>2010</v>
-      </c>
-      <c r="M8" s="24">
-        <v>2050</v>
-      </c>
-      <c r="N8" s="17">
-        <v>2010</v>
-      </c>
-      <c r="O8" s="24">
-        <v>2050</v>
-      </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="W8" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z8" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA8" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB8" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD8" s="17" t="s">
-        <v>200</v>
+      <c r="AA8" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB8" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC8" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD8" s="35" t="s">
+        <v>256</v>
       </c>
       <c r="AE8" s="33"/>
       <c r="AF8" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:32" s="40" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="35">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="36">
-        <v>1241</v>
-      </c>
-      <c r="H9" s="36">
-        <v>28</v>
-      </c>
+      <c r="A9" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="77">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="71">
+        <v>6</v>
+      </c>
+      <c r="H9" s="78"/>
       <c r="I9" s="79">
-        <v>22</v>
-      </c>
-      <c r="J9" s="37">
-        <v>2010</v>
-      </c>
-      <c r="K9" s="35">
-        <v>2050</v>
-      </c>
-      <c r="L9" s="33">
-        <v>2010</v>
-      </c>
-      <c r="M9" s="33">
-        <v>2050</v>
-      </c>
-      <c r="N9" s="35">
-        <v>2010</v>
-      </c>
-      <c r="O9" s="33">
-        <v>2050</v>
-      </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="W9" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="X9" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y9" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="79">
+        <v>2016</v>
+      </c>
+      <c r="K9" s="78">
+        <v>2050</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="74" t="s">
+        <v>363</v>
+      </c>
+      <c r="W9" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z9" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA9" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB9" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC9" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD9" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="77">
+        <v>2023</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="71">
+        <v>9</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79">
+        <v>3</v>
+      </c>
+      <c r="J10" s="79">
+        <v>2016</v>
+      </c>
+      <c r="K10" s="78">
+        <v>2045</v>
+      </c>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z10" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="AA9" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB9" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC9" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD9" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="24" t="s">
+      <c r="AA10" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB10" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC10" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD10" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE10" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF10" s="74" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="27" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="20">
-        <v>7821</v>
-      </c>
-      <c r="H10" s="23">
-        <v>5</v>
-      </c>
-      <c r="I10" s="79">
-        <v>51</v>
-      </c>
-      <c r="J10" s="23">
-        <v>2020</v>
-      </c>
-      <c r="K10" s="17">
-        <v>2100</v>
-      </c>
-      <c r="L10" s="24">
-        <v>2020</v>
-      </c>
-      <c r="M10" s="24">
-        <v>2100</v>
-      </c>
-      <c r="N10" s="17">
-        <v>2020</v>
-      </c>
-      <c r="O10" s="24">
-        <v>2100</v>
-      </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="24">
-        <v>2030</v>
-      </c>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z10" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA10" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB10" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC10" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE10" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>73</v>
+    <row r="11" spans="1:32" s="40" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="44">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>160</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="85">
-        <v>3870</v>
-      </c>
-      <c r="H11" s="23">
-        <v>15</v>
-      </c>
-      <c r="I11" s="79">
-        <v>40.8333333333333</v>
-      </c>
-      <c r="J11" s="23">
+      <c r="F11" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="35">
+        <v>528</v>
+      </c>
+      <c r="H11" s="36">
+        <v>30</v>
+      </c>
+      <c r="I11" s="37">
+        <v>39</v>
+      </c>
+      <c r="J11" s="37">
         <v>2015</v>
       </c>
-      <c r="K11" s="17">
-        <v>2040</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="K11" s="35">
+        <v>2050</v>
+      </c>
+      <c r="L11" s="43">
         <v>2015</v>
       </c>
-      <c r="M11" s="18">
-        <v>2040</v>
-      </c>
-      <c r="N11" s="17">
+      <c r="M11" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N11" s="35">
         <v>2015</v>
       </c>
-      <c r="O11" s="24">
-        <v>2040</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="W11" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="X11" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y11" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z11" s="24" t="s">
+      <c r="O11" s="39">
+        <v>2050</v>
+      </c>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA11" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB11" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC11" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD11" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE11" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF11" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="42">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="35">
+        <v>80</v>
+      </c>
+      <c r="H12" s="36">
+        <v>34</v>
+      </c>
+      <c r="I12" s="79">
+        <v>11</v>
+      </c>
+      <c r="J12" s="37">
+        <v>2015</v>
+      </c>
+      <c r="K12" s="42">
+        <v>2035</v>
+      </c>
+      <c r="L12" s="33">
+        <v>2015</v>
+      </c>
+      <c r="M12" s="33">
+        <v>2035</v>
+      </c>
+      <c r="N12" s="35">
+        <v>2015</v>
+      </c>
+      <c r="O12" s="43">
+        <v>2035</v>
+      </c>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z12" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="AA11" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB11" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="AC11" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD11" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12" s="77">
-        <v>2023</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>319</v>
-      </c>
-      <c r="G12" s="71">
-        <v>127</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="37">
-        <v>18.8333333333333</v>
-      </c>
-      <c r="J12" s="79">
-        <v>2015</v>
-      </c>
-      <c r="K12" s="78">
-        <v>2050</v>
-      </c>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="W12" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z12" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA12" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB12" s="71" t="s">
+      <c r="AA12" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB12" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="AC12" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="AD12" s="71" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69" t="s">
+      <c r="AC12" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD12" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE12" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF12" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="40" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>63</v>
+    <row r="13" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="C13" s="26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>283</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="66">
-        <v>6000</v>
+        <v>7405</v>
       </c>
       <c r="H13" s="23">
-        <v>13</v>
-      </c>
-      <c r="I13" s="37">
-        <v>42.8333333333333</v>
+        <v>11</v>
+      </c>
+      <c r="I13" s="79">
+        <v>47</v>
       </c>
       <c r="J13" s="23">
-        <v>2012</v>
-      </c>
-      <c r="K13" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L13" s="24">
-        <v>2012</v>
-      </c>
-      <c r="M13" s="24">
+        <v>2015</v>
+      </c>
+      <c r="K13" s="17">
+        <v>2050</v>
+      </c>
+      <c r="L13" s="26">
+        <v>2015</v>
+      </c>
+      <c r="M13" s="26">
         <v>2050</v>
       </c>
       <c r="N13" s="17">
-        <v>2012</v>
-      </c>
-      <c r="O13" s="24">
+        <v>2015</v>
+      </c>
+      <c r="O13" s="18">
         <v>2050</v>
       </c>
       <c r="P13" s="26"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" s="28" t="s">
-        <v>169</v>
+      <c r="V13" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y13" s="25" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="Y13" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="Z13" s="24" t="s">
         <v>176</v>
       </c>
       <c r="AA13" s="24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AB13" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="AC13" s="105" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD13" s="60" t="s">
+      <c r="AC13" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD13" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="AE13" s="24" t="s">
-        <v>312</v>
-      </c>
+      <c r="AE13" s="57"/>
       <c r="AF13" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="35">
-        <v>2019</v>
-      </c>
-      <c r="D14" s="97" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="28">
+        <v>2023</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F14" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="97">
-        <v>1408</v>
-      </c>
-      <c r="H14" s="36">
-        <v>20</v>
-      </c>
-      <c r="I14" s="37">
-        <v>32</v>
-      </c>
-      <c r="J14" s="102">
-        <v>2015</v>
-      </c>
-      <c r="K14" s="35">
-        <v>2050</v>
-      </c>
-      <c r="L14" s="43">
-        <v>2015</v>
-      </c>
-      <c r="M14" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N14" s="97"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43">
-        <v>2015</v>
-      </c>
-      <c r="R14" s="43">
+      <c r="G14" s="28">
+        <v>100</v>
+      </c>
+      <c r="H14" s="23">
+        <v>33</v>
+      </c>
+      <c r="I14" s="79">
+        <v>12</v>
+      </c>
+      <c r="J14" s="23">
+        <v>2017</v>
+      </c>
+      <c r="K14" s="28">
+        <v>2060</v>
+      </c>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="24">
+        <v>2017</v>
+      </c>
+      <c r="Q14" s="24">
         <v>2030</v>
       </c>
-      <c r="S14" s="43">
-        <v>2050</v>
-      </c>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="W14" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z14" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA14" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB14" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC14" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD14" s="35" t="s">
-        <v>194</v>
+      <c r="R14" s="24">
+        <v>2060</v>
+      </c>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z14" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA14" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB14" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC14" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD14" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="AE14" s="33"/>
       <c r="AF14" s="24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="42">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="42">
+        <v>67.5</v>
+      </c>
+      <c r="H15" s="36">
+        <v>36</v>
+      </c>
+      <c r="I15" s="79">
+        <v>17</v>
+      </c>
+      <c r="J15" s="37">
+        <v>2021</v>
+      </c>
+      <c r="K15" s="42">
+        <v>2050</v>
+      </c>
+      <c r="L15" s="33">
+        <v>2021</v>
+      </c>
+      <c r="M15" s="33">
+        <v>2050</v>
+      </c>
+      <c r="N15" s="42"/>
+      <c r="O15" s="33">
+        <v>2050</v>
+      </c>
+      <c r="P15" s="43">
+        <v>2021</v>
+      </c>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z15" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA15" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB15" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC15" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD15" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE15" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF15" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="64">
-        <v>2023</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="28">
-        <v>38.6</v>
-      </c>
-      <c r="H15" s="23">
-        <v>41</v>
-      </c>
-      <c r="I15" s="37">
-        <v>8</v>
-      </c>
-      <c r="J15" s="23">
-        <v>2017</v>
-      </c>
-      <c r="K15" s="17">
-        <v>2060</v>
-      </c>
-      <c r="L15" s="24">
-        <v>2017</v>
-      </c>
-      <c r="M15" s="24">
-        <v>2060</v>
-      </c>
-      <c r="N15" s="17">
-        <v>2017</v>
-      </c>
-      <c r="O15" s="26">
-        <v>2060</v>
-      </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="W15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z15" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA15" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB15" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC15" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD15" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE15" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF15" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
     <row r="16" spans="1:32" s="27" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="42">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="86" t="s">
+      <c r="A16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="22">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="80">
-        <v>1380</v>
-      </c>
-      <c r="H16" s="36">
-        <v>22</v>
-      </c>
-      <c r="I16" s="37">
-        <v>29</v>
-      </c>
-      <c r="J16" s="37">
-        <v>2015</v>
-      </c>
-      <c r="K16" s="86">
-        <v>2050</v>
-      </c>
-      <c r="L16" s="33">
-        <v>2015</v>
-      </c>
-      <c r="M16" s="53">
-        <v>2050</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43">
-        <v>2015</v>
-      </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="W16" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="X16" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z16" s="33" t="s">
+      <c r="G16" s="32">
+        <v>1338</v>
+      </c>
+      <c r="H16" s="23">
+        <v>25</v>
+      </c>
+      <c r="I16" s="79">
+        <v>25</v>
+      </c>
+      <c r="J16" s="23">
+        <v>2010</v>
+      </c>
+      <c r="K16" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="17">
+        <v>2010</v>
+      </c>
+      <c r="O16" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="24">
+        <v>2030</v>
+      </c>
+      <c r="R16" s="24">
+        <v>2050</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="W16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z16" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AA16" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB16" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC16" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD16" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE16" s="33"/>
+      <c r="AA16" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB16" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC16" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE16" s="33" t="s">
+        <v>265</v>
+      </c>
       <c r="AF16" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="40" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="43">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="38" t="s">
+      <c r="A17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="26">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="38">
+      <c r="E17" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="104">
+        <v>1380</v>
+      </c>
+      <c r="H17" s="23">
         <v>21</v>
       </c>
-      <c r="H17" s="36">
-        <v>46</v>
-      </c>
       <c r="I17" s="79">
-        <v>4.8333333333333304</v>
-      </c>
-      <c r="J17" s="48">
-        <v>2020</v>
-      </c>
-      <c r="K17" s="43">
-        <v>2050</v>
-      </c>
-      <c r="L17" s="43">
-        <v>2020</v>
-      </c>
-      <c r="M17" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N17" s="39">
-        <v>2020</v>
-      </c>
-      <c r="O17" s="43">
-        <v>2050</v>
-      </c>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="W17" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="30">
+        <v>2015</v>
+      </c>
+      <c r="K17" s="26">
+        <v>2050</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="18">
+        <v>2015</v>
+      </c>
+      <c r="O17" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26">
+        <v>2030</v>
+      </c>
+      <c r="R17" s="26">
+        <v>2050</v>
+      </c>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="W17" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z17" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AA17" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB17" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC17" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD17" s="39" t="s">
-        <v>200</v>
+      <c r="AA17" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB17" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC17" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD17" s="18" t="s">
+        <v>244</v>
       </c>
       <c r="AE17" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AF17" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="27" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="69" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="95">
+        <v>333</v>
+      </c>
+      <c r="C18" s="91">
         <v>2023</v>
       </c>
       <c r="D18" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="18" t="s">
         <v>282</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G18" s="73">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H18" s="78"/>
       <c r="I18" s="79">
-        <v>37</v>
-      </c>
-      <c r="J18" s="100">
-        <v>2022</v>
+        <v>36</v>
+      </c>
+      <c r="J18" s="96">
+        <v>2020</v>
       </c>
       <c r="K18" s="74">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="L18" s="69"/>
       <c r="M18" s="69"/>
       <c r="N18" s="71"/>
       <c r="O18" s="72"/>
-      <c r="P18" s="74"/>
+      <c r="P18" s="69"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="69"/>
       <c r="S18" s="69"/>
       <c r="T18" s="69"/>
       <c r="U18" s="74"/>
-      <c r="V18" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="W18" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="X18" s="71" t="s">
+      <c r="V18" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="W18" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="78" t="s">
         <v>41</v>
       </c>
       <c r="Y18" s="72" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Z18" s="69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AA18" s="69" t="s">
         <v>171</v>
@@ -3840,50 +3823,48 @@
         <v>299</v>
       </c>
       <c r="AC18" s="71" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="AD18" s="71" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE18" s="69" t="s">
-        <v>265</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AE18" s="69"/>
       <c r="AF18" s="69" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="17">
-        <v>2018</v>
+      <c r="A19" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="22">
+        <v>2022</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G19" s="23">
-        <v>7821</v>
+        <v>1410</v>
       </c>
       <c r="H19" s="23">
-        <v>1</v>
-      </c>
-      <c r="I19" s="37">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="I19" s="79">
+        <v>33</v>
       </c>
       <c r="J19" s="23">
         <v>2020</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="22">
         <v>2050</v>
       </c>
       <c r="L19" s="24">
@@ -3892,29 +3873,29 @@
       <c r="M19" s="24">
         <v>2050</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="22">
         <v>2020</v>
       </c>
-      <c r="O19" s="24">
-        <v>2050</v>
-      </c>
-      <c r="P19" s="24"/>
+      <c r="O19" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P19" s="26"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
-      <c r="U19" s="28"/>
+      <c r="U19" s="22"/>
       <c r="V19" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y19" s="25" t="s">
-        <v>131</v>
+        <v>353</v>
+      </c>
+      <c r="W19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="Z19" s="24" t="s">
         <v>176</v>
@@ -3922,261 +3903,269 @@
       <c r="AA19" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="AB19" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC19" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD19" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE19" s="18" t="s">
-        <v>272</v>
-      </c>
+      <c r="AB19" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC19" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD19" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE19" s="33"/>
       <c r="AF19" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" s="44">
-        <v>2013</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="36">
-        <v>6970</v>
-      </c>
-      <c r="H20" s="36">
-        <v>12</v>
+    <row r="20" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="28">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="32">
+        <v>1241</v>
+      </c>
+      <c r="H20" s="23">
+        <v>29</v>
       </c>
       <c r="I20" s="79">
-        <v>45</v>
-      </c>
-      <c r="J20" s="37">
+        <v>21</v>
+      </c>
+      <c r="J20" s="23">
         <v>2010</v>
       </c>
-      <c r="K20" s="35">
-        <v>2030</v>
-      </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="35">
+      <c r="K20" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L20" s="24">
         <v>2010</v>
       </c>
-      <c r="O20" s="39">
-        <v>2030</v>
-      </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43">
-        <v>2030</v>
-      </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="W20" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y20" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z20" s="33" t="s">
+      <c r="M20" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N20" s="17">
+        <v>2010</v>
+      </c>
+      <c r="O20" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="W20" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z20" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AA20" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB20" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC20" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD20" s="35" t="s">
-        <v>256</v>
+      <c r="AA20" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB20" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC20" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD20" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="AE20" s="33"/>
       <c r="AF20" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="40" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="28">
+        <v>346</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="17">
         <v>2023</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>282</v>
+        <v>27</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="17">
-        <v>70</v>
+        <v>29</v>
+      </c>
+      <c r="G21" s="20">
+        <v>7821</v>
       </c>
       <c r="H21" s="23">
-        <v>35</v>
-      </c>
-      <c r="I21" s="37">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="I21" s="79">
+        <v>51</v>
       </c>
       <c r="J21" s="23">
-        <v>2021</v>
-      </c>
-      <c r="K21" s="75">
+        <v>2020</v>
+      </c>
+      <c r="K21" s="17">
         <v>2100</v>
       </c>
       <c r="L21" s="24">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M21" s="24">
         <v>2100</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="24">
+      <c r="N21" s="17">
         <v>2020</v>
       </c>
-      <c r="Q21" s="24"/>
+      <c r="O21" s="24">
+        <v>2100</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="24">
+        <v>2030</v>
+      </c>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
       <c r="U21" s="26"/>
-      <c r="V21" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="W21" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="X21" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y21" s="25" t="s">
-        <v>35</v>
+      <c r="V21" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="W21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y21" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="Z21" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA21" s="24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AB21" s="17" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="AC21" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD21" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE21" s="24"/>
+        <v>239</v>
+      </c>
+      <c r="AD21" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE21" s="24" t="s">
+        <v>265</v>
+      </c>
       <c r="AF21" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="27" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="35">
-        <v>2023</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>104</v>
+    <row r="22" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="37">
-        <v>4680</v>
-      </c>
-      <c r="H22" s="36">
-        <v>14</v>
+      <c r="F22" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="84">
+        <v>3870</v>
+      </c>
+      <c r="H22" s="23">
+        <v>15</v>
       </c>
       <c r="I22" s="79">
-        <v>41.8333333333333</v>
-      </c>
-      <c r="J22" s="37">
-        <v>2010</v>
-      </c>
-      <c r="K22" s="35">
+        <v>40.8333333333333</v>
+      </c>
+      <c r="J22" s="23">
+        <v>2015</v>
+      </c>
+      <c r="K22" s="17">
         <v>2040</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="35">
-        <v>2010</v>
-      </c>
-      <c r="O22" s="43">
+      <c r="L22" s="24">
+        <v>2015</v>
+      </c>
+      <c r="M22" s="18">
         <v>2040</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43">
+      <c r="N22" s="17">
+        <v>2015</v>
+      </c>
+      <c r="O22" s="24">
         <v>2040</v>
       </c>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="W22" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="X22" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y22" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z22" s="33" t="s">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y22" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z22" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AA22" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB22" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC22" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD22" s="35" t="s">
+      <c r="AA22" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB22" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC22" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD22" s="17" t="s">
         <v>194</v>
       </c>
       <c r="AE22" s="33"/>
@@ -4184,942 +4173,968 @@
         <v>313</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>322</v>
-      </c>
-      <c r="C23" s="77">
-        <v>2023</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="E23" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="71" t="s">
+    <row r="23" spans="1:32" s="40" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="22">
+        <v>2017</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="71">
+      <c r="G23" s="20">
+        <v>6000</v>
+      </c>
+      <c r="H23" s="23">
+        <v>13</v>
+      </c>
+      <c r="I23" s="37">
+        <v>42.8333333333333</v>
+      </c>
+      <c r="J23" s="23">
+        <v>2012</v>
+      </c>
+      <c r="K23" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L23" s="24">
+        <v>2012</v>
+      </c>
+      <c r="M23" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N23" s="17">
+        <v>2012</v>
+      </c>
+      <c r="O23" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W23" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="X23" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y23" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z23" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB23" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC23" s="101" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD23" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE23" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF23" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="35">
+        <v>2019</v>
+      </c>
+      <c r="D24" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="93">
+        <v>1408</v>
+      </c>
+      <c r="H24" s="36">
+        <v>20</v>
+      </c>
+      <c r="I24" s="37">
+        <v>32</v>
+      </c>
+      <c r="J24" s="98">
+        <v>2015</v>
+      </c>
+      <c r="K24" s="35">
+        <v>2050</v>
+      </c>
+      <c r="L24" s="43">
+        <v>2015</v>
+      </c>
+      <c r="M24" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N24" s="93"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43">
+        <v>2015</v>
+      </c>
+      <c r="R24" s="43">
+        <v>2030</v>
+      </c>
+      <c r="S24" s="43">
+        <v>2050</v>
+      </c>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z24" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA24" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB24" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC24" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD24" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79">
-        <v>2</v>
-      </c>
-      <c r="J23" s="79">
-        <v>2016</v>
-      </c>
-      <c r="K23" s="78">
-        <v>2050</v>
-      </c>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="74" t="s">
-        <v>363</v>
-      </c>
-      <c r="W23" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y23" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z23" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA23" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB23" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC23" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD23" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="74" t="s">
-        <v>336</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="77">
-        <v>2023</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="E24" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="71">
-        <v>9</v>
-      </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79">
-        <v>3</v>
-      </c>
-      <c r="J24" s="79">
-        <v>2016</v>
-      </c>
-      <c r="K24" s="78">
-        <v>2045</v>
-      </c>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="W24" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="X24" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z24" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA24" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB24" s="71" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC24" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD24" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE24" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF24" s="74" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="28">
-        <v>2021</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>40</v>
+      <c r="C25" s="42">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>29</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="28">
-        <v>51</v>
-      </c>
-      <c r="H25" s="23">
-        <v>39</v>
-      </c>
-      <c r="I25" s="79">
-        <v>15</v>
-      </c>
-      <c r="J25" s="23">
-        <v>2022</v>
-      </c>
-      <c r="K25" s="28">
-        <v>2050</v>
-      </c>
-      <c r="L25" s="24">
-        <v>2022</v>
-      </c>
-      <c r="M25" s="24">
-        <v>2050</v>
-      </c>
-      <c r="N25" s="17">
-        <v>2022</v>
-      </c>
-      <c r="O25" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="W25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y25" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z25" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA25" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB25" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC25" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD25" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE25" s="24"/>
+      <c r="F25" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="80">
+        <v>1380</v>
+      </c>
+      <c r="H25" s="36">
+        <v>22</v>
+      </c>
+      <c r="I25" s="37">
+        <v>29</v>
+      </c>
+      <c r="J25" s="37">
+        <v>2015</v>
+      </c>
+      <c r="K25" s="85">
+        <v>2050</v>
+      </c>
+      <c r="L25" s="33">
+        <v>2015</v>
+      </c>
+      <c r="M25" s="53">
+        <v>2050</v>
+      </c>
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43">
+        <v>2015</v>
+      </c>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="W25" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z25" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA25" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB25" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC25" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD25" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE25" s="33"/>
       <c r="AF25" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="35">
-        <v>2021</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>27</v>
+    <row r="26" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="17">
+        <v>2018</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="36">
-        <v>7662</v>
-      </c>
-      <c r="H26" s="36">
-        <v>6</v>
-      </c>
-      <c r="I26" s="79">
-        <v>50</v>
-      </c>
-      <c r="J26" s="37">
-        <v>2018</v>
-      </c>
-      <c r="K26" s="35">
-        <v>2030</v>
-      </c>
-      <c r="L26" s="43">
-        <v>2018</v>
-      </c>
-      <c r="M26" s="43">
-        <v>2030</v>
-      </c>
-      <c r="N26" s="35">
-        <v>2018</v>
-      </c>
-      <c r="O26" s="39">
-        <v>2030</v>
-      </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="W26" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="X26" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y26" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z26" s="33" t="s">
+      <c r="F26" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="23">
+        <v>7821</v>
+      </c>
+      <c r="H26" s="23">
+        <v>1</v>
+      </c>
+      <c r="I26" s="37">
+        <v>55</v>
+      </c>
+      <c r="J26" s="23">
+        <v>2020</v>
+      </c>
+      <c r="K26" s="81">
+        <v>2050</v>
+      </c>
+      <c r="L26" s="24">
+        <v>2020</v>
+      </c>
+      <c r="M26" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N26" s="17">
+        <v>2020</v>
+      </c>
+      <c r="O26" s="24">
+        <v>2050</v>
+      </c>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z26" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AA26" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB26" s="35" t="s">
+      <c r="AA26" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB26" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="AC26" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD26" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE26" s="33"/>
+      <c r="AC26" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD26" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE26" s="18" t="s">
+        <v>272</v>
+      </c>
       <c r="AF26" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="40" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="17">
-        <v>2020</v>
+        <v>45</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="28">
+        <v>2023</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>282</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1380</v>
+        <v>143</v>
+      </c>
+      <c r="G27" s="17">
+        <v>70</v>
       </c>
       <c r="H27" s="23">
-        <v>23</v>
-      </c>
-      <c r="I27" s="79">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="I27" s="37">
+        <v>18</v>
       </c>
       <c r="J27" s="23">
-        <v>2015</v>
-      </c>
-      <c r="K27" s="17">
-        <v>2030</v>
-      </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="17">
-        <v>2015</v>
-      </c>
-      <c r="O27" s="24">
-        <v>2030</v>
-      </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24">
-        <v>2030</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="K27" s="75">
+        <v>2100</v>
+      </c>
+      <c r="L27" s="24">
+        <v>2021</v>
+      </c>
+      <c r="M27" s="24">
+        <v>2100</v>
+      </c>
+      <c r="N27" s="28"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="24">
+        <v>2020</v>
+      </c>
+      <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
       <c r="U27" s="26"/>
       <c r="V27" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="W27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y27" s="18" t="s">
-        <v>135</v>
+        <v>351</v>
+      </c>
+      <c r="W27" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="X27" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y27" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="Z27" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD27" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE27" s="24" t="s">
-        <v>265</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="AD27" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE27" s="24"/>
       <c r="AF27" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="27" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="22">
-        <v>2012</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>185</v>
+    <row r="28" spans="1:32" s="27" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="35">
+        <v>2023</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="17">
-        <v>503</v>
-      </c>
-      <c r="H28" s="23">
-        <v>31</v>
+      <c r="F28" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="37">
+        <v>4680</v>
+      </c>
+      <c r="H28" s="36">
+        <v>14</v>
       </c>
       <c r="I28" s="79">
-        <v>38</v>
-      </c>
-      <c r="J28" s="20">
-        <v>2005</v>
-      </c>
-      <c r="K28" s="17">
-        <v>2050</v>
-      </c>
-      <c r="L28" s="26">
-        <v>2005</v>
-      </c>
-      <c r="M28" s="26">
-        <v>2050</v>
-      </c>
-      <c r="N28" s="17">
-        <v>2005</v>
-      </c>
-      <c r="O28" s="18">
-        <v>2050</v>
-      </c>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="W28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z28" s="26" t="s">
+        <v>41.8333333333333</v>
+      </c>
+      <c r="J28" s="37">
+        <v>2010</v>
+      </c>
+      <c r="K28" s="35">
+        <v>2040</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="35">
+        <v>2010</v>
+      </c>
+      <c r="O28" s="43">
+        <v>2040</v>
+      </c>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43">
+        <v>2040</v>
+      </c>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="W28" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z28" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="AA28" s="26" t="s">
+      <c r="AA28" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="AB28" s="17" t="s">
+      <c r="AB28" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="AC28" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD28" s="17" t="s">
-        <v>290</v>
+      <c r="AC28" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD28" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="AE28" s="33"/>
       <c r="AF28" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="22">
-        <v>2018</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>296</v>
+    <row r="29" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="28">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="20">
-        <v>7662</v>
+        <v>282</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="28">
+        <v>51</v>
       </c>
       <c r="H29" s="23">
-        <v>7</v>
-      </c>
-      <c r="I29" s="37">
-        <v>44</v>
-      </c>
-      <c r="J29" s="20">
-        <v>2015</v>
-      </c>
-      <c r="K29" s="17">
-        <v>2040</v>
-      </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="26">
-        <v>2015</v>
-      </c>
-      <c r="Q29" s="26">
-        <v>2040</v>
-      </c>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="I29" s="79">
+        <v>15</v>
+      </c>
+      <c r="J29" s="23">
+        <v>2022</v>
+      </c>
+      <c r="K29" s="28">
+        <v>2050</v>
+      </c>
+      <c r="L29" s="24">
+        <v>2022</v>
+      </c>
+      <c r="M29" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N29" s="17">
+        <v>2022</v>
+      </c>
+      <c r="O29" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="25"/>
       <c r="V29" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="X29" s="17" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="Y29" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z29" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA29" s="26" t="s">
-        <v>172</v>
+        <v>35</v>
+      </c>
+      <c r="Z29" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA29" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="AC29" s="17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AD29" s="17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AE29" s="24"/>
       <c r="AF29" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="42">
+    <row r="30" spans="1:32" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="35">
         <v>2021</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="80">
-        <v>3820</v>
+      <c r="D30" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="36">
+        <v>7662</v>
       </c>
       <c r="H30" s="36">
-        <v>16</v>
-      </c>
-      <c r="I30" s="37">
-        <v>39.8333333333333</v>
+        <v>6</v>
+      </c>
+      <c r="I30" s="79">
+        <v>50</v>
       </c>
       <c r="J30" s="37">
-        <v>2015</v>
-      </c>
-      <c r="K30" s="42">
-        <v>2050</v>
-      </c>
-      <c r="L30" s="33">
-        <v>2015</v>
-      </c>
-      <c r="M30" s="33">
-        <v>2050</v>
+        <v>2018</v>
+      </c>
+      <c r="K30" s="35">
+        <v>2030</v>
+      </c>
+      <c r="L30" s="43">
+        <v>2018</v>
+      </c>
+      <c r="M30" s="43">
+        <v>2030</v>
       </c>
       <c r="N30" s="35">
-        <v>2015</v>
-      </c>
-      <c r="O30" s="43">
-        <v>2050</v>
+        <v>2018</v>
+      </c>
+      <c r="O30" s="39">
+        <v>2030</v>
       </c>
       <c r="P30" s="43"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
       <c r="U30" s="43"/>
-      <c r="V30" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="W30" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="X30" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y30" s="39" t="s">
-        <v>136</v>
+      <c r="V30" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="W30" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="Z30" s="33" t="s">
         <v>176</v>
       </c>
       <c r="AA30" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB30" s="35" t="s">
         <v>299</v>
       </c>
       <c r="AC30" s="35" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD30" s="35" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AE30" s="33"/>
       <c r="AF30" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="43">
+    <row r="31" spans="1:32" s="40" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="18">
         <v>2020</v>
       </c>
-      <c r="D31" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="36">
-        <v>7405</v>
-      </c>
-      <c r="H31" s="36">
-        <v>8</v>
+      <c r="D31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1380</v>
+      </c>
+      <c r="H31" s="23">
+        <v>23</v>
       </c>
       <c r="I31" s="79">
-        <v>49</v>
-      </c>
-      <c r="J31" s="48">
+        <v>28</v>
+      </c>
+      <c r="J31" s="30">
         <v>2015</v>
       </c>
-      <c r="K31" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L31" s="43">
+      <c r="K31" s="18">
+        <v>2030</v>
+      </c>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="21">
         <v>2015</v>
       </c>
-      <c r="M31" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N31" s="49">
-        <v>2015</v>
-      </c>
-      <c r="O31" s="39">
-        <v>2050</v>
-      </c>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="W31" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="X31" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y31" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z31" s="33" t="s">
+      <c r="O31" s="24">
+        <v>2030</v>
+      </c>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24">
+        <v>2030</v>
+      </c>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z31" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AA31" s="43" t="s">
+      <c r="AA31" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="AB31" s="49" t="s">
+      <c r="AB31" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="AC31" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD31" s="49" t="s">
-        <v>207</v>
+      <c r="AC31" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD31" s="61" t="s">
+        <v>273</v>
       </c>
       <c r="AE31" s="24" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="AF31" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="59" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="69" t="s">
-        <v>328</v>
-      </c>
-      <c r="B32" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="C32" s="95">
-        <v>2023</v>
-      </c>
-      <c r="D32" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="73" t="s">
-        <v>330</v>
-      </c>
-      <c r="G32" s="73">
-        <v>7821</v>
-      </c>
-      <c r="H32" s="78"/>
+    <row r="32" spans="1:32" s="59" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="26">
+        <v>2012</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="18">
+        <v>503</v>
+      </c>
+      <c r="H32" s="23">
+        <v>31</v>
+      </c>
       <c r="I32" s="79">
-        <v>56</v>
-      </c>
-      <c r="J32" s="100">
-        <v>2020</v>
-      </c>
-      <c r="K32" s="74">
-        <v>2100</v>
-      </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69" t="s">
-        <v>304</v>
-      </c>
-      <c r="W32" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="X32" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y32" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z32" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA32" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" s="66">
+        <v>2005</v>
+      </c>
+      <c r="K32" s="18">
+        <v>2050</v>
+      </c>
+      <c r="L32" s="26">
+        <v>2005</v>
+      </c>
+      <c r="M32" s="26">
+        <v>2050</v>
+      </c>
+      <c r="N32" s="21">
+        <v>2005</v>
+      </c>
+      <c r="O32" s="18">
+        <v>2050</v>
+      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="W32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z32" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA32" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="AB32" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC32" s="87" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD32" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69" t="s">
+      <c r="AB32" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC32" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD32" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="18">
-        <v>2022</v>
+      <c r="A33" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="26">
+        <v>2018</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>27</v>
+        <v>296</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" s="66">
-        <v>7405</v>
+        <v>7662</v>
       </c>
       <c r="H33" s="23">
-        <v>9</v>
-      </c>
-      <c r="I33" s="79">
-        <v>48</v>
-      </c>
-      <c r="J33" s="30">
+        <v>7</v>
+      </c>
+      <c r="I33" s="37">
+        <v>44</v>
+      </c>
+      <c r="J33" s="66">
         <v>2015</v>
       </c>
       <c r="K33" s="18">
-        <v>2050</v>
-      </c>
-      <c r="L33" s="24">
+        <v>2040</v>
+      </c>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="26">
         <v>2015</v>
       </c>
-      <c r="M33" s="24">
-        <v>2050</v>
-      </c>
-      <c r="N33" s="21"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="24">
-        <v>2015</v>
-      </c>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+      <c r="Q33" s="26">
+        <v>2040</v>
+      </c>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="18" t="s">
-        <v>304</v>
+      <c r="V33" s="26" t="s">
+        <v>360</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="X33" s="21" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="Y33" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="Z33" s="24" t="s">
+      <c r="Z33" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="AA33" s="24" t="s">
-        <v>173</v>
+      <c r="AA33" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="AB33" s="21" t="s">
         <v>299</v>
       </c>
       <c r="AC33" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AD33" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE33" s="33" t="s">
-        <v>265</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AE33" s="24"/>
       <c r="AF33" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:32" s="27" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="46">
-        <v>7821</v>
+        <v>54</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="38">
+        <v>2021</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="47">
+        <v>3820</v>
       </c>
       <c r="H34" s="36">
-        <v>2</v>
-      </c>
-      <c r="I34" s="79">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="I34" s="37">
+        <v>39.8333333333333</v>
       </c>
       <c r="J34" s="48">
-        <v>2020</v>
-      </c>
-      <c r="K34" s="39">
+        <v>2015</v>
+      </c>
+      <c r="K34" s="38">
         <v>2050</v>
       </c>
       <c r="L34" s="33">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="M34" s="33">
         <v>2050</v>
       </c>
       <c r="N34" s="49">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="O34" s="52">
         <v>2050</v>
@@ -5129,9 +5144,9 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="38" t="s">
-        <v>66</v>
+      <c r="U34" s="43"/>
+      <c r="V34" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="W34" s="49" t="s">
         <v>41</v>
@@ -5139,279 +5154,265 @@
       <c r="X34" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="Y34" s="33" t="s">
-        <v>131</v>
+      <c r="Y34" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="Z34" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA34" s="33" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AB34" s="49" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="AC34" s="49" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AD34" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE34" s="24" t="s">
-        <v>265</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="AE34" s="33"/>
       <c r="AF34" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:32" s="40" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="18">
-        <v>2021</v>
-      </c>
-      <c r="D35" s="21" t="s">
+      <c r="A35" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="43">
+        <v>2020</v>
+      </c>
+      <c r="D35" s="49" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="66">
-        <v>7821</v>
-      </c>
-      <c r="H35" s="23">
-        <v>3</v>
+      <c r="F35" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="46">
+        <v>7405</v>
+      </c>
+      <c r="H35" s="36">
+        <v>8</v>
       </c>
       <c r="I35" s="79">
-        <v>53</v>
-      </c>
-      <c r="J35" s="30">
-        <v>2020</v>
-      </c>
-      <c r="K35" s="18">
-        <v>2050</v>
-      </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="21">
-        <v>2020</v>
-      </c>
-      <c r="O35" s="26">
-        <v>2050</v>
-      </c>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24">
-        <v>2030</v>
-      </c>
-      <c r="R35" s="24">
-        <v>2050</v>
-      </c>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="W35" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="X35" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y35" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z35" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="48">
+        <v>2015</v>
+      </c>
+      <c r="K35" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L35" s="43">
+        <v>2015</v>
+      </c>
+      <c r="M35" s="43">
+        <v>2050</v>
+      </c>
+      <c r="N35" s="49">
+        <v>2015</v>
+      </c>
+      <c r="O35" s="39">
+        <v>2050</v>
+      </c>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="W35" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X35" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y35" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z35" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="AA35" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB35" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC35" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD35" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="AE35" s="33"/>
+      <c r="AA35" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB35" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC35" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD35" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE35" s="24" t="s">
+        <v>265</v>
+      </c>
       <c r="AF35" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="43">
-        <v>2019</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="39">
-        <v>528</v>
-      </c>
-      <c r="H36" s="36">
-        <v>30</v>
-      </c>
-      <c r="I36" s="37">
-        <v>39</v>
-      </c>
-      <c r="J36" s="48">
+    <row r="36" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="C36" s="91">
+        <v>2023</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="86" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" s="73">
+        <v>7821</v>
+      </c>
+      <c r="H36" s="78"/>
+      <c r="I36" s="79">
+        <v>56</v>
+      </c>
+      <c r="J36" s="96">
+        <v>2020</v>
+      </c>
+      <c r="K36" s="74">
+        <v>2100</v>
+      </c>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="W36" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="X36" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y36" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z36" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA36" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB36" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC36" s="86" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD36" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE36" s="69"/>
+      <c r="AF36" s="69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="66">
+        <v>7405</v>
+      </c>
+      <c r="H37" s="23">
+        <v>9</v>
+      </c>
+      <c r="I37" s="79">
+        <v>48</v>
+      </c>
+      <c r="J37" s="30">
         <v>2015</v>
       </c>
-      <c r="K36" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L36" s="43">
+      <c r="K37" s="18">
+        <v>2050</v>
+      </c>
+      <c r="L37" s="24">
         <v>2015</v>
       </c>
-      <c r="M36" s="43">
-        <v>2050</v>
-      </c>
-      <c r="N36" s="49">
+      <c r="M37" s="24">
+        <v>2050</v>
+      </c>
+      <c r="N37" s="21"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="24">
         <v>2015</v>
       </c>
-      <c r="O36" s="39">
-        <v>2050</v>
-      </c>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="W36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y36" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z36" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA36" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB36" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC36" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD36" s="49" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE36" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF36" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="26">
-        <v>2022</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="66">
-        <v>1411</v>
-      </c>
-      <c r="H37" s="23">
-        <v>17</v>
-      </c>
-      <c r="I37" s="37">
-        <v>35</v>
-      </c>
-      <c r="J37" s="30">
-        <v>2020</v>
-      </c>
-      <c r="K37" s="18">
-        <v>2060</v>
-      </c>
-      <c r="L37" s="26">
-        <v>2020</v>
-      </c>
-      <c r="M37" s="26">
-        <v>2060</v>
-      </c>
-      <c r="N37" s="21">
-        <v>2020</v>
-      </c>
-      <c r="O37" s="26">
-        <v>2060</v>
-      </c>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="W37" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X37" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y37" s="24" t="s">
-        <v>131</v>
+      <c r="V37" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="W37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y37" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="Z37" s="24" t="s">
         <v>176</v>
       </c>
       <c r="AA37" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AB37" s="21" t="s">
         <v>299</v>
       </c>
       <c r="AC37" s="21" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AD37" s="21" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="AE37" s="33" t="s">
         <v>265</v>
@@ -5421,58 +5422,58 @@
       </c>
     </row>
     <row r="38" spans="1:32" s="27" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
-        <v>350</v>
+      <c r="A38" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="B38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="39">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="36">
+        <v>7821</v>
+      </c>
+      <c r="H38" s="36">
         <v>2</v>
       </c>
-      <c r="C38" s="39">
-        <v>2021</v>
-      </c>
-      <c r="D38" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="36">
-        <v>1411</v>
-      </c>
-      <c r="H38" s="36">
-        <v>18</v>
-      </c>
       <c r="I38" s="79">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J38" s="48">
         <v>2020</v>
       </c>
-      <c r="K38" s="67">
-        <v>2060</v>
+      <c r="K38" s="39">
+        <v>2050</v>
       </c>
       <c r="L38" s="33">
         <v>2020</v>
       </c>
       <c r="M38" s="33">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="N38" s="35">
         <v>2020</v>
       </c>
-      <c r="O38" s="33">
-        <v>2060</v>
+      <c r="O38" s="43">
+        <v>2050</v>
       </c>
       <c r="P38" s="44"/>
       <c r="Q38" s="33"/>
       <c r="R38" s="33"/>
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43" t="s">
+      <c r="U38" s="33"/>
+      <c r="V38" s="38" t="s">
         <v>66</v>
       </c>
       <c r="W38" s="35" t="s">
@@ -5481,162 +5482,160 @@
       <c r="X38" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Y38" s="39" t="s">
-        <v>278</v>
+      <c r="Y38" s="33" t="s">
+        <v>131</v>
       </c>
       <c r="Z38" s="33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA38" s="33" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AB38" s="35" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="AC38" s="35" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="AD38" s="35" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="AE38" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF38" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:32" s="51" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="39">
+      <c r="A39" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="66">
+        <v>7821</v>
+      </c>
+      <c r="H39" s="23">
+        <v>3</v>
+      </c>
+      <c r="I39" s="79">
+        <v>53</v>
+      </c>
+      <c r="J39" s="30">
         <v>2020</v>
       </c>
-      <c r="D39" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="53">
-        <v>330</v>
-      </c>
-      <c r="H39" s="36">
-        <v>32</v>
-      </c>
-      <c r="I39" s="79">
-        <v>19.8333333333333</v>
-      </c>
-      <c r="J39" s="48">
+      <c r="K39" s="18">
+        <v>2050</v>
+      </c>
+      <c r="L39" s="24"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="21">
         <v>2020</v>
       </c>
-      <c r="K39" s="39">
-        <v>2070</v>
-      </c>
-      <c r="L39" s="33">
-        <v>2020</v>
-      </c>
-      <c r="M39" s="33">
-        <v>2070</v>
-      </c>
-      <c r="N39" s="49">
-        <v>2020</v>
-      </c>
-      <c r="O39" s="43">
-        <v>2070</v>
-      </c>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="W39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="X39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y39" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z39" s="33" t="s">
+      <c r="O39" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24">
+        <v>2030</v>
+      </c>
+      <c r="R39" s="24">
+        <v>2050</v>
+      </c>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="W39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="X39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y39" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z39" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="AA39" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB39" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC39" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD39" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE39" s="24" t="s">
-        <v>265</v>
-      </c>
+      <c r="AA39" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB39" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC39" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD39" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE39" s="33"/>
       <c r="AF39" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C40" s="26">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>284</v>
+        <v>29</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="18">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="G40" s="66">
+        <v>1411</v>
       </c>
       <c r="H40" s="23">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I40" s="37">
-        <v>3.8333333333333299</v>
+        <v>35</v>
       </c>
       <c r="J40" s="30">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="K40" s="18">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="L40" s="26">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="M40" s="26">
-        <v>2050</v>
+        <v>2060</v>
       </c>
       <c r="N40" s="21">
-        <v>2010</v>
-      </c>
-      <c r="O40" s="18">
-        <v>2050</v>
+        <v>2020</v>
+      </c>
+      <c r="O40" s="26">
+        <v>2060</v>
       </c>
       <c r="P40" s="26"/>
       <c r="Q40" s="26"/>
@@ -5644,17 +5643,17 @@
       <c r="S40" s="26"/>
       <c r="T40" s="26"/>
       <c r="U40" s="26"/>
-      <c r="V40" s="26" t="s">
-        <v>154</v>
+      <c r="V40" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="W40" s="54" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="X40" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y40" s="18" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="Y40" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="Z40" s="24" t="s">
         <v>176</v>
@@ -5663,64 +5662,66 @@
         <v>171</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="AC40" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AD40" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE40" s="33"/>
+        <v>207</v>
+      </c>
+      <c r="AE40" s="33" t="s">
+        <v>265</v>
+      </c>
       <c r="AF40" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:32" s="40" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="38">
+        <v>350</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="39">
         <v>2021</v>
       </c>
-      <c r="D41" s="50" t="s">
-        <v>85</v>
+      <c r="D41" s="103" t="s">
+        <v>29</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F41" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="39">
-        <v>80</v>
+      <c r="G41" s="46">
+        <v>1411</v>
       </c>
       <c r="H41" s="36">
+        <v>18</v>
+      </c>
+      <c r="I41" s="79">
         <v>34</v>
       </c>
-      <c r="I41" s="79">
-        <v>11</v>
-      </c>
       <c r="J41" s="48">
-        <v>2015</v>
-      </c>
-      <c r="K41" s="38">
-        <v>2035</v>
+        <v>2020</v>
+      </c>
+      <c r="K41" s="67">
+        <v>2060</v>
       </c>
       <c r="L41" s="33">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="M41" s="33">
-        <v>2035</v>
+        <v>2060</v>
       </c>
       <c r="N41" s="49">
-        <v>2015</v>
-      </c>
-      <c r="O41" s="43">
-        <v>2035</v>
+        <v>2020</v>
+      </c>
+      <c r="O41" s="33">
+        <v>2060</v>
       </c>
       <c r="P41" s="43"/>
       <c r="Q41" s="33"/>
@@ -5738,7 +5739,7 @@
         <v>41</v>
       </c>
       <c r="Y41" s="39" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="Z41" s="33" t="s">
         <v>176</v>
@@ -5750,320 +5751,318 @@
         <v>299</v>
       </c>
       <c r="AC41" s="49" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD41" s="61" t="s">
-        <v>260</v>
+        <v>250</v>
+      </c>
+      <c r="AD41" s="49" t="s">
+        <v>287</v>
       </c>
       <c r="AE41" s="24" t="s">
         <v>277</v>
       </c>
       <c r="AF41" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="B42" s="74" t="s">
-        <v>324</v>
-      </c>
-      <c r="C42" s="95">
-        <v>2023</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="39">
+        <v>2020</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="F42" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" s="73">
-        <v>1372</v>
-      </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="37">
-        <v>26</v>
-      </c>
-      <c r="J42" s="100">
-        <v>2014</v>
-      </c>
-      <c r="K42" s="74">
-        <v>2060</v>
-      </c>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="W42" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="X42" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y42" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z42" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA42" s="69" t="s">
+      <c r="F42" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="G42" s="53">
+        <v>330</v>
+      </c>
+      <c r="H42" s="36">
+        <v>32</v>
+      </c>
+      <c r="I42" s="79">
+        <v>19.8333333333333</v>
+      </c>
+      <c r="J42" s="48">
+        <v>2020</v>
+      </c>
+      <c r="K42" s="39">
+        <v>2070</v>
+      </c>
+      <c r="L42" s="33">
+        <v>2020</v>
+      </c>
+      <c r="M42" s="33">
+        <v>2070</v>
+      </c>
+      <c r="N42" s="49">
+        <v>2020</v>
+      </c>
+      <c r="O42" s="43">
+        <v>2070</v>
+      </c>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="W42" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X42" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y42" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z42" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA42" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB42" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC42" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD42" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE42" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF42" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="26">
+        <v>2015</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="18">
+        <v>10</v>
+      </c>
+      <c r="H43" s="23">
+        <v>47</v>
+      </c>
+      <c r="I43" s="37">
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="J43" s="30">
+        <v>2010</v>
+      </c>
+      <c r="K43" s="18">
+        <v>2050</v>
+      </c>
+      <c r="L43" s="26">
+        <v>2010</v>
+      </c>
+      <c r="M43" s="26">
+        <v>2050</v>
+      </c>
+      <c r="N43" s="18">
+        <v>2010</v>
+      </c>
+      <c r="O43" s="18">
+        <v>2050</v>
+      </c>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="W43" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="X43" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y43" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA43" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="AB42" s="87" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC42" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD42" s="87" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE42" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF42" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="39">
-        <v>2022</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="46">
-        <v>1338</v>
-      </c>
-      <c r="H43" s="36">
-        <v>26</v>
-      </c>
-      <c r="I43" s="79">
-        <v>24</v>
-      </c>
-      <c r="J43" s="48">
-        <v>2015</v>
-      </c>
-      <c r="K43" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L43" s="33"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39">
-        <v>2015</v>
-      </c>
-      <c r="O43" s="43">
-        <v>2050</v>
-      </c>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33">
-        <v>2030</v>
-      </c>
-      <c r="R43" s="33">
-        <v>2050</v>
-      </c>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="W43" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="X43" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y43" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z43" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA43" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB43" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC43" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD43" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE43" s="24" t="s">
-        <v>265</v>
-      </c>
+      <c r="AB43" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC43" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD43" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE43" s="33"/>
       <c r="AF43" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:32" s="40" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="38">
-        <v>2018</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="47">
-        <v>7821</v>
-      </c>
-      <c r="H44" s="36">
-        <v>4</v>
-      </c>
+      <c r="A44" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="B44" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="91">
+        <v>2023</v>
+      </c>
+      <c r="D44" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="F44" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="73">
+        <v>1372</v>
+      </c>
+      <c r="H44" s="78"/>
       <c r="I44" s="37">
-        <v>52</v>
-      </c>
-      <c r="J44" s="48">
-        <v>2020</v>
-      </c>
-      <c r="K44" s="38">
-        <v>2050</v>
-      </c>
-      <c r="L44" s="33">
-        <v>2020</v>
-      </c>
-      <c r="M44" s="33">
-        <v>2050</v>
-      </c>
-      <c r="N44" s="49">
-        <v>2020</v>
-      </c>
-      <c r="O44" s="43">
-        <v>2050</v>
-      </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33">
+        <v>26</v>
+      </c>
+      <c r="J44" s="96">
+        <v>2014</v>
+      </c>
+      <c r="K44" s="74">
+        <v>2060</v>
+      </c>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="W44" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="X44" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y44" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z44" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA44" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB44" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC44" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD44" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE44" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF44" s="69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="39">
+        <v>2022</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="46">
+        <v>1338</v>
+      </c>
+      <c r="H45" s="36">
+        <v>26</v>
+      </c>
+      <c r="I45" s="79">
+        <v>24</v>
+      </c>
+      <c r="J45" s="48">
+        <v>2015</v>
+      </c>
+      <c r="K45" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L45" s="33"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="49">
+        <v>2015</v>
+      </c>
+      <c r="O45" s="43">
+        <v>2050</v>
+      </c>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33">
         <v>2030</v>
       </c>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="W44" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="X44" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y44" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z44" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA44" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB44" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC44" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD44" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="24" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="39">
-        <v>2020</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="39">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H45" s="36">
-        <v>44</v>
-      </c>
-      <c r="I45" s="37">
-        <v>6.8333333333333304</v>
-      </c>
-      <c r="J45" s="48">
-        <v>2010</v>
-      </c>
-      <c r="K45" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L45" s="33">
-        <v>2010</v>
-      </c>
-      <c r="M45" s="39">
-        <v>2050</v>
-      </c>
-      <c r="N45" s="50">
-        <v>2010</v>
-      </c>
-      <c r="O45" s="33">
-        <v>2050</v>
-      </c>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
+      <c r="R45" s="33">
+        <v>2050</v>
+      </c>
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="U45" s="43"/>
       <c r="V45" s="39" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="W45" s="39" t="s">
         <v>41</v>
@@ -6078,326 +6077,332 @@
         <v>176</v>
       </c>
       <c r="AA45" s="33" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AB45" s="49" t="s">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="AC45" s="49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AD45" s="49" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="AE45" s="24" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="AF45" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:32" s="27" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="43">
-        <v>2022</v>
-      </c>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="38">
+        <v>2018</v>
+      </c>
+      <c r="D46" s="50" t="s">
         <v>27</v>
       </c>
       <c r="E46" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="46">
-        <v>7405</v>
+      <c r="F46" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="47">
+        <v>7821</v>
       </c>
       <c r="H46" s="36">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I46" s="37">
-        <v>45.8333333333333</v>
+        <v>52</v>
       </c>
       <c r="J46" s="48">
-        <v>2015</v>
-      </c>
-      <c r="K46" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
+        <v>2020</v>
+      </c>
+      <c r="K46" s="38">
+        <v>2050</v>
+      </c>
+      <c r="L46" s="33">
+        <v>2020</v>
+      </c>
+      <c r="M46" s="33">
+        <v>2050</v>
+      </c>
       <c r="N46" s="49">
-        <v>2015</v>
-      </c>
-      <c r="O46" s="39">
-        <v>2050</v>
-      </c>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43">
+        <v>2020</v>
+      </c>
+      <c r="O46" s="43">
+        <v>2050</v>
+      </c>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33">
         <v>2030</v>
       </c>
-      <c r="R46" s="43">
-        <v>2050</v>
-      </c>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
       <c r="U46" s="43"/>
-      <c r="V46" s="43" t="s">
+      <c r="V46" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="W46" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="X46" s="43" t="s">
+      <c r="W46" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="X46" s="39" t="s">
         <v>41</v>
       </c>
       <c r="Y46" s="39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Z46" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="AA46" s="43" t="s">
-        <v>174</v>
+      <c r="AA46" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="AB46" s="49" t="s">
         <v>299</v>
       </c>
       <c r="AC46" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD46" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE46" s="33" t="s">
-        <v>265</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AD46" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE46" s="33"/>
       <c r="AF46" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="40" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="22">
-        <v>2018</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="A47" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="35">
+        <v>2020</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="35">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H47" s="36">
+        <v>44</v>
+      </c>
+      <c r="I47" s="37">
+        <v>6.8333333333333304</v>
+      </c>
+      <c r="J47" s="37">
+        <v>2010</v>
+      </c>
+      <c r="K47" s="35">
+        <v>2050</v>
+      </c>
+      <c r="L47" s="33">
+        <v>2010</v>
+      </c>
+      <c r="M47" s="39">
+        <v>2050</v>
+      </c>
+      <c r="N47" s="42">
+        <v>2010</v>
+      </c>
+      <c r="O47" s="33">
+        <v>2050</v>
+      </c>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="W47" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X47" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y47" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z47" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA47" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB47" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC47" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="AD47" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE47" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF47" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="43">
+        <v>2022</v>
+      </c>
+      <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E48" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="20">
+      <c r="F48" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="46">
         <v>7405</v>
       </c>
-      <c r="H47" s="23">
-        <v>11</v>
-      </c>
-      <c r="I47" s="79">
-        <v>47</v>
-      </c>
-      <c r="J47" s="23">
+      <c r="H48" s="36">
+        <v>10</v>
+      </c>
+      <c r="I48" s="37">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="J48" s="48">
         <v>2015</v>
       </c>
-      <c r="K47" s="17">
-        <v>2050</v>
-      </c>
-      <c r="L47" s="26">
+      <c r="K48" s="39">
+        <v>2050</v>
+      </c>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="35">
         <v>2015</v>
       </c>
-      <c r="M47" s="26">
-        <v>2050</v>
-      </c>
-      <c r="N47" s="17">
-        <v>2015</v>
-      </c>
-      <c r="O47" s="18">
-        <v>2050</v>
-      </c>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="W47" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="X47" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y47" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z47" s="24" t="s">
+      <c r="O48" s="39">
+        <v>2050</v>
+      </c>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43">
+        <v>2030</v>
+      </c>
+      <c r="R48" s="43">
+        <v>2050</v>
+      </c>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="W48" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y48" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z48" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="AA47" s="24" t="s">
+      <c r="AA48" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="AB47" s="21" t="s">
+      <c r="AB48" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="AC47" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD47" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE47" s="57"/>
-      <c r="AF47" s="24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="18">
-        <v>2018</v>
-      </c>
-      <c r="D48" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="F48" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="84">
-        <v>63.26</v>
-      </c>
-      <c r="H48" s="23">
-        <v>37</v>
-      </c>
-      <c r="I48" s="79">
-        <v>16</v>
-      </c>
-      <c r="J48" s="30">
-        <v>2011</v>
-      </c>
-      <c r="K48" s="18">
-        <v>2154</v>
-      </c>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="26">
-        <v>2011</v>
-      </c>
-      <c r="Q48" s="24">
-        <v>2050</v>
-      </c>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="W48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="X48" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z48" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA48" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB48" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC48" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD48" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE48" s="24"/>
+      <c r="AC48" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD48" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE48" s="33" t="s">
+        <v>265</v>
+      </c>
       <c r="AF48" s="24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="B49" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="89">
-        <v>2023</v>
-      </c>
-      <c r="D49" s="89" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="B49" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="21">
+        <v>2018</v>
+      </c>
+      <c r="D49" s="92" t="s">
+        <v>32</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F49" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="89">
-        <v>100</v>
+        <v>282</v>
+      </c>
+      <c r="F49" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="92">
+        <v>63.26</v>
       </c>
       <c r="H49" s="23">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I49" s="79">
-        <v>12</v>
-      </c>
-      <c r="J49" s="101">
-        <v>2017</v>
-      </c>
-      <c r="K49" s="89">
-        <v>2060</v>
+        <v>16</v>
+      </c>
+      <c r="J49" s="97">
+        <v>2011</v>
+      </c>
+      <c r="K49" s="21">
+        <v>2154</v>
       </c>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="24">
-        <v>2017</v>
+      <c r="N49" s="21"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="26">
+        <v>2011</v>
       </c>
       <c r="Q49" s="24">
-        <v>2030</v>
-      </c>
-      <c r="R49" s="24">
-        <v>2060</v>
-      </c>
+        <v>2050</v>
+      </c>
+      <c r="R49" s="24"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
-      <c r="U49" s="18"/>
+      <c r="U49" s="26"/>
       <c r="V49" s="54" t="s">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="W49" s="21" t="s">
         <v>41</v>
@@ -6406,26 +6411,26 @@
         <v>41</v>
       </c>
       <c r="Y49" s="18" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="Z49" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA49" s="24" t="s">
         <v>171</v>
       </c>
       <c r="AB49" s="21" t="s">
-        <v>208</v>
+        <v>299</v>
       </c>
       <c r="AC49" s="21" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="AD49" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE49" s="33"/>
+        <v>243</v>
+      </c>
+      <c r="AE49" s="24"/>
       <c r="AF49" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:32" s="70" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6524,7 +6529,7 @@
       <c r="C51" s="56">
         <v>2020</v>
       </c>
-      <c r="D51" s="93" t="s">
+      <c r="D51" s="90" t="s">
         <v>29</v>
       </c>
       <c r="E51" s="21" t="s">
@@ -6533,7 +6538,7 @@
       <c r="F51" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="90">
+      <c r="G51" s="88">
         <v>1380</v>
       </c>
       <c r="H51" s="46">
@@ -6542,7 +6547,7 @@
       <c r="I51" s="79">
         <v>27</v>
       </c>
-      <c r="J51" s="91">
+      <c r="J51" s="89">
         <v>2015</v>
       </c>
       <c r="K51" s="56">
@@ -6550,7 +6555,7 @@
       </c>
       <c r="L51" s="57"/>
       <c r="M51" s="57"/>
-      <c r="N51" s="93">
+      <c r="N51" s="90">
         <v>2015</v>
       </c>
       <c r="O51" s="57">
@@ -6582,7 +6587,7 @@
       <c r="AA51" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="AB51" s="93" t="s">
+      <c r="AB51" s="90" t="s">
         <v>299</v>
       </c>
       <c r="AC51" s="56" t="s">
@@ -6605,13 +6610,13 @@
       <c r="B52" s="74" t="s">
         <v>321</v>
       </c>
-      <c r="C52" s="95">
+      <c r="C52" s="91">
         <v>2023</v>
       </c>
       <c r="D52" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="95" t="s">
+      <c r="E52" s="91" t="s">
         <v>282</v>
       </c>
       <c r="F52" s="73" t="s">
@@ -6624,7 +6629,7 @@
       <c r="I52" s="79">
         <v>31</v>
       </c>
-      <c r="J52" s="100">
+      <c r="J52" s="96">
         <v>2015</v>
       </c>
       <c r="K52" s="74">
@@ -6942,7 +6947,7 @@
       <c r="E56" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="F56" s="99" t="s">
+      <c r="F56" s="95" t="s">
         <v>282</v>
       </c>
       <c r="G56" s="62">
@@ -6966,7 +6971,7 @@
       <c r="M56" s="33">
         <v>2050</v>
       </c>
-      <c r="N56" s="99"/>
+      <c r="N56" s="95"/>
       <c r="O56" s="63">
         <v>2050</v>
       </c>
@@ -6996,10 +7001,10 @@
       <c r="AA56" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="AB56" s="99" t="s">
+      <c r="AB56" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="AC56" s="104" t="s">
+      <c r="AC56" s="100" t="s">
         <v>253</v>
       </c>
       <c r="AD56" s="60" t="s">
@@ -7009,7 +7014,7 @@
         <v>280</v>
       </c>
       <c r="AF56" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:32" s="70" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7078,7 +7083,7 @@
         <v>41</v>
       </c>
       <c r="Y57" s="18" t="s">
-        <v>138</v>
+        <v>366</v>
       </c>
       <c r="Z57" s="24" t="s">
         <v>175</v>
@@ -7099,7 +7104,7 @@
         <v>279</v>
       </c>
       <c r="AF57" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="397">
   <si>
     <t>The public health implications of the Paris Agreement: a modelling study</t>
   </si>
@@ -373,12 +373,6 @@
     <t>Rauner, 2020</t>
   </si>
   <si>
-    <t>Anticipated burden and mitigation of carbondioxide-induced nutritional deficiencies and related diseases</t>
-  </si>
-  <si>
-    <t>Weyant, 2018</t>
-  </si>
-  <si>
     <t>sector</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
   </si>
   <si>
     <t>Energy, industry, transport</t>
-  </si>
-  <si>
-    <t>Diet</t>
   </si>
   <si>
     <t>exposure</t>
@@ -770,9 +761,6 @@
   <si>
     <t>&gt; 30 years -&gt; : IHD, cerebrovascular disease, COPD and LC
 &lt; 5 years -&gt; acute respiratory pulmonary infection</t>
-  </si>
-  <si>
-    <t>Microsimulation based on FAOSTAT</t>
   </si>
   <si>
     <t>UK-TIMES_ECLIPSE_WRF_CMAQ</t>
@@ -1155,9 +1143,6 @@
   </si>
   <si>
     <t>Energy, industry, transport, housing, food system, waste</t>
-  </si>
-  <si>
-    <t>food system</t>
   </si>
   <si>
     <t>Energy, industry, transport, food system, housing</t>
@@ -1714,30 +1699,6 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1849,6 +1810,30 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2085,8 +2070,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AG57" totalsRowShown="0" dataDxfId="31">
-  <autoFilter ref="A1:AG57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AG56" totalsRowShown="0" dataDxfId="31">
+  <autoFilter ref="A1:AG56"/>
   <sortState ref="A2:AG57">
     <sortCondition ref="AF1:AF57"/>
   </sortState>
@@ -2115,15 +2100,15 @@
     <tableColumn id="5" name="sector" dataDxfId="11"/>
     <tableColumn id="35" name="exposure_cat" dataDxfId="10"/>
     <tableColumn id="10" name="exposure" dataDxfId="9"/>
-    <tableColumn id="20" name="health_pollutant" dataDxfId="0"/>
-    <tableColumn id="25" name="health outcome" dataDxfId="8"/>
-    <tableColumn id="13" name="baseline_scenario" dataDxfId="7"/>
-    <tableColumn id="14" name="mitigation_type" dataDxfId="6"/>
-    <tableColumn id="22" name="age_range" dataDxfId="5"/>
-    <tableColumn id="2" name="model_exposure" dataDxfId="4"/>
-    <tableColumn id="23" name="model_health" dataDxfId="3"/>
-    <tableColumn id="15" name="model_monetary" dataDxfId="2"/>
-    <tableColumn id="19" name="include_mortality" dataDxfId="1"/>
+    <tableColumn id="20" name="health_pollutant" dataDxfId="8"/>
+    <tableColumn id="25" name="health outcome" dataDxfId="7"/>
+    <tableColumn id="13" name="baseline_scenario" dataDxfId="6"/>
+    <tableColumn id="14" name="mitigation_type" dataDxfId="5"/>
+    <tableColumn id="22" name="age_range" dataDxfId="4"/>
+    <tableColumn id="2" name="model_exposure" dataDxfId="3"/>
+    <tableColumn id="23" name="model_health" dataDxfId="2"/>
+    <tableColumn id="15" name="model_monetary" dataDxfId="1"/>
+    <tableColumn id="19" name="include_mortality" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2392,11 +2377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,31 +2419,31 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
         <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L1" t="s">
         <v>34</v>
@@ -2491,40 +2476,40 @@
         <v>99</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="AA1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AB1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AC1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AD1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AE1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AG1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -2541,7 +2526,7 @@
         <v>75</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>29</v>
@@ -2580,7 +2565,7 @@
       <c r="T2" s="12"/>
       <c r="U2" s="13"/>
       <c r="V2" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>41</v>
@@ -2589,31 +2574,31 @@
         <v>41</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="28" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -2630,7 +2615,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>29</v>
@@ -2669,7 +2654,7 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W3" s="14" t="s">
         <v>41</v>
@@ -2678,31 +2663,31 @@
         <v>41</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AA3" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB3" s="14" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2719,7 +2704,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>33</v>
@@ -2771,31 +2756,31 @@
         <v>41</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AA4" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF4" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -2812,10 +2797,10 @@
         <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G5" s="63">
         <v>37.99</v>
@@ -2851,7 +2836,7 @@
       <c r="T5" s="21"/>
       <c r="U5" s="32"/>
       <c r="V5" s="31" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="W5" s="23" t="s">
         <v>41</v>
@@ -2860,31 +2845,31 @@
         <v>41</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z5" s="47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC5" s="63" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD5" s="91" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AE5" s="46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AG5" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="15" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
@@ -2901,7 +2886,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>29</v>
@@ -2949,51 +2934,51 @@
         <v>41</v>
       </c>
       <c r="Y6" s="27" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Z6" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AA6" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB6" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" s="21" t="s">
-        <v>179</v>
-      </c>
       <c r="AC6" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD6" s="36" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AE6" s="23" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AF6" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="28" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C7" s="32">
         <v>2019</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7" s="23">
         <v>528</v>
@@ -3038,31 +3023,31 @@
         <v>41</v>
       </c>
       <c r="Y7" s="31" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Z7" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AA7" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB7" s="31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AC7" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD7" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AE7" s="23" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AF7" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AG7" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3118,7 +3103,7 @@
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
       <c r="V8" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W8" s="32" t="s">
         <v>41</v>
@@ -3127,31 +3112,31 @@
         <v>41</v>
       </c>
       <c r="Y8" s="31" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Z8" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA8" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB8" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC8" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD8" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AE8" s="46" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF8" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG8" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="28" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -3168,7 +3153,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>29</v>
@@ -3216,39 +3201,39 @@
         <v>41</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG9" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="15" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C10" s="57">
         <v>2023</v>
@@ -3257,7 +3242,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F10" s="51" t="s">
         <v>29</v>
@@ -3295,31 +3280,31 @@
         <v>41</v>
       </c>
       <c r="Y10" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z10" s="52" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AA10" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB10" s="49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC10" s="51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD10" s="53" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AE10" s="51" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AF10" s="49" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG10" s="49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:33" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3336,7 +3321,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>29</v>
@@ -3375,7 +3360,7 @@
       <c r="T11" s="21"/>
       <c r="U11" s="31"/>
       <c r="V11" s="27" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W11" s="27" t="s">
         <v>41</v>
@@ -3384,31 +3369,31 @@
         <v>41</v>
       </c>
       <c r="Y11" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB11" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC11" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AD11" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AE11" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG11" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3425,7 +3410,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>29</v>
@@ -3473,39 +3458,39 @@
         <v>41</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z12" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF12" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C13" s="62">
         <v>2023</v>
@@ -3514,7 +3499,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="53" t="s">
         <v>94</v>
@@ -3552,36 +3537,36 @@
         <v>41</v>
       </c>
       <c r="Y13" s="53" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Z13" s="52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AA13" s="49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB13" s="49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC13" s="51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD13" s="51" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AE13" s="51" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF13" s="49" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG13" s="49" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="15" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>15</v>
@@ -3634,7 +3619,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="14"/>
       <c r="V14" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>41</v>
@@ -3643,31 +3628,31 @@
         <v>41</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF14" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG14" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3687,7 +3672,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G15" s="24">
         <v>7405</v>
@@ -3723,7 +3708,7 @@
       <c r="T15" s="31"/>
       <c r="U15" s="26"/>
       <c r="V15" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W15" s="32" t="s">
         <v>41</v>
@@ -3732,31 +3717,31 @@
         <v>41</v>
       </c>
       <c r="Y15" s="31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z15" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AA15" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB15" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC15" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD15" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AE15" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF15" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG15" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="15" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -3776,7 +3761,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G16" s="8">
         <v>7405</v>
@@ -3810,7 +3795,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="10"/>
       <c r="V16" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>41</v>
@@ -3819,31 +3804,31 @@
         <v>41</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF16" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG16" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:33" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3863,7 +3848,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G17" s="34">
         <v>7821</v>
@@ -3908,31 +3893,31 @@
         <v>41</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z17" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA17" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB17" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="AB17" s="21" t="s">
-        <v>179</v>
-      </c>
       <c r="AC17" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AE17" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF17" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG17" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:33" s="15" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3949,7 +3934,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>29</v>
@@ -3988,7 +3973,7 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>41</v>
@@ -3997,31 +3982,31 @@
         <v>41</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD18" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF18" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG18" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4038,7 +4023,7 @@
         <v>94</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F19" s="60" t="s">
         <v>94</v>
@@ -4077,40 +4062,40 @@
       <c r="T19" s="21"/>
       <c r="U19" s="32"/>
       <c r="V19" s="26" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W19" s="32" t="s">
         <v>41</v>
       </c>
       <c r="X19" s="32" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA19" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB19" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC19" s="23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AD19" s="23" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AE19" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF19" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG19" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4127,7 +4112,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F20" s="69" t="s">
         <v>29</v>
@@ -4164,7 +4149,7 @@
       <c r="T20" s="43"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="W20" s="42" t="s">
         <v>41</v>
@@ -4173,31 +4158,31 @@
         <v>41</v>
       </c>
       <c r="Y20" s="42" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z20" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA20" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB20" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC20" s="69" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD20" s="69" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AE20" s="69" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AF20" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AG20" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:33" s="28" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -4214,7 +4199,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>94</v>
@@ -4256,37 +4241,37 @@
         <v>66</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA21" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD21" s="66" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AE21" s="46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF21" s="12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AG21" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:33" s="15" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -4303,7 +4288,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>29</v>
@@ -4340,7 +4325,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="14"/>
       <c r="V22" s="16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>41</v>
@@ -4349,36 +4334,36 @@
         <v>41</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AA22" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AE22" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF22" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="AF22" s="12" t="s">
-        <v>276</v>
-      </c>
       <c r="AG22" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>2</v>
@@ -4390,7 +4375,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>29</v>
@@ -4438,36 +4423,36 @@
         <v>41</v>
       </c>
       <c r="Y23" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z23" s="27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB23" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC23" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD23" s="23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE23" s="23" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AF23" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG23" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>14</v>
@@ -4479,7 +4464,7 @@
         <v>85</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>29</v>
@@ -4527,31 +4512,31 @@
         <v>41</v>
       </c>
       <c r="Y24" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z24" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA24" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB24" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC24" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD24" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AE24" s="46" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF24" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AG24" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4568,7 +4553,7 @@
         <v>76</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>29</v>
@@ -4616,31 +4601,31 @@
         <v>41</v>
       </c>
       <c r="Y25" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z25" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AA25" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB25" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AC25" s="23" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AD25" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AE25" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF25" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AG25" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4660,7 +4645,7 @@
         <v>27</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G26" s="11">
         <v>7821</v>
@@ -4696,7 +4681,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="13"/>
       <c r="V26" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>41</v>
@@ -4705,48 +4690,48 @@
         <v>41</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z26" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG26" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:33" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C27" s="57">
         <v>2023</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F27" s="51" t="s">
         <v>94</v>
@@ -4784,31 +4769,31 @@
         <v>41</v>
       </c>
       <c r="Y27" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z27" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA27" s="54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB27" s="49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC27" s="51" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AD27" s="51" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AE27" s="51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF27" s="54" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AG27" s="54" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4825,7 +4810,7 @@
         <v>82</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>94</v>
@@ -4873,31 +4858,31 @@
         <v>41</v>
       </c>
       <c r="Y28" s="27" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z28" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA28" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB28" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC28" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD28" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE28" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF28" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="AD28" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE28" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF28" s="12" t="s">
-        <v>302</v>
-      </c>
       <c r="AG28" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4914,7 +4899,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>26</v>
@@ -4963,33 +4948,33 @@
       </c>
       <c r="Y29" s="26"/>
       <c r="Z29" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AA29" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB29" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC29" s="23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AD29" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AE29" s="30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF29" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AG29" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>19</v>
@@ -5001,10 +4986,10 @@
         <v>28</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G30" s="24">
         <v>1241</v>
@@ -5040,58 +5025,58 @@
       <c r="T30" s="21"/>
       <c r="U30" s="27"/>
       <c r="V30" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W30" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="X30" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Z30" s="26" t="s">
         <v>65</v>
       </c>
       <c r="AA30" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB30" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC30" s="23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AD30" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AE30" s="23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AF30" s="6"/>
       <c r="AG30" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C31" s="14">
         <v>2018</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G31" s="8">
         <v>7662</v>
@@ -5123,58 +5108,58 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="W31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="X31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y31" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="X31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z31" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="AA31" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB31" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD31" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF31" s="12"/>
       <c r="AG31" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="45" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C32" s="14">
         <v>2015</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G32" s="6">
         <v>10</v>
@@ -5210,38 +5195,38 @@
       <c r="T32" s="14"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="W32" s="40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="X32" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Y32" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Z32" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AA32" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AD32" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF32" s="21"/>
       <c r="AG32" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5258,10 +5243,10 @@
         <v>78</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G33" s="6">
         <v>70</v>
@@ -5295,46 +5280,46 @@
       <c r="T33" s="12"/>
       <c r="U33" s="14"/>
       <c r="V33" s="13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="W33" s="67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="X33" s="67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Y33" s="13" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="Z33" s="13" t="s">
         <v>35</v>
       </c>
       <c r="AA33" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC33" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AE33" s="74" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF33" s="12"/>
       <c r="AG33" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:33" s="15" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C34" s="62">
         <v>2023</v>
@@ -5343,7 +5328,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F34" s="53" t="s">
         <v>29</v>
@@ -5372,7 +5357,7 @@
       <c r="T34" s="49"/>
       <c r="U34" s="54"/>
       <c r="V34" s="54" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="W34" s="65" t="s">
         <v>41</v>
@@ -5381,37 +5366,37 @@
         <v>41</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z34" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA34" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB34" s="49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC34" s="61" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD34" s="61" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AE34" s="61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF34" s="49"/>
       <c r="AG34" s="49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="28" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C35" s="14">
         <v>2022</v>
@@ -5420,10 +5405,10 @@
         <v>29</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G35" s="18">
         <v>1410</v>
@@ -5459,7 +5444,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="W35" s="40" t="s">
         <v>41</v>
@@ -5468,34 +5453,34 @@
         <v>41</v>
       </c>
       <c r="Y35" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC35" s="40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AD35" s="40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AE35" s="40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AF35" s="21"/>
       <c r="AG35" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>16</v>
@@ -5507,10 +5492,10 @@
         <v>28</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G36" s="85">
         <v>1241</v>
@@ -5546,7 +5531,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="14"/>
       <c r="V36" s="13" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="W36" s="67" t="s">
         <v>41</v>
@@ -5555,29 +5540,29 @@
         <v>41</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AA36" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB36" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF36" s="21"/>
       <c r="AG36" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:33" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5594,10 +5579,10 @@
         <v>73</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G37" s="84">
         <v>3870</v>
@@ -5633,58 +5618,58 @@
       <c r="T37" s="12"/>
       <c r="U37" s="14"/>
       <c r="V37" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y37" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA37" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF37" s="21"/>
       <c r="AG37" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:33" s="15" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C38" s="62">
         <v>2023</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G38" s="51">
         <v>127</v>
@@ -5710,7 +5695,7 @@
       <c r="T38" s="49"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W38" s="58" t="s">
         <v>41</v>
@@ -5719,37 +5704,37 @@
         <v>41</v>
       </c>
       <c r="Y38" s="54" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z38" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA38" s="49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB38" s="49" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC38" s="51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD38" s="51" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AE38" s="51" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF38" s="49"/>
       <c r="AG38" s="49" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:33" s="37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C39" s="27">
         <v>2019</v>
@@ -5758,7 +5743,7 @@
         <v>29</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F39" s="41" t="s">
         <v>29</v>
@@ -5799,7 +5784,7 @@
       <c r="T39" s="31"/>
       <c r="U39" s="31"/>
       <c r="V39" s="31" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="W39" s="36" t="s">
         <v>41</v>
@@ -5808,29 +5793,29 @@
         <v>41</v>
       </c>
       <c r="Y39" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z39" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA39" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB39" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC39" s="36" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD39" s="36" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AE39" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF39" s="21"/>
       <c r="AG39" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5847,7 +5832,7 @@
         <v>29</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>29</v>
@@ -5886,7 +5871,7 @@
       <c r="T40" s="21"/>
       <c r="U40" s="31"/>
       <c r="V40" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="W40" s="36" t="s">
         <v>41</v>
@@ -5895,29 +5880,29 @@
         <v>41</v>
       </c>
       <c r="Y40" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA40" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB40" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC40" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AD40" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AE40" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF40" s="21"/>
       <c r="AG40" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:33" s="28" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
@@ -5925,7 +5910,7 @@
         <v>112</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C41" s="31">
         <v>2013</v>
@@ -5937,7 +5922,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G41" s="34">
         <v>6970</v>
@@ -5980,29 +5965,29 @@
         <v>41</v>
       </c>
       <c r="Y41" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z41" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AA41" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB41" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC41" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AD41" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AE41" s="36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF41" s="21"/>
       <c r="AG41" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6019,7 +6004,7 @@
         <v>40</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>40</v>
@@ -6058,7 +6043,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="13"/>
       <c r="V42" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="W42" s="9" t="s">
         <v>41</v>
@@ -6067,29 +6052,29 @@
         <v>41</v>
       </c>
       <c r="Y42" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z42" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AA42" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB42" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC42" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD42" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE42" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="AD42" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE42" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="AF42" s="12"/>
       <c r="AG42" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:33" s="28" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -6145,7 +6130,7 @@
       <c r="T43" s="31"/>
       <c r="U43" s="31"/>
       <c r="V43" s="31" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="W43" s="31" t="s">
         <v>41</v>
@@ -6154,49 +6139,49 @@
         <v>41</v>
       </c>
       <c r="Y43" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z43" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA43" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB43" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC43" s="27" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD43" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AE43" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF43" s="21"/>
       <c r="AG43" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:33" s="28" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C44" s="14">
         <v>2012</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G44" s="6">
         <v>503</v>
@@ -6232,7 +6217,7 @@
       <c r="T44" s="14"/>
       <c r="U44" s="14"/>
       <c r="V44" s="14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="W44" s="6" t="s">
         <v>41</v>
@@ -6241,29 +6226,29 @@
         <v>41</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z44" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AA44" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB44" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD44" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AF44" s="21"/>
       <c r="AG44" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6280,10 +6265,10 @@
         <v>79</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G45" s="75">
         <v>3820</v>
@@ -6319,7 +6304,7 @@
       <c r="T45" s="21"/>
       <c r="U45" s="31"/>
       <c r="V45" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W45" s="27" t="s">
         <v>41</v>
@@ -6328,37 +6313,37 @@
         <v>41</v>
       </c>
       <c r="Y45" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z45" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AA45" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB45" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC45" s="36" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD45" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AE45" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF45" s="21"/>
       <c r="AG45" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="15" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B46" s="54" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C46" s="62">
         <v>2023</v>
@@ -6370,7 +6355,7 @@
         <v>27</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G46" s="53">
         <v>7821</v>
@@ -6396,7 +6381,7 @@
       <c r="T46" s="49"/>
       <c r="U46" s="49"/>
       <c r="V46" s="54" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W46" s="54" t="s">
         <v>41</v>
@@ -6405,34 +6390,34 @@
         <v>41</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z46" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA46" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB46" s="49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC46" s="61" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AD46" s="61" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AE46" s="61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF46" s="49"/>
       <c r="AG46" s="49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:33" s="28" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>23</v>
@@ -6444,7 +6429,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>29</v>
@@ -6481,7 +6466,7 @@
       <c r="T47" s="12"/>
       <c r="U47" s="6"/>
       <c r="V47" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="W47" s="5" t="s">
         <v>41</v>
@@ -6490,29 +6475,29 @@
         <v>41</v>
       </c>
       <c r="Y47" s="6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z47" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB47" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AD47" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AE47" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF47" s="21"/>
       <c r="AG47" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6529,7 +6514,7 @@
         <v>82</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F48" s="27" t="s">
         <v>94</v>
@@ -6568,7 +6553,7 @@
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
       <c r="V48" s="31" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="W48" s="36" t="s">
         <v>41</v>
@@ -6577,34 +6562,34 @@
         <v>41</v>
       </c>
       <c r="Y48" s="27" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z48" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AA48" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB48" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC48" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD48" s="36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AE48" s="36" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AF48" s="21"/>
       <c r="AG48" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:33" s="28" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B49" s="86" t="s">
         <v>101</v>
@@ -6616,7 +6601,7 @@
         <v>103</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>94</v>
@@ -6653,7 +6638,7 @@
       <c r="T49" s="31"/>
       <c r="U49" s="27"/>
       <c r="V49" s="38" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="W49" s="38" t="s">
         <v>41</v>
@@ -6662,29 +6647,29 @@
         <v>41</v>
       </c>
       <c r="Y49" s="31" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z49" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AA49" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB49" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC49" s="36" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD49" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AE49" s="36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF49" s="21"/>
       <c r="AG49" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:33" s="50" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6740,7 +6725,7 @@
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
       <c r="V50" s="67" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="W50" s="9" t="s">
         <v>41</v>
@@ -6749,29 +6734,29 @@
         <v>41</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z50" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA50" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB50" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC50" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD50" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AE50" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF50" s="21"/>
       <c r="AG50" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:33" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6791,7 +6776,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G51" s="75">
         <v>7821</v>
@@ -6829,7 +6814,7 @@
       <c r="T51" s="21"/>
       <c r="U51" s="31"/>
       <c r="V51" s="26" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="W51" s="27" t="s">
         <v>41</v>
@@ -6838,37 +6823,37 @@
         <v>41</v>
       </c>
       <c r="Y51" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z51" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA51" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB51" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC51" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD51" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AE51" s="36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF51" s="21"/>
       <c r="AG51" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:33" s="50" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="49" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B52" s="54" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C52" s="62">
         <v>2023</v>
@@ -6877,7 +6862,7 @@
         <v>29</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F52" s="53" t="s">
         <v>29</v>
@@ -6906,7 +6891,7 @@
       <c r="T52" s="49"/>
       <c r="U52" s="54"/>
       <c r="V52" s="54" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="W52" s="54" t="s">
         <v>41</v>
@@ -6915,29 +6900,29 @@
         <v>41</v>
       </c>
       <c r="Y52" s="42" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z52" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA52" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB52" s="49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AC52" s="51" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AD52" s="53" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AE52" s="51" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF52" s="49"/>
       <c r="AG52" s="49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:33" s="50" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6954,7 +6939,7 @@
         <v>82</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>94</v>
@@ -6993,7 +6978,7 @@
       <c r="T53" s="12"/>
       <c r="U53" s="14"/>
       <c r="V53" s="14" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="W53" s="6" t="s">
         <v>41</v>
@@ -7002,46 +6987,46 @@
         <v>41</v>
       </c>
       <c r="Y53" s="6" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="Z53" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA53" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB53" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="AB53" s="12" t="s">
-        <v>178</v>
-      </c>
       <c r="AC53" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AE53" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF53" s="12"/>
       <c r="AG53" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:33" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="49" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B54" s="54" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C54" s="62">
         <v>2023</v>
       </c>
       <c r="D54" s="51" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F54" s="53" t="s">
         <v>94</v>
@@ -7070,7 +7055,7 @@
       <c r="T54" s="49"/>
       <c r="U54" s="54"/>
       <c r="V54" s="54" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="W54" s="54" t="s">
         <v>41</v>
@@ -7079,29 +7064,29 @@
         <v>41</v>
       </c>
       <c r="Y54" s="31" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Z54" s="52" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA54" s="49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB54" s="49" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC54" s="51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD54" s="53" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AE54" s="51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AF54" s="49"/>
       <c r="AG54" s="49" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:33" s="50" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7118,10 +7103,10 @@
         <v>32</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F55" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G55" s="71">
         <v>63.26</v>
@@ -7162,49 +7147,49 @@
         <v>41</v>
       </c>
       <c r="Y55" s="27" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Z55" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AA55" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AB55" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC55" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AE55" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AF55" s="12"/>
       <c r="AG55" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:33" s="50" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C56" s="31">
         <v>2012</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G56" s="27">
         <v>3</v>
@@ -7246,111 +7231,26 @@
       </c>
       <c r="Y56" s="31"/>
       <c r="Z56" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AA56" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB56" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AC56" s="23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AD56" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AE56" s="23" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AF56" s="12"/>
       <c r="AG56" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" s="50" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="14">
-        <v>2018</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="48">
-        <v>7405</v>
-      </c>
-      <c r="H57" s="18">
-        <v>11</v>
-      </c>
-      <c r="I57" s="59">
-        <v>47</v>
-      </c>
-      <c r="J57" s="18">
-        <v>2015</v>
-      </c>
-      <c r="K57" s="6">
-        <v>2050</v>
-      </c>
-      <c r="L57" s="14">
-        <v>2015</v>
-      </c>
-      <c r="M57" s="14">
-        <v>2050</v>
-      </c>
-      <c r="N57" s="9">
-        <v>2015</v>
-      </c>
-      <c r="O57" s="6">
-        <v>2050</v>
-      </c>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="W57" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="X57" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA57" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB57" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC57" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD57" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE57" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF57" s="43"/>
-      <c r="AG57" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -7400,31 +7300,31 @@
         <v>25</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D1" s="78" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F1" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="78" t="s">
-        <v>146</v>
-      </c>
       <c r="H1" s="78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K1" s="78" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L1" s="78" t="s">
         <v>34</v>
@@ -7457,72 +7357,72 @@
         <v>99</v>
       </c>
       <c r="V1" s="78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W1" s="78" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X1" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="78" t="s">
-        <v>126</v>
-      </c>
       <c r="Z1" s="78" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AA1" s="78" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AB1" s="78" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AC1" s="78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AD1" s="78" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AE1" s="78" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AF1" s="78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:32" s="78" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="78" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="H2" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="I2" s="78" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="J2" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="E2" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="F2" s="78" t="s">
+      <c r="K2" s="78" t="s">
         <v>370</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>371</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="J2" s="77" t="s">
-        <v>374</v>
-      </c>
-      <c r="K2" s="78" t="s">
-        <v>375</v>
       </c>
       <c r="L2" s="78" t="s">
         <v>87</v>
@@ -7555,37 +7455,37 @@
         <v>89</v>
       </c>
       <c r="V2" s="78" t="s">
+        <v>371</v>
+      </c>
+      <c r="W2" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="X2" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y2" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z2" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA2" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="AB2" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC2" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="X2" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y2" s="78" t="s">
+      <c r="AD2" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="Z2" s="78" t="s">
+      <c r="AE2" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AF2" s="78" t="s">
         <v>381</v>
-      </c>
-      <c r="AB2" s="78" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC2" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="AD2" s="78" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE2" s="78" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF2" s="78" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">

--- a/data/extraction_grid.xlsx
+++ b/data/extraction_grid.xlsx
@@ -1424,7 +1424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1478,9 +1478,6 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1531,9 +1528,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1582,9 +1576,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1633,64 +1624,76 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2072,8 +2075,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AG56" totalsRowShown="0" dataDxfId="31">
   <autoFilter ref="A1:AG56"/>
-  <sortState ref="A2:AG57">
-    <sortCondition ref="AF1:AF57"/>
+  <sortState ref="A2:AG56">
+    <sortCondition ref="AF1:AF56"/>
   </sortState>
   <tableColumns count="33">
     <tableColumn id="18" name="author_date" dataDxfId="30"/>
@@ -2379,9 +2382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z41" sqref="Z41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2516,16 +2519,16 @@
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="82">
         <v>2023</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>279</v>
       </c>
       <c r="F2" s="16" t="s">
@@ -2537,7 +2540,7 @@
       <c r="H2" s="11">
         <v>41</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>8</v>
       </c>
       <c r="J2" s="11">
@@ -2601,7 +2604,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="28" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>70</v>
       </c>
@@ -2620,13 +2623,13 @@
       <c r="F3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>1380</v>
       </c>
       <c r="H3" s="11">
         <v>21</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="56">
         <v>30</v>
       </c>
       <c r="J3" s="11">
@@ -2694,10 +2697,10 @@
       <c r="A4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="73">
         <v>2021</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2715,7 +2718,7 @@
       <c r="H4" s="11">
         <v>43</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="56">
         <v>13</v>
       </c>
       <c r="J4" s="11">
@@ -2773,96 +2776,96 @@
       <c r="AD4" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AE4" s="46" t="s">
+      <c r="AE4" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AF4" s="20" t="s">
         <v>274</v>
       </c>
       <c r="AG4" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="75">
         <v>2020</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="60">
         <v>37.99</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>42</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="56">
         <v>14</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>2015</v>
       </c>
-      <c r="K5" s="30">
-        <v>2050</v>
-      </c>
-      <c r="L5" s="21">
+      <c r="K5" s="29">
+        <v>2050</v>
+      </c>
+      <c r="L5" s="20">
         <v>2015</v>
       </c>
-      <c r="M5" s="21">
-        <v>2050</v>
-      </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="47">
-        <v>2050</v>
-      </c>
-      <c r="P5" s="21">
+      <c r="M5" s="20">
+        <v>2050</v>
+      </c>
+      <c r="N5" s="60"/>
+      <c r="O5" s="45">
+        <v>2050</v>
+      </c>
+      <c r="P5" s="20">
         <v>2015</v>
       </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="31" t="s">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="W5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="X5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y5" s="27" t="s">
+      <c r="W5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z5" s="47" t="s">
+      <c r="Z5" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AB5" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="AC5" s="63" t="s">
+      <c r="AC5" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="AD5" s="91" t="s">
+      <c r="AD5" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="AE5" s="46" t="s">
+      <c r="AE5" s="44" t="s">
         <v>256</v>
       </c>
       <c r="AF5" s="12" t="s">
@@ -2873,174 +2876,174 @@
       </c>
     </row>
     <row r="6" spans="1:33" s="15" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>2021</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>61</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>38</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>10</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>2020</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>2060</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>2020</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <v>2060</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="22">
         <v>2020</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="30">
         <v>2060</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="32" t="s">
+      <c r="P6" s="30"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="27" t="s">
+      <c r="W6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="Z6" s="27" t="s">
+      <c r="Z6" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AB6" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AC6" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD6" s="36" t="s">
+      <c r="AD6" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="AE6" s="23" t="s">
+      <c r="AE6" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="20" t="s">
         <v>271</v>
       </c>
       <c r="AG6" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="28" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:33" s="27" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>2019</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>156</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>528</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>30</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>39</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>2015</v>
       </c>
-      <c r="K7" s="23">
-        <v>2050</v>
-      </c>
-      <c r="L7" s="31">
+      <c r="K7" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L7" s="30">
         <v>2015</v>
       </c>
-      <c r="M7" s="31">
-        <v>2050</v>
-      </c>
-      <c r="N7" s="23">
+      <c r="M7" s="30">
+        <v>2050</v>
+      </c>
+      <c r="N7" s="22">
         <v>2015</v>
       </c>
-      <c r="O7" s="27">
-        <v>2050</v>
-      </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="32" t="s">
+      <c r="O7" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y7" s="31" t="s">
+      <c r="W7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="Z7" s="27" t="s">
+      <c r="Z7" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="AB7" s="31" t="s">
+      <c r="AB7" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="AC7" s="23" t="s">
+      <c r="AC7" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD7" s="23" t="s">
+      <c r="AD7" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="AE7" s="23" t="s">
+      <c r="AE7" s="22" t="s">
         <v>284</v>
       </c>
       <c r="AF7" s="12" t="s">
@@ -3050,603 +3053,599 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="32">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="23" t="s">
+    <row r="8" spans="1:33" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="24">
-        <v>7405</v>
-      </c>
-      <c r="H8" s="24">
-        <v>10</v>
-      </c>
-      <c r="I8" s="25">
-        <v>45.8333333333333</v>
-      </c>
-      <c r="J8" s="25">
-        <v>2015</v>
-      </c>
-      <c r="K8" s="23">
-        <v>2050</v>
-      </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="23">
-        <v>2015</v>
-      </c>
-      <c r="O8" s="27">
-        <v>2050</v>
-      </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31">
+      <c r="E8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1338</v>
+      </c>
+      <c r="H8" s="11">
+        <v>25</v>
+      </c>
+      <c r="I8" s="56">
+        <v>25</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2010</v>
+      </c>
+      <c r="K8" s="16">
+        <v>2050</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="5">
+        <v>2010</v>
+      </c>
+      <c r="O8" s="12">
+        <v>2050</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="12">
         <v>2030</v>
       </c>
-      <c r="R8" s="31">
-        <v>2050</v>
-      </c>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="W8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="Z8" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA8" s="21" t="s">
+      <c r="R8" s="12">
+        <v>2050</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA8" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AB8" s="31" t="s">
+      <c r="AB8" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="AC8" s="23" t="s">
+      <c r="AC8" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD8" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE8" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF8" s="21" t="s">
+      <c r="AD8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF8" s="20" t="s">
         <v>260</v>
       </c>
       <c r="AG8" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="28" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2018</v>
-      </c>
-      <c r="D9" s="16" t="s">
+    <row r="9" spans="1:33" s="27" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="54">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="20">
-        <v>1338</v>
-      </c>
-      <c r="H9" s="11">
-        <v>25</v>
-      </c>
-      <c r="I9" s="59">
-        <v>25</v>
-      </c>
-      <c r="J9" s="11">
-        <v>2010</v>
-      </c>
-      <c r="K9" s="16">
-        <v>2050</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="5">
-        <v>2010</v>
-      </c>
-      <c r="O9" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="12">
-        <v>2030</v>
-      </c>
-      <c r="R9" s="12">
-        <v>2050</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="14" t="s">
+      <c r="G9" s="49">
+        <v>1372</v>
+      </c>
+      <c r="H9" s="55"/>
+      <c r="I9" s="24">
+        <v>26</v>
+      </c>
+      <c r="J9" s="56">
+        <v>2014</v>
+      </c>
+      <c r="K9" s="55">
+        <v>2060</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="W9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y9" s="6" t="s">
+      <c r="W9" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="Z9" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC9" s="5" t="s">
+      <c r="Z9" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA9" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB9" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC9" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="AD9" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF9" s="21" t="s">
+      <c r="AD9" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE9" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF9" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AG9" s="47" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="15" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="57">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="51" t="s">
+      <c r="A10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="22">
+        <v>2022</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="51">
-        <v>1372</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="25">
+      <c r="G10" s="23">
+        <v>1338</v>
+      </c>
+      <c r="H10" s="23">
         <v>26</v>
       </c>
-      <c r="J10" s="59">
-        <v>2014</v>
-      </c>
-      <c r="K10" s="58">
-        <v>2060</v>
-      </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="W10" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X10" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" s="54" t="s">
+      <c r="I10" s="56">
+        <v>24</v>
+      </c>
+      <c r="J10" s="24">
+        <v>2015</v>
+      </c>
+      <c r="K10" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="22">
+        <v>2015</v>
+      </c>
+      <c r="O10" s="30">
+        <v>2050</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
+        <v>2030</v>
+      </c>
+      <c r="R10" s="20">
+        <v>2050</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="W10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z10" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA10" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB10" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC10" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD10" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="AE10" s="51" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF10" s="49" t="s">
+      <c r="Z10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA10" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC10" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD10" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE10" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF10" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AG10" s="49" t="s">
+      <c r="AG10" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="23">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="23" t="s">
+    <row r="11" spans="1:33" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="8">
         <v>1338</v>
       </c>
-      <c r="H11" s="24">
-        <v>26</v>
-      </c>
-      <c r="I11" s="59">
-        <v>24</v>
-      </c>
-      <c r="J11" s="25">
-        <v>2015</v>
-      </c>
-      <c r="K11" s="23">
-        <v>2050</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="23">
-        <v>2015</v>
-      </c>
-      <c r="O11" s="31">
-        <v>2050</v>
-      </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21">
-        <v>2030</v>
-      </c>
-      <c r="R11" s="21">
-        <v>2050</v>
-      </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y11" s="27" t="s">
+      <c r="H11" s="11">
+        <v>27</v>
+      </c>
+      <c r="I11" s="24">
+        <v>23</v>
+      </c>
+      <c r="J11" s="11">
+        <v>2010</v>
+      </c>
+      <c r="K11" s="10">
+        <v>2050</v>
+      </c>
+      <c r="L11" s="6">
+        <v>2010</v>
+      </c>
+      <c r="M11" s="14">
+        <v>2050</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2010</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2050</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Z11" s="27" t="s">
+      <c r="Z11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AA11" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AB11" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC11" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD11" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE11" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AB11" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF11" s="20" t="s">
         <v>260</v>
       </c>
       <c r="AG11" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2018</v>
-      </c>
-      <c r="D12" s="5" t="s">
+    <row r="12" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="54">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="49">
+        <v>1412</v>
+      </c>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56">
+        <v>37</v>
+      </c>
+      <c r="J12" s="56">
+        <v>2022</v>
+      </c>
+      <c r="K12" s="55">
+        <v>2050</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="W12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y12" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z12" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA12" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB12" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC12" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD12" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE12" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF12" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG12" s="47" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="8">
-        <v>1338</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="E13" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="46">
+        <v>1411</v>
+      </c>
+      <c r="H13" s="11">
+        <v>17</v>
+      </c>
+      <c r="I13" s="24">
+        <v>35</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2020</v>
+      </c>
+      <c r="K13" s="5">
+        <v>2060</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2020</v>
+      </c>
+      <c r="M13" s="14">
+        <v>2060</v>
+      </c>
+      <c r="N13" s="5">
+        <v>2020</v>
+      </c>
+      <c r="O13" s="14">
+        <v>2060</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF13" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="66">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="84">
+        <v>1380</v>
+      </c>
+      <c r="H14" s="23">
+        <v>24</v>
+      </c>
+      <c r="I14" s="56">
         <v>27</v>
       </c>
-      <c r="I12" s="25">
-        <v>23</v>
-      </c>
-      <c r="J12" s="11">
-        <v>2010</v>
-      </c>
-      <c r="K12" s="10">
-        <v>2050</v>
-      </c>
-      <c r="L12" s="6">
-        <v>2010</v>
-      </c>
-      <c r="M12" s="14">
-        <v>2050</v>
-      </c>
-      <c r="N12" s="5">
-        <v>2010</v>
-      </c>
-      <c r="O12" s="6">
-        <v>2050</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z12" s="6" t="s">
+      <c r="J14" s="85">
+        <v>2015</v>
+      </c>
+      <c r="K14" s="66">
+        <v>2035</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="66">
+        <v>2015</v>
+      </c>
+      <c r="O14" s="41">
+        <v>2035</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41">
+        <v>2035</v>
+      </c>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="77" t="s">
+        <v>300</v>
+      </c>
+      <c r="W14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z14" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AA14" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB12" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AB14" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC14" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="AD12" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF12" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG12" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="62">
-        <v>2023</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="53">
-        <v>1412</v>
-      </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59">
-        <v>37</v>
-      </c>
-      <c r="J13" s="59">
-        <v>2022</v>
-      </c>
-      <c r="K13" s="58">
-        <v>2050</v>
-      </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="W13" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="X13" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y13" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z13" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA13" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB13" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC13" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD13" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE13" s="51" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF13" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG13" s="49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="15" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="8">
-        <v>7821</v>
-      </c>
-      <c r="H14" s="11">
-        <v>5</v>
-      </c>
-      <c r="I14" s="59">
-        <v>51</v>
-      </c>
-      <c r="J14" s="11">
-        <v>2020</v>
-      </c>
-      <c r="K14" s="5">
-        <v>2100</v>
-      </c>
-      <c r="L14" s="12">
-        <v>2020</v>
-      </c>
-      <c r="M14" s="12">
-        <v>2100</v>
-      </c>
-      <c r="N14" s="5">
-        <v>2020</v>
-      </c>
-      <c r="O14" s="12">
-        <v>2100</v>
-      </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="12">
-        <v>2030</v>
-      </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA14" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB14" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD14" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>223</v>
+      <c r="AD14" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE14" s="66" t="s">
+        <v>242</v>
       </c>
       <c r="AF14" s="12" t="s">
         <v>260</v>
@@ -3655,86 +3654,86 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="32">
+    <row r="15" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="22">
         <v>2020</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="24">
-        <v>7405</v>
-      </c>
-      <c r="H15" s="24">
-        <v>8</v>
-      </c>
-      <c r="I15" s="59">
-        <v>49</v>
-      </c>
-      <c r="J15" s="25">
-        <v>2015</v>
-      </c>
-      <c r="K15" s="23">
-        <v>2050</v>
-      </c>
-      <c r="L15" s="31">
-        <v>2015</v>
-      </c>
-      <c r="M15" s="31">
-        <v>2050</v>
-      </c>
-      <c r="N15" s="23">
-        <v>2015</v>
-      </c>
-      <c r="O15" s="27">
-        <v>2050</v>
-      </c>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="32" t="s">
+      <c r="D15" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="57">
+        <v>330</v>
+      </c>
+      <c r="H15" s="23">
+        <v>32</v>
+      </c>
+      <c r="I15" s="56">
+        <v>19.8333333333333</v>
+      </c>
+      <c r="J15" s="24">
+        <v>2020</v>
+      </c>
+      <c r="K15" s="22">
+        <v>2070</v>
+      </c>
+      <c r="L15" s="20">
+        <v>2020</v>
+      </c>
+      <c r="M15" s="20">
+        <v>2070</v>
+      </c>
+      <c r="N15" s="22">
+        <v>2020</v>
+      </c>
+      <c r="O15" s="30">
+        <v>2070</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="W15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y15" s="31" t="s">
+      <c r="W15" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y15" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="Z15" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA15" s="21" t="s">
+      <c r="Z15" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA15" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB15" s="31" t="s">
+      <c r="AB15" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="AC15" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD15" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE15" s="23" t="s">
+      <c r="AC15" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD15" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE15" s="22" t="s">
         <v>203</v>
       </c>
       <c r="AF15" s="12" t="s">
@@ -3745,173 +3744,177 @@
       </c>
     </row>
     <row r="16" spans="1:33" s="15" customFormat="1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="A16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="31">
         <v>2022</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="23">
         <v>7405</v>
       </c>
-      <c r="H16" s="11">
-        <v>9</v>
-      </c>
-      <c r="I16" s="59">
-        <v>48</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="H16" s="23">
+        <v>10</v>
+      </c>
+      <c r="I16" s="24">
+        <v>45.8333333333333</v>
+      </c>
+      <c r="J16" s="24">
         <v>2015</v>
       </c>
-      <c r="K16" s="5">
-        <v>2050</v>
-      </c>
-      <c r="L16" s="12">
+      <c r="K16" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="22">
         <v>2015</v>
       </c>
-      <c r="M16" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="12">
-        <v>2015</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="6" t="s">
+      <c r="O16" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30">
+        <v>2030</v>
+      </c>
+      <c r="R16" s="30">
+        <v>2050</v>
+      </c>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="W16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z16" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA16" s="12" t="s">
+      <c r="W16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z16" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA16" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB16" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC16" s="5" t="s">
+      <c r="AB16" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC16" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD16" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF16" s="21" t="s">
+      <c r="AD16" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE16" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF16" s="20" t="s">
         <v>260</v>
       </c>
       <c r="AG16" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="28" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="27">
-        <v>2020</v>
-      </c>
-      <c r="D17" s="27" t="s">
+    <row r="17" spans="1:33" s="27" customFormat="1" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="34">
+      <c r="F17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="46">
         <v>7821</v>
       </c>
-      <c r="H17" s="24">
-        <v>2</v>
-      </c>
-      <c r="I17" s="59">
-        <v>54</v>
-      </c>
-      <c r="J17" s="35">
+      <c r="H17" s="11">
+        <v>5</v>
+      </c>
+      <c r="I17" s="56">
+        <v>51</v>
+      </c>
+      <c r="J17" s="18">
         <v>2020</v>
       </c>
-      <c r="K17" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L17" s="21">
+      <c r="K17" s="6">
+        <v>2100</v>
+      </c>
+      <c r="L17" s="12">
         <v>2020</v>
       </c>
-      <c r="M17" s="21">
-        <v>2050</v>
-      </c>
-      <c r="N17" s="27">
+      <c r="M17" s="12">
+        <v>2100</v>
+      </c>
+      <c r="N17" s="6">
         <v>2020</v>
       </c>
-      <c r="O17" s="31">
-        <v>2050</v>
-      </c>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="W17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="X17" s="27" t="s">
+      <c r="O17" s="12">
+        <v>2100</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="12">
+        <v>2030</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Y17" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="Z17" s="21" t="s">
+      <c r="Z17" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AA17" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB17" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC17" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD17" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE17" s="27" t="s">
-        <v>221</v>
+      <c r="AA17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="AF17" s="12" t="s">
         <v>260</v>
@@ -3921,177 +3924,175 @@
       </c>
     </row>
     <row r="18" spans="1:33" s="15" customFormat="1" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="14">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="48">
-        <v>1411</v>
-      </c>
-      <c r="H18" s="11">
-        <v>17</v>
-      </c>
-      <c r="I18" s="25">
-        <v>35</v>
-      </c>
-      <c r="J18" s="18">
+      <c r="A18" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="30">
         <v>2020</v>
       </c>
-      <c r="K18" s="6">
-        <v>2060</v>
-      </c>
-      <c r="L18" s="14">
-        <v>2020</v>
-      </c>
-      <c r="M18" s="14">
-        <v>2060</v>
-      </c>
-      <c r="N18" s="5">
-        <v>2020</v>
-      </c>
-      <c r="O18" s="14">
-        <v>2060</v>
-      </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="W18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X18" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="14" t="s">
+      <c r="D18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="33">
+        <v>7405</v>
+      </c>
+      <c r="H18" s="23">
+        <v>8</v>
+      </c>
+      <c r="I18" s="56">
+        <v>49</v>
+      </c>
+      <c r="J18" s="34">
+        <v>2015</v>
+      </c>
+      <c r="K18" s="26">
+        <v>2050</v>
+      </c>
+      <c r="L18" s="30">
+        <v>2015</v>
+      </c>
+      <c r="M18" s="30">
+        <v>2050</v>
+      </c>
+      <c r="N18" s="22">
+        <v>2015</v>
+      </c>
+      <c r="O18" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="W18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="Z18" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA18" s="12" t="s">
+      <c r="Z18" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA18" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB18" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC18" s="5" t="s">
+      <c r="AB18" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC18" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD18" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE18" s="5" t="s">
+      <c r="AD18" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE18" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="AF18" s="21" t="s">
+      <c r="AF18" s="12" t="s">
         <v>260</v>
       </c>
       <c r="AG18" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="23">
-        <v>2020</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="60">
-        <v>330</v>
-      </c>
-      <c r="H19" s="24">
-        <v>32</v>
-      </c>
-      <c r="I19" s="59">
-        <v>19.8333333333333</v>
-      </c>
-      <c r="J19" s="25">
-        <v>2020</v>
-      </c>
-      <c r="K19" s="23">
-        <v>2070</v>
-      </c>
-      <c r="L19" s="21">
-        <v>2020</v>
-      </c>
-      <c r="M19" s="21">
-        <v>2070</v>
-      </c>
-      <c r="N19" s="23">
-        <v>2020</v>
-      </c>
-      <c r="O19" s="31">
-        <v>2070</v>
-      </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="26" t="s">
+    <row r="19" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="8">
+        <v>7405</v>
+      </c>
+      <c r="H19" s="11">
+        <v>9</v>
+      </c>
+      <c r="I19" s="56">
+        <v>48</v>
+      </c>
+      <c r="J19" s="11">
+        <v>2015</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2050</v>
+      </c>
+      <c r="L19" s="12">
+        <v>2015</v>
+      </c>
+      <c r="M19" s="12">
+        <v>2050</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="12">
+        <v>2015</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="W19" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y19" s="14" t="s">
+      <c r="W19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="Z19" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA19" s="21" t="s">
+      <c r="Z19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA19" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AB19" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC19" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD19" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE19" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF19" s="12" t="s">
+      <c r="AB19" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF19" s="20" t="s">
         <v>260</v>
       </c>
       <c r="AG19" s="12" t="s">
@@ -4099,84 +4100,86 @@
       </c>
     </row>
     <row r="20" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="69">
+      <c r="A20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="22">
         <v>2020</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="82">
-        <v>1380</v>
-      </c>
-      <c r="H20" s="24">
-        <v>24</v>
-      </c>
-      <c r="I20" s="59">
+      <c r="D20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="80">
-        <v>2015</v>
-      </c>
-      <c r="K20" s="69">
-        <v>2035</v>
-      </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="69">
-        <v>2015</v>
-      </c>
-      <c r="O20" s="43">
-        <v>2035</v>
-      </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43">
-        <v>2035</v>
-      </c>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="W20" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y20" s="42" t="s">
+      <c r="E20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="23">
+        <v>7821</v>
+      </c>
+      <c r="H20" s="23">
+        <v>2</v>
+      </c>
+      <c r="I20" s="56">
+        <v>54</v>
+      </c>
+      <c r="J20" s="24">
+        <v>2020</v>
+      </c>
+      <c r="K20" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L20" s="20">
+        <v>2020</v>
+      </c>
+      <c r="M20" s="20">
+        <v>2050</v>
+      </c>
+      <c r="N20" s="22">
+        <v>2020</v>
+      </c>
+      <c r="O20" s="30">
+        <v>2050</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="W20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="Z20" s="42" t="s">
+      <c r="Z20" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="AA20" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB20" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC20" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD20" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE20" s="69" t="s">
-        <v>242</v>
+      <c r="AA20" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC20" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD20" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE20" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="AF20" s="12" t="s">
         <v>260</v>
@@ -4185,7 +4188,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="28" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" s="27" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>63</v>
       </c>
@@ -4210,7 +4213,7 @@
       <c r="H21" s="11">
         <v>13</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <v>42.8333333333333</v>
       </c>
       <c r="J21" s="11">
@@ -4261,10 +4264,10 @@
       <c r="AC21" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD21" s="66" t="s">
+      <c r="AD21" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="AE21" s="46" t="s">
+      <c r="AE21" s="44" t="s">
         <v>190</v>
       </c>
       <c r="AF21" s="12" t="s">
@@ -4299,7 +4302,7 @@
       <c r="H22" s="11">
         <v>23</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="56">
         <v>28</v>
       </c>
       <c r="J22" s="11">
@@ -4351,7 +4354,7 @@
       <c r="AD22" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AE22" s="46" t="s">
+      <c r="AE22" s="44" t="s">
         <v>268</v>
       </c>
       <c r="AF22" s="12" t="s">
@@ -4361,86 +4364,86 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>2021</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="65" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>1411</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <v>18</v>
       </c>
-      <c r="I23" s="59">
+      <c r="I23" s="56">
         <v>34</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <v>2020</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="65">
         <v>2060</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="20">
         <v>2020</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="20">
         <v>2060</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="22">
         <v>2020</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="20">
         <v>2060</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="31" t="s">
+      <c r="P23" s="30"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="W23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="X23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y23" s="27" t="s">
+      <c r="W23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z23" s="27" t="s">
+      <c r="Z23" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="AA23" s="21" t="s">
+      <c r="AA23" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AB23" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="AC23" s="23" t="s">
+      <c r="AC23" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD23" s="23" t="s">
+      <c r="AD23" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AE23" s="23" t="s">
+      <c r="AE23" s="22" t="s">
         <v>282</v>
       </c>
       <c r="AF23" s="12" t="s">
@@ -4451,85 +4454,85 @@
       </c>
     </row>
     <row r="24" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>2021</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>80</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <v>34</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="56">
         <v>11</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <v>2015</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="29">
         <v>2035</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="20">
         <v>2015</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="20">
         <v>2035</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="22">
         <v>2015</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="30">
         <v>2035</v>
       </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="32" t="s">
+      <c r="P24" s="30"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="W24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="X24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y24" s="27" t="s">
+      <c r="W24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y24" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z24" s="27" t="s">
+      <c r="Z24" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="AA24" s="21" t="s">
+      <c r="AA24" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB24" s="21" t="s">
+      <c r="AB24" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="AC24" s="23" t="s">
+      <c r="AC24" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD24" s="23" t="s">
+      <c r="AD24" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="AE24" s="46" t="s">
+      <c r="AE24" s="44" t="s">
         <v>255</v>
       </c>
       <c r="AF24" s="12" t="s">
@@ -4539,343 +4542,343 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:33" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="54">
+        <v>2023</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="49">
+        <v>9</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56">
+        <v>3</v>
+      </c>
+      <c r="J25" s="56">
+        <v>2016</v>
+      </c>
+      <c r="K25" s="55">
+        <v>2045</v>
+      </c>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="W25" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="X25" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y25" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z25" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA25" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB25" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC25" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD25" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE25" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF25" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="AG25" s="52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C26" s="31">
         <v>2022</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F26" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G26" s="29">
         <v>21</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H26" s="23">
         <v>46</v>
       </c>
-      <c r="I25" s="59">
+      <c r="I26" s="56">
         <v>4.8333333333333304</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J26" s="24">
         <v>2020</v>
       </c>
-      <c r="K25" s="32">
-        <v>2050</v>
-      </c>
-      <c r="L25" s="31">
+      <c r="K26" s="31">
+        <v>2050</v>
+      </c>
+      <c r="L26" s="30">
         <v>2020</v>
       </c>
-      <c r="M25" s="31">
-        <v>2050</v>
-      </c>
-      <c r="N25" s="23">
+      <c r="M26" s="30">
+        <v>2050</v>
+      </c>
+      <c r="N26" s="22">
         <v>2020</v>
       </c>
-      <c r="O25" s="31">
-        <v>2050</v>
-      </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="32" t="s">
+      <c r="O26" s="30">
+        <v>2050</v>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="X25" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y25" s="27" t="s">
+      <c r="W26" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z25" s="21" t="s">
+      <c r="Z26" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="AA25" s="21" t="s">
+      <c r="AA26" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB25" s="21" t="s">
+      <c r="AB26" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="AC25" s="23" t="s">
+      <c r="AC26" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="AD25" s="23" t="s">
+      <c r="AD26" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="AE25" s="23" t="s">
+      <c r="AE26" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="AF25" s="12" t="s">
+      <c r="AF26" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="AG25" s="12" t="s">
+      <c r="AG26" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <v>2018</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>7821</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H27" s="11">
         <v>1</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I27" s="24">
         <v>55</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J27" s="11">
         <v>2020</v>
       </c>
-      <c r="K26" s="76">
-        <v>2050</v>
-      </c>
-      <c r="L26" s="12">
+      <c r="K27" s="86">
+        <v>2050</v>
+      </c>
+      <c r="L27" s="12">
         <v>2020</v>
       </c>
-      <c r="M26" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N26" s="5">
+      <c r="M27" s="12">
+        <v>2050</v>
+      </c>
+      <c r="N27" s="5">
         <v>2020</v>
       </c>
-      <c r="O26" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="10" t="s">
+      <c r="O27" s="12">
+        <v>2050</v>
+      </c>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="W26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y26" s="6" t="s">
+      <c r="W27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y27" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="Z26" s="13" t="s">
+      <c r="Z27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AA26" s="12" t="s">
+      <c r="AA27" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AB26" s="12" t="s">
+      <c r="AB27" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AC27" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AD27" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AE26" s="5" t="s">
+      <c r="AE27" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AF26" s="6" t="s">
+      <c r="AF27" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AG26" s="12" t="s">
+      <c r="AG27" s="12" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" s="57">
-        <v>2023</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="51">
-        <v>9</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59">
-        <v>3</v>
-      </c>
-      <c r="J27" s="59">
-        <v>2016</v>
-      </c>
-      <c r="K27" s="58">
-        <v>2045</v>
-      </c>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="W27" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X27" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y27" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z27" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA27" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB27" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC27" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD27" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE27" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF27" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="AG27" s="54" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="15" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>2020</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>37.299999999999997</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="23">
         <v>44</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <v>6.8333333333333304</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="24">
         <v>2010</v>
       </c>
-      <c r="K28" s="23">
-        <v>2050</v>
-      </c>
-      <c r="L28" s="21">
+      <c r="K28" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L28" s="20">
         <v>2010</v>
       </c>
-      <c r="M28" s="27">
-        <v>2050</v>
-      </c>
-      <c r="N28" s="30">
+      <c r="M28" s="26">
+        <v>2050</v>
+      </c>
+      <c r="N28" s="29">
         <v>2010</v>
       </c>
-      <c r="O28" s="21">
-        <v>2050</v>
-      </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="23" t="s">
+      <c r="O28" s="20">
+        <v>2050</v>
+      </c>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="W28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="X28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y28" s="27" t="s">
+      <c r="W28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="Z28" s="27" t="s">
+      <c r="Z28" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="AA28" s="21" t="s">
+      <c r="AA28" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB28" s="21" t="s">
+      <c r="AB28" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="AC28" s="23" t="s">
+      <c r="AC28" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD28" s="23" t="s">
+      <c r="AD28" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="AE28" s="23" t="s">
+      <c r="AE28" s="22" t="s">
         <v>287</v>
       </c>
       <c r="AF28" s="12" t="s">
@@ -4885,84 +4888,84 @@
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:33" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="29">
         <v>2022</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>67.5</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="23">
         <v>36</v>
       </c>
-      <c r="I29" s="59">
+      <c r="I29" s="56">
         <v>17</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="24">
         <v>2021</v>
       </c>
-      <c r="K29" s="30">
-        <v>2050</v>
-      </c>
-      <c r="L29" s="21">
+      <c r="K29" s="29">
+        <v>2050</v>
+      </c>
+      <c r="L29" s="20">
         <v>2021</v>
       </c>
-      <c r="M29" s="21">
-        <v>2050</v>
-      </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="21">
-        <v>2050</v>
-      </c>
-      <c r="P29" s="31">
+      <c r="M29" s="20">
+        <v>2050</v>
+      </c>
+      <c r="N29" s="29"/>
+      <c r="O29" s="20">
+        <v>2050</v>
+      </c>
+      <c r="P29" s="30">
         <v>2021</v>
       </c>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="32" t="s">
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="W29" s="30" t="s">
+      <c r="W29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="X29" s="30" t="s">
+      <c r="X29" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26" t="s">
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="AA29" s="21" t="s">
+      <c r="AA29" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="AB29" s="21" t="s">
+      <c r="AB29" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="AC29" s="23" t="s">
+      <c r="AC29" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="AD29" s="23" t="s">
+      <c r="AD29" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AE29" s="30" t="s">
+      <c r="AE29" s="29" t="s">
         <v>189</v>
       </c>
       <c r="AF29" s="12" t="s">
@@ -4972,342 +4975,342 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="23">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>28</v>
+    <row r="30" spans="1:33" s="15" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="22">
+        <v>2023</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>138</v>
+        <v>278</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="G30" s="24">
-        <v>1241</v>
-      </c>
-      <c r="H30" s="24">
-        <v>28</v>
-      </c>
-      <c r="I30" s="59">
-        <v>22</v>
-      </c>
-      <c r="J30" s="25">
+        <v>4680</v>
+      </c>
+      <c r="H30" s="23">
+        <v>14</v>
+      </c>
+      <c r="I30" s="56">
+        <v>41.8333333333333</v>
+      </c>
+      <c r="J30" s="24">
         <v>2010</v>
       </c>
-      <c r="K30" s="23">
-        <v>2050</v>
-      </c>
-      <c r="L30" s="21">
+      <c r="K30" s="22">
+        <v>2040</v>
+      </c>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="22">
         <v>2010</v>
       </c>
-      <c r="M30" s="21">
-        <v>2050</v>
-      </c>
-      <c r="N30" s="23">
-        <v>2010</v>
-      </c>
-      <c r="O30" s="21">
-        <v>2050</v>
-      </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="W30" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="X30" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y30" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z30" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA30" s="21" t="s">
+      <c r="O30" s="30">
+        <v>2040</v>
+      </c>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30">
+        <v>2040</v>
+      </c>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="W30" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z30" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA30" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB30" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC30" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD30" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE30" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="AF30" s="6"/>
+      <c r="AB30" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC30" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD30" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE30" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF30" s="20"/>
       <c r="AG30" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="14">
-        <v>2018</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>291</v>
+    <row r="31" spans="1:33" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="25">
+        <v>2021</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="8">
-        <v>7662</v>
-      </c>
-      <c r="H31" s="11">
-        <v>7</v>
-      </c>
-      <c r="I31" s="25">
-        <v>44</v>
-      </c>
-      <c r="J31" s="48">
+      <c r="G31" s="78">
+        <v>3820</v>
+      </c>
+      <c r="H31" s="23">
+        <v>16</v>
+      </c>
+      <c r="I31" s="24">
+        <v>39.8333333333333</v>
+      </c>
+      <c r="J31" s="34">
         <v>2015</v>
       </c>
-      <c r="K31" s="6">
-        <v>2040</v>
-      </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="14">
+      <c r="K31" s="25">
+        <v>2050</v>
+      </c>
+      <c r="L31" s="20">
         <v>2015</v>
       </c>
-      <c r="Q31" s="14">
-        <v>2040</v>
-      </c>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z31" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA31" s="14" t="s">
+      <c r="M31" s="20">
+        <v>2050</v>
+      </c>
+      <c r="N31" s="35">
+        <v>2015</v>
+      </c>
+      <c r="O31" s="30">
+        <v>2050</v>
+      </c>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="W31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X31" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z31" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA31" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB31" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC31" s="9" t="s">
+      <c r="AB31" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC31" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="AD31" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE31" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF31" s="12"/>
+      <c r="AD31" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE31" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF31" s="20"/>
       <c r="AG31" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="45" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" s="43" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="14">
-        <v>2015</v>
+        <v>46</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2021</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>279</v>
+        <v>73</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="6">
-        <v>10</v>
+      <c r="G32" s="91">
+        <v>3870</v>
       </c>
       <c r="H32" s="11">
-        <v>47</v>
-      </c>
-      <c r="I32" s="25">
-        <v>3.8333333333333299</v>
+        <v>15</v>
+      </c>
+      <c r="I32" s="56">
+        <v>40.8333333333333</v>
       </c>
       <c r="J32" s="18">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="K32" s="6">
-        <v>2050</v>
-      </c>
-      <c r="L32" s="14">
-        <v>2010</v>
-      </c>
-      <c r="M32" s="14">
-        <v>2050</v>
+        <v>2040</v>
+      </c>
+      <c r="L32" s="12">
+        <v>2015</v>
+      </c>
+      <c r="M32" s="6">
+        <v>2040</v>
       </c>
       <c r="N32" s="9">
-        <v>2010</v>
-      </c>
-      <c r="O32" s="6">
-        <v>2050</v>
+        <v>2015</v>
+      </c>
+      <c r="O32" s="12">
+        <v>2040</v>
       </c>
       <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="W32" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="X32" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z32" s="6" t="s">
-        <v>35</v>
+      <c r="V32" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y32" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="AA32" s="12" t="s">
         <v>172</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="AD32" s="9" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF32" s="21"/>
+        <v>190</v>
+      </c>
+      <c r="AF32" s="20"/>
       <c r="AG32" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="28" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13">
-        <v>2023</v>
+    <row r="33" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" s="14">
+        <v>2018</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G33" s="6">
-        <v>70</v>
+        <v>141</v>
+      </c>
+      <c r="G33" s="46">
+        <v>7662</v>
       </c>
       <c r="H33" s="11">
-        <v>35</v>
-      </c>
-      <c r="I33" s="25">
-        <v>18</v>
-      </c>
-      <c r="J33" s="18">
-        <v>2021</v>
-      </c>
-      <c r="K33" s="71">
-        <v>2100</v>
-      </c>
-      <c r="L33" s="12">
-        <v>2021</v>
-      </c>
-      <c r="M33" s="12">
-        <v>2100</v>
-      </c>
-      <c r="N33" s="67"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="12">
-        <v>2020</v>
-      </c>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="I33" s="24">
+        <v>44</v>
+      </c>
+      <c r="J33" s="46">
+        <v>2015</v>
+      </c>
+      <c r="K33" s="6">
+        <v>2040</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="14">
+        <v>2015</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>2040</v>
+      </c>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="W33" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="X33" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y33" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA33" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB33" s="12" t="s">
-        <v>176</v>
+      <c r="V33" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y33" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA33" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB33" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="AC33" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE33" s="74" t="s">
-        <v>189</v>
+        <v>216</v>
+      </c>
+      <c r="AE33" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="AF33" s="12"/>
       <c r="AG33" s="12" t="s">
@@ -5315,301 +5318,299 @@
       </c>
     </row>
     <row r="34" spans="1:33" s="15" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="C34" s="62">
-        <v>2023</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>29</v>
+      <c r="A34" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="14">
+        <v>2012</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F34" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="53">
-        <v>1411</v>
-      </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59">
-        <v>36</v>
-      </c>
-      <c r="J34" s="64">
-        <v>2020</v>
-      </c>
-      <c r="K34" s="54">
-        <v>2060</v>
-      </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="54"/>
-      <c r="V34" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="6">
+        <v>503</v>
+      </c>
+      <c r="H34" s="11">
+        <v>31</v>
+      </c>
+      <c r="I34" s="56">
+        <v>38</v>
+      </c>
+      <c r="J34" s="46">
+        <v>2005</v>
+      </c>
+      <c r="K34" s="6">
+        <v>2050</v>
+      </c>
+      <c r="L34" s="14">
+        <v>2005</v>
+      </c>
+      <c r="M34" s="14">
+        <v>2050</v>
+      </c>
+      <c r="N34" s="9">
+        <v>2005</v>
+      </c>
+      <c r="O34" s="9">
+        <v>2050</v>
+      </c>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="W34" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="X34" s="65" t="s">
+      <c r="W34" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="Y34" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Z34" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA34" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB34" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC34" s="61" t="s">
+      <c r="Z34" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA34" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB34" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC34" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="AD34" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE34" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49" t="s">
+      <c r="AD34" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE34" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="28" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" s="27" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="14">
-        <v>2022</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F35" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="18">
-        <v>1410</v>
+      <c r="G35" s="6">
+        <v>70</v>
       </c>
       <c r="H35" s="11">
-        <v>19</v>
-      </c>
-      <c r="I35" s="59">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="I35" s="24">
+        <v>18</v>
       </c>
       <c r="J35" s="18">
+        <v>2021</v>
+      </c>
+      <c r="K35" s="68">
+        <v>2100</v>
+      </c>
+      <c r="L35" s="12">
+        <v>2021</v>
+      </c>
+      <c r="M35" s="12">
+        <v>2100</v>
+      </c>
+      <c r="N35" s="64"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="12">
         <v>2020</v>
       </c>
-      <c r="K35" s="14">
-        <v>2050</v>
-      </c>
-      <c r="L35" s="12">
-        <v>2020</v>
-      </c>
-      <c r="M35" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N35" s="40">
-        <v>2020</v>
-      </c>
-      <c r="O35" s="14">
-        <v>2050</v>
-      </c>
-      <c r="P35" s="14"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="W35" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="X35" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y35" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z35" s="12" t="s">
-        <v>124</v>
+      <c r="V35" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="W35" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="X35" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y35" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z35" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="AA35" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC35" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD35" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE35" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF35" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="AC35" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE35" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF35" s="12"/>
       <c r="AG35" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="13">
-        <v>2021</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>28</v>
+      <c r="A36" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="59">
+        <v>2023</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>29</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F36" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="85">
-        <v>1241</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="F36" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="59">
-        <v>21</v>
-      </c>
-      <c r="J36" s="18">
-        <v>2010</v>
-      </c>
-      <c r="K36" s="13">
-        <v>2050</v>
-      </c>
-      <c r="L36" s="12">
-        <v>2010</v>
-      </c>
-      <c r="M36" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N36" s="9">
-        <v>2010</v>
-      </c>
-      <c r="O36" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="W36" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="X36" s="9" t="s">
+      <c r="G36" s="51">
+        <v>1411</v>
+      </c>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56">
+        <v>36</v>
+      </c>
+      <c r="J36" s="61">
+        <v>2020</v>
+      </c>
+      <c r="K36" s="52">
+        <v>2060</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="W36" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="X36" s="62" t="s">
         <v>41</v>
       </c>
       <c r="Y36" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Z36" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB36" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC36" s="9" t="s">
+      <c r="Z36" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA36" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB36" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC36" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="AD36" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE36" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="12" t="s">
+      <c r="AD36" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE36" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF36" s="47"/>
+      <c r="AG36" s="47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="28" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>73</v>
+    <row r="37" spans="1:33" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="14">
+        <v>2022</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>29</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F37" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="84">
-        <v>3870</v>
+      <c r="G37" s="18">
+        <v>1410</v>
       </c>
       <c r="H37" s="11">
-        <v>15</v>
-      </c>
-      <c r="I37" s="59">
-        <v>40.8333333333333</v>
+        <v>19</v>
+      </c>
+      <c r="I37" s="56">
+        <v>33</v>
       </c>
       <c r="J37" s="18">
-        <v>2015</v>
-      </c>
-      <c r="K37" s="6">
-        <v>2040</v>
+        <v>2020</v>
+      </c>
+      <c r="K37" s="14">
+        <v>2050</v>
       </c>
       <c r="L37" s="12">
-        <v>2015</v>
-      </c>
-      <c r="M37" s="6">
-        <v>2040</v>
-      </c>
-      <c r="N37" s="9">
-        <v>2015</v>
-      </c>
-      <c r="O37" s="12">
-        <v>2040</v>
+        <v>2020</v>
+      </c>
+      <c r="M37" s="12">
+        <v>2050</v>
+      </c>
+      <c r="N37" s="38">
+        <v>2020</v>
+      </c>
+      <c r="O37" s="14">
+        <v>2050</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="12"/>
@@ -5617,423 +5618,425 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="W37" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="X37" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y37" s="54" t="s">
+      <c r="V37" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="W37" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X37" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y37" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Z37" s="13" t="s">
+      <c r="Z37" s="12" t="s">
         <v>124</v>
       </c>
       <c r="AA37" s="12" t="s">
         <v>172</v>
       </c>
       <c r="AB37" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC37" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD37" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE37" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF37" s="21"/>
+        <v>170</v>
+      </c>
+      <c r="AC37" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD37" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE37" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF37" s="20"/>
       <c r="AG37" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:33" s="15" customFormat="1" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="B38" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="C38" s="62">
-        <v>2023</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="E38" s="53" t="s">
+      <c r="A38" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="26">
+        <v>2019</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F38" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="G38" s="51">
-        <v>127</v>
-      </c>
-      <c r="H38" s="58"/>
-      <c r="I38" s="25">
-        <v>18.8333333333333</v>
-      </c>
-      <c r="J38" s="64">
+      <c r="F38" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="79">
+        <v>1408</v>
+      </c>
+      <c r="H38" s="23">
+        <v>20</v>
+      </c>
+      <c r="I38" s="24">
+        <v>32</v>
+      </c>
+      <c r="J38" s="92">
         <v>2015</v>
       </c>
-      <c r="K38" s="54">
-        <v>2050</v>
-      </c>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="W38" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="X38" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y38" s="54" t="s">
+      <c r="K38" s="26">
+        <v>2050</v>
+      </c>
+      <c r="L38" s="30">
+        <v>2015</v>
+      </c>
+      <c r="M38" s="30">
+        <v>2050</v>
+      </c>
+      <c r="N38" s="79"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="30">
+        <v>2015</v>
+      </c>
+      <c r="R38" s="30">
+        <v>2030</v>
+      </c>
+      <c r="S38" s="30">
+        <v>2050</v>
+      </c>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="W38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X38" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y38" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z38" s="52" t="s">
+      <c r="Z38" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="AA38" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB38" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC38" s="51" t="s">
+      <c r="AA38" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB38" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC38" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD38" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE38" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="49" t="s">
-        <v>306</v>
+      <c r="AD38" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE38" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="12" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="37" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="27">
-        <v>2019</v>
-      </c>
-      <c r="D39" s="88" t="s">
+    <row r="39" spans="1:33" s="36" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="25">
+        <v>2022</v>
+      </c>
+      <c r="D39" s="67" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F39" s="41" t="s">
+      <c r="F39" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="41">
-        <v>1408</v>
-      </c>
-      <c r="H39" s="24">
-        <v>20</v>
-      </c>
-      <c r="I39" s="25">
-        <v>32</v>
-      </c>
-      <c r="J39" s="90">
+      <c r="G39" s="70">
+        <v>1380</v>
+      </c>
+      <c r="H39" s="23">
+        <v>22</v>
+      </c>
+      <c r="I39" s="24">
+        <v>29</v>
+      </c>
+      <c r="J39" s="34">
         <v>2015</v>
       </c>
-      <c r="K39" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L39" s="31">
+      <c r="K39" s="37">
+        <v>2050</v>
+      </c>
+      <c r="L39" s="20">
         <v>2015</v>
       </c>
-      <c r="M39" s="31">
-        <v>2050</v>
-      </c>
-      <c r="N39" s="88"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31">
+      <c r="M39" s="37">
+        <v>2050</v>
+      </c>
+      <c r="N39" s="69"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30">
         <v>2015</v>
       </c>
-      <c r="R39" s="31">
+      <c r="Q39" s="20">
         <v>2030</v>
       </c>
-      <c r="S39" s="31">
-        <v>2050</v>
-      </c>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="W39" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="X39" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y39" s="27" t="s">
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="W39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y39" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z39" s="27" t="s">
+      <c r="Z39" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AA39" s="21" t="s">
+      <c r="AA39" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB39" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC39" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD39" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE39" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF39" s="21"/>
+      <c r="AB39" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC39" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD39" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE39" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF39" s="20"/>
       <c r="AG39" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="26">
+    <row r="40" spans="1:33" s="15" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" s="59">
+        <v>2023</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="51">
+        <v>1380</v>
+      </c>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56">
+        <v>31</v>
+      </c>
+      <c r="J40" s="61">
+        <v>2015</v>
+      </c>
+      <c r="K40" s="52">
+        <v>2060</v>
+      </c>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="W40" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="X40" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y40" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z40" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA40" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB40" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC40" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD40" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE40" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF40" s="47"/>
+      <c r="AG40" s="47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="27" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="26">
         <v>2022</v>
       </c>
-      <c r="D40" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D41" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="75">
-        <v>1380</v>
-      </c>
-      <c r="H40" s="24">
+      <c r="F41" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="33">
+        <v>1241</v>
+      </c>
+      <c r="H41" s="23">
+        <v>28</v>
+      </c>
+      <c r="I41" s="56">
         <v>22</v>
       </c>
-      <c r="I40" s="25">
-        <v>29</v>
-      </c>
-      <c r="J40" s="35">
-        <v>2015</v>
-      </c>
-      <c r="K40" s="39">
-        <v>2050</v>
-      </c>
-      <c r="L40" s="21">
-        <v>2015</v>
-      </c>
-      <c r="M40" s="39">
-        <v>2050</v>
-      </c>
-      <c r="N40" s="74"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31">
-        <v>2015</v>
-      </c>
-      <c r="Q40" s="21">
-        <v>2030</v>
-      </c>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="W40" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="X40" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y40" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z40" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA40" s="21" t="s">
+      <c r="J41" s="34">
+        <v>2010</v>
+      </c>
+      <c r="K41" s="26">
+        <v>2050</v>
+      </c>
+      <c r="L41" s="20">
+        <v>2010</v>
+      </c>
+      <c r="M41" s="20">
+        <v>2050</v>
+      </c>
+      <c r="N41" s="35">
+        <v>2010</v>
+      </c>
+      <c r="O41" s="20">
+        <v>2050</v>
+      </c>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="W41" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="X41" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y41" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z41" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA41" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB40" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC40" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD40" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE40" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF40" s="21"/>
-      <c r="AG40" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" s="28" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="C41" s="31">
-        <v>2013</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="34">
-        <v>6970</v>
-      </c>
-      <c r="H41" s="24">
-        <v>12</v>
-      </c>
-      <c r="I41" s="59">
-        <v>45</v>
-      </c>
-      <c r="J41" s="35">
-        <v>2010</v>
-      </c>
-      <c r="K41" s="27">
-        <v>2030</v>
-      </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="36">
-        <v>2010</v>
-      </c>
-      <c r="O41" s="27">
-        <v>2030</v>
-      </c>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31">
-        <v>2030</v>
-      </c>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="W41" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="X41" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y41" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z41" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA41" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB41" s="21" t="s">
+      <c r="AB41" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="AC41" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD41" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE41" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF41" s="21"/>
+      <c r="AC41" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD41" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE41" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF41" s="6"/>
       <c r="AG41" s="12" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>55</v>
+      <c r="A42" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C42" s="13">
         <v>2021</v>
       </c>
-      <c r="D42" s="67" t="s">
-        <v>40</v>
+      <c r="D42" s="64" t="s">
+        <v>28</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>277</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="13">
-        <v>51</v>
+        <v>137</v>
+      </c>
+      <c r="G42" s="90">
+        <v>1241</v>
       </c>
       <c r="H42" s="11">
-        <v>39</v>
-      </c>
-      <c r="I42" s="59">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="I42" s="56">
+        <v>21</v>
       </c>
       <c r="J42" s="18">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="K42" s="13">
         <v>2050</v>
       </c>
       <c r="L42" s="12">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="M42" s="12">
         <v>2050</v>
       </c>
       <c r="N42" s="9">
-        <v>2022</v>
-      </c>
-      <c r="O42" s="14">
+        <v>2010</v>
+      </c>
+      <c r="O42" s="12">
         <v>2050</v>
       </c>
       <c r="P42" s="12"/>
@@ -6041,1104 +6044,1096 @@
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="W42" s="9" t="s">
+      <c r="U42" s="14"/>
+      <c r="V42" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="W42" s="64" t="s">
         <v>41</v>
       </c>
       <c r="X42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Y42" s="27" t="s">
+      <c r="Y42" s="6" t="s">
         <v>383</v>
       </c>
       <c r="Z42" s="6" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="AA42" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AB42" s="12" t="s">
         <v>170</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>206</v>
+        <v>294</v>
       </c>
       <c r="AD42" s="9" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF42" s="12"/>
+        <v>196</v>
+      </c>
+      <c r="AF42" s="20"/>
       <c r="AG42" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="28" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C43" s="27">
+    <row r="43" spans="1:33" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="59">
+        <v>2023</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="51">
+        <v>127</v>
+      </c>
+      <c r="H43" s="55"/>
+      <c r="I43" s="24">
+        <v>18.8333333333333</v>
+      </c>
+      <c r="J43" s="61">
+        <v>2015</v>
+      </c>
+      <c r="K43" s="52">
+        <v>2050</v>
+      </c>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="47"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="W43" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X43" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y43" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z43" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA43" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB43" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC43" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD43" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE43" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="27" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="13">
         <v>2021</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="34">
-        <v>7662</v>
-      </c>
-      <c r="H43" s="24">
-        <v>6</v>
-      </c>
-      <c r="I43" s="59">
-        <v>50</v>
-      </c>
-      <c r="J43" s="35">
-        <v>2018</v>
-      </c>
-      <c r="K43" s="27">
-        <v>2030</v>
-      </c>
-      <c r="L43" s="31">
-        <v>2018</v>
-      </c>
-      <c r="M43" s="31">
-        <v>2030</v>
-      </c>
-      <c r="N43" s="27">
-        <v>2018</v>
-      </c>
-      <c r="O43" s="27">
-        <v>2030</v>
-      </c>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="W43" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="X43" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y43" s="27" t="s">
+      <c r="D44" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="13">
+        <v>51</v>
+      </c>
+      <c r="H44" s="11">
+        <v>39</v>
+      </c>
+      <c r="I44" s="56">
+        <v>15</v>
+      </c>
+      <c r="J44" s="18">
+        <v>2022</v>
+      </c>
+      <c r="K44" s="13">
+        <v>2050</v>
+      </c>
+      <c r="L44" s="12">
+        <v>2022</v>
+      </c>
+      <c r="M44" s="12">
+        <v>2050</v>
+      </c>
+      <c r="N44" s="9">
+        <v>2022</v>
+      </c>
+      <c r="O44" s="14">
+        <v>2050</v>
+      </c>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y44" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z43" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA43" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB43" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC43" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD43" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE43" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" s="28" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="14">
-        <v>2012</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="6">
-        <v>503</v>
-      </c>
-      <c r="H44" s="11">
-        <v>31</v>
-      </c>
-      <c r="I44" s="59">
-        <v>38</v>
-      </c>
-      <c r="J44" s="48">
-        <v>2005</v>
-      </c>
-      <c r="K44" s="6">
-        <v>2050</v>
-      </c>
-      <c r="L44" s="14">
-        <v>2005</v>
-      </c>
-      <c r="M44" s="14">
-        <v>2050</v>
-      </c>
-      <c r="N44" s="9">
-        <v>2005</v>
-      </c>
-      <c r="O44" s="6">
-        <v>2050</v>
-      </c>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="W44" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X44" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y44" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="Z44" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA44" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA44" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB44" s="12" t="s">
         <v>170</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="AD44" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF44" s="21"/>
+        <v>209</v>
+      </c>
+      <c r="AF44" s="12"/>
       <c r="AG44" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="26">
-        <v>2021</v>
-      </c>
-      <c r="D45" s="74" t="s">
-        <v>79</v>
+    <row r="45" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>32</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="75">
-        <v>3820</v>
-      </c>
-      <c r="H45" s="24">
+        <v>277</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="68">
+        <v>63.26</v>
+      </c>
+      <c r="H45" s="11">
+        <v>37</v>
+      </c>
+      <c r="I45" s="56">
         <v>16</v>
       </c>
-      <c r="I45" s="25">
-        <v>39.8333333333333</v>
-      </c>
-      <c r="J45" s="35">
-        <v>2015</v>
-      </c>
-      <c r="K45" s="26">
-        <v>2050</v>
-      </c>
-      <c r="L45" s="21">
-        <v>2015</v>
-      </c>
-      <c r="M45" s="21">
-        <v>2050</v>
-      </c>
-      <c r="N45" s="36">
-        <v>2015</v>
-      </c>
-      <c r="O45" s="31">
-        <v>2050</v>
-      </c>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="W45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="X45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y45" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z45" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA45" s="21" t="s">
+      <c r="J45" s="18">
+        <v>2011</v>
+      </c>
+      <c r="K45" s="6">
+        <v>2154</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="14">
+        <v>2011</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>2050</v>
+      </c>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y45" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA45" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AB45" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC45" s="36" t="s">
+      <c r="AB45" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC45" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="AD45" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE45" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF45" s="21"/>
+      <c r="AD45" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE45" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF45" s="12"/>
       <c r="AG45" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:33" s="15" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="C46" s="62">
-        <v>2023</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="G46" s="53">
-        <v>7821</v>
-      </c>
-      <c r="H46" s="58"/>
-      <c r="I46" s="59">
-        <v>56</v>
-      </c>
-      <c r="J46" s="64">
-        <v>2020</v>
-      </c>
-      <c r="K46" s="54">
-        <v>2100</v>
-      </c>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="W46" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X46" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y46" s="6" t="s">
+      <c r="A46" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="30">
+        <v>2012</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="26">
+        <v>3</v>
+      </c>
+      <c r="H46" s="23">
+        <v>48</v>
+      </c>
+      <c r="I46" s="24">
+        <v>1</v>
+      </c>
+      <c r="J46" s="34">
+        <v>2010</v>
+      </c>
+      <c r="K46" s="26">
+        <v>2040</v>
+      </c>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="30">
+        <v>2010</v>
+      </c>
+      <c r="Q46" s="30">
+        <v>2040</v>
+      </c>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="W46" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="X46" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA46" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB46" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC46" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD46" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE46" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="27" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="22">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="22">
+        <v>39.4</v>
+      </c>
+      <c r="H47" s="23">
+        <v>40</v>
+      </c>
+      <c r="I47" s="56">
+        <v>9</v>
+      </c>
+      <c r="J47" s="24">
+        <v>2018</v>
+      </c>
+      <c r="K47" s="22">
+        <v>2050</v>
+      </c>
+      <c r="L47" s="30">
+        <v>2018</v>
+      </c>
+      <c r="M47" s="30">
+        <v>2050</v>
+      </c>
+      <c r="N47" s="22">
+        <v>2018</v>
+      </c>
+      <c r="O47" s="26">
+        <v>2050</v>
+      </c>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="W47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X47" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y47" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="Z46" s="52" t="s">
+      <c r="Z47" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA47" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB47" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC47" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD47" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE47" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" s="15" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="13">
+        <v>2019</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="H48" s="11">
+        <v>45</v>
+      </c>
+      <c r="I48" s="56">
+        <v>5.8333333333333304</v>
+      </c>
+      <c r="J48" s="18">
+        <v>2010</v>
+      </c>
+      <c r="K48" s="13">
+        <v>2050</v>
+      </c>
+      <c r="L48" s="12">
+        <v>2010</v>
+      </c>
+      <c r="M48" s="12">
+        <v>2050</v>
+      </c>
+      <c r="N48" s="16">
+        <v>2010</v>
+      </c>
+      <c r="O48" s="12">
+        <v>2050</v>
+      </c>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="W48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y48" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z48" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AA46" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB46" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC46" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD46" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE46" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" s="28" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="16">
-        <v>2023</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="16">
-        <v>100</v>
-      </c>
-      <c r="H47" s="11">
-        <v>33</v>
-      </c>
-      <c r="I47" s="59">
-        <v>12</v>
-      </c>
-      <c r="J47" s="11">
-        <v>2017</v>
-      </c>
-      <c r="K47" s="16">
-        <v>2060</v>
-      </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="12">
-        <v>2017</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>2030</v>
-      </c>
-      <c r="R47" s="12">
-        <v>2060</v>
-      </c>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y47" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z47" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA47" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB47" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC47" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD47" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE47" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="27">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="27">
-        <v>39.4</v>
-      </c>
-      <c r="H48" s="24">
-        <v>40</v>
-      </c>
-      <c r="I48" s="59">
-        <v>9</v>
-      </c>
-      <c r="J48" s="35">
-        <v>2018</v>
-      </c>
-      <c r="K48" s="27">
-        <v>2050</v>
-      </c>
-      <c r="L48" s="31">
-        <v>2018</v>
-      </c>
-      <c r="M48" s="31">
-        <v>2050</v>
-      </c>
-      <c r="N48" s="23">
-        <v>2018</v>
-      </c>
-      <c r="O48" s="27">
-        <v>2050</v>
-      </c>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="W48" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="X48" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y48" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z48" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA48" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB48" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC48" s="23" t="s">
+      <c r="AA48" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB48" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC48" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="AD48" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE48" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF48" s="21"/>
+      <c r="AD48" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE48" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF48" s="12"/>
       <c r="AG48" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="28" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="B49" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="36">
-        <v>2023</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="89">
-        <v>4680</v>
-      </c>
-      <c r="H49" s="24">
-        <v>14</v>
-      </c>
-      <c r="I49" s="59">
-        <v>41.8333333333333</v>
-      </c>
-      <c r="J49" s="89">
+    <row r="49" spans="1:33" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="38">
+        <v>2015</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="9">
+        <v>10</v>
+      </c>
+      <c r="H49" s="11">
+        <v>47</v>
+      </c>
+      <c r="I49" s="24">
+        <v>3.8333333333333299</v>
+      </c>
+      <c r="J49" s="81">
         <v>2010</v>
       </c>
-      <c r="K49" s="36">
-        <v>2040</v>
-      </c>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="36">
+      <c r="K49" s="9">
+        <v>2050</v>
+      </c>
+      <c r="L49" s="14">
         <v>2010</v>
       </c>
-      <c r="O49" s="31">
-        <v>2040</v>
-      </c>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31">
-        <v>2040</v>
-      </c>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="27"/>
+      <c r="M49" s="14">
+        <v>2050</v>
+      </c>
+      <c r="N49" s="9">
+        <v>2010</v>
+      </c>
+      <c r="O49" s="6">
+        <v>2050</v>
+      </c>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
       <c r="V49" s="38" t="s">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="W49" s="38" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="X49" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y49" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z49" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA49" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y49" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA49" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="AB49" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC49" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD49" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE49" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF49" s="21"/>
+      <c r="AB49" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC49" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE49" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF49" s="20"/>
       <c r="AG49" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="50" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="6">
+    <row r="50" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="59">
+        <v>2023</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E50" s="80" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="51">
+        <v>6</v>
+      </c>
+      <c r="H50" s="52"/>
+      <c r="I50" s="56">
+        <v>2</v>
+      </c>
+      <c r="J50" s="61">
+        <v>2016</v>
+      </c>
+      <c r="K50" s="52">
+        <v>2050</v>
+      </c>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="W50" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="X50" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y50" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z50" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA50" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB50" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC50" s="58" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD50" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE50" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF50" s="47"/>
+      <c r="AG50" s="47" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" s="48" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="13">
+        <v>2023</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="13">
+        <v>100</v>
+      </c>
+      <c r="H51" s="18">
+        <v>33</v>
+      </c>
+      <c r="I51" s="56">
+        <v>12</v>
+      </c>
+      <c r="J51" s="18">
+        <v>2017</v>
+      </c>
+      <c r="K51" s="13">
+        <v>2060</v>
+      </c>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="12">
+        <v>2017</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>2030</v>
+      </c>
+      <c r="R51" s="12">
+        <v>2060</v>
+      </c>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y51" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB51" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE51" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C52" s="30">
+        <v>2013</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="33">
+        <v>6970</v>
+      </c>
+      <c r="H52" s="33">
+        <v>12</v>
+      </c>
+      <c r="I52" s="56">
+        <v>45</v>
+      </c>
+      <c r="J52" s="34">
+        <v>2010</v>
+      </c>
+      <c r="K52" s="26">
+        <v>2030</v>
+      </c>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="22">
+        <v>2010</v>
+      </c>
+      <c r="O52" s="26">
+        <v>2030</v>
+      </c>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30">
+        <v>2030</v>
+      </c>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="W52" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="X52" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y52" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z52" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA52" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB52" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC52" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD52" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE52" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" s="48" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="26">
         <v>2021</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D53" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E53" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F53" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="48">
-        <v>7821</v>
-      </c>
-      <c r="H50" s="18">
-        <v>3</v>
-      </c>
-      <c r="I50" s="59">
-        <v>53</v>
-      </c>
-      <c r="J50" s="18">
-        <v>2020</v>
-      </c>
-      <c r="K50" s="6">
-        <v>2050</v>
-      </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="5">
-        <v>2020</v>
-      </c>
-      <c r="O50" s="14">
-        <v>2050</v>
-      </c>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12">
+      <c r="G53" s="33">
+        <v>7662</v>
+      </c>
+      <c r="H53" s="33">
+        <v>6</v>
+      </c>
+      <c r="I53" s="56">
+        <v>50</v>
+      </c>
+      <c r="J53" s="34">
+        <v>2018</v>
+      </c>
+      <c r="K53" s="26">
         <v>2030</v>
       </c>
-      <c r="R50" s="12">
-        <v>2050</v>
-      </c>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="W50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y50" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z50" s="6" t="s">
+      <c r="L53" s="30">
+        <v>2018</v>
+      </c>
+      <c r="M53" s="30">
+        <v>2030</v>
+      </c>
+      <c r="N53" s="22">
+        <v>2018</v>
+      </c>
+      <c r="O53" s="26">
+        <v>2030</v>
+      </c>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="W53" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="X53" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y53" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z53" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="AA50" s="12" t="s">
+      <c r="AA53" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="AB50" s="12" t="s">
+      <c r="AB53" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="AC50" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD50" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE50" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="26">
-        <v>2018</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="75">
-        <v>7821</v>
-      </c>
-      <c r="H51" s="34">
-        <v>4</v>
-      </c>
-      <c r="I51" s="25">
-        <v>52</v>
-      </c>
-      <c r="J51" s="35">
-        <v>2020</v>
-      </c>
-      <c r="K51" s="26">
-        <v>2050</v>
-      </c>
-      <c r="L51" s="21">
-        <v>2020</v>
-      </c>
-      <c r="M51" s="21">
-        <v>2050</v>
-      </c>
-      <c r="N51" s="23">
-        <v>2020</v>
-      </c>
-      <c r="O51" s="31">
-        <v>2050</v>
-      </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="21">
-        <v>2030</v>
-      </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="W51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="X51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y51" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z51" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA51" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB51" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="AC51" s="23" t="s">
+      <c r="AC53" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD51" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE51" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" s="50" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="B52" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52" s="62">
-        <v>2023</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="F52" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="53">
-        <v>1380</v>
-      </c>
-      <c r="H52" s="54"/>
-      <c r="I52" s="59">
-        <v>31</v>
-      </c>
-      <c r="J52" s="64">
-        <v>2015</v>
-      </c>
-      <c r="K52" s="54">
-        <v>2060</v>
-      </c>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="49"/>
-      <c r="Q52" s="49"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="54"/>
-      <c r="V52" s="54" t="s">
-        <v>356</v>
-      </c>
-      <c r="W52" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X52" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y52" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z52" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA52" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB52" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC52" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD52" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE52" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF52" s="49"/>
-      <c r="AG52" s="49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" s="50" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="13">
-        <v>2019</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="6">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="H53" s="18">
-        <v>45</v>
-      </c>
-      <c r="I53" s="59">
-        <v>5.8333333333333304</v>
-      </c>
-      <c r="J53" s="18">
-        <v>2010</v>
-      </c>
-      <c r="K53" s="13">
-        <v>2050</v>
-      </c>
-      <c r="L53" s="12">
-        <v>2010</v>
-      </c>
-      <c r="M53" s="12">
-        <v>2050</v>
-      </c>
-      <c r="N53" s="16">
-        <v>2010</v>
-      </c>
-      <c r="O53" s="12">
-        <v>2050</v>
-      </c>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="W53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y53" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z53" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA53" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB53" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC53" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD53" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE53" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF53" s="12"/>
+      <c r="AD53" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE53" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF53" s="20"/>
       <c r="AG53" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="50" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="C54" s="62">
+    <row r="54" spans="1:33" s="48" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" s="59">
         <v>2023</v>
       </c>
-      <c r="D54" s="51" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="62" t="s">
-        <v>279</v>
-      </c>
-      <c r="F54" s="53" t="s">
+      <c r="D54" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" s="51">
+        <v>7821</v>
+      </c>
+      <c r="H54" s="52"/>
+      <c r="I54" s="56">
+        <v>56</v>
+      </c>
+      <c r="J54" s="61">
+        <v>2020</v>
+      </c>
+      <c r="K54" s="52">
+        <v>2100</v>
+      </c>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="47"/>
+      <c r="T54" s="47"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="W54" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="X54" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y54" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z54" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA54" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB54" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC54" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD54" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE54" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF54" s="47"/>
+      <c r="AG54" s="47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" s="48" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G54" s="53">
-        <v>6</v>
-      </c>
-      <c r="H54" s="54"/>
-      <c r="I54" s="59">
-        <v>2</v>
-      </c>
-      <c r="J54" s="64">
-        <v>2016</v>
-      </c>
-      <c r="K54" s="54">
-        <v>2050</v>
-      </c>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="49"/>
-      <c r="Q54" s="49"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="49"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="W54" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="X54" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y54" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z54" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA54" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB54" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC54" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD54" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE54" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF54" s="49"/>
-      <c r="AG54" s="49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" s="50" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D55" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F55" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="G55" s="71">
-        <v>63.26</v>
+      <c r="G55" s="46">
+        <v>7821</v>
       </c>
       <c r="H55" s="18">
-        <v>37</v>
-      </c>
-      <c r="I55" s="59">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="I55" s="56">
+        <v>53</v>
       </c>
       <c r="J55" s="18">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="K55" s="6">
-        <v>2154</v>
+        <v>2050</v>
       </c>
       <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="14">
-        <v>2011</v>
-      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" s="5">
+        <v>2020</v>
+      </c>
+      <c r="O55" s="14">
+        <v>2050</v>
+      </c>
+      <c r="P55" s="12"/>
       <c r="Q55" s="12">
-        <v>2050</v>
-      </c>
-      <c r="R55" s="12"/>
+        <v>2030</v>
+      </c>
+      <c r="R55" s="12">
+        <v>2050</v>
+      </c>
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14" t="s">
-        <v>66</v>
+      <c r="U55" s="12"/>
+      <c r="V55" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="W55" s="6" t="s">
         <v>41</v>
@@ -7146,111 +7141,119 @@
       <c r="X55" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Y55" s="27" t="s">
-        <v>384</v>
+      <c r="Y55" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="Z55" s="6" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="AA55" s="12" t="s">
         <v>172</v>
       </c>
       <c r="AB55" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC55" s="5" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AE55" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF55" s="12"/>
+        <v>221</v>
+      </c>
+      <c r="AF55" s="20"/>
       <c r="AG55" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:33" s="50" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="31">
-        <v>2012</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G56" s="27">
-        <v>3</v>
-      </c>
-      <c r="H56" s="34">
-        <v>48</v>
-      </c>
-      <c r="I56" s="25">
-        <v>1</v>
-      </c>
-      <c r="J56" s="35">
-        <v>2010</v>
-      </c>
-      <c r="K56" s="27">
-        <v>2040</v>
-      </c>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="31">
-        <v>2010</v>
-      </c>
-      <c r="Q56" s="31">
-        <v>2040</v>
-      </c>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="W56" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="X56" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="27" t="s">
+    <row r="56" spans="1:33" s="48" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="25">
+        <v>2018</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="70">
+        <v>7821</v>
+      </c>
+      <c r="H56" s="33">
+        <v>4</v>
+      </c>
+      <c r="I56" s="24">
+        <v>52</v>
+      </c>
+      <c r="J56" s="34">
+        <v>2020</v>
+      </c>
+      <c r="K56" s="25">
+        <v>2050</v>
+      </c>
+      <c r="L56" s="20">
+        <v>2020</v>
+      </c>
+      <c r="M56" s="20">
+        <v>2050</v>
+      </c>
+      <c r="N56" s="22">
+        <v>2020</v>
+      </c>
+      <c r="O56" s="30">
+        <v>2050</v>
+      </c>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="20">
+        <v>2030</v>
+      </c>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="W56" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X56" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y56" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z56" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="AA56" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB56" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC56" s="23" t="s">
+      <c r="AA56" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB56" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC56" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="AD56" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE56" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF56" s="12"/>
+      <c r="AD56" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE56" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF56" s="20"/>
       <c r="AG56" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7292,199 +7295,199 @@
     <col min="32" max="32" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="78" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:32" s="72" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="N1" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="O1" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="P1" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="78" t="s">
+      <c r="S1" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="T1" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="U1" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="78" t="s">
+      <c r="V1" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="78" t="s">
+      <c r="W1" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="78" t="s">
+      <c r="X1" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="Y1" s="78" t="s">
+      <c r="Y1" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="78" t="s">
+      <c r="Z1" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="AA1" s="78" t="s">
+      <c r="AA1" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" s="78" t="s">
+      <c r="AB1" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="AC1" s="78" t="s">
+      <c r="AC1" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="AD1" s="78" t="s">
+      <c r="AD1" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="AE1" s="78" t="s">
+      <c r="AE1" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="AF1" s="78" t="s">
+      <c r="AF1" s="72" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="78" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:32" s="72" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="71" t="s">
         <v>369</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="72" t="s">
         <v>370</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="78" t="s">
+      <c r="U2" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="V2" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="X2" s="78" t="s">
+      <c r="X2" s="72" t="s">
         <v>372</v>
       </c>
-      <c r="Y2" s="78" t="s">
+      <c r="Y2" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="Z2" s="78" t="s">
+      <c r="Z2" s="72" t="s">
         <v>375</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AA2" s="72" t="s">
         <v>376</v>
       </c>
-      <c r="AB2" s="78" t="s">
+      <c r="AB2" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="AD2" s="78" t="s">
+      <c r="AD2" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="AE2" s="78" t="s">
+      <c r="AE2" s="72" t="s">
         <v>380</v>
       </c>
-      <c r="AF2" s="78" t="s">
+      <c r="AF2" s="72" t="s">
         <v>381</v>
       </c>
     </row>
